--- a/PaediatricDosage.xlsx
+++ b/PaediatricDosage.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>Fluid  Requirement</t>
   </si>
@@ -239,6 +239,47 @@
   </si>
   <si>
     <t>Meningitis</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Tab.</t>
+  </si>
+  <si>
+    <t>Inj.</t>
+  </si>
+  <si>
+    <t>Acyclovir</t>
+  </si>
+  <si>
+    <t>10 mg/kg/dose, 8hrly, I/V in 100 ml DA within 1 hr
+or
+20 mg/kg/dose, 5 times daily, for 5 days, orally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inj. Zovirux(250mg/10ml),
+Tab. Virux (200 mg, 100mg),
+Syp. Virux (200 mg, 5 ml)
+1 tsf = 200 mg
+</t>
+  </si>
+  <si>
+    <t>Antibiotic:</t>
+  </si>
+  <si>
+    <t>Generic 
+name</t>
+  </si>
+  <si>
+    <t>Ampicillin</t>
+  </si>
+  <si>
+    <t>200 mg/kg/day
+12 hourly</t>
+  </si>
+  <si>
+    <t>Neonate: 100 -200</t>
   </si>
 </sst>
 </file>
@@ -303,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,18 +361,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -345,20 +374,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -678,147 +725,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>60</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="11">
         <v>80</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="11">
         <v>100</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="11">
         <v>120</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="11">
         <v>140</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="11">
         <v>150</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -884,21 +931,21 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
@@ -934,14 +981,22 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A26:C28"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="B3:C3"/>
@@ -952,14 +1007,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A26:C28"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -968,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,57 +1032,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="13"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1091,27 +1138,29 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="8" t="s">
         <v>68</v>
       </c>
@@ -1121,19 +1170,114 @@
       <c r="D24" t="s">
         <v>70</v>
       </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:C5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PaediatricDosage.xlsx
+++ b/PaediatricDosage.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="345">
   <si>
     <t>Fluid  Requirement</t>
   </si>
@@ -935,12 +936,397 @@
     <t>Tab. 200 mg,
 60 mg</t>
   </si>
+  <si>
+    <t>Phenytoin</t>
+  </si>
+  <si>
+    <t>15 - 20 mg/kg, I/V,
+mixed with N/S</t>
+  </si>
+  <si>
+    <t>Neonate: 5 - 6 mg/kg/day, 12 - 24 
+hours, IV or oral 
+Children: 10 mg/kg/day, 12 - 24 hours IV or oral</t>
+  </si>
+  <si>
+    <t>Syp</t>
+  </si>
+  <si>
+    <t>Carbamazepine</t>
+  </si>
+  <si>
+    <t>10 mg/kg/day, 12 hourly</t>
+  </si>
+  <si>
+    <t>Tab.
+200 mg</t>
+  </si>
+  <si>
+    <t>1 tsf = 
+100 mg</t>
+  </si>
+  <si>
+    <t>Valproic acid/
+Sodium valproate</t>
+  </si>
+  <si>
+    <t>10 - 15 mg/kg/day,
+8 hourly</t>
+  </si>
+  <si>
+    <t>1 tsf = 
+200 mg</t>
+  </si>
+  <si>
+    <t>Clonazepam</t>
+  </si>
+  <si>
+    <t>0.01 mg - 0.3 mg/kg/day, 8 - 12 hourly, oral
+Increase by 0.5 mg/day for 3 - 5 days (maximum
+0.3 mg/kg/day)</t>
+  </si>
+  <si>
+    <t>Tab.
+0.5 mg,
+2 mg</t>
+  </si>
+  <si>
+    <t>Anti emetics:</t>
+  </si>
+  <si>
+    <t>Domperidone</t>
+  </si>
+  <si>
+    <t>0.2 - 0.4 mg/kg/dose, 4 - 8 hourly (B/M)</t>
+  </si>
+  <si>
+    <t>Tab. 10 mg</t>
+  </si>
+  <si>
+    <t>Syp. 60 ml
+5 mg/5 ml (1 tsf)
+1 amp = 2 ml = 10 mg
+Pedi drop 15 mg
+(1 ml = 5 mg)</t>
+  </si>
+  <si>
+    <t>Prochlorperazine</t>
+  </si>
+  <si>
+    <t>0.4 mg/kg/day, 8 hourly, oral
+0.1 - 0.15 mg/kg/day, I/M, 8 - 12 hourly</t>
+  </si>
+  <si>
+    <t>1 amp. 12.5 mg</t>
+  </si>
+  <si>
+    <t>Anti psychotic:</t>
+  </si>
+  <si>
+    <t>Chlorpromazine</t>
+  </si>
+  <si>
+    <t>Oral: 0.5 - 1mg/kg/dose, 6 hourly
+0.5 - 1 mg/kg/dose, 8 hourly, I/V or I/M
+Children &lt;6 months not recommended</t>
+  </si>
+  <si>
+    <t>Tab. 25 mg,
+50 mg,
+100 mg</t>
+  </si>
+  <si>
+    <t>Inj. 50 mg/2 ml</t>
+  </si>
+  <si>
+    <t>Haloperidol</t>
+  </si>
+  <si>
+    <t>3 - 12 years: 0.25 - 0.5 mg/kg/day, 
+12 hourly, oral
+6 -12 years: 1 - 3 mg/dose, 4 - 8 hourly, I/M</t>
+  </si>
+  <si>
+    <t>Inj. 5 mg/ml</t>
+  </si>
+  <si>
+    <t>Others:</t>
+  </si>
+  <si>
+    <t>Frusemide</t>
+  </si>
+  <si>
+    <t>1 - 2 mg/kg/dose, single dose or 6 hourly
+1 - 4 mg/kg/dose, single dose or 6 hourly
+For force diuresis, 10 mg/kg, stat</t>
+  </si>
+  <si>
+    <t>Tab. 40 mg</t>
+  </si>
+  <si>
+    <t>Inj. 20mg/ 10 ml
+Inj. Lasix = wtx0.1 ml</t>
+  </si>
+  <si>
+    <t>Aminophyline</t>
+  </si>
+  <si>
+    <t>Loading: 6 mg/kg/dose
+Maintenance: 1mg/kg/hour, 8 hourly
+All dose must be diluted with equal 
+amount of water.</t>
+  </si>
+  <si>
+    <t>Inj. 125 mg/5 ml</t>
+  </si>
+  <si>
+    <t>Theophylline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - 20 mg/kg/day, 6 - 8 hourly
+Apnoea: Loading dose: 6 - 10 mg/kg
+Maintenance: 4 mg/kg/dose, 12 hourly
+</t>
+  </si>
+  <si>
+    <t>Salbutamol</t>
+  </si>
+  <si>
+    <t>0.2 - 0.4 mg/kg/day
+Nebulisation dose: 0.3 ml/kg/dose
+Saltolin 0.3 ml + N/S 2.7 ml ----give 8 hourly</t>
+  </si>
+  <si>
+    <t>Tab. 2 mg,
+4 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inj. 1 ml = 5 mg
+Suspension:
+1 tsf = 2 mg = 5 ml
+</t>
+  </si>
+  <si>
+    <t>Amitryptyline</t>
+  </si>
+  <si>
+    <t>1 - 1.5 mg/kg/day, 8 hourly</t>
+  </si>
+  <si>
+    <t>Tab. 10 mg,
+25 mg</t>
+  </si>
+  <si>
+    <t>Allopurinol</t>
+  </si>
+  <si>
+    <t>10 mg/kg/day, 8 - 12 hourly</t>
+  </si>
+  <si>
+    <t>Adrenaline</t>
+  </si>
+  <si>
+    <t>0.1 ml/kg/dose, mixed with 9 ml DW, stat</t>
+  </si>
+  <si>
+    <t>Inj. 1mg/ml</t>
+  </si>
+  <si>
+    <t>Hydrocortisone</t>
+  </si>
+  <si>
+    <t>3 - 4 mg/kg/dose, 6 hourly
+In shock: 50 mg/kg/dose, 6 hourly</t>
+  </si>
+  <si>
+    <t>Inj. 100 mg/2 ml
+Inj. Cotson
+= wt x 0.1 ml</t>
+  </si>
+  <si>
+    <t>Albumin</t>
+  </si>
+  <si>
+    <t>0.5 - 1 gm/kg/dose</t>
+  </si>
+  <si>
+    <t>Dexamethasone</t>
+  </si>
+  <si>
+    <t>0.15 mg/kg/day, 8 hourly</t>
+  </si>
+  <si>
+    <t>Tab. 0.5 mg</t>
+  </si>
+  <si>
+    <t>Prednisolone</t>
+  </si>
+  <si>
+    <t>Tab. 5 mg,
+10 mg,
+20 mg</t>
+  </si>
+  <si>
+    <r>
+      <t>1 - 2 mg/kg/day, 6 - 12 hourly
+Nephrotic syndrome: 60 mg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2, for 6 weeks
+Then, 40 mg/m2, every alternate day,
+for 6 weeks [single morning dose]</t>
+    </r>
+  </si>
+  <si>
+    <t>Cyclophosphamide</t>
+  </si>
+  <si>
+    <t>Indication: Frequent relapse of Nephrotic Syndrome
+Steroid resistant nephrotic syndrome
+3 mg/kg/day as a single dose for 12 weeks
+Alternatively prednisolone therapy
+(0.5 mg/kg/day) for 1 year</t>
+  </si>
+  <si>
+    <t>Tab. 50 mg</t>
+  </si>
+  <si>
+    <t>Inj. 250 mg,
+500 mg, 1gm/vial</t>
+  </si>
+  <si>
+    <t>Paracetamol</t>
+  </si>
+  <si>
+    <t>15 mg/kg/dose, 4 - 6 hourly</t>
+  </si>
+  <si>
+    <t>Tab.
+500 mg</t>
+  </si>
+  <si>
+    <t>Susp. 1 tsf = 120 mg
+Pedi drop
+(80 mg/ 15 drops)</t>
+  </si>
+  <si>
+    <t>Naproxen</t>
+  </si>
+  <si>
+    <t>10 - 20 mg/kg/day, 8 - 12 hourly,
+oral. Under 5 years not recommended</t>
+  </si>
+  <si>
+    <t>Tab.
+250 mg,
+500 mg</t>
+  </si>
+  <si>
+    <t>Susp. 
+125 mg/5ml</t>
+  </si>
+  <si>
+    <t>Ibuprofen</t>
+  </si>
+  <si>
+    <t>5 - 10 mg/kg/dose, 6 - 8 hourly
+or half tsf 8 hourly</t>
+  </si>
+  <si>
+    <t>Tab. 200 mg
+500 mg</t>
+  </si>
+  <si>
+    <t>Susp. 100 mg/tsf</t>
+  </si>
+  <si>
+    <t>Aspirin</t>
+  </si>
+  <si>
+    <t>30 - 60 mg/kg/day, 4 divided doses
+In JRA: 60 - 100 mg/kg/day, 4 divided doses
+RF 100 mg/kg/day 3 - 5 days
+Then 75 mg/kg/day
+Then tapering</t>
+  </si>
+  <si>
+    <t>Tab. 75 mg,
+300 mg</t>
+  </si>
+  <si>
+    <t>Mannitol</t>
+  </si>
+  <si>
+    <t>5 - 7.5 ml/kg/day within half hour</t>
+  </si>
+  <si>
+    <t>Ranitidine</t>
+  </si>
+  <si>
+    <t>2 - 4 mg/kg/day, 12 hourly</t>
+  </si>
+  <si>
+    <t>Tab. 150 mg</t>
+  </si>
+  <si>
+    <t>Syp. 1tsf = 75 mg,
+Inj. 50mg/2ml</t>
+  </si>
+  <si>
+    <t>Omeprazole</t>
+  </si>
+  <si>
+    <t>0.6 - 0.7 mg/kg/day, 12 - 24 hourly</t>
+  </si>
+  <si>
+    <t>Cap. 20 mg,
+40 mg</t>
+  </si>
+  <si>
+    <t>Digoxin</t>
+  </si>
+  <si>
+    <t>Children &lt;2 years: 0.04mg/kg/dose
+Children &gt;2 years: 0.04 - 0.06 mg/kg/dose
+Preterm newborn: 0.02 mg/kg/dose
+Fullterm newborn: 0.03 mg/kg/dose</t>
+  </si>
+  <si>
+    <t>Tab. 0.25 mg</t>
+  </si>
+  <si>
+    <t>Inj. 0.5 mg/2 ml</t>
+  </si>
+  <si>
+    <t>Zinc sulfate</t>
+  </si>
+  <si>
+    <t>2 - 3 mg/kg/day
+Wt &lt; 10 kg, &lt; 6 month, 1/2 tsf, 12 hourly</t>
+  </si>
+  <si>
+    <t>1 tsf = 10 mg</t>
+  </si>
+  <si>
+    <t>Potassium
+chloride</t>
+  </si>
+  <si>
+    <t>4 - 8 mmol/kg/day, 8 hourly
+Wt &lt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -990,6 +1376,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1011,44 +1403,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1087,9 +1443,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1098,11 +1451,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1392,160 +1793,160 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" style="13"/>
-    <col min="2" max="2" width="18.7109375" style="14"/>
+    <col min="1" max="1" width="39.28515625" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="2"/>
     <col min="3" max="3" width="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="20">
         <v>60</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="20">
         <v>80</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="20">
         <v>100</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="20">
         <v>120</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="20">
         <v>140</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="20">
         <v>150</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
@@ -1553,79 +1954,79 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
@@ -1633,10 +2034,10 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" t="s">
@@ -1644,10 +2045,10 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C31" t="s">
@@ -1655,14 +2056,24 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="A26:C28"/>
     <mergeCell ref="A33:C33"/>
@@ -1671,16 +2082,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1706,57 +2107,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="24"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="25" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="6"/>
+      <c r="A12" s="25"/>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
@@ -1812,30 +2213,30 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5"/>
+      <c r="A22" s="21"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C24" t="s">
@@ -1852,32 +2253,32 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="66.75" customHeight="1">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:C5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1895,188 +2296,188 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="22"/>
-    <col min="2" max="2" width="21.42578125" style="22"/>
-    <col min="3" max="3" width="17.28515625" style="22"/>
-    <col min="4" max="5" width="20.140625" style="22"/>
-    <col min="6" max="6" width="17.140625" style="22"/>
-    <col min="7" max="1025" width="9.28515625" style="22"/>
+    <col min="1" max="1" width="14.85546875" style="10"/>
+    <col min="2" max="2" width="21.42578125" style="10"/>
+    <col min="3" max="3" width="17.28515625" style="10"/>
+    <col min="4" max="5" width="20.140625" style="10"/>
+    <col min="6" max="6" width="17.140625" style="10"/>
+    <col min="7" max="1025" width="9.28515625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="25"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34.9" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45.95" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="22" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D8"/>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.65" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="24" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="12" t="s">
         <v>95</v>
       </c>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" ht="90">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D10"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" ht="182.25" customHeight="1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="12" t="s">
         <v>105</v>
       </c>
       <c r="D12"/>
@@ -2084,48 +2485,58 @@
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="12" t="s">
         <v>108</v>
       </c>
       <c r="D13"/>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="18"/>
       <c r="D14"/>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B7:D7"/>
@@ -2134,16 +2545,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2161,266 +2562,266 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="22"/>
-    <col min="2" max="2" width="21.42578125" style="22"/>
-    <col min="3" max="3" width="12" style="22"/>
-    <col min="4" max="4" width="18.140625" style="22"/>
-    <col min="5" max="5" width="12.140625" style="22"/>
-    <col min="6" max="6" width="16.5703125" style="22"/>
-    <col min="7" max="1025" width="9.5703125" style="22"/>
+    <col min="1" max="1" width="16.28515625" style="10"/>
+    <col min="2" max="2" width="21.42578125" style="10"/>
+    <col min="3" max="3" width="12" style="10"/>
+    <col min="4" max="4" width="18.140625" style="10"/>
+    <col min="5" max="5" width="12.140625" style="10"/>
+    <col min="6" max="6" width="16.5703125" style="10"/>
+    <col min="7" max="1025" width="9.5703125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="25"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34.9" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="59.25" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45.95" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="12"/>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="61.5" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="24" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" customHeight="1">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="24" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="75">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="24" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="24" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="25" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" customHeight="1">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="22" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="12" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:F14"/>
@@ -2429,11 +2830,11 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2451,301 +2852,311 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="22"/>
-    <col min="2" max="2" width="21.42578125" style="22"/>
-    <col min="3" max="3" width="15" style="22" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="22"/>
-    <col min="5" max="5" width="12.140625" style="22"/>
-    <col min="6" max="6" width="19.7109375" style="22" customWidth="1"/>
-    <col min="7" max="1025" width="9.5703125" style="22"/>
+    <col min="1" max="1" width="16.28515625" style="10"/>
+    <col min="2" max="2" width="21.42578125" style="10"/>
+    <col min="3" max="3" width="15" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="10"/>
+    <col min="5" max="5" width="12.140625" style="10"/>
+    <col min="6" max="6" width="19.7109375" style="10" customWidth="1"/>
+    <col min="7" max="1025" width="9.5703125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34.9" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="59.25" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="24" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.95" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="F9" s="28" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="F9" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="F10" s="28" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="F10" s="15" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="10" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="15" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="22" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="15" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" customHeight="1">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="22" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="10" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="15" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="10" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="15" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
@@ -2754,16 +3165,6 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -2772,82 +3173,82 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK16"/>
+  <dimension ref="A1:AMK25"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13:F14"/>
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="22"/>
-    <col min="2" max="2" width="21.42578125" style="22"/>
-    <col min="3" max="3" width="12" style="22"/>
-    <col min="4" max="4" width="18.140625" style="22"/>
-    <col min="5" max="5" width="12.140625" style="22"/>
-    <col min="6" max="6" width="16.5703125" style="22"/>
-    <col min="7" max="1025" width="9.5703125" style="22"/>
+    <col min="1" max="1" width="16.28515625" style="10"/>
+    <col min="2" max="2" width="22" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12" style="10"/>
+    <col min="4" max="4" width="18.140625" style="10"/>
+    <col min="5" max="5" width="12.140625" style="10"/>
+    <col min="6" max="6" width="15.42578125" style="10" customWidth="1"/>
+    <col min="7" max="1025" width="9.5703125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34.9" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="15" t="s">
         <v>216</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -2855,146 +3256,301 @@
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="22" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45.95" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="22" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="27"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="10" t="s">
         <v>236</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="22" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="16" spans="1:6" ht="45" customHeight="1"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="60" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A17" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45.75" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="28"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="90">
+      <c r="A24" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A25" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E13:E14"/>
+  <mergeCells count="30">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A19:F21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -3004,11 +3560,12 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -3017,71 +3574,591 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK16"/>
+  <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="9.140625" style="22"/>
+    <col min="1" max="1" width="17.85546875" style="10" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="21.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="10" customWidth="1"/>
+    <col min="7" max="1025" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="48.75" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="64.5" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A6" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A9" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="29"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="48" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="61.5" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="F12" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="44.25" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="45" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="F17" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="F18" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="67.5" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="96.75" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A6:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK20"/>
+  <sheetViews>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15" style="14" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="14"/>
+    <col min="4" max="4" width="18.85546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="18" style="14" customWidth="1"/>
+    <col min="7" max="1025" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="13.9" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" s="14" customFormat="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F2" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34.9" customHeight="1"/>
-    <row r="5" spans="1:6" ht="46.5" customHeight="1"/>
-    <row r="6" spans="1:6" ht="59.25" customHeight="1"/>
-    <row r="7" spans="1:6" ht="45.95" customHeight="1"/>
-    <row r="9" spans="1:6" ht="61.5" customHeight="1"/>
-    <row r="12" spans="1:6" ht="35.25" customHeight="1"/>
-    <row r="13" spans="1:6" ht="30" customHeight="1"/>
-    <row r="14" spans="1:6" ht="45" customHeight="1"/>
-    <row r="16" spans="1:6" ht="45" customHeight="1"/>
+    <row r="3" spans="1:6" s="14" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="14" customFormat="1" ht="45" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="14" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="14" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="F7" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60.75" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="14" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="F11" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" s="14" customFormat="1" ht="45" customHeight="1">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" s="14" customFormat="1" ht="45" customHeight="1">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
+  <mergeCells count="21">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/PaediatricDosage.xlsx
+++ b/PaediatricDosage.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="395">
   <si>
     <t>Fluid  Requirement</t>
   </si>
@@ -1319,7 +1320,171 @@
   </si>
   <si>
     <t>4 - 8 mmol/kg/day, 8 hourly
-Wt &lt;</t>
+Wt &lt; 10 kg, &lt; 6 month, 1/2 tsf, 12 hourly
+wt &gt; 10 kg, &gt; 6 month, 1 tsf, 12 hourly</t>
+  </si>
+  <si>
+    <t>1 tsf = 10 mmol</t>
+  </si>
+  <si>
+    <t>Mebendazole</t>
+  </si>
+  <si>
+    <t>100 mg, 12 hourly</t>
+  </si>
+  <si>
+    <t>1 tsf = 100 mg</t>
+  </si>
+  <si>
+    <t>Pyrental pamoate</t>
+  </si>
+  <si>
+    <t>10 mg/kg/day, single dose</t>
+  </si>
+  <si>
+    <t>200 mg/tsf</t>
+  </si>
+  <si>
+    <t>Albendazole</t>
+  </si>
+  <si>
+    <t>1 - 2 year, 200 mg/day
+2 - 4 year, 400 mg/day</t>
+  </si>
+  <si>
+    <t>Spironolactone</t>
+  </si>
+  <si>
+    <t>Folic acid</t>
+  </si>
+  <si>
+    <t>0.2 mg/kg/day</t>
+  </si>
+  <si>
+    <t>Tab. 5mg</t>
+  </si>
+  <si>
+    <t>5 mg/tsf</t>
+  </si>
+  <si>
+    <t>Calcium gluconate</t>
+  </si>
+  <si>
+    <t>1 - 2 ml/kg/dose, I/V, repeate………..</t>
+  </si>
+  <si>
+    <t>Inj. 5ml/amp</t>
+  </si>
+  <si>
+    <t>Calcium salt</t>
+  </si>
+  <si>
+    <t>6 months: 400 mg/day
+6 months - 1 year: 600 mg/day
+1 year - 5 year: 800 mg/day</t>
+  </si>
+  <si>
+    <t>Vitamin A</t>
+  </si>
+  <si>
+    <t>&lt; 6 months: 1 cap, 6 months - 1 year 2 cap,
+&gt; 1 year: 4 cap; xerophthalmia, 
+Rx on D1, D2, D14</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Prophylaxis: 1 - 2 mg/kg/day
+Deficiency: 3 - 6 mg/kg/day</t>
+  </si>
+  <si>
+    <t>Vitamin B1</t>
+  </si>
+  <si>
+    <t>0.2 - 1 mg/kg/day, 12 hourly, oral or I/M</t>
+  </si>
+  <si>
+    <t>100 mg/ml/amp</t>
+  </si>
+  <si>
+    <t>Vitamin B2</t>
+  </si>
+  <si>
+    <t>2.5 - 10 mg/kg/day, 8 - 12 hourly</t>
+  </si>
+  <si>
+    <t>Vitamin B6</t>
+  </si>
+  <si>
+    <t>Deficiency: 5 - 15 mg/kg/day, oral 3 - 5 weeks, then 2.5 mg/day,
+Drug induced neuritis: 1 mg/kg/day</t>
+  </si>
+  <si>
+    <t>Tab. 20 mg</t>
+  </si>
+  <si>
+    <t>Vitamin D</t>
+  </si>
+  <si>
+    <t>3 - 6 lac unit, I/M , stat</t>
+  </si>
+  <si>
+    <t>Inj. 200000 IU</t>
+  </si>
+  <si>
+    <t>Vitamin C</t>
+  </si>
+  <si>
+    <t>100 - 300 mg/day</t>
+  </si>
+  <si>
+    <t>Tab. 250 mg</t>
+  </si>
+  <si>
+    <t>Syp. 100 mg/5 ml</t>
+  </si>
+  <si>
+    <t>Magnesium
+sulfate</t>
+  </si>
+  <si>
+    <t>0.3 ml/kg/dose, I/M, daily, for 3 days
+Then, if PEM, on next day, 0.1 ml/kg/day</t>
+  </si>
+  <si>
+    <t>Ketotifen</t>
+  </si>
+  <si>
+    <t>6 month - 3years: 0.5 mg, 12 hourly
+&gt; 3 years: 1 mg, 12 hourly</t>
+  </si>
+  <si>
+    <t>Tab. 1 mg</t>
+  </si>
+  <si>
+    <t>1 mg/tsf</t>
+  </si>
+  <si>
+    <t>Promethzine</t>
+  </si>
+  <si>
+    <t>0.5 - 1 mg/kg/dose, I/M or oral, single
+dose or 8 - 12 hourly</t>
+  </si>
+  <si>
+    <t>Loratadine</t>
+  </si>
+  <si>
+    <t>Weight &lt; 30 kg, 5 mg/dose, daily
+Weight &gt; 30 kg, 10 mg/dose, daily
+&lt;2 year not recommended</t>
+  </si>
+  <si>
+    <t>Lactulose</t>
+  </si>
+  <si>
+    <t>0.5 mg/kg/</t>
   </si>
 </sst>
 </file>
@@ -3907,14 +4072,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12:D12"/>
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" style="14" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="14" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="14"/>
     <col min="4" max="4" width="18.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="14" customWidth="1"/>
@@ -4086,7 +4251,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:6" s="14" customFormat="1" ht="43.5" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>343</v>
       </c>
@@ -4095,44 +4260,103 @@
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
+      <c r="F12" s="14" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1" ht="45" customHeight="1">
-      <c r="B13" s="28"/>
+      <c r="A13" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>347</v>
+      </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
+      <c r="E13" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="28"/>
+      <c r="A14" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>350</v>
+      </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:6" s="14" customFormat="1" ht="45" customHeight="1">
-      <c r="B15" s="28"/>
+      <c r="F14" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="14" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>353</v>
+      </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:6">
+      <c r="A16" s="14" t="s">
+        <v>354</v>
+      </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="28"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>356</v>
+      </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="28"/>
+      <c r="E17" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>360</v>
+      </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="28"/>
+      <c r="F18" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="46.5" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>363</v>
+      </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="28"/>
+    <row r="20" spans="1:6" ht="48.75" customHeight="1">
+      <c r="A20" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>365</v>
+      </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
     </row>
@@ -4163,4 +4387,271 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK20"/>
+  <sheetViews>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="14" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="14"/>
+    <col min="4" max="4" width="18.85546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="18" style="14" customWidth="1"/>
+    <col min="7" max="1025" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="13.9" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" s="14" customFormat="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="14" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" s="14" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="14" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="14" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="F7" s="14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="14" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="14" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="14" customFormat="1" ht="45" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" s="14" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B15" s="29"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="2:4" ht="46.5" customHeight="1">
+      <c r="B19" s="29"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="2:4" ht="48.75" customHeight="1">
+      <c r="B20" s="29"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/PaediatricDosage.xlsx
+++ b/PaediatricDosage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1685,7 +1685,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1751,15 +1751,15 @@
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.5867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.3673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6020408163265"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,17 +2065,17 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2114,14 +2114,17 @@
       <c r="B6" s="14" t="s">
         <v>51</v>
       </c>
+      <c r="C6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
@@ -2243,7 +2246,7 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:C5"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B6:C8"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
@@ -2269,7 +2272,7 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
@@ -2277,12 +2280,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="15.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="17.9438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="19" width="20.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="17.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="19" width="9.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="16.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="18.6581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="19" width="21.7857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="18.5102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="19" width="10.1173469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,13 +2555,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="12.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="18.8010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="12.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="17.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="19" width="9.96938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="17.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="19.6530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="13.1020408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="17.9438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="19" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,13 +2854,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="18.8010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="12.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="20.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="19" width="9.96938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="17.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="19.6530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="13.1020408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="21.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="19" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,13 +3208,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="22.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="12.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="18.8010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="12.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="16.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="19" width="9.96938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="17.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="23.7755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="19.6530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="13.1020408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="16.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="19" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,12 +3625,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="18.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="19" width="9.54081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="22.6428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="11.25"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="17.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="19" width="9.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="19.3673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="19" width="9.96938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="23.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="11.6836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="19" width="9.96938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3972,12 +3975,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="17.515306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="19" width="9.54081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="19.6530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="12.25"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="18.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="19" width="9.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="18.234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="19" width="9.96938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="20.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="12.8163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="19.5102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="19" width="9.96938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3993,6 +3996,1024 @@
         <v>68</v>
       </c>
       <c r="F1" s="20"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
+      <c r="AQ1" s="0"/>
+      <c r="AR1" s="0"/>
+      <c r="AS1" s="0"/>
+      <c r="AT1" s="0"/>
+      <c r="AU1" s="0"/>
+      <c r="AV1" s="0"/>
+      <c r="AW1" s="0"/>
+      <c r="AX1" s="0"/>
+      <c r="AY1" s="0"/>
+      <c r="AZ1" s="0"/>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
+      <c r="BE1" s="0"/>
+      <c r="BF1" s="0"/>
+      <c r="BG1" s="0"/>
+      <c r="BH1" s="0"/>
+      <c r="BI1" s="0"/>
+      <c r="BJ1" s="0"/>
+      <c r="BK1" s="0"/>
+      <c r="BL1" s="0"/>
+      <c r="BM1" s="0"/>
+      <c r="BN1" s="0"/>
+      <c r="BO1" s="0"/>
+      <c r="BP1" s="0"/>
+      <c r="BQ1" s="0"/>
+      <c r="BR1" s="0"/>
+      <c r="BS1" s="0"/>
+      <c r="BT1" s="0"/>
+      <c r="BU1" s="0"/>
+      <c r="BV1" s="0"/>
+      <c r="BW1" s="0"/>
+      <c r="BX1" s="0"/>
+      <c r="BY1" s="0"/>
+      <c r="BZ1" s="0"/>
+      <c r="CA1" s="0"/>
+      <c r="CB1" s="0"/>
+      <c r="CC1" s="0"/>
+      <c r="CD1" s="0"/>
+      <c r="CE1" s="0"/>
+      <c r="CF1" s="0"/>
+      <c r="CG1" s="0"/>
+      <c r="CH1" s="0"/>
+      <c r="CI1" s="0"/>
+      <c r="CJ1" s="0"/>
+      <c r="CK1" s="0"/>
+      <c r="CL1" s="0"/>
+      <c r="CM1" s="0"/>
+      <c r="CN1" s="0"/>
+      <c r="CO1" s="0"/>
+      <c r="CP1" s="0"/>
+      <c r="CQ1" s="0"/>
+      <c r="CR1" s="0"/>
+      <c r="CS1" s="0"/>
+      <c r="CT1" s="0"/>
+      <c r="CU1" s="0"/>
+      <c r="CV1" s="0"/>
+      <c r="CW1" s="0"/>
+      <c r="CX1" s="0"/>
+      <c r="CY1" s="0"/>
+      <c r="CZ1" s="0"/>
+      <c r="DA1" s="0"/>
+      <c r="DB1" s="0"/>
+      <c r="DC1" s="0"/>
+      <c r="DD1" s="0"/>
+      <c r="DE1" s="0"/>
+      <c r="DF1" s="0"/>
+      <c r="DG1" s="0"/>
+      <c r="DH1" s="0"/>
+      <c r="DI1" s="0"/>
+      <c r="DJ1" s="0"/>
+      <c r="DK1" s="0"/>
+      <c r="DL1" s="0"/>
+      <c r="DM1" s="0"/>
+      <c r="DN1" s="0"/>
+      <c r="DO1" s="0"/>
+      <c r="DP1" s="0"/>
+      <c r="DQ1" s="0"/>
+      <c r="DR1" s="0"/>
+      <c r="DS1" s="0"/>
+      <c r="DT1" s="0"/>
+      <c r="DU1" s="0"/>
+      <c r="DV1" s="0"/>
+      <c r="DW1" s="0"/>
+      <c r="DX1" s="0"/>
+      <c r="DY1" s="0"/>
+      <c r="DZ1" s="0"/>
+      <c r="EA1" s="0"/>
+      <c r="EB1" s="0"/>
+      <c r="EC1" s="0"/>
+      <c r="ED1" s="0"/>
+      <c r="EE1" s="0"/>
+      <c r="EF1" s="0"/>
+      <c r="EG1" s="0"/>
+      <c r="EH1" s="0"/>
+      <c r="EI1" s="0"/>
+      <c r="EJ1" s="0"/>
+      <c r="EK1" s="0"/>
+      <c r="EL1" s="0"/>
+      <c r="EM1" s="0"/>
+      <c r="EN1" s="0"/>
+      <c r="EO1" s="0"/>
+      <c r="EP1" s="0"/>
+      <c r="EQ1" s="0"/>
+      <c r="ER1" s="0"/>
+      <c r="ES1" s="0"/>
+      <c r="ET1" s="0"/>
+      <c r="EU1" s="0"/>
+      <c r="EV1" s="0"/>
+      <c r="EW1" s="0"/>
+      <c r="EX1" s="0"/>
+      <c r="EY1" s="0"/>
+      <c r="EZ1" s="0"/>
+      <c r="FA1" s="0"/>
+      <c r="FB1" s="0"/>
+      <c r="FC1" s="0"/>
+      <c r="FD1" s="0"/>
+      <c r="FE1" s="0"/>
+      <c r="FF1" s="0"/>
+      <c r="FG1" s="0"/>
+      <c r="FH1" s="0"/>
+      <c r="FI1" s="0"/>
+      <c r="FJ1" s="0"/>
+      <c r="FK1" s="0"/>
+      <c r="FL1" s="0"/>
+      <c r="FM1" s="0"/>
+      <c r="FN1" s="0"/>
+      <c r="FO1" s="0"/>
+      <c r="FP1" s="0"/>
+      <c r="FQ1" s="0"/>
+      <c r="FR1" s="0"/>
+      <c r="FS1" s="0"/>
+      <c r="FT1" s="0"/>
+      <c r="FU1" s="0"/>
+      <c r="FV1" s="0"/>
+      <c r="FW1" s="0"/>
+      <c r="FX1" s="0"/>
+      <c r="FY1" s="0"/>
+      <c r="FZ1" s="0"/>
+      <c r="GA1" s="0"/>
+      <c r="GB1" s="0"/>
+      <c r="GC1" s="0"/>
+      <c r="GD1" s="0"/>
+      <c r="GE1" s="0"/>
+      <c r="GF1" s="0"/>
+      <c r="GG1" s="0"/>
+      <c r="GH1" s="0"/>
+      <c r="GI1" s="0"/>
+      <c r="GJ1" s="0"/>
+      <c r="GK1" s="0"/>
+      <c r="GL1" s="0"/>
+      <c r="GM1" s="0"/>
+      <c r="GN1" s="0"/>
+      <c r="GO1" s="0"/>
+      <c r="GP1" s="0"/>
+      <c r="GQ1" s="0"/>
+      <c r="GR1" s="0"/>
+      <c r="GS1" s="0"/>
+      <c r="GT1" s="0"/>
+      <c r="GU1" s="0"/>
+      <c r="GV1" s="0"/>
+      <c r="GW1" s="0"/>
+      <c r="GX1" s="0"/>
+      <c r="GY1" s="0"/>
+      <c r="GZ1" s="0"/>
+      <c r="HA1" s="0"/>
+      <c r="HB1" s="0"/>
+      <c r="HC1" s="0"/>
+      <c r="HD1" s="0"/>
+      <c r="HE1" s="0"/>
+      <c r="HF1" s="0"/>
+      <c r="HG1" s="0"/>
+      <c r="HH1" s="0"/>
+      <c r="HI1" s="0"/>
+      <c r="HJ1" s="0"/>
+      <c r="HK1" s="0"/>
+      <c r="HL1" s="0"/>
+      <c r="HM1" s="0"/>
+      <c r="HN1" s="0"/>
+      <c r="HO1" s="0"/>
+      <c r="HP1" s="0"/>
+      <c r="HQ1" s="0"/>
+      <c r="HR1" s="0"/>
+      <c r="HS1" s="0"/>
+      <c r="HT1" s="0"/>
+      <c r="HU1" s="0"/>
+      <c r="HV1" s="0"/>
+      <c r="HW1" s="0"/>
+      <c r="HX1" s="0"/>
+      <c r="HY1" s="0"/>
+      <c r="HZ1" s="0"/>
+      <c r="IA1" s="0"/>
+      <c r="IB1" s="0"/>
+      <c r="IC1" s="0"/>
+      <c r="ID1" s="0"/>
+      <c r="IE1" s="0"/>
+      <c r="IF1" s="0"/>
+      <c r="IG1" s="0"/>
+      <c r="IH1" s="0"/>
+      <c r="II1" s="0"/>
+      <c r="IJ1" s="0"/>
+      <c r="IK1" s="0"/>
+      <c r="IL1" s="0"/>
+      <c r="IM1" s="0"/>
+      <c r="IN1" s="0"/>
+      <c r="IO1" s="0"/>
+      <c r="IP1" s="0"/>
+      <c r="IQ1" s="0"/>
+      <c r="IR1" s="0"/>
+      <c r="IS1" s="0"/>
+      <c r="IT1" s="0"/>
+      <c r="IU1" s="0"/>
+      <c r="IV1" s="0"/>
+      <c r="IW1" s="0"/>
+      <c r="IX1" s="0"/>
+      <c r="IY1" s="0"/>
+      <c r="IZ1" s="0"/>
+      <c r="JA1" s="0"/>
+      <c r="JB1" s="0"/>
+      <c r="JC1" s="0"/>
+      <c r="JD1" s="0"/>
+      <c r="JE1" s="0"/>
+      <c r="JF1" s="0"/>
+      <c r="JG1" s="0"/>
+      <c r="JH1" s="0"/>
+      <c r="JI1" s="0"/>
+      <c r="JJ1" s="0"/>
+      <c r="JK1" s="0"/>
+      <c r="JL1" s="0"/>
+      <c r="JM1" s="0"/>
+      <c r="JN1" s="0"/>
+      <c r="JO1" s="0"/>
+      <c r="JP1" s="0"/>
+      <c r="JQ1" s="0"/>
+      <c r="JR1" s="0"/>
+      <c r="JS1" s="0"/>
+      <c r="JT1" s="0"/>
+      <c r="JU1" s="0"/>
+      <c r="JV1" s="0"/>
+      <c r="JW1" s="0"/>
+      <c r="JX1" s="0"/>
+      <c r="JY1" s="0"/>
+      <c r="JZ1" s="0"/>
+      <c r="KA1" s="0"/>
+      <c r="KB1" s="0"/>
+      <c r="KC1" s="0"/>
+      <c r="KD1" s="0"/>
+      <c r="KE1" s="0"/>
+      <c r="KF1" s="0"/>
+      <c r="KG1" s="0"/>
+      <c r="KH1" s="0"/>
+      <c r="KI1" s="0"/>
+      <c r="KJ1" s="0"/>
+      <c r="KK1" s="0"/>
+      <c r="KL1" s="0"/>
+      <c r="KM1" s="0"/>
+      <c r="KN1" s="0"/>
+      <c r="KO1" s="0"/>
+      <c r="KP1" s="0"/>
+      <c r="KQ1" s="0"/>
+      <c r="KR1" s="0"/>
+      <c r="KS1" s="0"/>
+      <c r="KT1" s="0"/>
+      <c r="KU1" s="0"/>
+      <c r="KV1" s="0"/>
+      <c r="KW1" s="0"/>
+      <c r="KX1" s="0"/>
+      <c r="KY1" s="0"/>
+      <c r="KZ1" s="0"/>
+      <c r="LA1" s="0"/>
+      <c r="LB1" s="0"/>
+      <c r="LC1" s="0"/>
+      <c r="LD1" s="0"/>
+      <c r="LE1" s="0"/>
+      <c r="LF1" s="0"/>
+      <c r="LG1" s="0"/>
+      <c r="LH1" s="0"/>
+      <c r="LI1" s="0"/>
+      <c r="LJ1" s="0"/>
+      <c r="LK1" s="0"/>
+      <c r="LL1" s="0"/>
+      <c r="LM1" s="0"/>
+      <c r="LN1" s="0"/>
+      <c r="LO1" s="0"/>
+      <c r="LP1" s="0"/>
+      <c r="LQ1" s="0"/>
+      <c r="LR1" s="0"/>
+      <c r="LS1" s="0"/>
+      <c r="LT1" s="0"/>
+      <c r="LU1" s="0"/>
+      <c r="LV1" s="0"/>
+      <c r="LW1" s="0"/>
+      <c r="LX1" s="0"/>
+      <c r="LY1" s="0"/>
+      <c r="LZ1" s="0"/>
+      <c r="MA1" s="0"/>
+      <c r="MB1" s="0"/>
+      <c r="MC1" s="0"/>
+      <c r="MD1" s="0"/>
+      <c r="ME1" s="0"/>
+      <c r="MF1" s="0"/>
+      <c r="MG1" s="0"/>
+      <c r="MH1" s="0"/>
+      <c r="MI1" s="0"/>
+      <c r="MJ1" s="0"/>
+      <c r="MK1" s="0"/>
+      <c r="ML1" s="0"/>
+      <c r="MM1" s="0"/>
+      <c r="MN1" s="0"/>
+      <c r="MO1" s="0"/>
+      <c r="MP1" s="0"/>
+      <c r="MQ1" s="0"/>
+      <c r="MR1" s="0"/>
+      <c r="MS1" s="0"/>
+      <c r="MT1" s="0"/>
+      <c r="MU1" s="0"/>
+      <c r="MV1" s="0"/>
+      <c r="MW1" s="0"/>
+      <c r="MX1" s="0"/>
+      <c r="MY1" s="0"/>
+      <c r="MZ1" s="0"/>
+      <c r="NA1" s="0"/>
+      <c r="NB1" s="0"/>
+      <c r="NC1" s="0"/>
+      <c r="ND1" s="0"/>
+      <c r="NE1" s="0"/>
+      <c r="NF1" s="0"/>
+      <c r="NG1" s="0"/>
+      <c r="NH1" s="0"/>
+      <c r="NI1" s="0"/>
+      <c r="NJ1" s="0"/>
+      <c r="NK1" s="0"/>
+      <c r="NL1" s="0"/>
+      <c r="NM1" s="0"/>
+      <c r="NN1" s="0"/>
+      <c r="NO1" s="0"/>
+      <c r="NP1" s="0"/>
+      <c r="NQ1" s="0"/>
+      <c r="NR1" s="0"/>
+      <c r="NS1" s="0"/>
+      <c r="NT1" s="0"/>
+      <c r="NU1" s="0"/>
+      <c r="NV1" s="0"/>
+      <c r="NW1" s="0"/>
+      <c r="NX1" s="0"/>
+      <c r="NY1" s="0"/>
+      <c r="NZ1" s="0"/>
+      <c r="OA1" s="0"/>
+      <c r="OB1" s="0"/>
+      <c r="OC1" s="0"/>
+      <c r="OD1" s="0"/>
+      <c r="OE1" s="0"/>
+      <c r="OF1" s="0"/>
+      <c r="OG1" s="0"/>
+      <c r="OH1" s="0"/>
+      <c r="OI1" s="0"/>
+      <c r="OJ1" s="0"/>
+      <c r="OK1" s="0"/>
+      <c r="OL1" s="0"/>
+      <c r="OM1" s="0"/>
+      <c r="ON1" s="0"/>
+      <c r="OO1" s="0"/>
+      <c r="OP1" s="0"/>
+      <c r="OQ1" s="0"/>
+      <c r="OR1" s="0"/>
+      <c r="OS1" s="0"/>
+      <c r="OT1" s="0"/>
+      <c r="OU1" s="0"/>
+      <c r="OV1" s="0"/>
+      <c r="OW1" s="0"/>
+      <c r="OX1" s="0"/>
+      <c r="OY1" s="0"/>
+      <c r="OZ1" s="0"/>
+      <c r="PA1" s="0"/>
+      <c r="PB1" s="0"/>
+      <c r="PC1" s="0"/>
+      <c r="PD1" s="0"/>
+      <c r="PE1" s="0"/>
+      <c r="PF1" s="0"/>
+      <c r="PG1" s="0"/>
+      <c r="PH1" s="0"/>
+      <c r="PI1" s="0"/>
+      <c r="PJ1" s="0"/>
+      <c r="PK1" s="0"/>
+      <c r="PL1" s="0"/>
+      <c r="PM1" s="0"/>
+      <c r="PN1" s="0"/>
+      <c r="PO1" s="0"/>
+      <c r="PP1" s="0"/>
+      <c r="PQ1" s="0"/>
+      <c r="PR1" s="0"/>
+      <c r="PS1" s="0"/>
+      <c r="PT1" s="0"/>
+      <c r="PU1" s="0"/>
+      <c r="PV1" s="0"/>
+      <c r="PW1" s="0"/>
+      <c r="PX1" s="0"/>
+      <c r="PY1" s="0"/>
+      <c r="PZ1" s="0"/>
+      <c r="QA1" s="0"/>
+      <c r="QB1" s="0"/>
+      <c r="QC1" s="0"/>
+      <c r="QD1" s="0"/>
+      <c r="QE1" s="0"/>
+      <c r="QF1" s="0"/>
+      <c r="QG1" s="0"/>
+      <c r="QH1" s="0"/>
+      <c r="QI1" s="0"/>
+      <c r="QJ1" s="0"/>
+      <c r="QK1" s="0"/>
+      <c r="QL1" s="0"/>
+      <c r="QM1" s="0"/>
+      <c r="QN1" s="0"/>
+      <c r="QO1" s="0"/>
+      <c r="QP1" s="0"/>
+      <c r="QQ1" s="0"/>
+      <c r="QR1" s="0"/>
+      <c r="QS1" s="0"/>
+      <c r="QT1" s="0"/>
+      <c r="QU1" s="0"/>
+      <c r="QV1" s="0"/>
+      <c r="QW1" s="0"/>
+      <c r="QX1" s="0"/>
+      <c r="QY1" s="0"/>
+      <c r="QZ1" s="0"/>
+      <c r="RA1" s="0"/>
+      <c r="RB1" s="0"/>
+      <c r="RC1" s="0"/>
+      <c r="RD1" s="0"/>
+      <c r="RE1" s="0"/>
+      <c r="RF1" s="0"/>
+      <c r="RG1" s="0"/>
+      <c r="RH1" s="0"/>
+      <c r="RI1" s="0"/>
+      <c r="RJ1" s="0"/>
+      <c r="RK1" s="0"/>
+      <c r="RL1" s="0"/>
+      <c r="RM1" s="0"/>
+      <c r="RN1" s="0"/>
+      <c r="RO1" s="0"/>
+      <c r="RP1" s="0"/>
+      <c r="RQ1" s="0"/>
+      <c r="RR1" s="0"/>
+      <c r="RS1" s="0"/>
+      <c r="RT1" s="0"/>
+      <c r="RU1" s="0"/>
+      <c r="RV1" s="0"/>
+      <c r="RW1" s="0"/>
+      <c r="RX1" s="0"/>
+      <c r="RY1" s="0"/>
+      <c r="RZ1" s="0"/>
+      <c r="SA1" s="0"/>
+      <c r="SB1" s="0"/>
+      <c r="SC1" s="0"/>
+      <c r="SD1" s="0"/>
+      <c r="SE1" s="0"/>
+      <c r="SF1" s="0"/>
+      <c r="SG1" s="0"/>
+      <c r="SH1" s="0"/>
+      <c r="SI1" s="0"/>
+      <c r="SJ1" s="0"/>
+      <c r="SK1" s="0"/>
+      <c r="SL1" s="0"/>
+      <c r="SM1" s="0"/>
+      <c r="SN1" s="0"/>
+      <c r="SO1" s="0"/>
+      <c r="SP1" s="0"/>
+      <c r="SQ1" s="0"/>
+      <c r="SR1" s="0"/>
+      <c r="SS1" s="0"/>
+      <c r="ST1" s="0"/>
+      <c r="SU1" s="0"/>
+      <c r="SV1" s="0"/>
+      <c r="SW1" s="0"/>
+      <c r="SX1" s="0"/>
+      <c r="SY1" s="0"/>
+      <c r="SZ1" s="0"/>
+      <c r="TA1" s="0"/>
+      <c r="TB1" s="0"/>
+      <c r="TC1" s="0"/>
+      <c r="TD1" s="0"/>
+      <c r="TE1" s="0"/>
+      <c r="TF1" s="0"/>
+      <c r="TG1" s="0"/>
+      <c r="TH1" s="0"/>
+      <c r="TI1" s="0"/>
+      <c r="TJ1" s="0"/>
+      <c r="TK1" s="0"/>
+      <c r="TL1" s="0"/>
+      <c r="TM1" s="0"/>
+      <c r="TN1" s="0"/>
+      <c r="TO1" s="0"/>
+      <c r="TP1" s="0"/>
+      <c r="TQ1" s="0"/>
+      <c r="TR1" s="0"/>
+      <c r="TS1" s="0"/>
+      <c r="TT1" s="0"/>
+      <c r="TU1" s="0"/>
+      <c r="TV1" s="0"/>
+      <c r="TW1" s="0"/>
+      <c r="TX1" s="0"/>
+      <c r="TY1" s="0"/>
+      <c r="TZ1" s="0"/>
+      <c r="UA1" s="0"/>
+      <c r="UB1" s="0"/>
+      <c r="UC1" s="0"/>
+      <c r="UD1" s="0"/>
+      <c r="UE1" s="0"/>
+      <c r="UF1" s="0"/>
+      <c r="UG1" s="0"/>
+      <c r="UH1" s="0"/>
+      <c r="UI1" s="0"/>
+      <c r="UJ1" s="0"/>
+      <c r="UK1" s="0"/>
+      <c r="UL1" s="0"/>
+      <c r="UM1" s="0"/>
+      <c r="UN1" s="0"/>
+      <c r="UO1" s="0"/>
+      <c r="UP1" s="0"/>
+      <c r="UQ1" s="0"/>
+      <c r="UR1" s="0"/>
+      <c r="US1" s="0"/>
+      <c r="UT1" s="0"/>
+      <c r="UU1" s="0"/>
+      <c r="UV1" s="0"/>
+      <c r="UW1" s="0"/>
+      <c r="UX1" s="0"/>
+      <c r="UY1" s="0"/>
+      <c r="UZ1" s="0"/>
+      <c r="VA1" s="0"/>
+      <c r="VB1" s="0"/>
+      <c r="VC1" s="0"/>
+      <c r="VD1" s="0"/>
+      <c r="VE1" s="0"/>
+      <c r="VF1" s="0"/>
+      <c r="VG1" s="0"/>
+      <c r="VH1" s="0"/>
+      <c r="VI1" s="0"/>
+      <c r="VJ1" s="0"/>
+      <c r="VK1" s="0"/>
+      <c r="VL1" s="0"/>
+      <c r="VM1" s="0"/>
+      <c r="VN1" s="0"/>
+      <c r="VO1" s="0"/>
+      <c r="VP1" s="0"/>
+      <c r="VQ1" s="0"/>
+      <c r="VR1" s="0"/>
+      <c r="VS1" s="0"/>
+      <c r="VT1" s="0"/>
+      <c r="VU1" s="0"/>
+      <c r="VV1" s="0"/>
+      <c r="VW1" s="0"/>
+      <c r="VX1" s="0"/>
+      <c r="VY1" s="0"/>
+      <c r="VZ1" s="0"/>
+      <c r="WA1" s="0"/>
+      <c r="WB1" s="0"/>
+      <c r="WC1" s="0"/>
+      <c r="WD1" s="0"/>
+      <c r="WE1" s="0"/>
+      <c r="WF1" s="0"/>
+      <c r="WG1" s="0"/>
+      <c r="WH1" s="0"/>
+      <c r="WI1" s="0"/>
+      <c r="WJ1" s="0"/>
+      <c r="WK1" s="0"/>
+      <c r="WL1" s="0"/>
+      <c r="WM1" s="0"/>
+      <c r="WN1" s="0"/>
+      <c r="WO1" s="0"/>
+      <c r="WP1" s="0"/>
+      <c r="WQ1" s="0"/>
+      <c r="WR1" s="0"/>
+      <c r="WS1" s="0"/>
+      <c r="WT1" s="0"/>
+      <c r="WU1" s="0"/>
+      <c r="WV1" s="0"/>
+      <c r="WW1" s="0"/>
+      <c r="WX1" s="0"/>
+      <c r="WY1" s="0"/>
+      <c r="WZ1" s="0"/>
+      <c r="XA1" s="0"/>
+      <c r="XB1" s="0"/>
+      <c r="XC1" s="0"/>
+      <c r="XD1" s="0"/>
+      <c r="XE1" s="0"/>
+      <c r="XF1" s="0"/>
+      <c r="XG1" s="0"/>
+      <c r="XH1" s="0"/>
+      <c r="XI1" s="0"/>
+      <c r="XJ1" s="0"/>
+      <c r="XK1" s="0"/>
+      <c r="XL1" s="0"/>
+      <c r="XM1" s="0"/>
+      <c r="XN1" s="0"/>
+      <c r="XO1" s="0"/>
+      <c r="XP1" s="0"/>
+      <c r="XQ1" s="0"/>
+      <c r="XR1" s="0"/>
+      <c r="XS1" s="0"/>
+      <c r="XT1" s="0"/>
+      <c r="XU1" s="0"/>
+      <c r="XV1" s="0"/>
+      <c r="XW1" s="0"/>
+      <c r="XX1" s="0"/>
+      <c r="XY1" s="0"/>
+      <c r="XZ1" s="0"/>
+      <c r="YA1" s="0"/>
+      <c r="YB1" s="0"/>
+      <c r="YC1" s="0"/>
+      <c r="YD1" s="0"/>
+      <c r="YE1" s="0"/>
+      <c r="YF1" s="0"/>
+      <c r="YG1" s="0"/>
+      <c r="YH1" s="0"/>
+      <c r="YI1" s="0"/>
+      <c r="YJ1" s="0"/>
+      <c r="YK1" s="0"/>
+      <c r="YL1" s="0"/>
+      <c r="YM1" s="0"/>
+      <c r="YN1" s="0"/>
+      <c r="YO1" s="0"/>
+      <c r="YP1" s="0"/>
+      <c r="YQ1" s="0"/>
+      <c r="YR1" s="0"/>
+      <c r="YS1" s="0"/>
+      <c r="YT1" s="0"/>
+      <c r="YU1" s="0"/>
+      <c r="YV1" s="0"/>
+      <c r="YW1" s="0"/>
+      <c r="YX1" s="0"/>
+      <c r="YY1" s="0"/>
+      <c r="YZ1" s="0"/>
+      <c r="ZA1" s="0"/>
+      <c r="ZB1" s="0"/>
+      <c r="ZC1" s="0"/>
+      <c r="ZD1" s="0"/>
+      <c r="ZE1" s="0"/>
+      <c r="ZF1" s="0"/>
+      <c r="ZG1" s="0"/>
+      <c r="ZH1" s="0"/>
+      <c r="ZI1" s="0"/>
+      <c r="ZJ1" s="0"/>
+      <c r="ZK1" s="0"/>
+      <c r="ZL1" s="0"/>
+      <c r="ZM1" s="0"/>
+      <c r="ZN1" s="0"/>
+      <c r="ZO1" s="0"/>
+      <c r="ZP1" s="0"/>
+      <c r="ZQ1" s="0"/>
+      <c r="ZR1" s="0"/>
+      <c r="ZS1" s="0"/>
+      <c r="ZT1" s="0"/>
+      <c r="ZU1" s="0"/>
+      <c r="ZV1" s="0"/>
+      <c r="ZW1" s="0"/>
+      <c r="ZX1" s="0"/>
+      <c r="ZY1" s="0"/>
+      <c r="ZZ1" s="0"/>
+      <c r="AAA1" s="0"/>
+      <c r="AAB1" s="0"/>
+      <c r="AAC1" s="0"/>
+      <c r="AAD1" s="0"/>
+      <c r="AAE1" s="0"/>
+      <c r="AAF1" s="0"/>
+      <c r="AAG1" s="0"/>
+      <c r="AAH1" s="0"/>
+      <c r="AAI1" s="0"/>
+      <c r="AAJ1" s="0"/>
+      <c r="AAK1" s="0"/>
+      <c r="AAL1" s="0"/>
+      <c r="AAM1" s="0"/>
+      <c r="AAN1" s="0"/>
+      <c r="AAO1" s="0"/>
+      <c r="AAP1" s="0"/>
+      <c r="AAQ1" s="0"/>
+      <c r="AAR1" s="0"/>
+      <c r="AAS1" s="0"/>
+      <c r="AAT1" s="0"/>
+      <c r="AAU1" s="0"/>
+      <c r="AAV1" s="0"/>
+      <c r="AAW1" s="0"/>
+      <c r="AAX1" s="0"/>
+      <c r="AAY1" s="0"/>
+      <c r="AAZ1" s="0"/>
+      <c r="ABA1" s="0"/>
+      <c r="ABB1" s="0"/>
+      <c r="ABC1" s="0"/>
+      <c r="ABD1" s="0"/>
+      <c r="ABE1" s="0"/>
+      <c r="ABF1" s="0"/>
+      <c r="ABG1" s="0"/>
+      <c r="ABH1" s="0"/>
+      <c r="ABI1" s="0"/>
+      <c r="ABJ1" s="0"/>
+      <c r="ABK1" s="0"/>
+      <c r="ABL1" s="0"/>
+      <c r="ABM1" s="0"/>
+      <c r="ABN1" s="0"/>
+      <c r="ABO1" s="0"/>
+      <c r="ABP1" s="0"/>
+      <c r="ABQ1" s="0"/>
+      <c r="ABR1" s="0"/>
+      <c r="ABS1" s="0"/>
+      <c r="ABT1" s="0"/>
+      <c r="ABU1" s="0"/>
+      <c r="ABV1" s="0"/>
+      <c r="ABW1" s="0"/>
+      <c r="ABX1" s="0"/>
+      <c r="ABY1" s="0"/>
+      <c r="ABZ1" s="0"/>
+      <c r="ACA1" s="0"/>
+      <c r="ACB1" s="0"/>
+      <c r="ACC1" s="0"/>
+      <c r="ACD1" s="0"/>
+      <c r="ACE1" s="0"/>
+      <c r="ACF1" s="0"/>
+      <c r="ACG1" s="0"/>
+      <c r="ACH1" s="0"/>
+      <c r="ACI1" s="0"/>
+      <c r="ACJ1" s="0"/>
+      <c r="ACK1" s="0"/>
+      <c r="ACL1" s="0"/>
+      <c r="ACM1" s="0"/>
+      <c r="ACN1" s="0"/>
+      <c r="ACO1" s="0"/>
+      <c r="ACP1" s="0"/>
+      <c r="ACQ1" s="0"/>
+      <c r="ACR1" s="0"/>
+      <c r="ACS1" s="0"/>
+      <c r="ACT1" s="0"/>
+      <c r="ACU1" s="0"/>
+      <c r="ACV1" s="0"/>
+      <c r="ACW1" s="0"/>
+      <c r="ACX1" s="0"/>
+      <c r="ACY1" s="0"/>
+      <c r="ACZ1" s="0"/>
+      <c r="ADA1" s="0"/>
+      <c r="ADB1" s="0"/>
+      <c r="ADC1" s="0"/>
+      <c r="ADD1" s="0"/>
+      <c r="ADE1" s="0"/>
+      <c r="ADF1" s="0"/>
+      <c r="ADG1" s="0"/>
+      <c r="ADH1" s="0"/>
+      <c r="ADI1" s="0"/>
+      <c r="ADJ1" s="0"/>
+      <c r="ADK1" s="0"/>
+      <c r="ADL1" s="0"/>
+      <c r="ADM1" s="0"/>
+      <c r="ADN1" s="0"/>
+      <c r="ADO1" s="0"/>
+      <c r="ADP1" s="0"/>
+      <c r="ADQ1" s="0"/>
+      <c r="ADR1" s="0"/>
+      <c r="ADS1" s="0"/>
+      <c r="ADT1" s="0"/>
+      <c r="ADU1" s="0"/>
+      <c r="ADV1" s="0"/>
+      <c r="ADW1" s="0"/>
+      <c r="ADX1" s="0"/>
+      <c r="ADY1" s="0"/>
+      <c r="ADZ1" s="0"/>
+      <c r="AEA1" s="0"/>
+      <c r="AEB1" s="0"/>
+      <c r="AEC1" s="0"/>
+      <c r="AED1" s="0"/>
+      <c r="AEE1" s="0"/>
+      <c r="AEF1" s="0"/>
+      <c r="AEG1" s="0"/>
+      <c r="AEH1" s="0"/>
+      <c r="AEI1" s="0"/>
+      <c r="AEJ1" s="0"/>
+      <c r="AEK1" s="0"/>
+      <c r="AEL1" s="0"/>
+      <c r="AEM1" s="0"/>
+      <c r="AEN1" s="0"/>
+      <c r="AEO1" s="0"/>
+      <c r="AEP1" s="0"/>
+      <c r="AEQ1" s="0"/>
+      <c r="AER1" s="0"/>
+      <c r="AES1" s="0"/>
+      <c r="AET1" s="0"/>
+      <c r="AEU1" s="0"/>
+      <c r="AEV1" s="0"/>
+      <c r="AEW1" s="0"/>
+      <c r="AEX1" s="0"/>
+      <c r="AEY1" s="0"/>
+      <c r="AEZ1" s="0"/>
+      <c r="AFA1" s="0"/>
+      <c r="AFB1" s="0"/>
+      <c r="AFC1" s="0"/>
+      <c r="AFD1" s="0"/>
+      <c r="AFE1" s="0"/>
+      <c r="AFF1" s="0"/>
+      <c r="AFG1" s="0"/>
+      <c r="AFH1" s="0"/>
+      <c r="AFI1" s="0"/>
+      <c r="AFJ1" s="0"/>
+      <c r="AFK1" s="0"/>
+      <c r="AFL1" s="0"/>
+      <c r="AFM1" s="0"/>
+      <c r="AFN1" s="0"/>
+      <c r="AFO1" s="0"/>
+      <c r="AFP1" s="0"/>
+      <c r="AFQ1" s="0"/>
+      <c r="AFR1" s="0"/>
+      <c r="AFS1" s="0"/>
+      <c r="AFT1" s="0"/>
+      <c r="AFU1" s="0"/>
+      <c r="AFV1" s="0"/>
+      <c r="AFW1" s="0"/>
+      <c r="AFX1" s="0"/>
+      <c r="AFY1" s="0"/>
+      <c r="AFZ1" s="0"/>
+      <c r="AGA1" s="0"/>
+      <c r="AGB1" s="0"/>
+      <c r="AGC1" s="0"/>
+      <c r="AGD1" s="0"/>
+      <c r="AGE1" s="0"/>
+      <c r="AGF1" s="0"/>
+      <c r="AGG1" s="0"/>
+      <c r="AGH1" s="0"/>
+      <c r="AGI1" s="0"/>
+      <c r="AGJ1" s="0"/>
+      <c r="AGK1" s="0"/>
+      <c r="AGL1" s="0"/>
+      <c r="AGM1" s="0"/>
+      <c r="AGN1" s="0"/>
+      <c r="AGO1" s="0"/>
+      <c r="AGP1" s="0"/>
+      <c r="AGQ1" s="0"/>
+      <c r="AGR1" s="0"/>
+      <c r="AGS1" s="0"/>
+      <c r="AGT1" s="0"/>
+      <c r="AGU1" s="0"/>
+      <c r="AGV1" s="0"/>
+      <c r="AGW1" s="0"/>
+      <c r="AGX1" s="0"/>
+      <c r="AGY1" s="0"/>
+      <c r="AGZ1" s="0"/>
+      <c r="AHA1" s="0"/>
+      <c r="AHB1" s="0"/>
+      <c r="AHC1" s="0"/>
+      <c r="AHD1" s="0"/>
+      <c r="AHE1" s="0"/>
+      <c r="AHF1" s="0"/>
+      <c r="AHG1" s="0"/>
+      <c r="AHH1" s="0"/>
+      <c r="AHI1" s="0"/>
+      <c r="AHJ1" s="0"/>
+      <c r="AHK1" s="0"/>
+      <c r="AHL1" s="0"/>
+      <c r="AHM1" s="0"/>
+      <c r="AHN1" s="0"/>
+      <c r="AHO1" s="0"/>
+      <c r="AHP1" s="0"/>
+      <c r="AHQ1" s="0"/>
+      <c r="AHR1" s="0"/>
+      <c r="AHS1" s="0"/>
+      <c r="AHT1" s="0"/>
+      <c r="AHU1" s="0"/>
+      <c r="AHV1" s="0"/>
+      <c r="AHW1" s="0"/>
+      <c r="AHX1" s="0"/>
+      <c r="AHY1" s="0"/>
+      <c r="AHZ1" s="0"/>
+      <c r="AIA1" s="0"/>
+      <c r="AIB1" s="0"/>
+      <c r="AIC1" s="0"/>
+      <c r="AID1" s="0"/>
+      <c r="AIE1" s="0"/>
+      <c r="AIF1" s="0"/>
+      <c r="AIG1" s="0"/>
+      <c r="AIH1" s="0"/>
+      <c r="AII1" s="0"/>
+      <c r="AIJ1" s="0"/>
+      <c r="AIK1" s="0"/>
+      <c r="AIL1" s="0"/>
+      <c r="AIM1" s="0"/>
+      <c r="AIN1" s="0"/>
+      <c r="AIO1" s="0"/>
+      <c r="AIP1" s="0"/>
+      <c r="AIQ1" s="0"/>
+      <c r="AIR1" s="0"/>
+      <c r="AIS1" s="0"/>
+      <c r="AIT1" s="0"/>
+      <c r="AIU1" s="0"/>
+      <c r="AIV1" s="0"/>
+      <c r="AIW1" s="0"/>
+      <c r="AIX1" s="0"/>
+      <c r="AIY1" s="0"/>
+      <c r="AIZ1" s="0"/>
+      <c r="AJA1" s="0"/>
+      <c r="AJB1" s="0"/>
+      <c r="AJC1" s="0"/>
+      <c r="AJD1" s="0"/>
+      <c r="AJE1" s="0"/>
+      <c r="AJF1" s="0"/>
+      <c r="AJG1" s="0"/>
+      <c r="AJH1" s="0"/>
+      <c r="AJI1" s="0"/>
+      <c r="AJJ1" s="0"/>
+      <c r="AJK1" s="0"/>
+      <c r="AJL1" s="0"/>
+      <c r="AJM1" s="0"/>
+      <c r="AJN1" s="0"/>
+      <c r="AJO1" s="0"/>
+      <c r="AJP1" s="0"/>
+      <c r="AJQ1" s="0"/>
+      <c r="AJR1" s="0"/>
+      <c r="AJS1" s="0"/>
+      <c r="AJT1" s="0"/>
+      <c r="AJU1" s="0"/>
+      <c r="AJV1" s="0"/>
+      <c r="AJW1" s="0"/>
+      <c r="AJX1" s="0"/>
+      <c r="AJY1" s="0"/>
+      <c r="AJZ1" s="0"/>
+      <c r="AKA1" s="0"/>
+      <c r="AKB1" s="0"/>
+      <c r="AKC1" s="0"/>
+      <c r="AKD1" s="0"/>
+      <c r="AKE1" s="0"/>
+      <c r="AKF1" s="0"/>
+      <c r="AKG1" s="0"/>
+      <c r="AKH1" s="0"/>
+      <c r="AKI1" s="0"/>
+      <c r="AKJ1" s="0"/>
+      <c r="AKK1" s="0"/>
+      <c r="AKL1" s="0"/>
+      <c r="AKM1" s="0"/>
+      <c r="AKN1" s="0"/>
+      <c r="AKO1" s="0"/>
+      <c r="AKP1" s="0"/>
+      <c r="AKQ1" s="0"/>
+      <c r="AKR1" s="0"/>
+      <c r="AKS1" s="0"/>
+      <c r="AKT1" s="0"/>
+      <c r="AKU1" s="0"/>
+      <c r="AKV1" s="0"/>
+      <c r="AKW1" s="0"/>
+      <c r="AKX1" s="0"/>
+      <c r="AKY1" s="0"/>
+      <c r="AKZ1" s="0"/>
+      <c r="ALA1" s="0"/>
+      <c r="ALB1" s="0"/>
+      <c r="ALC1" s="0"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
+      <c r="ALH1" s="0"/>
+      <c r="ALI1" s="0"/>
+      <c r="ALJ1" s="0"/>
+      <c r="ALK1" s="0"/>
+      <c r="ALL1" s="0"/>
+      <c r="ALM1" s="0"/>
+      <c r="ALN1" s="0"/>
+      <c r="ALO1" s="0"/>
+      <c r="ALP1" s="0"/>
+      <c r="ALQ1" s="0"/>
+      <c r="ALR1" s="0"/>
+      <c r="ALS1" s="0"/>
+      <c r="ALT1" s="0"/>
+      <c r="ALU1" s="0"/>
+      <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25"/>
@@ -10211,6 +11232,1024 @@
       <c r="F8" s="21" t="s">
         <v>332</v>
       </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
+      <c r="AI8" s="0"/>
+      <c r="AJ8" s="0"/>
+      <c r="AK8" s="0"/>
+      <c r="AL8" s="0"/>
+      <c r="AM8" s="0"/>
+      <c r="AN8" s="0"/>
+      <c r="AO8" s="0"/>
+      <c r="AP8" s="0"/>
+      <c r="AQ8" s="0"/>
+      <c r="AR8" s="0"/>
+      <c r="AS8" s="0"/>
+      <c r="AT8" s="0"/>
+      <c r="AU8" s="0"/>
+      <c r="AV8" s="0"/>
+      <c r="AW8" s="0"/>
+      <c r="AX8" s="0"/>
+      <c r="AY8" s="0"/>
+      <c r="AZ8" s="0"/>
+      <c r="BA8" s="0"/>
+      <c r="BB8" s="0"/>
+      <c r="BC8" s="0"/>
+      <c r="BD8" s="0"/>
+      <c r="BE8" s="0"/>
+      <c r="BF8" s="0"/>
+      <c r="BG8" s="0"/>
+      <c r="BH8" s="0"/>
+      <c r="BI8" s="0"/>
+      <c r="BJ8" s="0"/>
+      <c r="BK8" s="0"/>
+      <c r="BL8" s="0"/>
+      <c r="BM8" s="0"/>
+      <c r="BN8" s="0"/>
+      <c r="BO8" s="0"/>
+      <c r="BP8" s="0"/>
+      <c r="BQ8" s="0"/>
+      <c r="BR8" s="0"/>
+      <c r="BS8" s="0"/>
+      <c r="BT8" s="0"/>
+      <c r="BU8" s="0"/>
+      <c r="BV8" s="0"/>
+      <c r="BW8" s="0"/>
+      <c r="BX8" s="0"/>
+      <c r="BY8" s="0"/>
+      <c r="BZ8" s="0"/>
+      <c r="CA8" s="0"/>
+      <c r="CB8" s="0"/>
+      <c r="CC8" s="0"/>
+      <c r="CD8" s="0"/>
+      <c r="CE8" s="0"/>
+      <c r="CF8" s="0"/>
+      <c r="CG8" s="0"/>
+      <c r="CH8" s="0"/>
+      <c r="CI8" s="0"/>
+      <c r="CJ8" s="0"/>
+      <c r="CK8" s="0"/>
+      <c r="CL8" s="0"/>
+      <c r="CM8" s="0"/>
+      <c r="CN8" s="0"/>
+      <c r="CO8" s="0"/>
+      <c r="CP8" s="0"/>
+      <c r="CQ8" s="0"/>
+      <c r="CR8" s="0"/>
+      <c r="CS8" s="0"/>
+      <c r="CT8" s="0"/>
+      <c r="CU8" s="0"/>
+      <c r="CV8" s="0"/>
+      <c r="CW8" s="0"/>
+      <c r="CX8" s="0"/>
+      <c r="CY8" s="0"/>
+      <c r="CZ8" s="0"/>
+      <c r="DA8" s="0"/>
+      <c r="DB8" s="0"/>
+      <c r="DC8" s="0"/>
+      <c r="DD8" s="0"/>
+      <c r="DE8" s="0"/>
+      <c r="DF8" s="0"/>
+      <c r="DG8" s="0"/>
+      <c r="DH8" s="0"/>
+      <c r="DI8" s="0"/>
+      <c r="DJ8" s="0"/>
+      <c r="DK8" s="0"/>
+      <c r="DL8" s="0"/>
+      <c r="DM8" s="0"/>
+      <c r="DN8" s="0"/>
+      <c r="DO8" s="0"/>
+      <c r="DP8" s="0"/>
+      <c r="DQ8" s="0"/>
+      <c r="DR8" s="0"/>
+      <c r="DS8" s="0"/>
+      <c r="DT8" s="0"/>
+      <c r="DU8" s="0"/>
+      <c r="DV8" s="0"/>
+      <c r="DW8" s="0"/>
+      <c r="DX8" s="0"/>
+      <c r="DY8" s="0"/>
+      <c r="DZ8" s="0"/>
+      <c r="EA8" s="0"/>
+      <c r="EB8" s="0"/>
+      <c r="EC8" s="0"/>
+      <c r="ED8" s="0"/>
+      <c r="EE8" s="0"/>
+      <c r="EF8" s="0"/>
+      <c r="EG8" s="0"/>
+      <c r="EH8" s="0"/>
+      <c r="EI8" s="0"/>
+      <c r="EJ8" s="0"/>
+      <c r="EK8" s="0"/>
+      <c r="EL8" s="0"/>
+      <c r="EM8" s="0"/>
+      <c r="EN8" s="0"/>
+      <c r="EO8" s="0"/>
+      <c r="EP8" s="0"/>
+      <c r="EQ8" s="0"/>
+      <c r="ER8" s="0"/>
+      <c r="ES8" s="0"/>
+      <c r="ET8" s="0"/>
+      <c r="EU8" s="0"/>
+      <c r="EV8" s="0"/>
+      <c r="EW8" s="0"/>
+      <c r="EX8" s="0"/>
+      <c r="EY8" s="0"/>
+      <c r="EZ8" s="0"/>
+      <c r="FA8" s="0"/>
+      <c r="FB8" s="0"/>
+      <c r="FC8" s="0"/>
+      <c r="FD8" s="0"/>
+      <c r="FE8" s="0"/>
+      <c r="FF8" s="0"/>
+      <c r="FG8" s="0"/>
+      <c r="FH8" s="0"/>
+      <c r="FI8" s="0"/>
+      <c r="FJ8" s="0"/>
+      <c r="FK8" s="0"/>
+      <c r="FL8" s="0"/>
+      <c r="FM8" s="0"/>
+      <c r="FN8" s="0"/>
+      <c r="FO8" s="0"/>
+      <c r="FP8" s="0"/>
+      <c r="FQ8" s="0"/>
+      <c r="FR8" s="0"/>
+      <c r="FS8" s="0"/>
+      <c r="FT8" s="0"/>
+      <c r="FU8" s="0"/>
+      <c r="FV8" s="0"/>
+      <c r="FW8" s="0"/>
+      <c r="FX8" s="0"/>
+      <c r="FY8" s="0"/>
+      <c r="FZ8" s="0"/>
+      <c r="GA8" s="0"/>
+      <c r="GB8" s="0"/>
+      <c r="GC8" s="0"/>
+      <c r="GD8" s="0"/>
+      <c r="GE8" s="0"/>
+      <c r="GF8" s="0"/>
+      <c r="GG8" s="0"/>
+      <c r="GH8" s="0"/>
+      <c r="GI8" s="0"/>
+      <c r="GJ8" s="0"/>
+      <c r="GK8" s="0"/>
+      <c r="GL8" s="0"/>
+      <c r="GM8" s="0"/>
+      <c r="GN8" s="0"/>
+      <c r="GO8" s="0"/>
+      <c r="GP8" s="0"/>
+      <c r="GQ8" s="0"/>
+      <c r="GR8" s="0"/>
+      <c r="GS8" s="0"/>
+      <c r="GT8" s="0"/>
+      <c r="GU8" s="0"/>
+      <c r="GV8" s="0"/>
+      <c r="GW8" s="0"/>
+      <c r="GX8" s="0"/>
+      <c r="GY8" s="0"/>
+      <c r="GZ8" s="0"/>
+      <c r="HA8" s="0"/>
+      <c r="HB8" s="0"/>
+      <c r="HC8" s="0"/>
+      <c r="HD8" s="0"/>
+      <c r="HE8" s="0"/>
+      <c r="HF8" s="0"/>
+      <c r="HG8" s="0"/>
+      <c r="HH8" s="0"/>
+      <c r="HI8" s="0"/>
+      <c r="HJ8" s="0"/>
+      <c r="HK8" s="0"/>
+      <c r="HL8" s="0"/>
+      <c r="HM8" s="0"/>
+      <c r="HN8" s="0"/>
+      <c r="HO8" s="0"/>
+      <c r="HP8" s="0"/>
+      <c r="HQ8" s="0"/>
+      <c r="HR8" s="0"/>
+      <c r="HS8" s="0"/>
+      <c r="HT8" s="0"/>
+      <c r="HU8" s="0"/>
+      <c r="HV8" s="0"/>
+      <c r="HW8" s="0"/>
+      <c r="HX8" s="0"/>
+      <c r="HY8" s="0"/>
+      <c r="HZ8" s="0"/>
+      <c r="IA8" s="0"/>
+      <c r="IB8" s="0"/>
+      <c r="IC8" s="0"/>
+      <c r="ID8" s="0"/>
+      <c r="IE8" s="0"/>
+      <c r="IF8" s="0"/>
+      <c r="IG8" s="0"/>
+      <c r="IH8" s="0"/>
+      <c r="II8" s="0"/>
+      <c r="IJ8" s="0"/>
+      <c r="IK8" s="0"/>
+      <c r="IL8" s="0"/>
+      <c r="IM8" s="0"/>
+      <c r="IN8" s="0"/>
+      <c r="IO8" s="0"/>
+      <c r="IP8" s="0"/>
+      <c r="IQ8" s="0"/>
+      <c r="IR8" s="0"/>
+      <c r="IS8" s="0"/>
+      <c r="IT8" s="0"/>
+      <c r="IU8" s="0"/>
+      <c r="IV8" s="0"/>
+      <c r="IW8" s="0"/>
+      <c r="IX8" s="0"/>
+      <c r="IY8" s="0"/>
+      <c r="IZ8" s="0"/>
+      <c r="JA8" s="0"/>
+      <c r="JB8" s="0"/>
+      <c r="JC8" s="0"/>
+      <c r="JD8" s="0"/>
+      <c r="JE8" s="0"/>
+      <c r="JF8" s="0"/>
+      <c r="JG8" s="0"/>
+      <c r="JH8" s="0"/>
+      <c r="JI8" s="0"/>
+      <c r="JJ8" s="0"/>
+      <c r="JK8" s="0"/>
+      <c r="JL8" s="0"/>
+      <c r="JM8" s="0"/>
+      <c r="JN8" s="0"/>
+      <c r="JO8" s="0"/>
+      <c r="JP8" s="0"/>
+      <c r="JQ8" s="0"/>
+      <c r="JR8" s="0"/>
+      <c r="JS8" s="0"/>
+      <c r="JT8" s="0"/>
+      <c r="JU8" s="0"/>
+      <c r="JV8" s="0"/>
+      <c r="JW8" s="0"/>
+      <c r="JX8" s="0"/>
+      <c r="JY8" s="0"/>
+      <c r="JZ8" s="0"/>
+      <c r="KA8" s="0"/>
+      <c r="KB8" s="0"/>
+      <c r="KC8" s="0"/>
+      <c r="KD8" s="0"/>
+      <c r="KE8" s="0"/>
+      <c r="KF8" s="0"/>
+      <c r="KG8" s="0"/>
+      <c r="KH8" s="0"/>
+      <c r="KI8" s="0"/>
+      <c r="KJ8" s="0"/>
+      <c r="KK8" s="0"/>
+      <c r="KL8" s="0"/>
+      <c r="KM8" s="0"/>
+      <c r="KN8" s="0"/>
+      <c r="KO8" s="0"/>
+      <c r="KP8" s="0"/>
+      <c r="KQ8" s="0"/>
+      <c r="KR8" s="0"/>
+      <c r="KS8" s="0"/>
+      <c r="KT8" s="0"/>
+      <c r="KU8" s="0"/>
+      <c r="KV8" s="0"/>
+      <c r="KW8" s="0"/>
+      <c r="KX8" s="0"/>
+      <c r="KY8" s="0"/>
+      <c r="KZ8" s="0"/>
+      <c r="LA8" s="0"/>
+      <c r="LB8" s="0"/>
+      <c r="LC8" s="0"/>
+      <c r="LD8" s="0"/>
+      <c r="LE8" s="0"/>
+      <c r="LF8" s="0"/>
+      <c r="LG8" s="0"/>
+      <c r="LH8" s="0"/>
+      <c r="LI8" s="0"/>
+      <c r="LJ8" s="0"/>
+      <c r="LK8" s="0"/>
+      <c r="LL8" s="0"/>
+      <c r="LM8" s="0"/>
+      <c r="LN8" s="0"/>
+      <c r="LO8" s="0"/>
+      <c r="LP8" s="0"/>
+      <c r="LQ8" s="0"/>
+      <c r="LR8" s="0"/>
+      <c r="LS8" s="0"/>
+      <c r="LT8" s="0"/>
+      <c r="LU8" s="0"/>
+      <c r="LV8" s="0"/>
+      <c r="LW8" s="0"/>
+      <c r="LX8" s="0"/>
+      <c r="LY8" s="0"/>
+      <c r="LZ8" s="0"/>
+      <c r="MA8" s="0"/>
+      <c r="MB8" s="0"/>
+      <c r="MC8" s="0"/>
+      <c r="MD8" s="0"/>
+      <c r="ME8" s="0"/>
+      <c r="MF8" s="0"/>
+      <c r="MG8" s="0"/>
+      <c r="MH8" s="0"/>
+      <c r="MI8" s="0"/>
+      <c r="MJ8" s="0"/>
+      <c r="MK8" s="0"/>
+      <c r="ML8" s="0"/>
+      <c r="MM8" s="0"/>
+      <c r="MN8" s="0"/>
+      <c r="MO8" s="0"/>
+      <c r="MP8" s="0"/>
+      <c r="MQ8" s="0"/>
+      <c r="MR8" s="0"/>
+      <c r="MS8" s="0"/>
+      <c r="MT8" s="0"/>
+      <c r="MU8" s="0"/>
+      <c r="MV8" s="0"/>
+      <c r="MW8" s="0"/>
+      <c r="MX8" s="0"/>
+      <c r="MY8" s="0"/>
+      <c r="MZ8" s="0"/>
+      <c r="NA8" s="0"/>
+      <c r="NB8" s="0"/>
+      <c r="NC8" s="0"/>
+      <c r="ND8" s="0"/>
+      <c r="NE8" s="0"/>
+      <c r="NF8" s="0"/>
+      <c r="NG8" s="0"/>
+      <c r="NH8" s="0"/>
+      <c r="NI8" s="0"/>
+      <c r="NJ8" s="0"/>
+      <c r="NK8" s="0"/>
+      <c r="NL8" s="0"/>
+      <c r="NM8" s="0"/>
+      <c r="NN8" s="0"/>
+      <c r="NO8" s="0"/>
+      <c r="NP8" s="0"/>
+      <c r="NQ8" s="0"/>
+      <c r="NR8" s="0"/>
+      <c r="NS8" s="0"/>
+      <c r="NT8" s="0"/>
+      <c r="NU8" s="0"/>
+      <c r="NV8" s="0"/>
+      <c r="NW8" s="0"/>
+      <c r="NX8" s="0"/>
+      <c r="NY8" s="0"/>
+      <c r="NZ8" s="0"/>
+      <c r="OA8" s="0"/>
+      <c r="OB8" s="0"/>
+      <c r="OC8" s="0"/>
+      <c r="OD8" s="0"/>
+      <c r="OE8" s="0"/>
+      <c r="OF8" s="0"/>
+      <c r="OG8" s="0"/>
+      <c r="OH8" s="0"/>
+      <c r="OI8" s="0"/>
+      <c r="OJ8" s="0"/>
+      <c r="OK8" s="0"/>
+      <c r="OL8" s="0"/>
+      <c r="OM8" s="0"/>
+      <c r="ON8" s="0"/>
+      <c r="OO8" s="0"/>
+      <c r="OP8" s="0"/>
+      <c r="OQ8" s="0"/>
+      <c r="OR8" s="0"/>
+      <c r="OS8" s="0"/>
+      <c r="OT8" s="0"/>
+      <c r="OU8" s="0"/>
+      <c r="OV8" s="0"/>
+      <c r="OW8" s="0"/>
+      <c r="OX8" s="0"/>
+      <c r="OY8" s="0"/>
+      <c r="OZ8" s="0"/>
+      <c r="PA8" s="0"/>
+      <c r="PB8" s="0"/>
+      <c r="PC8" s="0"/>
+      <c r="PD8" s="0"/>
+      <c r="PE8" s="0"/>
+      <c r="PF8" s="0"/>
+      <c r="PG8" s="0"/>
+      <c r="PH8" s="0"/>
+      <c r="PI8" s="0"/>
+      <c r="PJ8" s="0"/>
+      <c r="PK8" s="0"/>
+      <c r="PL8" s="0"/>
+      <c r="PM8" s="0"/>
+      <c r="PN8" s="0"/>
+      <c r="PO8" s="0"/>
+      <c r="PP8" s="0"/>
+      <c r="PQ8" s="0"/>
+      <c r="PR8" s="0"/>
+      <c r="PS8" s="0"/>
+      <c r="PT8" s="0"/>
+      <c r="PU8" s="0"/>
+      <c r="PV8" s="0"/>
+      <c r="PW8" s="0"/>
+      <c r="PX8" s="0"/>
+      <c r="PY8" s="0"/>
+      <c r="PZ8" s="0"/>
+      <c r="QA8" s="0"/>
+      <c r="QB8" s="0"/>
+      <c r="QC8" s="0"/>
+      <c r="QD8" s="0"/>
+      <c r="QE8" s="0"/>
+      <c r="QF8" s="0"/>
+      <c r="QG8" s="0"/>
+      <c r="QH8" s="0"/>
+      <c r="QI8" s="0"/>
+      <c r="QJ8" s="0"/>
+      <c r="QK8" s="0"/>
+      <c r="QL8" s="0"/>
+      <c r="QM8" s="0"/>
+      <c r="QN8" s="0"/>
+      <c r="QO8" s="0"/>
+      <c r="QP8" s="0"/>
+      <c r="QQ8" s="0"/>
+      <c r="QR8" s="0"/>
+      <c r="QS8" s="0"/>
+      <c r="QT8" s="0"/>
+      <c r="QU8" s="0"/>
+      <c r="QV8" s="0"/>
+      <c r="QW8" s="0"/>
+      <c r="QX8" s="0"/>
+      <c r="QY8" s="0"/>
+      <c r="QZ8" s="0"/>
+      <c r="RA8" s="0"/>
+      <c r="RB8" s="0"/>
+      <c r="RC8" s="0"/>
+      <c r="RD8" s="0"/>
+      <c r="RE8" s="0"/>
+      <c r="RF8" s="0"/>
+      <c r="RG8" s="0"/>
+      <c r="RH8" s="0"/>
+      <c r="RI8" s="0"/>
+      <c r="RJ8" s="0"/>
+      <c r="RK8" s="0"/>
+      <c r="RL8" s="0"/>
+      <c r="RM8" s="0"/>
+      <c r="RN8" s="0"/>
+      <c r="RO8" s="0"/>
+      <c r="RP8" s="0"/>
+      <c r="RQ8" s="0"/>
+      <c r="RR8" s="0"/>
+      <c r="RS8" s="0"/>
+      <c r="RT8" s="0"/>
+      <c r="RU8" s="0"/>
+      <c r="RV8" s="0"/>
+      <c r="RW8" s="0"/>
+      <c r="RX8" s="0"/>
+      <c r="RY8" s="0"/>
+      <c r="RZ8" s="0"/>
+      <c r="SA8" s="0"/>
+      <c r="SB8" s="0"/>
+      <c r="SC8" s="0"/>
+      <c r="SD8" s="0"/>
+      <c r="SE8" s="0"/>
+      <c r="SF8" s="0"/>
+      <c r="SG8" s="0"/>
+      <c r="SH8" s="0"/>
+      <c r="SI8" s="0"/>
+      <c r="SJ8" s="0"/>
+      <c r="SK8" s="0"/>
+      <c r="SL8" s="0"/>
+      <c r="SM8" s="0"/>
+      <c r="SN8" s="0"/>
+      <c r="SO8" s="0"/>
+      <c r="SP8" s="0"/>
+      <c r="SQ8" s="0"/>
+      <c r="SR8" s="0"/>
+      <c r="SS8" s="0"/>
+      <c r="ST8" s="0"/>
+      <c r="SU8" s="0"/>
+      <c r="SV8" s="0"/>
+      <c r="SW8" s="0"/>
+      <c r="SX8" s="0"/>
+      <c r="SY8" s="0"/>
+      <c r="SZ8" s="0"/>
+      <c r="TA8" s="0"/>
+      <c r="TB8" s="0"/>
+      <c r="TC8" s="0"/>
+      <c r="TD8" s="0"/>
+      <c r="TE8" s="0"/>
+      <c r="TF8" s="0"/>
+      <c r="TG8" s="0"/>
+      <c r="TH8" s="0"/>
+      <c r="TI8" s="0"/>
+      <c r="TJ8" s="0"/>
+      <c r="TK8" s="0"/>
+      <c r="TL8" s="0"/>
+      <c r="TM8" s="0"/>
+      <c r="TN8" s="0"/>
+      <c r="TO8" s="0"/>
+      <c r="TP8" s="0"/>
+      <c r="TQ8" s="0"/>
+      <c r="TR8" s="0"/>
+      <c r="TS8" s="0"/>
+      <c r="TT8" s="0"/>
+      <c r="TU8" s="0"/>
+      <c r="TV8" s="0"/>
+      <c r="TW8" s="0"/>
+      <c r="TX8" s="0"/>
+      <c r="TY8" s="0"/>
+      <c r="TZ8" s="0"/>
+      <c r="UA8" s="0"/>
+      <c r="UB8" s="0"/>
+      <c r="UC8" s="0"/>
+      <c r="UD8" s="0"/>
+      <c r="UE8" s="0"/>
+      <c r="UF8" s="0"/>
+      <c r="UG8" s="0"/>
+      <c r="UH8" s="0"/>
+      <c r="UI8" s="0"/>
+      <c r="UJ8" s="0"/>
+      <c r="UK8" s="0"/>
+      <c r="UL8" s="0"/>
+      <c r="UM8" s="0"/>
+      <c r="UN8" s="0"/>
+      <c r="UO8" s="0"/>
+      <c r="UP8" s="0"/>
+      <c r="UQ8" s="0"/>
+      <c r="UR8" s="0"/>
+      <c r="US8" s="0"/>
+      <c r="UT8" s="0"/>
+      <c r="UU8" s="0"/>
+      <c r="UV8" s="0"/>
+      <c r="UW8" s="0"/>
+      <c r="UX8" s="0"/>
+      <c r="UY8" s="0"/>
+      <c r="UZ8" s="0"/>
+      <c r="VA8" s="0"/>
+      <c r="VB8" s="0"/>
+      <c r="VC8" s="0"/>
+      <c r="VD8" s="0"/>
+      <c r="VE8" s="0"/>
+      <c r="VF8" s="0"/>
+      <c r="VG8" s="0"/>
+      <c r="VH8" s="0"/>
+      <c r="VI8" s="0"/>
+      <c r="VJ8" s="0"/>
+      <c r="VK8" s="0"/>
+      <c r="VL8" s="0"/>
+      <c r="VM8" s="0"/>
+      <c r="VN8" s="0"/>
+      <c r="VO8" s="0"/>
+      <c r="VP8" s="0"/>
+      <c r="VQ8" s="0"/>
+      <c r="VR8" s="0"/>
+      <c r="VS8" s="0"/>
+      <c r="VT8" s="0"/>
+      <c r="VU8" s="0"/>
+      <c r="VV8" s="0"/>
+      <c r="VW8" s="0"/>
+      <c r="VX8" s="0"/>
+      <c r="VY8" s="0"/>
+      <c r="VZ8" s="0"/>
+      <c r="WA8" s="0"/>
+      <c r="WB8" s="0"/>
+      <c r="WC8" s="0"/>
+      <c r="WD8" s="0"/>
+      <c r="WE8" s="0"/>
+      <c r="WF8" s="0"/>
+      <c r="WG8" s="0"/>
+      <c r="WH8" s="0"/>
+      <c r="WI8" s="0"/>
+      <c r="WJ8" s="0"/>
+      <c r="WK8" s="0"/>
+      <c r="WL8" s="0"/>
+      <c r="WM8" s="0"/>
+      <c r="WN8" s="0"/>
+      <c r="WO8" s="0"/>
+      <c r="WP8" s="0"/>
+      <c r="WQ8" s="0"/>
+      <c r="WR8" s="0"/>
+      <c r="WS8" s="0"/>
+      <c r="WT8" s="0"/>
+      <c r="WU8" s="0"/>
+      <c r="WV8" s="0"/>
+      <c r="WW8" s="0"/>
+      <c r="WX8" s="0"/>
+      <c r="WY8" s="0"/>
+      <c r="WZ8" s="0"/>
+      <c r="XA8" s="0"/>
+      <c r="XB8" s="0"/>
+      <c r="XC8" s="0"/>
+      <c r="XD8" s="0"/>
+      <c r="XE8" s="0"/>
+      <c r="XF8" s="0"/>
+      <c r="XG8" s="0"/>
+      <c r="XH8" s="0"/>
+      <c r="XI8" s="0"/>
+      <c r="XJ8" s="0"/>
+      <c r="XK8" s="0"/>
+      <c r="XL8" s="0"/>
+      <c r="XM8" s="0"/>
+      <c r="XN8" s="0"/>
+      <c r="XO8" s="0"/>
+      <c r="XP8" s="0"/>
+      <c r="XQ8" s="0"/>
+      <c r="XR8" s="0"/>
+      <c r="XS8" s="0"/>
+      <c r="XT8" s="0"/>
+      <c r="XU8" s="0"/>
+      <c r="XV8" s="0"/>
+      <c r="XW8" s="0"/>
+      <c r="XX8" s="0"/>
+      <c r="XY8" s="0"/>
+      <c r="XZ8" s="0"/>
+      <c r="YA8" s="0"/>
+      <c r="YB8" s="0"/>
+      <c r="YC8" s="0"/>
+      <c r="YD8" s="0"/>
+      <c r="YE8" s="0"/>
+      <c r="YF8" s="0"/>
+      <c r="YG8" s="0"/>
+      <c r="YH8" s="0"/>
+      <c r="YI8" s="0"/>
+      <c r="YJ8" s="0"/>
+      <c r="YK8" s="0"/>
+      <c r="YL8" s="0"/>
+      <c r="YM8" s="0"/>
+      <c r="YN8" s="0"/>
+      <c r="YO8" s="0"/>
+      <c r="YP8" s="0"/>
+      <c r="YQ8" s="0"/>
+      <c r="YR8" s="0"/>
+      <c r="YS8" s="0"/>
+      <c r="YT8" s="0"/>
+      <c r="YU8" s="0"/>
+      <c r="YV8" s="0"/>
+      <c r="YW8" s="0"/>
+      <c r="YX8" s="0"/>
+      <c r="YY8" s="0"/>
+      <c r="YZ8" s="0"/>
+      <c r="ZA8" s="0"/>
+      <c r="ZB8" s="0"/>
+      <c r="ZC8" s="0"/>
+      <c r="ZD8" s="0"/>
+      <c r="ZE8" s="0"/>
+      <c r="ZF8" s="0"/>
+      <c r="ZG8" s="0"/>
+      <c r="ZH8" s="0"/>
+      <c r="ZI8" s="0"/>
+      <c r="ZJ8" s="0"/>
+      <c r="ZK8" s="0"/>
+      <c r="ZL8" s="0"/>
+      <c r="ZM8" s="0"/>
+      <c r="ZN8" s="0"/>
+      <c r="ZO8" s="0"/>
+      <c r="ZP8" s="0"/>
+      <c r="ZQ8" s="0"/>
+      <c r="ZR8" s="0"/>
+      <c r="ZS8" s="0"/>
+      <c r="ZT8" s="0"/>
+      <c r="ZU8" s="0"/>
+      <c r="ZV8" s="0"/>
+      <c r="ZW8" s="0"/>
+      <c r="ZX8" s="0"/>
+      <c r="ZY8" s="0"/>
+      <c r="ZZ8" s="0"/>
+      <c r="AAA8" s="0"/>
+      <c r="AAB8" s="0"/>
+      <c r="AAC8" s="0"/>
+      <c r="AAD8" s="0"/>
+      <c r="AAE8" s="0"/>
+      <c r="AAF8" s="0"/>
+      <c r="AAG8" s="0"/>
+      <c r="AAH8" s="0"/>
+      <c r="AAI8" s="0"/>
+      <c r="AAJ8" s="0"/>
+      <c r="AAK8" s="0"/>
+      <c r="AAL8" s="0"/>
+      <c r="AAM8" s="0"/>
+      <c r="AAN8" s="0"/>
+      <c r="AAO8" s="0"/>
+      <c r="AAP8" s="0"/>
+      <c r="AAQ8" s="0"/>
+      <c r="AAR8" s="0"/>
+      <c r="AAS8" s="0"/>
+      <c r="AAT8" s="0"/>
+      <c r="AAU8" s="0"/>
+      <c r="AAV8" s="0"/>
+      <c r="AAW8" s="0"/>
+      <c r="AAX8" s="0"/>
+      <c r="AAY8" s="0"/>
+      <c r="AAZ8" s="0"/>
+      <c r="ABA8" s="0"/>
+      <c r="ABB8" s="0"/>
+      <c r="ABC8" s="0"/>
+      <c r="ABD8" s="0"/>
+      <c r="ABE8" s="0"/>
+      <c r="ABF8" s="0"/>
+      <c r="ABG8" s="0"/>
+      <c r="ABH8" s="0"/>
+      <c r="ABI8" s="0"/>
+      <c r="ABJ8" s="0"/>
+      <c r="ABK8" s="0"/>
+      <c r="ABL8" s="0"/>
+      <c r="ABM8" s="0"/>
+      <c r="ABN8" s="0"/>
+      <c r="ABO8" s="0"/>
+      <c r="ABP8" s="0"/>
+      <c r="ABQ8" s="0"/>
+      <c r="ABR8" s="0"/>
+      <c r="ABS8" s="0"/>
+      <c r="ABT8" s="0"/>
+      <c r="ABU8" s="0"/>
+      <c r="ABV8" s="0"/>
+      <c r="ABW8" s="0"/>
+      <c r="ABX8" s="0"/>
+      <c r="ABY8" s="0"/>
+      <c r="ABZ8" s="0"/>
+      <c r="ACA8" s="0"/>
+      <c r="ACB8" s="0"/>
+      <c r="ACC8" s="0"/>
+      <c r="ACD8" s="0"/>
+      <c r="ACE8" s="0"/>
+      <c r="ACF8" s="0"/>
+      <c r="ACG8" s="0"/>
+      <c r="ACH8" s="0"/>
+      <c r="ACI8" s="0"/>
+      <c r="ACJ8" s="0"/>
+      <c r="ACK8" s="0"/>
+      <c r="ACL8" s="0"/>
+      <c r="ACM8" s="0"/>
+      <c r="ACN8" s="0"/>
+      <c r="ACO8" s="0"/>
+      <c r="ACP8" s="0"/>
+      <c r="ACQ8" s="0"/>
+      <c r="ACR8" s="0"/>
+      <c r="ACS8" s="0"/>
+      <c r="ACT8" s="0"/>
+      <c r="ACU8" s="0"/>
+      <c r="ACV8" s="0"/>
+      <c r="ACW8" s="0"/>
+      <c r="ACX8" s="0"/>
+      <c r="ACY8" s="0"/>
+      <c r="ACZ8" s="0"/>
+      <c r="ADA8" s="0"/>
+      <c r="ADB8" s="0"/>
+      <c r="ADC8" s="0"/>
+      <c r="ADD8" s="0"/>
+      <c r="ADE8" s="0"/>
+      <c r="ADF8" s="0"/>
+      <c r="ADG8" s="0"/>
+      <c r="ADH8" s="0"/>
+      <c r="ADI8" s="0"/>
+      <c r="ADJ8" s="0"/>
+      <c r="ADK8" s="0"/>
+      <c r="ADL8" s="0"/>
+      <c r="ADM8" s="0"/>
+      <c r="ADN8" s="0"/>
+      <c r="ADO8" s="0"/>
+      <c r="ADP8" s="0"/>
+      <c r="ADQ8" s="0"/>
+      <c r="ADR8" s="0"/>
+      <c r="ADS8" s="0"/>
+      <c r="ADT8" s="0"/>
+      <c r="ADU8" s="0"/>
+      <c r="ADV8" s="0"/>
+      <c r="ADW8" s="0"/>
+      <c r="ADX8" s="0"/>
+      <c r="ADY8" s="0"/>
+      <c r="ADZ8" s="0"/>
+      <c r="AEA8" s="0"/>
+      <c r="AEB8" s="0"/>
+      <c r="AEC8" s="0"/>
+      <c r="AED8" s="0"/>
+      <c r="AEE8" s="0"/>
+      <c r="AEF8" s="0"/>
+      <c r="AEG8" s="0"/>
+      <c r="AEH8" s="0"/>
+      <c r="AEI8" s="0"/>
+      <c r="AEJ8" s="0"/>
+      <c r="AEK8" s="0"/>
+      <c r="AEL8" s="0"/>
+      <c r="AEM8" s="0"/>
+      <c r="AEN8" s="0"/>
+      <c r="AEO8" s="0"/>
+      <c r="AEP8" s="0"/>
+      <c r="AEQ8" s="0"/>
+      <c r="AER8" s="0"/>
+      <c r="AES8" s="0"/>
+      <c r="AET8" s="0"/>
+      <c r="AEU8" s="0"/>
+      <c r="AEV8" s="0"/>
+      <c r="AEW8" s="0"/>
+      <c r="AEX8" s="0"/>
+      <c r="AEY8" s="0"/>
+      <c r="AEZ8" s="0"/>
+      <c r="AFA8" s="0"/>
+      <c r="AFB8" s="0"/>
+      <c r="AFC8" s="0"/>
+      <c r="AFD8" s="0"/>
+      <c r="AFE8" s="0"/>
+      <c r="AFF8" s="0"/>
+      <c r="AFG8" s="0"/>
+      <c r="AFH8" s="0"/>
+      <c r="AFI8" s="0"/>
+      <c r="AFJ8" s="0"/>
+      <c r="AFK8" s="0"/>
+      <c r="AFL8" s="0"/>
+      <c r="AFM8" s="0"/>
+      <c r="AFN8" s="0"/>
+      <c r="AFO8" s="0"/>
+      <c r="AFP8" s="0"/>
+      <c r="AFQ8" s="0"/>
+      <c r="AFR8" s="0"/>
+      <c r="AFS8" s="0"/>
+      <c r="AFT8" s="0"/>
+      <c r="AFU8" s="0"/>
+      <c r="AFV8" s="0"/>
+      <c r="AFW8" s="0"/>
+      <c r="AFX8" s="0"/>
+      <c r="AFY8" s="0"/>
+      <c r="AFZ8" s="0"/>
+      <c r="AGA8" s="0"/>
+      <c r="AGB8" s="0"/>
+      <c r="AGC8" s="0"/>
+      <c r="AGD8" s="0"/>
+      <c r="AGE8" s="0"/>
+      <c r="AGF8" s="0"/>
+      <c r="AGG8" s="0"/>
+      <c r="AGH8" s="0"/>
+      <c r="AGI8" s="0"/>
+      <c r="AGJ8" s="0"/>
+      <c r="AGK8" s="0"/>
+      <c r="AGL8" s="0"/>
+      <c r="AGM8" s="0"/>
+      <c r="AGN8" s="0"/>
+      <c r="AGO8" s="0"/>
+      <c r="AGP8" s="0"/>
+      <c r="AGQ8" s="0"/>
+      <c r="AGR8" s="0"/>
+      <c r="AGS8" s="0"/>
+      <c r="AGT8" s="0"/>
+      <c r="AGU8" s="0"/>
+      <c r="AGV8" s="0"/>
+      <c r="AGW8" s="0"/>
+      <c r="AGX8" s="0"/>
+      <c r="AGY8" s="0"/>
+      <c r="AGZ8" s="0"/>
+      <c r="AHA8" s="0"/>
+      <c r="AHB8" s="0"/>
+      <c r="AHC8" s="0"/>
+      <c r="AHD8" s="0"/>
+      <c r="AHE8" s="0"/>
+      <c r="AHF8" s="0"/>
+      <c r="AHG8" s="0"/>
+      <c r="AHH8" s="0"/>
+      <c r="AHI8" s="0"/>
+      <c r="AHJ8" s="0"/>
+      <c r="AHK8" s="0"/>
+      <c r="AHL8" s="0"/>
+      <c r="AHM8" s="0"/>
+      <c r="AHN8" s="0"/>
+      <c r="AHO8" s="0"/>
+      <c r="AHP8" s="0"/>
+      <c r="AHQ8" s="0"/>
+      <c r="AHR8" s="0"/>
+      <c r="AHS8" s="0"/>
+      <c r="AHT8" s="0"/>
+      <c r="AHU8" s="0"/>
+      <c r="AHV8" s="0"/>
+      <c r="AHW8" s="0"/>
+      <c r="AHX8" s="0"/>
+      <c r="AHY8" s="0"/>
+      <c r="AHZ8" s="0"/>
+      <c r="AIA8" s="0"/>
+      <c r="AIB8" s="0"/>
+      <c r="AIC8" s="0"/>
+      <c r="AID8" s="0"/>
+      <c r="AIE8" s="0"/>
+      <c r="AIF8" s="0"/>
+      <c r="AIG8" s="0"/>
+      <c r="AIH8" s="0"/>
+      <c r="AII8" s="0"/>
+      <c r="AIJ8" s="0"/>
+      <c r="AIK8" s="0"/>
+      <c r="AIL8" s="0"/>
+      <c r="AIM8" s="0"/>
+      <c r="AIN8" s="0"/>
+      <c r="AIO8" s="0"/>
+      <c r="AIP8" s="0"/>
+      <c r="AIQ8" s="0"/>
+      <c r="AIR8" s="0"/>
+      <c r="AIS8" s="0"/>
+      <c r="AIT8" s="0"/>
+      <c r="AIU8" s="0"/>
+      <c r="AIV8" s="0"/>
+      <c r="AIW8" s="0"/>
+      <c r="AIX8" s="0"/>
+      <c r="AIY8" s="0"/>
+      <c r="AIZ8" s="0"/>
+      <c r="AJA8" s="0"/>
+      <c r="AJB8" s="0"/>
+      <c r="AJC8" s="0"/>
+      <c r="AJD8" s="0"/>
+      <c r="AJE8" s="0"/>
+      <c r="AJF8" s="0"/>
+      <c r="AJG8" s="0"/>
+      <c r="AJH8" s="0"/>
+      <c r="AJI8" s="0"/>
+      <c r="AJJ8" s="0"/>
+      <c r="AJK8" s="0"/>
+      <c r="AJL8" s="0"/>
+      <c r="AJM8" s="0"/>
+      <c r="AJN8" s="0"/>
+      <c r="AJO8" s="0"/>
+      <c r="AJP8" s="0"/>
+      <c r="AJQ8" s="0"/>
+      <c r="AJR8" s="0"/>
+      <c r="AJS8" s="0"/>
+      <c r="AJT8" s="0"/>
+      <c r="AJU8" s="0"/>
+      <c r="AJV8" s="0"/>
+      <c r="AJW8" s="0"/>
+      <c r="AJX8" s="0"/>
+      <c r="AJY8" s="0"/>
+      <c r="AJZ8" s="0"/>
+      <c r="AKA8" s="0"/>
+      <c r="AKB8" s="0"/>
+      <c r="AKC8" s="0"/>
+      <c r="AKD8" s="0"/>
+      <c r="AKE8" s="0"/>
+      <c r="AKF8" s="0"/>
+      <c r="AKG8" s="0"/>
+      <c r="AKH8" s="0"/>
+      <c r="AKI8" s="0"/>
+      <c r="AKJ8" s="0"/>
+      <c r="AKK8" s="0"/>
+      <c r="AKL8" s="0"/>
+      <c r="AKM8" s="0"/>
+      <c r="AKN8" s="0"/>
+      <c r="AKO8" s="0"/>
+      <c r="AKP8" s="0"/>
+      <c r="AKQ8" s="0"/>
+      <c r="AKR8" s="0"/>
+      <c r="AKS8" s="0"/>
+      <c r="AKT8" s="0"/>
+      <c r="AKU8" s="0"/>
+      <c r="AKV8" s="0"/>
+      <c r="AKW8" s="0"/>
+      <c r="AKX8" s="0"/>
+      <c r="AKY8" s="0"/>
+      <c r="AKZ8" s="0"/>
+      <c r="ALA8" s="0"/>
+      <c r="ALB8" s="0"/>
+      <c r="ALC8" s="0"/>
+      <c r="ALD8" s="0"/>
+      <c r="ALE8" s="0"/>
+      <c r="ALF8" s="0"/>
+      <c r="ALG8" s="0"/>
+      <c r="ALH8" s="0"/>
+      <c r="ALI8" s="0"/>
+      <c r="ALJ8" s="0"/>
+      <c r="ALK8" s="0"/>
+      <c r="ALL8" s="0"/>
+      <c r="ALM8" s="0"/>
+      <c r="ALN8" s="0"/>
+      <c r="ALO8" s="0"/>
+      <c r="ALP8" s="0"/>
+      <c r="ALQ8" s="0"/>
+      <c r="ALR8" s="0"/>
+      <c r="ALS8" s="0"/>
+      <c r="ALT8" s="0"/>
+      <c r="ALU8" s="0"/>
+      <c r="ALV8" s="0"/>
+      <c r="ALW8" s="0"/>
+      <c r="ALX8" s="0"/>
+      <c r="ALY8" s="0"/>
+      <c r="ALZ8" s="0"/>
+      <c r="AMA8" s="0"/>
+      <c r="AMB8" s="0"/>
+      <c r="AMC8" s="0"/>
+      <c r="AMD8" s="0"/>
+      <c r="AME8" s="0"/>
+      <c r="AMF8" s="0"/>
+      <c r="AMG8" s="0"/>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
@@ -12287,9 +14326,1028 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
+      <c r="E11" s="0"/>
       <c r="F11" s="19" t="s">
         <v>342</v>
       </c>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
+      <c r="AH11" s="0"/>
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="0"/>
+      <c r="AK11" s="0"/>
+      <c r="AL11" s="0"/>
+      <c r="AM11" s="0"/>
+      <c r="AN11" s="0"/>
+      <c r="AO11" s="0"/>
+      <c r="AP11" s="0"/>
+      <c r="AQ11" s="0"/>
+      <c r="AR11" s="0"/>
+      <c r="AS11" s="0"/>
+      <c r="AT11" s="0"/>
+      <c r="AU11" s="0"/>
+      <c r="AV11" s="0"/>
+      <c r="AW11" s="0"/>
+      <c r="AX11" s="0"/>
+      <c r="AY11" s="0"/>
+      <c r="AZ11" s="0"/>
+      <c r="BA11" s="0"/>
+      <c r="BB11" s="0"/>
+      <c r="BC11" s="0"/>
+      <c r="BD11" s="0"/>
+      <c r="BE11" s="0"/>
+      <c r="BF11" s="0"/>
+      <c r="BG11" s="0"/>
+      <c r="BH11" s="0"/>
+      <c r="BI11" s="0"/>
+      <c r="BJ11" s="0"/>
+      <c r="BK11" s="0"/>
+      <c r="BL11" s="0"/>
+      <c r="BM11" s="0"/>
+      <c r="BN11" s="0"/>
+      <c r="BO11" s="0"/>
+      <c r="BP11" s="0"/>
+      <c r="BQ11" s="0"/>
+      <c r="BR11" s="0"/>
+      <c r="BS11" s="0"/>
+      <c r="BT11" s="0"/>
+      <c r="BU11" s="0"/>
+      <c r="BV11" s="0"/>
+      <c r="BW11" s="0"/>
+      <c r="BX11" s="0"/>
+      <c r="BY11" s="0"/>
+      <c r="BZ11" s="0"/>
+      <c r="CA11" s="0"/>
+      <c r="CB11" s="0"/>
+      <c r="CC11" s="0"/>
+      <c r="CD11" s="0"/>
+      <c r="CE11" s="0"/>
+      <c r="CF11" s="0"/>
+      <c r="CG11" s="0"/>
+      <c r="CH11" s="0"/>
+      <c r="CI11" s="0"/>
+      <c r="CJ11" s="0"/>
+      <c r="CK11" s="0"/>
+      <c r="CL11" s="0"/>
+      <c r="CM11" s="0"/>
+      <c r="CN11" s="0"/>
+      <c r="CO11" s="0"/>
+      <c r="CP11" s="0"/>
+      <c r="CQ11" s="0"/>
+      <c r="CR11" s="0"/>
+      <c r="CS11" s="0"/>
+      <c r="CT11" s="0"/>
+      <c r="CU11" s="0"/>
+      <c r="CV11" s="0"/>
+      <c r="CW11" s="0"/>
+      <c r="CX11" s="0"/>
+      <c r="CY11" s="0"/>
+      <c r="CZ11" s="0"/>
+      <c r="DA11" s="0"/>
+      <c r="DB11" s="0"/>
+      <c r="DC11" s="0"/>
+      <c r="DD11" s="0"/>
+      <c r="DE11" s="0"/>
+      <c r="DF11" s="0"/>
+      <c r="DG11" s="0"/>
+      <c r="DH11" s="0"/>
+      <c r="DI11" s="0"/>
+      <c r="DJ11" s="0"/>
+      <c r="DK11" s="0"/>
+      <c r="DL11" s="0"/>
+      <c r="DM11" s="0"/>
+      <c r="DN11" s="0"/>
+      <c r="DO11" s="0"/>
+      <c r="DP11" s="0"/>
+      <c r="DQ11" s="0"/>
+      <c r="DR11" s="0"/>
+      <c r="DS11" s="0"/>
+      <c r="DT11" s="0"/>
+      <c r="DU11" s="0"/>
+      <c r="DV11" s="0"/>
+      <c r="DW11" s="0"/>
+      <c r="DX11" s="0"/>
+      <c r="DY11" s="0"/>
+      <c r="DZ11" s="0"/>
+      <c r="EA11" s="0"/>
+      <c r="EB11" s="0"/>
+      <c r="EC11" s="0"/>
+      <c r="ED11" s="0"/>
+      <c r="EE11" s="0"/>
+      <c r="EF11" s="0"/>
+      <c r="EG11" s="0"/>
+      <c r="EH11" s="0"/>
+      <c r="EI11" s="0"/>
+      <c r="EJ11" s="0"/>
+      <c r="EK11" s="0"/>
+      <c r="EL11" s="0"/>
+      <c r="EM11" s="0"/>
+      <c r="EN11" s="0"/>
+      <c r="EO11" s="0"/>
+      <c r="EP11" s="0"/>
+      <c r="EQ11" s="0"/>
+      <c r="ER11" s="0"/>
+      <c r="ES11" s="0"/>
+      <c r="ET11" s="0"/>
+      <c r="EU11" s="0"/>
+      <c r="EV11" s="0"/>
+      <c r="EW11" s="0"/>
+      <c r="EX11" s="0"/>
+      <c r="EY11" s="0"/>
+      <c r="EZ11" s="0"/>
+      <c r="FA11" s="0"/>
+      <c r="FB11" s="0"/>
+      <c r="FC11" s="0"/>
+      <c r="FD11" s="0"/>
+      <c r="FE11" s="0"/>
+      <c r="FF11" s="0"/>
+      <c r="FG11" s="0"/>
+      <c r="FH11" s="0"/>
+      <c r="FI11" s="0"/>
+      <c r="FJ11" s="0"/>
+      <c r="FK11" s="0"/>
+      <c r="FL11" s="0"/>
+      <c r="FM11" s="0"/>
+      <c r="FN11" s="0"/>
+      <c r="FO11" s="0"/>
+      <c r="FP11" s="0"/>
+      <c r="FQ11" s="0"/>
+      <c r="FR11" s="0"/>
+      <c r="FS11" s="0"/>
+      <c r="FT11" s="0"/>
+      <c r="FU11" s="0"/>
+      <c r="FV11" s="0"/>
+      <c r="FW11" s="0"/>
+      <c r="FX11" s="0"/>
+      <c r="FY11" s="0"/>
+      <c r="FZ11" s="0"/>
+      <c r="GA11" s="0"/>
+      <c r="GB11" s="0"/>
+      <c r="GC11" s="0"/>
+      <c r="GD11" s="0"/>
+      <c r="GE11" s="0"/>
+      <c r="GF11" s="0"/>
+      <c r="GG11" s="0"/>
+      <c r="GH11" s="0"/>
+      <c r="GI11" s="0"/>
+      <c r="GJ11" s="0"/>
+      <c r="GK11" s="0"/>
+      <c r="GL11" s="0"/>
+      <c r="GM11" s="0"/>
+      <c r="GN11" s="0"/>
+      <c r="GO11" s="0"/>
+      <c r="GP11" s="0"/>
+      <c r="GQ11" s="0"/>
+      <c r="GR11" s="0"/>
+      <c r="GS11" s="0"/>
+      <c r="GT11" s="0"/>
+      <c r="GU11" s="0"/>
+      <c r="GV11" s="0"/>
+      <c r="GW11" s="0"/>
+      <c r="GX11" s="0"/>
+      <c r="GY11" s="0"/>
+      <c r="GZ11" s="0"/>
+      <c r="HA11" s="0"/>
+      <c r="HB11" s="0"/>
+      <c r="HC11" s="0"/>
+      <c r="HD11" s="0"/>
+      <c r="HE11" s="0"/>
+      <c r="HF11" s="0"/>
+      <c r="HG11" s="0"/>
+      <c r="HH11" s="0"/>
+      <c r="HI11" s="0"/>
+      <c r="HJ11" s="0"/>
+      <c r="HK11" s="0"/>
+      <c r="HL11" s="0"/>
+      <c r="HM11" s="0"/>
+      <c r="HN11" s="0"/>
+      <c r="HO11" s="0"/>
+      <c r="HP11" s="0"/>
+      <c r="HQ11" s="0"/>
+      <c r="HR11" s="0"/>
+      <c r="HS11" s="0"/>
+      <c r="HT11" s="0"/>
+      <c r="HU11" s="0"/>
+      <c r="HV11" s="0"/>
+      <c r="HW11" s="0"/>
+      <c r="HX11" s="0"/>
+      <c r="HY11" s="0"/>
+      <c r="HZ11" s="0"/>
+      <c r="IA11" s="0"/>
+      <c r="IB11" s="0"/>
+      <c r="IC11" s="0"/>
+      <c r="ID11" s="0"/>
+      <c r="IE11" s="0"/>
+      <c r="IF11" s="0"/>
+      <c r="IG11" s="0"/>
+      <c r="IH11" s="0"/>
+      <c r="II11" s="0"/>
+      <c r="IJ11" s="0"/>
+      <c r="IK11" s="0"/>
+      <c r="IL11" s="0"/>
+      <c r="IM11" s="0"/>
+      <c r="IN11" s="0"/>
+      <c r="IO11" s="0"/>
+      <c r="IP11" s="0"/>
+      <c r="IQ11" s="0"/>
+      <c r="IR11" s="0"/>
+      <c r="IS11" s="0"/>
+      <c r="IT11" s="0"/>
+      <c r="IU11" s="0"/>
+      <c r="IV11" s="0"/>
+      <c r="IW11" s="0"/>
+      <c r="IX11" s="0"/>
+      <c r="IY11" s="0"/>
+      <c r="IZ11" s="0"/>
+      <c r="JA11" s="0"/>
+      <c r="JB11" s="0"/>
+      <c r="JC11" s="0"/>
+      <c r="JD11" s="0"/>
+      <c r="JE11" s="0"/>
+      <c r="JF11" s="0"/>
+      <c r="JG11" s="0"/>
+      <c r="JH11" s="0"/>
+      <c r="JI11" s="0"/>
+      <c r="JJ11" s="0"/>
+      <c r="JK11" s="0"/>
+      <c r="JL11" s="0"/>
+      <c r="JM11" s="0"/>
+      <c r="JN11" s="0"/>
+      <c r="JO11" s="0"/>
+      <c r="JP11" s="0"/>
+      <c r="JQ11" s="0"/>
+      <c r="JR11" s="0"/>
+      <c r="JS11" s="0"/>
+      <c r="JT11" s="0"/>
+      <c r="JU11" s="0"/>
+      <c r="JV11" s="0"/>
+      <c r="JW11" s="0"/>
+      <c r="JX11" s="0"/>
+      <c r="JY11" s="0"/>
+      <c r="JZ11" s="0"/>
+      <c r="KA11" s="0"/>
+      <c r="KB11" s="0"/>
+      <c r="KC11" s="0"/>
+      <c r="KD11" s="0"/>
+      <c r="KE11" s="0"/>
+      <c r="KF11" s="0"/>
+      <c r="KG11" s="0"/>
+      <c r="KH11" s="0"/>
+      <c r="KI11" s="0"/>
+      <c r="KJ11" s="0"/>
+      <c r="KK11" s="0"/>
+      <c r="KL11" s="0"/>
+      <c r="KM11" s="0"/>
+      <c r="KN11" s="0"/>
+      <c r="KO11" s="0"/>
+      <c r="KP11" s="0"/>
+      <c r="KQ11" s="0"/>
+      <c r="KR11" s="0"/>
+      <c r="KS11" s="0"/>
+      <c r="KT11" s="0"/>
+      <c r="KU11" s="0"/>
+      <c r="KV11" s="0"/>
+      <c r="KW11" s="0"/>
+      <c r="KX11" s="0"/>
+      <c r="KY11" s="0"/>
+      <c r="KZ11" s="0"/>
+      <c r="LA11" s="0"/>
+      <c r="LB11" s="0"/>
+      <c r="LC11" s="0"/>
+      <c r="LD11" s="0"/>
+      <c r="LE11" s="0"/>
+      <c r="LF11" s="0"/>
+      <c r="LG11" s="0"/>
+      <c r="LH11" s="0"/>
+      <c r="LI11" s="0"/>
+      <c r="LJ11" s="0"/>
+      <c r="LK11" s="0"/>
+      <c r="LL11" s="0"/>
+      <c r="LM11" s="0"/>
+      <c r="LN11" s="0"/>
+      <c r="LO11" s="0"/>
+      <c r="LP11" s="0"/>
+      <c r="LQ11" s="0"/>
+      <c r="LR11" s="0"/>
+      <c r="LS11" s="0"/>
+      <c r="LT11" s="0"/>
+      <c r="LU11" s="0"/>
+      <c r="LV11" s="0"/>
+      <c r="LW11" s="0"/>
+      <c r="LX11" s="0"/>
+      <c r="LY11" s="0"/>
+      <c r="LZ11" s="0"/>
+      <c r="MA11" s="0"/>
+      <c r="MB11" s="0"/>
+      <c r="MC11" s="0"/>
+      <c r="MD11" s="0"/>
+      <c r="ME11" s="0"/>
+      <c r="MF11" s="0"/>
+      <c r="MG11" s="0"/>
+      <c r="MH11" s="0"/>
+      <c r="MI11" s="0"/>
+      <c r="MJ11" s="0"/>
+      <c r="MK11" s="0"/>
+      <c r="ML11" s="0"/>
+      <c r="MM11" s="0"/>
+      <c r="MN11" s="0"/>
+      <c r="MO11" s="0"/>
+      <c r="MP11" s="0"/>
+      <c r="MQ11" s="0"/>
+      <c r="MR11" s="0"/>
+      <c r="MS11" s="0"/>
+      <c r="MT11" s="0"/>
+      <c r="MU11" s="0"/>
+      <c r="MV11" s="0"/>
+      <c r="MW11" s="0"/>
+      <c r="MX11" s="0"/>
+      <c r="MY11" s="0"/>
+      <c r="MZ11" s="0"/>
+      <c r="NA11" s="0"/>
+      <c r="NB11" s="0"/>
+      <c r="NC11" s="0"/>
+      <c r="ND11" s="0"/>
+      <c r="NE11" s="0"/>
+      <c r="NF11" s="0"/>
+      <c r="NG11" s="0"/>
+      <c r="NH11" s="0"/>
+      <c r="NI11" s="0"/>
+      <c r="NJ11" s="0"/>
+      <c r="NK11" s="0"/>
+      <c r="NL11" s="0"/>
+      <c r="NM11" s="0"/>
+      <c r="NN11" s="0"/>
+      <c r="NO11" s="0"/>
+      <c r="NP11" s="0"/>
+      <c r="NQ11" s="0"/>
+      <c r="NR11" s="0"/>
+      <c r="NS11" s="0"/>
+      <c r="NT11" s="0"/>
+      <c r="NU11" s="0"/>
+      <c r="NV11" s="0"/>
+      <c r="NW11" s="0"/>
+      <c r="NX11" s="0"/>
+      <c r="NY11" s="0"/>
+      <c r="NZ11" s="0"/>
+      <c r="OA11" s="0"/>
+      <c r="OB11" s="0"/>
+      <c r="OC11" s="0"/>
+      <c r="OD11" s="0"/>
+      <c r="OE11" s="0"/>
+      <c r="OF11" s="0"/>
+      <c r="OG11" s="0"/>
+      <c r="OH11" s="0"/>
+      <c r="OI11" s="0"/>
+      <c r="OJ11" s="0"/>
+      <c r="OK11" s="0"/>
+      <c r="OL11" s="0"/>
+      <c r="OM11" s="0"/>
+      <c r="ON11" s="0"/>
+      <c r="OO11" s="0"/>
+      <c r="OP11" s="0"/>
+      <c r="OQ11" s="0"/>
+      <c r="OR11" s="0"/>
+      <c r="OS11" s="0"/>
+      <c r="OT11" s="0"/>
+      <c r="OU11" s="0"/>
+      <c r="OV11" s="0"/>
+      <c r="OW11" s="0"/>
+      <c r="OX11" s="0"/>
+      <c r="OY11" s="0"/>
+      <c r="OZ11" s="0"/>
+      <c r="PA11" s="0"/>
+      <c r="PB11" s="0"/>
+      <c r="PC11" s="0"/>
+      <c r="PD11" s="0"/>
+      <c r="PE11" s="0"/>
+      <c r="PF11" s="0"/>
+      <c r="PG11" s="0"/>
+      <c r="PH11" s="0"/>
+      <c r="PI11" s="0"/>
+      <c r="PJ11" s="0"/>
+      <c r="PK11" s="0"/>
+      <c r="PL11" s="0"/>
+      <c r="PM11" s="0"/>
+      <c r="PN11" s="0"/>
+      <c r="PO11" s="0"/>
+      <c r="PP11" s="0"/>
+      <c r="PQ11" s="0"/>
+      <c r="PR11" s="0"/>
+      <c r="PS11" s="0"/>
+      <c r="PT11" s="0"/>
+      <c r="PU11" s="0"/>
+      <c r="PV11" s="0"/>
+      <c r="PW11" s="0"/>
+      <c r="PX11" s="0"/>
+      <c r="PY11" s="0"/>
+      <c r="PZ11" s="0"/>
+      <c r="QA11" s="0"/>
+      <c r="QB11" s="0"/>
+      <c r="QC11" s="0"/>
+      <c r="QD11" s="0"/>
+      <c r="QE11" s="0"/>
+      <c r="QF11" s="0"/>
+      <c r="QG11" s="0"/>
+      <c r="QH11" s="0"/>
+      <c r="QI11" s="0"/>
+      <c r="QJ11" s="0"/>
+      <c r="QK11" s="0"/>
+      <c r="QL11" s="0"/>
+      <c r="QM11" s="0"/>
+      <c r="QN11" s="0"/>
+      <c r="QO11" s="0"/>
+      <c r="QP11" s="0"/>
+      <c r="QQ11" s="0"/>
+      <c r="QR11" s="0"/>
+      <c r="QS11" s="0"/>
+      <c r="QT11" s="0"/>
+      <c r="QU11" s="0"/>
+      <c r="QV11" s="0"/>
+      <c r="QW11" s="0"/>
+      <c r="QX11" s="0"/>
+      <c r="QY11" s="0"/>
+      <c r="QZ11" s="0"/>
+      <c r="RA11" s="0"/>
+      <c r="RB11" s="0"/>
+      <c r="RC11" s="0"/>
+      <c r="RD11" s="0"/>
+      <c r="RE11" s="0"/>
+      <c r="RF11" s="0"/>
+      <c r="RG11" s="0"/>
+      <c r="RH11" s="0"/>
+      <c r="RI11" s="0"/>
+      <c r="RJ11" s="0"/>
+      <c r="RK11" s="0"/>
+      <c r="RL11" s="0"/>
+      <c r="RM11" s="0"/>
+      <c r="RN11" s="0"/>
+      <c r="RO11" s="0"/>
+      <c r="RP11" s="0"/>
+      <c r="RQ11" s="0"/>
+      <c r="RR11" s="0"/>
+      <c r="RS11" s="0"/>
+      <c r="RT11" s="0"/>
+      <c r="RU11" s="0"/>
+      <c r="RV11" s="0"/>
+      <c r="RW11" s="0"/>
+      <c r="RX11" s="0"/>
+      <c r="RY11" s="0"/>
+      <c r="RZ11" s="0"/>
+      <c r="SA11" s="0"/>
+      <c r="SB11" s="0"/>
+      <c r="SC11" s="0"/>
+      <c r="SD11" s="0"/>
+      <c r="SE11" s="0"/>
+      <c r="SF11" s="0"/>
+      <c r="SG11" s="0"/>
+      <c r="SH11" s="0"/>
+      <c r="SI11" s="0"/>
+      <c r="SJ11" s="0"/>
+      <c r="SK11" s="0"/>
+      <c r="SL11" s="0"/>
+      <c r="SM11" s="0"/>
+      <c r="SN11" s="0"/>
+      <c r="SO11" s="0"/>
+      <c r="SP11" s="0"/>
+      <c r="SQ11" s="0"/>
+      <c r="SR11" s="0"/>
+      <c r="SS11" s="0"/>
+      <c r="ST11" s="0"/>
+      <c r="SU11" s="0"/>
+      <c r="SV11" s="0"/>
+      <c r="SW11" s="0"/>
+      <c r="SX11" s="0"/>
+      <c r="SY11" s="0"/>
+      <c r="SZ11" s="0"/>
+      <c r="TA11" s="0"/>
+      <c r="TB11" s="0"/>
+      <c r="TC11" s="0"/>
+      <c r="TD11" s="0"/>
+      <c r="TE11" s="0"/>
+      <c r="TF11" s="0"/>
+      <c r="TG11" s="0"/>
+      <c r="TH11" s="0"/>
+      <c r="TI11" s="0"/>
+      <c r="TJ11" s="0"/>
+      <c r="TK11" s="0"/>
+      <c r="TL11" s="0"/>
+      <c r="TM11" s="0"/>
+      <c r="TN11" s="0"/>
+      <c r="TO11" s="0"/>
+      <c r="TP11" s="0"/>
+      <c r="TQ11" s="0"/>
+      <c r="TR11" s="0"/>
+      <c r="TS11" s="0"/>
+      <c r="TT11" s="0"/>
+      <c r="TU11" s="0"/>
+      <c r="TV11" s="0"/>
+      <c r="TW11" s="0"/>
+      <c r="TX11" s="0"/>
+      <c r="TY11" s="0"/>
+      <c r="TZ11" s="0"/>
+      <c r="UA11" s="0"/>
+      <c r="UB11" s="0"/>
+      <c r="UC11" s="0"/>
+      <c r="UD11" s="0"/>
+      <c r="UE11" s="0"/>
+      <c r="UF11" s="0"/>
+      <c r="UG11" s="0"/>
+      <c r="UH11" s="0"/>
+      <c r="UI11" s="0"/>
+      <c r="UJ11" s="0"/>
+      <c r="UK11" s="0"/>
+      <c r="UL11" s="0"/>
+      <c r="UM11" s="0"/>
+      <c r="UN11" s="0"/>
+      <c r="UO11" s="0"/>
+      <c r="UP11" s="0"/>
+      <c r="UQ11" s="0"/>
+      <c r="UR11" s="0"/>
+      <c r="US11" s="0"/>
+      <c r="UT11" s="0"/>
+      <c r="UU11" s="0"/>
+      <c r="UV11" s="0"/>
+      <c r="UW11" s="0"/>
+      <c r="UX11" s="0"/>
+      <c r="UY11" s="0"/>
+      <c r="UZ11" s="0"/>
+      <c r="VA11" s="0"/>
+      <c r="VB11" s="0"/>
+      <c r="VC11" s="0"/>
+      <c r="VD11" s="0"/>
+      <c r="VE11" s="0"/>
+      <c r="VF11" s="0"/>
+      <c r="VG11" s="0"/>
+      <c r="VH11" s="0"/>
+      <c r="VI11" s="0"/>
+      <c r="VJ11" s="0"/>
+      <c r="VK11" s="0"/>
+      <c r="VL11" s="0"/>
+      <c r="VM11" s="0"/>
+      <c r="VN11" s="0"/>
+      <c r="VO11" s="0"/>
+      <c r="VP11" s="0"/>
+      <c r="VQ11" s="0"/>
+      <c r="VR11" s="0"/>
+      <c r="VS11" s="0"/>
+      <c r="VT11" s="0"/>
+      <c r="VU11" s="0"/>
+      <c r="VV11" s="0"/>
+      <c r="VW11" s="0"/>
+      <c r="VX11" s="0"/>
+      <c r="VY11" s="0"/>
+      <c r="VZ11" s="0"/>
+      <c r="WA11" s="0"/>
+      <c r="WB11" s="0"/>
+      <c r="WC11" s="0"/>
+      <c r="WD11" s="0"/>
+      <c r="WE11" s="0"/>
+      <c r="WF11" s="0"/>
+      <c r="WG11" s="0"/>
+      <c r="WH11" s="0"/>
+      <c r="WI11" s="0"/>
+      <c r="WJ11" s="0"/>
+      <c r="WK11" s="0"/>
+      <c r="WL11" s="0"/>
+      <c r="WM11" s="0"/>
+      <c r="WN11" s="0"/>
+      <c r="WO11" s="0"/>
+      <c r="WP11" s="0"/>
+      <c r="WQ11" s="0"/>
+      <c r="WR11" s="0"/>
+      <c r="WS11" s="0"/>
+      <c r="WT11" s="0"/>
+      <c r="WU11" s="0"/>
+      <c r="WV11" s="0"/>
+      <c r="WW11" s="0"/>
+      <c r="WX11" s="0"/>
+      <c r="WY11" s="0"/>
+      <c r="WZ11" s="0"/>
+      <c r="XA11" s="0"/>
+      <c r="XB11" s="0"/>
+      <c r="XC11" s="0"/>
+      <c r="XD11" s="0"/>
+      <c r="XE11" s="0"/>
+      <c r="XF11" s="0"/>
+      <c r="XG11" s="0"/>
+      <c r="XH11" s="0"/>
+      <c r="XI11" s="0"/>
+      <c r="XJ11" s="0"/>
+      <c r="XK11" s="0"/>
+      <c r="XL11" s="0"/>
+      <c r="XM11" s="0"/>
+      <c r="XN11" s="0"/>
+      <c r="XO11" s="0"/>
+      <c r="XP11" s="0"/>
+      <c r="XQ11" s="0"/>
+      <c r="XR11" s="0"/>
+      <c r="XS11" s="0"/>
+      <c r="XT11" s="0"/>
+      <c r="XU11" s="0"/>
+      <c r="XV11" s="0"/>
+      <c r="XW11" s="0"/>
+      <c r="XX11" s="0"/>
+      <c r="XY11" s="0"/>
+      <c r="XZ11" s="0"/>
+      <c r="YA11" s="0"/>
+      <c r="YB11" s="0"/>
+      <c r="YC11" s="0"/>
+      <c r="YD11" s="0"/>
+      <c r="YE11" s="0"/>
+      <c r="YF11" s="0"/>
+      <c r="YG11" s="0"/>
+      <c r="YH11" s="0"/>
+      <c r="YI11" s="0"/>
+      <c r="YJ11" s="0"/>
+      <c r="YK11" s="0"/>
+      <c r="YL11" s="0"/>
+      <c r="YM11" s="0"/>
+      <c r="YN11" s="0"/>
+      <c r="YO11" s="0"/>
+      <c r="YP11" s="0"/>
+      <c r="YQ11" s="0"/>
+      <c r="YR11" s="0"/>
+      <c r="YS11" s="0"/>
+      <c r="YT11" s="0"/>
+      <c r="YU11" s="0"/>
+      <c r="YV11" s="0"/>
+      <c r="YW11" s="0"/>
+      <c r="YX11" s="0"/>
+      <c r="YY11" s="0"/>
+      <c r="YZ11" s="0"/>
+      <c r="ZA11" s="0"/>
+      <c r="ZB11" s="0"/>
+      <c r="ZC11" s="0"/>
+      <c r="ZD11" s="0"/>
+      <c r="ZE11" s="0"/>
+      <c r="ZF11" s="0"/>
+      <c r="ZG11" s="0"/>
+      <c r="ZH11" s="0"/>
+      <c r="ZI11" s="0"/>
+      <c r="ZJ11" s="0"/>
+      <c r="ZK11" s="0"/>
+      <c r="ZL11" s="0"/>
+      <c r="ZM11" s="0"/>
+      <c r="ZN11" s="0"/>
+      <c r="ZO11" s="0"/>
+      <c r="ZP11" s="0"/>
+      <c r="ZQ11" s="0"/>
+      <c r="ZR11" s="0"/>
+      <c r="ZS11" s="0"/>
+      <c r="ZT11" s="0"/>
+      <c r="ZU11" s="0"/>
+      <c r="ZV11" s="0"/>
+      <c r="ZW11" s="0"/>
+      <c r="ZX11" s="0"/>
+      <c r="ZY11" s="0"/>
+      <c r="ZZ11" s="0"/>
+      <c r="AAA11" s="0"/>
+      <c r="AAB11" s="0"/>
+      <c r="AAC11" s="0"/>
+      <c r="AAD11" s="0"/>
+      <c r="AAE11" s="0"/>
+      <c r="AAF11" s="0"/>
+      <c r="AAG11" s="0"/>
+      <c r="AAH11" s="0"/>
+      <c r="AAI11" s="0"/>
+      <c r="AAJ11" s="0"/>
+      <c r="AAK11" s="0"/>
+      <c r="AAL11" s="0"/>
+      <c r="AAM11" s="0"/>
+      <c r="AAN11" s="0"/>
+      <c r="AAO11" s="0"/>
+      <c r="AAP11" s="0"/>
+      <c r="AAQ11" s="0"/>
+      <c r="AAR11" s="0"/>
+      <c r="AAS11" s="0"/>
+      <c r="AAT11" s="0"/>
+      <c r="AAU11" s="0"/>
+      <c r="AAV11" s="0"/>
+      <c r="AAW11" s="0"/>
+      <c r="AAX11" s="0"/>
+      <c r="AAY11" s="0"/>
+      <c r="AAZ11" s="0"/>
+      <c r="ABA11" s="0"/>
+      <c r="ABB11" s="0"/>
+      <c r="ABC11" s="0"/>
+      <c r="ABD11" s="0"/>
+      <c r="ABE11" s="0"/>
+      <c r="ABF11" s="0"/>
+      <c r="ABG11" s="0"/>
+      <c r="ABH11" s="0"/>
+      <c r="ABI11" s="0"/>
+      <c r="ABJ11" s="0"/>
+      <c r="ABK11" s="0"/>
+      <c r="ABL11" s="0"/>
+      <c r="ABM11" s="0"/>
+      <c r="ABN11" s="0"/>
+      <c r="ABO11" s="0"/>
+      <c r="ABP11" s="0"/>
+      <c r="ABQ11" s="0"/>
+      <c r="ABR11" s="0"/>
+      <c r="ABS11" s="0"/>
+      <c r="ABT11" s="0"/>
+      <c r="ABU11" s="0"/>
+      <c r="ABV11" s="0"/>
+      <c r="ABW11" s="0"/>
+      <c r="ABX11" s="0"/>
+      <c r="ABY11" s="0"/>
+      <c r="ABZ11" s="0"/>
+      <c r="ACA11" s="0"/>
+      <c r="ACB11" s="0"/>
+      <c r="ACC11" s="0"/>
+      <c r="ACD11" s="0"/>
+      <c r="ACE11" s="0"/>
+      <c r="ACF11" s="0"/>
+      <c r="ACG11" s="0"/>
+      <c r="ACH11" s="0"/>
+      <c r="ACI11" s="0"/>
+      <c r="ACJ11" s="0"/>
+      <c r="ACK11" s="0"/>
+      <c r="ACL11" s="0"/>
+      <c r="ACM11" s="0"/>
+      <c r="ACN11" s="0"/>
+      <c r="ACO11" s="0"/>
+      <c r="ACP11" s="0"/>
+      <c r="ACQ11" s="0"/>
+      <c r="ACR11" s="0"/>
+      <c r="ACS11" s="0"/>
+      <c r="ACT11" s="0"/>
+      <c r="ACU11" s="0"/>
+      <c r="ACV11" s="0"/>
+      <c r="ACW11" s="0"/>
+      <c r="ACX11" s="0"/>
+      <c r="ACY11" s="0"/>
+      <c r="ACZ11" s="0"/>
+      <c r="ADA11" s="0"/>
+      <c r="ADB11" s="0"/>
+      <c r="ADC11" s="0"/>
+      <c r="ADD11" s="0"/>
+      <c r="ADE11" s="0"/>
+      <c r="ADF11" s="0"/>
+      <c r="ADG11" s="0"/>
+      <c r="ADH11" s="0"/>
+      <c r="ADI11" s="0"/>
+      <c r="ADJ11" s="0"/>
+      <c r="ADK11" s="0"/>
+      <c r="ADL11" s="0"/>
+      <c r="ADM11" s="0"/>
+      <c r="ADN11" s="0"/>
+      <c r="ADO11" s="0"/>
+      <c r="ADP11" s="0"/>
+      <c r="ADQ11" s="0"/>
+      <c r="ADR11" s="0"/>
+      <c r="ADS11" s="0"/>
+      <c r="ADT11" s="0"/>
+      <c r="ADU11" s="0"/>
+      <c r="ADV11" s="0"/>
+      <c r="ADW11" s="0"/>
+      <c r="ADX11" s="0"/>
+      <c r="ADY11" s="0"/>
+      <c r="ADZ11" s="0"/>
+      <c r="AEA11" s="0"/>
+      <c r="AEB11" s="0"/>
+      <c r="AEC11" s="0"/>
+      <c r="AED11" s="0"/>
+      <c r="AEE11" s="0"/>
+      <c r="AEF11" s="0"/>
+      <c r="AEG11" s="0"/>
+      <c r="AEH11" s="0"/>
+      <c r="AEI11" s="0"/>
+      <c r="AEJ11" s="0"/>
+      <c r="AEK11" s="0"/>
+      <c r="AEL11" s="0"/>
+      <c r="AEM11" s="0"/>
+      <c r="AEN11" s="0"/>
+      <c r="AEO11" s="0"/>
+      <c r="AEP11" s="0"/>
+      <c r="AEQ11" s="0"/>
+      <c r="AER11" s="0"/>
+      <c r="AES11" s="0"/>
+      <c r="AET11" s="0"/>
+      <c r="AEU11" s="0"/>
+      <c r="AEV11" s="0"/>
+      <c r="AEW11" s="0"/>
+      <c r="AEX11" s="0"/>
+      <c r="AEY11" s="0"/>
+      <c r="AEZ11" s="0"/>
+      <c r="AFA11" s="0"/>
+      <c r="AFB11" s="0"/>
+      <c r="AFC11" s="0"/>
+      <c r="AFD11" s="0"/>
+      <c r="AFE11" s="0"/>
+      <c r="AFF11" s="0"/>
+      <c r="AFG11" s="0"/>
+      <c r="AFH11" s="0"/>
+      <c r="AFI11" s="0"/>
+      <c r="AFJ11" s="0"/>
+      <c r="AFK11" s="0"/>
+      <c r="AFL11" s="0"/>
+      <c r="AFM11" s="0"/>
+      <c r="AFN11" s="0"/>
+      <c r="AFO11" s="0"/>
+      <c r="AFP11" s="0"/>
+      <c r="AFQ11" s="0"/>
+      <c r="AFR11" s="0"/>
+      <c r="AFS11" s="0"/>
+      <c r="AFT11" s="0"/>
+      <c r="AFU11" s="0"/>
+      <c r="AFV11" s="0"/>
+      <c r="AFW11" s="0"/>
+      <c r="AFX11" s="0"/>
+      <c r="AFY11" s="0"/>
+      <c r="AFZ11" s="0"/>
+      <c r="AGA11" s="0"/>
+      <c r="AGB11" s="0"/>
+      <c r="AGC11" s="0"/>
+      <c r="AGD11" s="0"/>
+      <c r="AGE11" s="0"/>
+      <c r="AGF11" s="0"/>
+      <c r="AGG11" s="0"/>
+      <c r="AGH11" s="0"/>
+      <c r="AGI11" s="0"/>
+      <c r="AGJ11" s="0"/>
+      <c r="AGK11" s="0"/>
+      <c r="AGL11" s="0"/>
+      <c r="AGM11" s="0"/>
+      <c r="AGN11" s="0"/>
+      <c r="AGO11" s="0"/>
+      <c r="AGP11" s="0"/>
+      <c r="AGQ11" s="0"/>
+      <c r="AGR11" s="0"/>
+      <c r="AGS11" s="0"/>
+      <c r="AGT11" s="0"/>
+      <c r="AGU11" s="0"/>
+      <c r="AGV11" s="0"/>
+      <c r="AGW11" s="0"/>
+      <c r="AGX11" s="0"/>
+      <c r="AGY11" s="0"/>
+      <c r="AGZ11" s="0"/>
+      <c r="AHA11" s="0"/>
+      <c r="AHB11" s="0"/>
+      <c r="AHC11" s="0"/>
+      <c r="AHD11" s="0"/>
+      <c r="AHE11" s="0"/>
+      <c r="AHF11" s="0"/>
+      <c r="AHG11" s="0"/>
+      <c r="AHH11" s="0"/>
+      <c r="AHI11" s="0"/>
+      <c r="AHJ11" s="0"/>
+      <c r="AHK11" s="0"/>
+      <c r="AHL11" s="0"/>
+      <c r="AHM11" s="0"/>
+      <c r="AHN11" s="0"/>
+      <c r="AHO11" s="0"/>
+      <c r="AHP11" s="0"/>
+      <c r="AHQ11" s="0"/>
+      <c r="AHR11" s="0"/>
+      <c r="AHS11" s="0"/>
+      <c r="AHT11" s="0"/>
+      <c r="AHU11" s="0"/>
+      <c r="AHV11" s="0"/>
+      <c r="AHW11" s="0"/>
+      <c r="AHX11" s="0"/>
+      <c r="AHY11" s="0"/>
+      <c r="AHZ11" s="0"/>
+      <c r="AIA11" s="0"/>
+      <c r="AIB11" s="0"/>
+      <c r="AIC11" s="0"/>
+      <c r="AID11" s="0"/>
+      <c r="AIE11" s="0"/>
+      <c r="AIF11" s="0"/>
+      <c r="AIG11" s="0"/>
+      <c r="AIH11" s="0"/>
+      <c r="AII11" s="0"/>
+      <c r="AIJ11" s="0"/>
+      <c r="AIK11" s="0"/>
+      <c r="AIL11" s="0"/>
+      <c r="AIM11" s="0"/>
+      <c r="AIN11" s="0"/>
+      <c r="AIO11" s="0"/>
+      <c r="AIP11" s="0"/>
+      <c r="AIQ11" s="0"/>
+      <c r="AIR11" s="0"/>
+      <c r="AIS11" s="0"/>
+      <c r="AIT11" s="0"/>
+      <c r="AIU11" s="0"/>
+      <c r="AIV11" s="0"/>
+      <c r="AIW11" s="0"/>
+      <c r="AIX11" s="0"/>
+      <c r="AIY11" s="0"/>
+      <c r="AIZ11" s="0"/>
+      <c r="AJA11" s="0"/>
+      <c r="AJB11" s="0"/>
+      <c r="AJC11" s="0"/>
+      <c r="AJD11" s="0"/>
+      <c r="AJE11" s="0"/>
+      <c r="AJF11" s="0"/>
+      <c r="AJG11" s="0"/>
+      <c r="AJH11" s="0"/>
+      <c r="AJI11" s="0"/>
+      <c r="AJJ11" s="0"/>
+      <c r="AJK11" s="0"/>
+      <c r="AJL11" s="0"/>
+      <c r="AJM11" s="0"/>
+      <c r="AJN11" s="0"/>
+      <c r="AJO11" s="0"/>
+      <c r="AJP11" s="0"/>
+      <c r="AJQ11" s="0"/>
+      <c r="AJR11" s="0"/>
+      <c r="AJS11" s="0"/>
+      <c r="AJT11" s="0"/>
+      <c r="AJU11" s="0"/>
+      <c r="AJV11" s="0"/>
+      <c r="AJW11" s="0"/>
+      <c r="AJX11" s="0"/>
+      <c r="AJY11" s="0"/>
+      <c r="AJZ11" s="0"/>
+      <c r="AKA11" s="0"/>
+      <c r="AKB11" s="0"/>
+      <c r="AKC11" s="0"/>
+      <c r="AKD11" s="0"/>
+      <c r="AKE11" s="0"/>
+      <c r="AKF11" s="0"/>
+      <c r="AKG11" s="0"/>
+      <c r="AKH11" s="0"/>
+      <c r="AKI11" s="0"/>
+      <c r="AKJ11" s="0"/>
+      <c r="AKK11" s="0"/>
+      <c r="AKL11" s="0"/>
+      <c r="AKM11" s="0"/>
+      <c r="AKN11" s="0"/>
+      <c r="AKO11" s="0"/>
+      <c r="AKP11" s="0"/>
+      <c r="AKQ11" s="0"/>
+      <c r="AKR11" s="0"/>
+      <c r="AKS11" s="0"/>
+      <c r="AKT11" s="0"/>
+      <c r="AKU11" s="0"/>
+      <c r="AKV11" s="0"/>
+      <c r="AKW11" s="0"/>
+      <c r="AKX11" s="0"/>
+      <c r="AKY11" s="0"/>
+      <c r="AKZ11" s="0"/>
+      <c r="ALA11" s="0"/>
+      <c r="ALB11" s="0"/>
+      <c r="ALC11" s="0"/>
+      <c r="ALD11" s="0"/>
+      <c r="ALE11" s="0"/>
+      <c r="ALF11" s="0"/>
+      <c r="ALG11" s="0"/>
+      <c r="ALH11" s="0"/>
+      <c r="ALI11" s="0"/>
+      <c r="ALJ11" s="0"/>
+      <c r="ALK11" s="0"/>
+      <c r="ALL11" s="0"/>
+      <c r="ALM11" s="0"/>
+      <c r="ALN11" s="0"/>
+      <c r="ALO11" s="0"/>
+      <c r="ALP11" s="0"/>
+      <c r="ALQ11" s="0"/>
+      <c r="ALR11" s="0"/>
+      <c r="ALS11" s="0"/>
+      <c r="ALT11" s="0"/>
+      <c r="ALU11" s="0"/>
+      <c r="ALV11" s="0"/>
+      <c r="ALW11" s="0"/>
+      <c r="ALX11" s="0"/>
+      <c r="ALY11" s="0"/>
+      <c r="ALZ11" s="0"/>
+      <c r="AMA11" s="0"/>
+      <c r="AMB11" s="0"/>
+      <c r="AMC11" s="0"/>
+      <c r="AMD11" s="0"/>
+      <c r="AME11" s="0"/>
+      <c r="AMF11" s="0"/>
+      <c r="AMG11" s="0"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
@@ -12300,9 +15358,1028 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="0"/>
       <c r="F12" s="19" t="s">
         <v>345</v>
       </c>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0"/>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="0"/>
+      <c r="AK12" s="0"/>
+      <c r="AL12" s="0"/>
+      <c r="AM12" s="0"/>
+      <c r="AN12" s="0"/>
+      <c r="AO12" s="0"/>
+      <c r="AP12" s="0"/>
+      <c r="AQ12" s="0"/>
+      <c r="AR12" s="0"/>
+      <c r="AS12" s="0"/>
+      <c r="AT12" s="0"/>
+      <c r="AU12" s="0"/>
+      <c r="AV12" s="0"/>
+      <c r="AW12" s="0"/>
+      <c r="AX12" s="0"/>
+      <c r="AY12" s="0"/>
+      <c r="AZ12" s="0"/>
+      <c r="BA12" s="0"/>
+      <c r="BB12" s="0"/>
+      <c r="BC12" s="0"/>
+      <c r="BD12" s="0"/>
+      <c r="BE12" s="0"/>
+      <c r="BF12" s="0"/>
+      <c r="BG12" s="0"/>
+      <c r="BH12" s="0"/>
+      <c r="BI12" s="0"/>
+      <c r="BJ12" s="0"/>
+      <c r="BK12" s="0"/>
+      <c r="BL12" s="0"/>
+      <c r="BM12" s="0"/>
+      <c r="BN12" s="0"/>
+      <c r="BO12" s="0"/>
+      <c r="BP12" s="0"/>
+      <c r="BQ12" s="0"/>
+      <c r="BR12" s="0"/>
+      <c r="BS12" s="0"/>
+      <c r="BT12" s="0"/>
+      <c r="BU12" s="0"/>
+      <c r="BV12" s="0"/>
+      <c r="BW12" s="0"/>
+      <c r="BX12" s="0"/>
+      <c r="BY12" s="0"/>
+      <c r="BZ12" s="0"/>
+      <c r="CA12" s="0"/>
+      <c r="CB12" s="0"/>
+      <c r="CC12" s="0"/>
+      <c r="CD12" s="0"/>
+      <c r="CE12" s="0"/>
+      <c r="CF12" s="0"/>
+      <c r="CG12" s="0"/>
+      <c r="CH12" s="0"/>
+      <c r="CI12" s="0"/>
+      <c r="CJ12" s="0"/>
+      <c r="CK12" s="0"/>
+      <c r="CL12" s="0"/>
+      <c r="CM12" s="0"/>
+      <c r="CN12" s="0"/>
+      <c r="CO12" s="0"/>
+      <c r="CP12" s="0"/>
+      <c r="CQ12" s="0"/>
+      <c r="CR12" s="0"/>
+      <c r="CS12" s="0"/>
+      <c r="CT12" s="0"/>
+      <c r="CU12" s="0"/>
+      <c r="CV12" s="0"/>
+      <c r="CW12" s="0"/>
+      <c r="CX12" s="0"/>
+      <c r="CY12" s="0"/>
+      <c r="CZ12" s="0"/>
+      <c r="DA12" s="0"/>
+      <c r="DB12" s="0"/>
+      <c r="DC12" s="0"/>
+      <c r="DD12" s="0"/>
+      <c r="DE12" s="0"/>
+      <c r="DF12" s="0"/>
+      <c r="DG12" s="0"/>
+      <c r="DH12" s="0"/>
+      <c r="DI12" s="0"/>
+      <c r="DJ12" s="0"/>
+      <c r="DK12" s="0"/>
+      <c r="DL12" s="0"/>
+      <c r="DM12" s="0"/>
+      <c r="DN12" s="0"/>
+      <c r="DO12" s="0"/>
+      <c r="DP12" s="0"/>
+      <c r="DQ12" s="0"/>
+      <c r="DR12" s="0"/>
+      <c r="DS12" s="0"/>
+      <c r="DT12" s="0"/>
+      <c r="DU12" s="0"/>
+      <c r="DV12" s="0"/>
+      <c r="DW12" s="0"/>
+      <c r="DX12" s="0"/>
+      <c r="DY12" s="0"/>
+      <c r="DZ12" s="0"/>
+      <c r="EA12" s="0"/>
+      <c r="EB12" s="0"/>
+      <c r="EC12" s="0"/>
+      <c r="ED12" s="0"/>
+      <c r="EE12" s="0"/>
+      <c r="EF12" s="0"/>
+      <c r="EG12" s="0"/>
+      <c r="EH12" s="0"/>
+      <c r="EI12" s="0"/>
+      <c r="EJ12" s="0"/>
+      <c r="EK12" s="0"/>
+      <c r="EL12" s="0"/>
+      <c r="EM12" s="0"/>
+      <c r="EN12" s="0"/>
+      <c r="EO12" s="0"/>
+      <c r="EP12" s="0"/>
+      <c r="EQ12" s="0"/>
+      <c r="ER12" s="0"/>
+      <c r="ES12" s="0"/>
+      <c r="ET12" s="0"/>
+      <c r="EU12" s="0"/>
+      <c r="EV12" s="0"/>
+      <c r="EW12" s="0"/>
+      <c r="EX12" s="0"/>
+      <c r="EY12" s="0"/>
+      <c r="EZ12" s="0"/>
+      <c r="FA12" s="0"/>
+      <c r="FB12" s="0"/>
+      <c r="FC12" s="0"/>
+      <c r="FD12" s="0"/>
+      <c r="FE12" s="0"/>
+      <c r="FF12" s="0"/>
+      <c r="FG12" s="0"/>
+      <c r="FH12" s="0"/>
+      <c r="FI12" s="0"/>
+      <c r="FJ12" s="0"/>
+      <c r="FK12" s="0"/>
+      <c r="FL12" s="0"/>
+      <c r="FM12" s="0"/>
+      <c r="FN12" s="0"/>
+      <c r="FO12" s="0"/>
+      <c r="FP12" s="0"/>
+      <c r="FQ12" s="0"/>
+      <c r="FR12" s="0"/>
+      <c r="FS12" s="0"/>
+      <c r="FT12" s="0"/>
+      <c r="FU12" s="0"/>
+      <c r="FV12" s="0"/>
+      <c r="FW12" s="0"/>
+      <c r="FX12" s="0"/>
+      <c r="FY12" s="0"/>
+      <c r="FZ12" s="0"/>
+      <c r="GA12" s="0"/>
+      <c r="GB12" s="0"/>
+      <c r="GC12" s="0"/>
+      <c r="GD12" s="0"/>
+      <c r="GE12" s="0"/>
+      <c r="GF12" s="0"/>
+      <c r="GG12" s="0"/>
+      <c r="GH12" s="0"/>
+      <c r="GI12" s="0"/>
+      <c r="GJ12" s="0"/>
+      <c r="GK12" s="0"/>
+      <c r="GL12" s="0"/>
+      <c r="GM12" s="0"/>
+      <c r="GN12" s="0"/>
+      <c r="GO12" s="0"/>
+      <c r="GP12" s="0"/>
+      <c r="GQ12" s="0"/>
+      <c r="GR12" s="0"/>
+      <c r="GS12" s="0"/>
+      <c r="GT12" s="0"/>
+      <c r="GU12" s="0"/>
+      <c r="GV12" s="0"/>
+      <c r="GW12" s="0"/>
+      <c r="GX12" s="0"/>
+      <c r="GY12" s="0"/>
+      <c r="GZ12" s="0"/>
+      <c r="HA12" s="0"/>
+      <c r="HB12" s="0"/>
+      <c r="HC12" s="0"/>
+      <c r="HD12" s="0"/>
+      <c r="HE12" s="0"/>
+      <c r="HF12" s="0"/>
+      <c r="HG12" s="0"/>
+      <c r="HH12" s="0"/>
+      <c r="HI12" s="0"/>
+      <c r="HJ12" s="0"/>
+      <c r="HK12" s="0"/>
+      <c r="HL12" s="0"/>
+      <c r="HM12" s="0"/>
+      <c r="HN12" s="0"/>
+      <c r="HO12" s="0"/>
+      <c r="HP12" s="0"/>
+      <c r="HQ12" s="0"/>
+      <c r="HR12" s="0"/>
+      <c r="HS12" s="0"/>
+      <c r="HT12" s="0"/>
+      <c r="HU12" s="0"/>
+      <c r="HV12" s="0"/>
+      <c r="HW12" s="0"/>
+      <c r="HX12" s="0"/>
+      <c r="HY12" s="0"/>
+      <c r="HZ12" s="0"/>
+      <c r="IA12" s="0"/>
+      <c r="IB12" s="0"/>
+      <c r="IC12" s="0"/>
+      <c r="ID12" s="0"/>
+      <c r="IE12" s="0"/>
+      <c r="IF12" s="0"/>
+      <c r="IG12" s="0"/>
+      <c r="IH12" s="0"/>
+      <c r="II12" s="0"/>
+      <c r="IJ12" s="0"/>
+      <c r="IK12" s="0"/>
+      <c r="IL12" s="0"/>
+      <c r="IM12" s="0"/>
+      <c r="IN12" s="0"/>
+      <c r="IO12" s="0"/>
+      <c r="IP12" s="0"/>
+      <c r="IQ12" s="0"/>
+      <c r="IR12" s="0"/>
+      <c r="IS12" s="0"/>
+      <c r="IT12" s="0"/>
+      <c r="IU12" s="0"/>
+      <c r="IV12" s="0"/>
+      <c r="IW12" s="0"/>
+      <c r="IX12" s="0"/>
+      <c r="IY12" s="0"/>
+      <c r="IZ12" s="0"/>
+      <c r="JA12" s="0"/>
+      <c r="JB12" s="0"/>
+      <c r="JC12" s="0"/>
+      <c r="JD12" s="0"/>
+      <c r="JE12" s="0"/>
+      <c r="JF12" s="0"/>
+      <c r="JG12" s="0"/>
+      <c r="JH12" s="0"/>
+      <c r="JI12" s="0"/>
+      <c r="JJ12" s="0"/>
+      <c r="JK12" s="0"/>
+      <c r="JL12" s="0"/>
+      <c r="JM12" s="0"/>
+      <c r="JN12" s="0"/>
+      <c r="JO12" s="0"/>
+      <c r="JP12" s="0"/>
+      <c r="JQ12" s="0"/>
+      <c r="JR12" s="0"/>
+      <c r="JS12" s="0"/>
+      <c r="JT12" s="0"/>
+      <c r="JU12" s="0"/>
+      <c r="JV12" s="0"/>
+      <c r="JW12" s="0"/>
+      <c r="JX12" s="0"/>
+      <c r="JY12" s="0"/>
+      <c r="JZ12" s="0"/>
+      <c r="KA12" s="0"/>
+      <c r="KB12" s="0"/>
+      <c r="KC12" s="0"/>
+      <c r="KD12" s="0"/>
+      <c r="KE12" s="0"/>
+      <c r="KF12" s="0"/>
+      <c r="KG12" s="0"/>
+      <c r="KH12" s="0"/>
+      <c r="KI12" s="0"/>
+      <c r="KJ12" s="0"/>
+      <c r="KK12" s="0"/>
+      <c r="KL12" s="0"/>
+      <c r="KM12" s="0"/>
+      <c r="KN12" s="0"/>
+      <c r="KO12" s="0"/>
+      <c r="KP12" s="0"/>
+      <c r="KQ12" s="0"/>
+      <c r="KR12" s="0"/>
+      <c r="KS12" s="0"/>
+      <c r="KT12" s="0"/>
+      <c r="KU12" s="0"/>
+      <c r="KV12" s="0"/>
+      <c r="KW12" s="0"/>
+      <c r="KX12" s="0"/>
+      <c r="KY12" s="0"/>
+      <c r="KZ12" s="0"/>
+      <c r="LA12" s="0"/>
+      <c r="LB12" s="0"/>
+      <c r="LC12" s="0"/>
+      <c r="LD12" s="0"/>
+      <c r="LE12" s="0"/>
+      <c r="LF12" s="0"/>
+      <c r="LG12" s="0"/>
+      <c r="LH12" s="0"/>
+      <c r="LI12" s="0"/>
+      <c r="LJ12" s="0"/>
+      <c r="LK12" s="0"/>
+      <c r="LL12" s="0"/>
+      <c r="LM12" s="0"/>
+      <c r="LN12" s="0"/>
+      <c r="LO12" s="0"/>
+      <c r="LP12" s="0"/>
+      <c r="LQ12" s="0"/>
+      <c r="LR12" s="0"/>
+      <c r="LS12" s="0"/>
+      <c r="LT12" s="0"/>
+      <c r="LU12" s="0"/>
+      <c r="LV12" s="0"/>
+      <c r="LW12" s="0"/>
+      <c r="LX12" s="0"/>
+      <c r="LY12" s="0"/>
+      <c r="LZ12" s="0"/>
+      <c r="MA12" s="0"/>
+      <c r="MB12" s="0"/>
+      <c r="MC12" s="0"/>
+      <c r="MD12" s="0"/>
+      <c r="ME12" s="0"/>
+      <c r="MF12" s="0"/>
+      <c r="MG12" s="0"/>
+      <c r="MH12" s="0"/>
+      <c r="MI12" s="0"/>
+      <c r="MJ12" s="0"/>
+      <c r="MK12" s="0"/>
+      <c r="ML12" s="0"/>
+      <c r="MM12" s="0"/>
+      <c r="MN12" s="0"/>
+      <c r="MO12" s="0"/>
+      <c r="MP12" s="0"/>
+      <c r="MQ12" s="0"/>
+      <c r="MR12" s="0"/>
+      <c r="MS12" s="0"/>
+      <c r="MT12" s="0"/>
+      <c r="MU12" s="0"/>
+      <c r="MV12" s="0"/>
+      <c r="MW12" s="0"/>
+      <c r="MX12" s="0"/>
+      <c r="MY12" s="0"/>
+      <c r="MZ12" s="0"/>
+      <c r="NA12" s="0"/>
+      <c r="NB12" s="0"/>
+      <c r="NC12" s="0"/>
+      <c r="ND12" s="0"/>
+      <c r="NE12" s="0"/>
+      <c r="NF12" s="0"/>
+      <c r="NG12" s="0"/>
+      <c r="NH12" s="0"/>
+      <c r="NI12" s="0"/>
+      <c r="NJ12" s="0"/>
+      <c r="NK12" s="0"/>
+      <c r="NL12" s="0"/>
+      <c r="NM12" s="0"/>
+      <c r="NN12" s="0"/>
+      <c r="NO12" s="0"/>
+      <c r="NP12" s="0"/>
+      <c r="NQ12" s="0"/>
+      <c r="NR12" s="0"/>
+      <c r="NS12" s="0"/>
+      <c r="NT12" s="0"/>
+      <c r="NU12" s="0"/>
+      <c r="NV12" s="0"/>
+      <c r="NW12" s="0"/>
+      <c r="NX12" s="0"/>
+      <c r="NY12" s="0"/>
+      <c r="NZ12" s="0"/>
+      <c r="OA12" s="0"/>
+      <c r="OB12" s="0"/>
+      <c r="OC12" s="0"/>
+      <c r="OD12" s="0"/>
+      <c r="OE12" s="0"/>
+      <c r="OF12" s="0"/>
+      <c r="OG12" s="0"/>
+      <c r="OH12" s="0"/>
+      <c r="OI12" s="0"/>
+      <c r="OJ12" s="0"/>
+      <c r="OK12" s="0"/>
+      <c r="OL12" s="0"/>
+      <c r="OM12" s="0"/>
+      <c r="ON12" s="0"/>
+      <c r="OO12" s="0"/>
+      <c r="OP12" s="0"/>
+      <c r="OQ12" s="0"/>
+      <c r="OR12" s="0"/>
+      <c r="OS12" s="0"/>
+      <c r="OT12" s="0"/>
+      <c r="OU12" s="0"/>
+      <c r="OV12" s="0"/>
+      <c r="OW12" s="0"/>
+      <c r="OX12" s="0"/>
+      <c r="OY12" s="0"/>
+      <c r="OZ12" s="0"/>
+      <c r="PA12" s="0"/>
+      <c r="PB12" s="0"/>
+      <c r="PC12" s="0"/>
+      <c r="PD12" s="0"/>
+      <c r="PE12" s="0"/>
+      <c r="PF12" s="0"/>
+      <c r="PG12" s="0"/>
+      <c r="PH12" s="0"/>
+      <c r="PI12" s="0"/>
+      <c r="PJ12" s="0"/>
+      <c r="PK12" s="0"/>
+      <c r="PL12" s="0"/>
+      <c r="PM12" s="0"/>
+      <c r="PN12" s="0"/>
+      <c r="PO12" s="0"/>
+      <c r="PP12" s="0"/>
+      <c r="PQ12" s="0"/>
+      <c r="PR12" s="0"/>
+      <c r="PS12" s="0"/>
+      <c r="PT12" s="0"/>
+      <c r="PU12" s="0"/>
+      <c r="PV12" s="0"/>
+      <c r="PW12" s="0"/>
+      <c r="PX12" s="0"/>
+      <c r="PY12" s="0"/>
+      <c r="PZ12" s="0"/>
+      <c r="QA12" s="0"/>
+      <c r="QB12" s="0"/>
+      <c r="QC12" s="0"/>
+      <c r="QD12" s="0"/>
+      <c r="QE12" s="0"/>
+      <c r="QF12" s="0"/>
+      <c r="QG12" s="0"/>
+      <c r="QH12" s="0"/>
+      <c r="QI12" s="0"/>
+      <c r="QJ12" s="0"/>
+      <c r="QK12" s="0"/>
+      <c r="QL12" s="0"/>
+      <c r="QM12" s="0"/>
+      <c r="QN12" s="0"/>
+      <c r="QO12" s="0"/>
+      <c r="QP12" s="0"/>
+      <c r="QQ12" s="0"/>
+      <c r="QR12" s="0"/>
+      <c r="QS12" s="0"/>
+      <c r="QT12" s="0"/>
+      <c r="QU12" s="0"/>
+      <c r="QV12" s="0"/>
+      <c r="QW12" s="0"/>
+      <c r="QX12" s="0"/>
+      <c r="QY12" s="0"/>
+      <c r="QZ12" s="0"/>
+      <c r="RA12" s="0"/>
+      <c r="RB12" s="0"/>
+      <c r="RC12" s="0"/>
+      <c r="RD12" s="0"/>
+      <c r="RE12" s="0"/>
+      <c r="RF12" s="0"/>
+      <c r="RG12" s="0"/>
+      <c r="RH12" s="0"/>
+      <c r="RI12" s="0"/>
+      <c r="RJ12" s="0"/>
+      <c r="RK12" s="0"/>
+      <c r="RL12" s="0"/>
+      <c r="RM12" s="0"/>
+      <c r="RN12" s="0"/>
+      <c r="RO12" s="0"/>
+      <c r="RP12" s="0"/>
+      <c r="RQ12" s="0"/>
+      <c r="RR12" s="0"/>
+      <c r="RS12" s="0"/>
+      <c r="RT12" s="0"/>
+      <c r="RU12" s="0"/>
+      <c r="RV12" s="0"/>
+      <c r="RW12" s="0"/>
+      <c r="RX12" s="0"/>
+      <c r="RY12" s="0"/>
+      <c r="RZ12" s="0"/>
+      <c r="SA12" s="0"/>
+      <c r="SB12" s="0"/>
+      <c r="SC12" s="0"/>
+      <c r="SD12" s="0"/>
+      <c r="SE12" s="0"/>
+      <c r="SF12" s="0"/>
+      <c r="SG12" s="0"/>
+      <c r="SH12" s="0"/>
+      <c r="SI12" s="0"/>
+      <c r="SJ12" s="0"/>
+      <c r="SK12" s="0"/>
+      <c r="SL12" s="0"/>
+      <c r="SM12" s="0"/>
+      <c r="SN12" s="0"/>
+      <c r="SO12" s="0"/>
+      <c r="SP12" s="0"/>
+      <c r="SQ12" s="0"/>
+      <c r="SR12" s="0"/>
+      <c r="SS12" s="0"/>
+      <c r="ST12" s="0"/>
+      <c r="SU12" s="0"/>
+      <c r="SV12" s="0"/>
+      <c r="SW12" s="0"/>
+      <c r="SX12" s="0"/>
+      <c r="SY12" s="0"/>
+      <c r="SZ12" s="0"/>
+      <c r="TA12" s="0"/>
+      <c r="TB12" s="0"/>
+      <c r="TC12" s="0"/>
+      <c r="TD12" s="0"/>
+      <c r="TE12" s="0"/>
+      <c r="TF12" s="0"/>
+      <c r="TG12" s="0"/>
+      <c r="TH12" s="0"/>
+      <c r="TI12" s="0"/>
+      <c r="TJ12" s="0"/>
+      <c r="TK12" s="0"/>
+      <c r="TL12" s="0"/>
+      <c r="TM12" s="0"/>
+      <c r="TN12" s="0"/>
+      <c r="TO12" s="0"/>
+      <c r="TP12" s="0"/>
+      <c r="TQ12" s="0"/>
+      <c r="TR12" s="0"/>
+      <c r="TS12" s="0"/>
+      <c r="TT12" s="0"/>
+      <c r="TU12" s="0"/>
+      <c r="TV12" s="0"/>
+      <c r="TW12" s="0"/>
+      <c r="TX12" s="0"/>
+      <c r="TY12" s="0"/>
+      <c r="TZ12" s="0"/>
+      <c r="UA12" s="0"/>
+      <c r="UB12" s="0"/>
+      <c r="UC12" s="0"/>
+      <c r="UD12" s="0"/>
+      <c r="UE12" s="0"/>
+      <c r="UF12" s="0"/>
+      <c r="UG12" s="0"/>
+      <c r="UH12" s="0"/>
+      <c r="UI12" s="0"/>
+      <c r="UJ12" s="0"/>
+      <c r="UK12" s="0"/>
+      <c r="UL12" s="0"/>
+      <c r="UM12" s="0"/>
+      <c r="UN12" s="0"/>
+      <c r="UO12" s="0"/>
+      <c r="UP12" s="0"/>
+      <c r="UQ12" s="0"/>
+      <c r="UR12" s="0"/>
+      <c r="US12" s="0"/>
+      <c r="UT12" s="0"/>
+      <c r="UU12" s="0"/>
+      <c r="UV12" s="0"/>
+      <c r="UW12" s="0"/>
+      <c r="UX12" s="0"/>
+      <c r="UY12" s="0"/>
+      <c r="UZ12" s="0"/>
+      <c r="VA12" s="0"/>
+      <c r="VB12" s="0"/>
+      <c r="VC12" s="0"/>
+      <c r="VD12" s="0"/>
+      <c r="VE12" s="0"/>
+      <c r="VF12" s="0"/>
+      <c r="VG12" s="0"/>
+      <c r="VH12" s="0"/>
+      <c r="VI12" s="0"/>
+      <c r="VJ12" s="0"/>
+      <c r="VK12" s="0"/>
+      <c r="VL12" s="0"/>
+      <c r="VM12" s="0"/>
+      <c r="VN12" s="0"/>
+      <c r="VO12" s="0"/>
+      <c r="VP12" s="0"/>
+      <c r="VQ12" s="0"/>
+      <c r="VR12" s="0"/>
+      <c r="VS12" s="0"/>
+      <c r="VT12" s="0"/>
+      <c r="VU12" s="0"/>
+      <c r="VV12" s="0"/>
+      <c r="VW12" s="0"/>
+      <c r="VX12" s="0"/>
+      <c r="VY12" s="0"/>
+      <c r="VZ12" s="0"/>
+      <c r="WA12" s="0"/>
+      <c r="WB12" s="0"/>
+      <c r="WC12" s="0"/>
+      <c r="WD12" s="0"/>
+      <c r="WE12" s="0"/>
+      <c r="WF12" s="0"/>
+      <c r="WG12" s="0"/>
+      <c r="WH12" s="0"/>
+      <c r="WI12" s="0"/>
+      <c r="WJ12" s="0"/>
+      <c r="WK12" s="0"/>
+      <c r="WL12" s="0"/>
+      <c r="WM12" s="0"/>
+      <c r="WN12" s="0"/>
+      <c r="WO12" s="0"/>
+      <c r="WP12" s="0"/>
+      <c r="WQ12" s="0"/>
+      <c r="WR12" s="0"/>
+      <c r="WS12" s="0"/>
+      <c r="WT12" s="0"/>
+      <c r="WU12" s="0"/>
+      <c r="WV12" s="0"/>
+      <c r="WW12" s="0"/>
+      <c r="WX12" s="0"/>
+      <c r="WY12" s="0"/>
+      <c r="WZ12" s="0"/>
+      <c r="XA12" s="0"/>
+      <c r="XB12" s="0"/>
+      <c r="XC12" s="0"/>
+      <c r="XD12" s="0"/>
+      <c r="XE12" s="0"/>
+      <c r="XF12" s="0"/>
+      <c r="XG12" s="0"/>
+      <c r="XH12" s="0"/>
+      <c r="XI12" s="0"/>
+      <c r="XJ12" s="0"/>
+      <c r="XK12" s="0"/>
+      <c r="XL12" s="0"/>
+      <c r="XM12" s="0"/>
+      <c r="XN12" s="0"/>
+      <c r="XO12" s="0"/>
+      <c r="XP12" s="0"/>
+      <c r="XQ12" s="0"/>
+      <c r="XR12" s="0"/>
+      <c r="XS12" s="0"/>
+      <c r="XT12" s="0"/>
+      <c r="XU12" s="0"/>
+      <c r="XV12" s="0"/>
+      <c r="XW12" s="0"/>
+      <c r="XX12" s="0"/>
+      <c r="XY12" s="0"/>
+      <c r="XZ12" s="0"/>
+      <c r="YA12" s="0"/>
+      <c r="YB12" s="0"/>
+      <c r="YC12" s="0"/>
+      <c r="YD12" s="0"/>
+      <c r="YE12" s="0"/>
+      <c r="YF12" s="0"/>
+      <c r="YG12" s="0"/>
+      <c r="YH12" s="0"/>
+      <c r="YI12" s="0"/>
+      <c r="YJ12" s="0"/>
+      <c r="YK12" s="0"/>
+      <c r="YL12" s="0"/>
+      <c r="YM12" s="0"/>
+      <c r="YN12" s="0"/>
+      <c r="YO12" s="0"/>
+      <c r="YP12" s="0"/>
+      <c r="YQ12" s="0"/>
+      <c r="YR12" s="0"/>
+      <c r="YS12" s="0"/>
+      <c r="YT12" s="0"/>
+      <c r="YU12" s="0"/>
+      <c r="YV12" s="0"/>
+      <c r="YW12" s="0"/>
+      <c r="YX12" s="0"/>
+      <c r="YY12" s="0"/>
+      <c r="YZ12" s="0"/>
+      <c r="ZA12" s="0"/>
+      <c r="ZB12" s="0"/>
+      <c r="ZC12" s="0"/>
+      <c r="ZD12" s="0"/>
+      <c r="ZE12" s="0"/>
+      <c r="ZF12" s="0"/>
+      <c r="ZG12" s="0"/>
+      <c r="ZH12" s="0"/>
+      <c r="ZI12" s="0"/>
+      <c r="ZJ12" s="0"/>
+      <c r="ZK12" s="0"/>
+      <c r="ZL12" s="0"/>
+      <c r="ZM12" s="0"/>
+      <c r="ZN12" s="0"/>
+      <c r="ZO12" s="0"/>
+      <c r="ZP12" s="0"/>
+      <c r="ZQ12" s="0"/>
+      <c r="ZR12" s="0"/>
+      <c r="ZS12" s="0"/>
+      <c r="ZT12" s="0"/>
+      <c r="ZU12" s="0"/>
+      <c r="ZV12" s="0"/>
+      <c r="ZW12" s="0"/>
+      <c r="ZX12" s="0"/>
+      <c r="ZY12" s="0"/>
+      <c r="ZZ12" s="0"/>
+      <c r="AAA12" s="0"/>
+      <c r="AAB12" s="0"/>
+      <c r="AAC12" s="0"/>
+      <c r="AAD12" s="0"/>
+      <c r="AAE12" s="0"/>
+      <c r="AAF12" s="0"/>
+      <c r="AAG12" s="0"/>
+      <c r="AAH12" s="0"/>
+      <c r="AAI12" s="0"/>
+      <c r="AAJ12" s="0"/>
+      <c r="AAK12" s="0"/>
+      <c r="AAL12" s="0"/>
+      <c r="AAM12" s="0"/>
+      <c r="AAN12" s="0"/>
+      <c r="AAO12" s="0"/>
+      <c r="AAP12" s="0"/>
+      <c r="AAQ12" s="0"/>
+      <c r="AAR12" s="0"/>
+      <c r="AAS12" s="0"/>
+      <c r="AAT12" s="0"/>
+      <c r="AAU12" s="0"/>
+      <c r="AAV12" s="0"/>
+      <c r="AAW12" s="0"/>
+      <c r="AAX12" s="0"/>
+      <c r="AAY12" s="0"/>
+      <c r="AAZ12" s="0"/>
+      <c r="ABA12" s="0"/>
+      <c r="ABB12" s="0"/>
+      <c r="ABC12" s="0"/>
+      <c r="ABD12" s="0"/>
+      <c r="ABE12" s="0"/>
+      <c r="ABF12" s="0"/>
+      <c r="ABG12" s="0"/>
+      <c r="ABH12" s="0"/>
+      <c r="ABI12" s="0"/>
+      <c r="ABJ12" s="0"/>
+      <c r="ABK12" s="0"/>
+      <c r="ABL12" s="0"/>
+      <c r="ABM12" s="0"/>
+      <c r="ABN12" s="0"/>
+      <c r="ABO12" s="0"/>
+      <c r="ABP12" s="0"/>
+      <c r="ABQ12" s="0"/>
+      <c r="ABR12" s="0"/>
+      <c r="ABS12" s="0"/>
+      <c r="ABT12" s="0"/>
+      <c r="ABU12" s="0"/>
+      <c r="ABV12" s="0"/>
+      <c r="ABW12" s="0"/>
+      <c r="ABX12" s="0"/>
+      <c r="ABY12" s="0"/>
+      <c r="ABZ12" s="0"/>
+      <c r="ACA12" s="0"/>
+      <c r="ACB12" s="0"/>
+      <c r="ACC12" s="0"/>
+      <c r="ACD12" s="0"/>
+      <c r="ACE12" s="0"/>
+      <c r="ACF12" s="0"/>
+      <c r="ACG12" s="0"/>
+      <c r="ACH12" s="0"/>
+      <c r="ACI12" s="0"/>
+      <c r="ACJ12" s="0"/>
+      <c r="ACK12" s="0"/>
+      <c r="ACL12" s="0"/>
+      <c r="ACM12" s="0"/>
+      <c r="ACN12" s="0"/>
+      <c r="ACO12" s="0"/>
+      <c r="ACP12" s="0"/>
+      <c r="ACQ12" s="0"/>
+      <c r="ACR12" s="0"/>
+      <c r="ACS12" s="0"/>
+      <c r="ACT12" s="0"/>
+      <c r="ACU12" s="0"/>
+      <c r="ACV12" s="0"/>
+      <c r="ACW12" s="0"/>
+      <c r="ACX12" s="0"/>
+      <c r="ACY12" s="0"/>
+      <c r="ACZ12" s="0"/>
+      <c r="ADA12" s="0"/>
+      <c r="ADB12" s="0"/>
+      <c r="ADC12" s="0"/>
+      <c r="ADD12" s="0"/>
+      <c r="ADE12" s="0"/>
+      <c r="ADF12" s="0"/>
+      <c r="ADG12" s="0"/>
+      <c r="ADH12" s="0"/>
+      <c r="ADI12" s="0"/>
+      <c r="ADJ12" s="0"/>
+      <c r="ADK12" s="0"/>
+      <c r="ADL12" s="0"/>
+      <c r="ADM12" s="0"/>
+      <c r="ADN12" s="0"/>
+      <c r="ADO12" s="0"/>
+      <c r="ADP12" s="0"/>
+      <c r="ADQ12" s="0"/>
+      <c r="ADR12" s="0"/>
+      <c r="ADS12" s="0"/>
+      <c r="ADT12" s="0"/>
+      <c r="ADU12" s="0"/>
+      <c r="ADV12" s="0"/>
+      <c r="ADW12" s="0"/>
+      <c r="ADX12" s="0"/>
+      <c r="ADY12" s="0"/>
+      <c r="ADZ12" s="0"/>
+      <c r="AEA12" s="0"/>
+      <c r="AEB12" s="0"/>
+      <c r="AEC12" s="0"/>
+      <c r="AED12" s="0"/>
+      <c r="AEE12" s="0"/>
+      <c r="AEF12" s="0"/>
+      <c r="AEG12" s="0"/>
+      <c r="AEH12" s="0"/>
+      <c r="AEI12" s="0"/>
+      <c r="AEJ12" s="0"/>
+      <c r="AEK12" s="0"/>
+      <c r="AEL12" s="0"/>
+      <c r="AEM12" s="0"/>
+      <c r="AEN12" s="0"/>
+      <c r="AEO12" s="0"/>
+      <c r="AEP12" s="0"/>
+      <c r="AEQ12" s="0"/>
+      <c r="AER12" s="0"/>
+      <c r="AES12" s="0"/>
+      <c r="AET12" s="0"/>
+      <c r="AEU12" s="0"/>
+      <c r="AEV12" s="0"/>
+      <c r="AEW12" s="0"/>
+      <c r="AEX12" s="0"/>
+      <c r="AEY12" s="0"/>
+      <c r="AEZ12" s="0"/>
+      <c r="AFA12" s="0"/>
+      <c r="AFB12" s="0"/>
+      <c r="AFC12" s="0"/>
+      <c r="AFD12" s="0"/>
+      <c r="AFE12" s="0"/>
+      <c r="AFF12" s="0"/>
+      <c r="AFG12" s="0"/>
+      <c r="AFH12" s="0"/>
+      <c r="AFI12" s="0"/>
+      <c r="AFJ12" s="0"/>
+      <c r="AFK12" s="0"/>
+      <c r="AFL12" s="0"/>
+      <c r="AFM12" s="0"/>
+      <c r="AFN12" s="0"/>
+      <c r="AFO12" s="0"/>
+      <c r="AFP12" s="0"/>
+      <c r="AFQ12" s="0"/>
+      <c r="AFR12" s="0"/>
+      <c r="AFS12" s="0"/>
+      <c r="AFT12" s="0"/>
+      <c r="AFU12" s="0"/>
+      <c r="AFV12" s="0"/>
+      <c r="AFW12" s="0"/>
+      <c r="AFX12" s="0"/>
+      <c r="AFY12" s="0"/>
+      <c r="AFZ12" s="0"/>
+      <c r="AGA12" s="0"/>
+      <c r="AGB12" s="0"/>
+      <c r="AGC12" s="0"/>
+      <c r="AGD12" s="0"/>
+      <c r="AGE12" s="0"/>
+      <c r="AGF12" s="0"/>
+      <c r="AGG12" s="0"/>
+      <c r="AGH12" s="0"/>
+      <c r="AGI12" s="0"/>
+      <c r="AGJ12" s="0"/>
+      <c r="AGK12" s="0"/>
+      <c r="AGL12" s="0"/>
+      <c r="AGM12" s="0"/>
+      <c r="AGN12" s="0"/>
+      <c r="AGO12" s="0"/>
+      <c r="AGP12" s="0"/>
+      <c r="AGQ12" s="0"/>
+      <c r="AGR12" s="0"/>
+      <c r="AGS12" s="0"/>
+      <c r="AGT12" s="0"/>
+      <c r="AGU12" s="0"/>
+      <c r="AGV12" s="0"/>
+      <c r="AGW12" s="0"/>
+      <c r="AGX12" s="0"/>
+      <c r="AGY12" s="0"/>
+      <c r="AGZ12" s="0"/>
+      <c r="AHA12" s="0"/>
+      <c r="AHB12" s="0"/>
+      <c r="AHC12" s="0"/>
+      <c r="AHD12" s="0"/>
+      <c r="AHE12" s="0"/>
+      <c r="AHF12" s="0"/>
+      <c r="AHG12" s="0"/>
+      <c r="AHH12" s="0"/>
+      <c r="AHI12" s="0"/>
+      <c r="AHJ12" s="0"/>
+      <c r="AHK12" s="0"/>
+      <c r="AHL12" s="0"/>
+      <c r="AHM12" s="0"/>
+      <c r="AHN12" s="0"/>
+      <c r="AHO12" s="0"/>
+      <c r="AHP12" s="0"/>
+      <c r="AHQ12" s="0"/>
+      <c r="AHR12" s="0"/>
+      <c r="AHS12" s="0"/>
+      <c r="AHT12" s="0"/>
+      <c r="AHU12" s="0"/>
+      <c r="AHV12" s="0"/>
+      <c r="AHW12" s="0"/>
+      <c r="AHX12" s="0"/>
+      <c r="AHY12" s="0"/>
+      <c r="AHZ12" s="0"/>
+      <c r="AIA12" s="0"/>
+      <c r="AIB12" s="0"/>
+      <c r="AIC12" s="0"/>
+      <c r="AID12" s="0"/>
+      <c r="AIE12" s="0"/>
+      <c r="AIF12" s="0"/>
+      <c r="AIG12" s="0"/>
+      <c r="AIH12" s="0"/>
+      <c r="AII12" s="0"/>
+      <c r="AIJ12" s="0"/>
+      <c r="AIK12" s="0"/>
+      <c r="AIL12" s="0"/>
+      <c r="AIM12" s="0"/>
+      <c r="AIN12" s="0"/>
+      <c r="AIO12" s="0"/>
+      <c r="AIP12" s="0"/>
+      <c r="AIQ12" s="0"/>
+      <c r="AIR12" s="0"/>
+      <c r="AIS12" s="0"/>
+      <c r="AIT12" s="0"/>
+      <c r="AIU12" s="0"/>
+      <c r="AIV12" s="0"/>
+      <c r="AIW12" s="0"/>
+      <c r="AIX12" s="0"/>
+      <c r="AIY12" s="0"/>
+      <c r="AIZ12" s="0"/>
+      <c r="AJA12" s="0"/>
+      <c r="AJB12" s="0"/>
+      <c r="AJC12" s="0"/>
+      <c r="AJD12" s="0"/>
+      <c r="AJE12" s="0"/>
+      <c r="AJF12" s="0"/>
+      <c r="AJG12" s="0"/>
+      <c r="AJH12" s="0"/>
+      <c r="AJI12" s="0"/>
+      <c r="AJJ12" s="0"/>
+      <c r="AJK12" s="0"/>
+      <c r="AJL12" s="0"/>
+      <c r="AJM12" s="0"/>
+      <c r="AJN12" s="0"/>
+      <c r="AJO12" s="0"/>
+      <c r="AJP12" s="0"/>
+      <c r="AJQ12" s="0"/>
+      <c r="AJR12" s="0"/>
+      <c r="AJS12" s="0"/>
+      <c r="AJT12" s="0"/>
+      <c r="AJU12" s="0"/>
+      <c r="AJV12" s="0"/>
+      <c r="AJW12" s="0"/>
+      <c r="AJX12" s="0"/>
+      <c r="AJY12" s="0"/>
+      <c r="AJZ12" s="0"/>
+      <c r="AKA12" s="0"/>
+      <c r="AKB12" s="0"/>
+      <c r="AKC12" s="0"/>
+      <c r="AKD12" s="0"/>
+      <c r="AKE12" s="0"/>
+      <c r="AKF12" s="0"/>
+      <c r="AKG12" s="0"/>
+      <c r="AKH12" s="0"/>
+      <c r="AKI12" s="0"/>
+      <c r="AKJ12" s="0"/>
+      <c r="AKK12" s="0"/>
+      <c r="AKL12" s="0"/>
+      <c r="AKM12" s="0"/>
+      <c r="AKN12" s="0"/>
+      <c r="AKO12" s="0"/>
+      <c r="AKP12" s="0"/>
+      <c r="AKQ12" s="0"/>
+      <c r="AKR12" s="0"/>
+      <c r="AKS12" s="0"/>
+      <c r="AKT12" s="0"/>
+      <c r="AKU12" s="0"/>
+      <c r="AKV12" s="0"/>
+      <c r="AKW12" s="0"/>
+      <c r="AKX12" s="0"/>
+      <c r="AKY12" s="0"/>
+      <c r="AKZ12" s="0"/>
+      <c r="ALA12" s="0"/>
+      <c r="ALB12" s="0"/>
+      <c r="ALC12" s="0"/>
+      <c r="ALD12" s="0"/>
+      <c r="ALE12" s="0"/>
+      <c r="ALF12" s="0"/>
+      <c r="ALG12" s="0"/>
+      <c r="ALH12" s="0"/>
+      <c r="ALI12" s="0"/>
+      <c r="ALJ12" s="0"/>
+      <c r="ALK12" s="0"/>
+      <c r="ALL12" s="0"/>
+      <c r="ALM12" s="0"/>
+      <c r="ALN12" s="0"/>
+      <c r="ALO12" s="0"/>
+      <c r="ALP12" s="0"/>
+      <c r="ALQ12" s="0"/>
+      <c r="ALR12" s="0"/>
+      <c r="ALS12" s="0"/>
+      <c r="ALT12" s="0"/>
+      <c r="ALU12" s="0"/>
+      <c r="ALV12" s="0"/>
+      <c r="ALW12" s="0"/>
+      <c r="ALX12" s="0"/>
+      <c r="ALY12" s="0"/>
+      <c r="ALZ12" s="0"/>
+      <c r="AMA12" s="0"/>
+      <c r="AMB12" s="0"/>
+      <c r="AMC12" s="0"/>
+      <c r="AMD12" s="0"/>
+      <c r="AME12" s="0"/>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
@@ -14379,6 +18456,8 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
@@ -14480,7 +18559,7 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
@@ -14488,12 +18567,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="17.515306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="19" width="9.54081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="20.6989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="12.25"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="18.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="19" width="9.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="18.234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="19" width="9.96938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="21.5102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="12.8163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="19.5102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="19" width="9.96938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14509,6 +18588,1024 @@
         <v>68</v>
       </c>
       <c r="F1" s="20"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
+      <c r="AQ1" s="0"/>
+      <c r="AR1" s="0"/>
+      <c r="AS1" s="0"/>
+      <c r="AT1" s="0"/>
+      <c r="AU1" s="0"/>
+      <c r="AV1" s="0"/>
+      <c r="AW1" s="0"/>
+      <c r="AX1" s="0"/>
+      <c r="AY1" s="0"/>
+      <c r="AZ1" s="0"/>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
+      <c r="BE1" s="0"/>
+      <c r="BF1" s="0"/>
+      <c r="BG1" s="0"/>
+      <c r="BH1" s="0"/>
+      <c r="BI1" s="0"/>
+      <c r="BJ1" s="0"/>
+      <c r="BK1" s="0"/>
+      <c r="BL1" s="0"/>
+      <c r="BM1" s="0"/>
+      <c r="BN1" s="0"/>
+      <c r="BO1" s="0"/>
+      <c r="BP1" s="0"/>
+      <c r="BQ1" s="0"/>
+      <c r="BR1" s="0"/>
+      <c r="BS1" s="0"/>
+      <c r="BT1" s="0"/>
+      <c r="BU1" s="0"/>
+      <c r="BV1" s="0"/>
+      <c r="BW1" s="0"/>
+      <c r="BX1" s="0"/>
+      <c r="BY1" s="0"/>
+      <c r="BZ1" s="0"/>
+      <c r="CA1" s="0"/>
+      <c r="CB1" s="0"/>
+      <c r="CC1" s="0"/>
+      <c r="CD1" s="0"/>
+      <c r="CE1" s="0"/>
+      <c r="CF1" s="0"/>
+      <c r="CG1" s="0"/>
+      <c r="CH1" s="0"/>
+      <c r="CI1" s="0"/>
+      <c r="CJ1" s="0"/>
+      <c r="CK1" s="0"/>
+      <c r="CL1" s="0"/>
+      <c r="CM1" s="0"/>
+      <c r="CN1" s="0"/>
+      <c r="CO1" s="0"/>
+      <c r="CP1" s="0"/>
+      <c r="CQ1" s="0"/>
+      <c r="CR1" s="0"/>
+      <c r="CS1" s="0"/>
+      <c r="CT1" s="0"/>
+      <c r="CU1" s="0"/>
+      <c r="CV1" s="0"/>
+      <c r="CW1" s="0"/>
+      <c r="CX1" s="0"/>
+      <c r="CY1" s="0"/>
+      <c r="CZ1" s="0"/>
+      <c r="DA1" s="0"/>
+      <c r="DB1" s="0"/>
+      <c r="DC1" s="0"/>
+      <c r="DD1" s="0"/>
+      <c r="DE1" s="0"/>
+      <c r="DF1" s="0"/>
+      <c r="DG1" s="0"/>
+      <c r="DH1" s="0"/>
+      <c r="DI1" s="0"/>
+      <c r="DJ1" s="0"/>
+      <c r="DK1" s="0"/>
+      <c r="DL1" s="0"/>
+      <c r="DM1" s="0"/>
+      <c r="DN1" s="0"/>
+      <c r="DO1" s="0"/>
+      <c r="DP1" s="0"/>
+      <c r="DQ1" s="0"/>
+      <c r="DR1" s="0"/>
+      <c r="DS1" s="0"/>
+      <c r="DT1" s="0"/>
+      <c r="DU1" s="0"/>
+      <c r="DV1" s="0"/>
+      <c r="DW1" s="0"/>
+      <c r="DX1" s="0"/>
+      <c r="DY1" s="0"/>
+      <c r="DZ1" s="0"/>
+      <c r="EA1" s="0"/>
+      <c r="EB1" s="0"/>
+      <c r="EC1" s="0"/>
+      <c r="ED1" s="0"/>
+      <c r="EE1" s="0"/>
+      <c r="EF1" s="0"/>
+      <c r="EG1" s="0"/>
+      <c r="EH1" s="0"/>
+      <c r="EI1" s="0"/>
+      <c r="EJ1" s="0"/>
+      <c r="EK1" s="0"/>
+      <c r="EL1" s="0"/>
+      <c r="EM1" s="0"/>
+      <c r="EN1" s="0"/>
+      <c r="EO1" s="0"/>
+      <c r="EP1" s="0"/>
+      <c r="EQ1" s="0"/>
+      <c r="ER1" s="0"/>
+      <c r="ES1" s="0"/>
+      <c r="ET1" s="0"/>
+      <c r="EU1" s="0"/>
+      <c r="EV1" s="0"/>
+      <c r="EW1" s="0"/>
+      <c r="EX1" s="0"/>
+      <c r="EY1" s="0"/>
+      <c r="EZ1" s="0"/>
+      <c r="FA1" s="0"/>
+      <c r="FB1" s="0"/>
+      <c r="FC1" s="0"/>
+      <c r="FD1" s="0"/>
+      <c r="FE1" s="0"/>
+      <c r="FF1" s="0"/>
+      <c r="FG1" s="0"/>
+      <c r="FH1" s="0"/>
+      <c r="FI1" s="0"/>
+      <c r="FJ1" s="0"/>
+      <c r="FK1" s="0"/>
+      <c r="FL1" s="0"/>
+      <c r="FM1" s="0"/>
+      <c r="FN1" s="0"/>
+      <c r="FO1" s="0"/>
+      <c r="FP1" s="0"/>
+      <c r="FQ1" s="0"/>
+      <c r="FR1" s="0"/>
+      <c r="FS1" s="0"/>
+      <c r="FT1" s="0"/>
+      <c r="FU1" s="0"/>
+      <c r="FV1" s="0"/>
+      <c r="FW1" s="0"/>
+      <c r="FX1" s="0"/>
+      <c r="FY1" s="0"/>
+      <c r="FZ1" s="0"/>
+      <c r="GA1" s="0"/>
+      <c r="GB1" s="0"/>
+      <c r="GC1" s="0"/>
+      <c r="GD1" s="0"/>
+      <c r="GE1" s="0"/>
+      <c r="GF1" s="0"/>
+      <c r="GG1" s="0"/>
+      <c r="GH1" s="0"/>
+      <c r="GI1" s="0"/>
+      <c r="GJ1" s="0"/>
+      <c r="GK1" s="0"/>
+      <c r="GL1" s="0"/>
+      <c r="GM1" s="0"/>
+      <c r="GN1" s="0"/>
+      <c r="GO1" s="0"/>
+      <c r="GP1" s="0"/>
+      <c r="GQ1" s="0"/>
+      <c r="GR1" s="0"/>
+      <c r="GS1" s="0"/>
+      <c r="GT1" s="0"/>
+      <c r="GU1" s="0"/>
+      <c r="GV1" s="0"/>
+      <c r="GW1" s="0"/>
+      <c r="GX1" s="0"/>
+      <c r="GY1" s="0"/>
+      <c r="GZ1" s="0"/>
+      <c r="HA1" s="0"/>
+      <c r="HB1" s="0"/>
+      <c r="HC1" s="0"/>
+      <c r="HD1" s="0"/>
+      <c r="HE1" s="0"/>
+      <c r="HF1" s="0"/>
+      <c r="HG1" s="0"/>
+      <c r="HH1" s="0"/>
+      <c r="HI1" s="0"/>
+      <c r="HJ1" s="0"/>
+      <c r="HK1" s="0"/>
+      <c r="HL1" s="0"/>
+      <c r="HM1" s="0"/>
+      <c r="HN1" s="0"/>
+      <c r="HO1" s="0"/>
+      <c r="HP1" s="0"/>
+      <c r="HQ1" s="0"/>
+      <c r="HR1" s="0"/>
+      <c r="HS1" s="0"/>
+      <c r="HT1" s="0"/>
+      <c r="HU1" s="0"/>
+      <c r="HV1" s="0"/>
+      <c r="HW1" s="0"/>
+      <c r="HX1" s="0"/>
+      <c r="HY1" s="0"/>
+      <c r="HZ1" s="0"/>
+      <c r="IA1" s="0"/>
+      <c r="IB1" s="0"/>
+      <c r="IC1" s="0"/>
+      <c r="ID1" s="0"/>
+      <c r="IE1" s="0"/>
+      <c r="IF1" s="0"/>
+      <c r="IG1" s="0"/>
+      <c r="IH1" s="0"/>
+      <c r="II1" s="0"/>
+      <c r="IJ1" s="0"/>
+      <c r="IK1" s="0"/>
+      <c r="IL1" s="0"/>
+      <c r="IM1" s="0"/>
+      <c r="IN1" s="0"/>
+      <c r="IO1" s="0"/>
+      <c r="IP1" s="0"/>
+      <c r="IQ1" s="0"/>
+      <c r="IR1" s="0"/>
+      <c r="IS1" s="0"/>
+      <c r="IT1" s="0"/>
+      <c r="IU1" s="0"/>
+      <c r="IV1" s="0"/>
+      <c r="IW1" s="0"/>
+      <c r="IX1" s="0"/>
+      <c r="IY1" s="0"/>
+      <c r="IZ1" s="0"/>
+      <c r="JA1" s="0"/>
+      <c r="JB1" s="0"/>
+      <c r="JC1" s="0"/>
+      <c r="JD1" s="0"/>
+      <c r="JE1" s="0"/>
+      <c r="JF1" s="0"/>
+      <c r="JG1" s="0"/>
+      <c r="JH1" s="0"/>
+      <c r="JI1" s="0"/>
+      <c r="JJ1" s="0"/>
+      <c r="JK1" s="0"/>
+      <c r="JL1" s="0"/>
+      <c r="JM1" s="0"/>
+      <c r="JN1" s="0"/>
+      <c r="JO1" s="0"/>
+      <c r="JP1" s="0"/>
+      <c r="JQ1" s="0"/>
+      <c r="JR1" s="0"/>
+      <c r="JS1" s="0"/>
+      <c r="JT1" s="0"/>
+      <c r="JU1" s="0"/>
+      <c r="JV1" s="0"/>
+      <c r="JW1" s="0"/>
+      <c r="JX1" s="0"/>
+      <c r="JY1" s="0"/>
+      <c r="JZ1" s="0"/>
+      <c r="KA1" s="0"/>
+      <c r="KB1" s="0"/>
+      <c r="KC1" s="0"/>
+      <c r="KD1" s="0"/>
+      <c r="KE1" s="0"/>
+      <c r="KF1" s="0"/>
+      <c r="KG1" s="0"/>
+      <c r="KH1" s="0"/>
+      <c r="KI1" s="0"/>
+      <c r="KJ1" s="0"/>
+      <c r="KK1" s="0"/>
+      <c r="KL1" s="0"/>
+      <c r="KM1" s="0"/>
+      <c r="KN1" s="0"/>
+      <c r="KO1" s="0"/>
+      <c r="KP1" s="0"/>
+      <c r="KQ1" s="0"/>
+      <c r="KR1" s="0"/>
+      <c r="KS1" s="0"/>
+      <c r="KT1" s="0"/>
+      <c r="KU1" s="0"/>
+      <c r="KV1" s="0"/>
+      <c r="KW1" s="0"/>
+      <c r="KX1" s="0"/>
+      <c r="KY1" s="0"/>
+      <c r="KZ1" s="0"/>
+      <c r="LA1" s="0"/>
+      <c r="LB1" s="0"/>
+      <c r="LC1" s="0"/>
+      <c r="LD1" s="0"/>
+      <c r="LE1" s="0"/>
+      <c r="LF1" s="0"/>
+      <c r="LG1" s="0"/>
+      <c r="LH1" s="0"/>
+      <c r="LI1" s="0"/>
+      <c r="LJ1" s="0"/>
+      <c r="LK1" s="0"/>
+      <c r="LL1" s="0"/>
+      <c r="LM1" s="0"/>
+      <c r="LN1" s="0"/>
+      <c r="LO1" s="0"/>
+      <c r="LP1" s="0"/>
+      <c r="LQ1" s="0"/>
+      <c r="LR1" s="0"/>
+      <c r="LS1" s="0"/>
+      <c r="LT1" s="0"/>
+      <c r="LU1" s="0"/>
+      <c r="LV1" s="0"/>
+      <c r="LW1" s="0"/>
+      <c r="LX1" s="0"/>
+      <c r="LY1" s="0"/>
+      <c r="LZ1" s="0"/>
+      <c r="MA1" s="0"/>
+      <c r="MB1" s="0"/>
+      <c r="MC1" s="0"/>
+      <c r="MD1" s="0"/>
+      <c r="ME1" s="0"/>
+      <c r="MF1" s="0"/>
+      <c r="MG1" s="0"/>
+      <c r="MH1" s="0"/>
+      <c r="MI1" s="0"/>
+      <c r="MJ1" s="0"/>
+      <c r="MK1" s="0"/>
+      <c r="ML1" s="0"/>
+      <c r="MM1" s="0"/>
+      <c r="MN1" s="0"/>
+      <c r="MO1" s="0"/>
+      <c r="MP1" s="0"/>
+      <c r="MQ1" s="0"/>
+      <c r="MR1" s="0"/>
+      <c r="MS1" s="0"/>
+      <c r="MT1" s="0"/>
+      <c r="MU1" s="0"/>
+      <c r="MV1" s="0"/>
+      <c r="MW1" s="0"/>
+      <c r="MX1" s="0"/>
+      <c r="MY1" s="0"/>
+      <c r="MZ1" s="0"/>
+      <c r="NA1" s="0"/>
+      <c r="NB1" s="0"/>
+      <c r="NC1" s="0"/>
+      <c r="ND1" s="0"/>
+      <c r="NE1" s="0"/>
+      <c r="NF1" s="0"/>
+      <c r="NG1" s="0"/>
+      <c r="NH1" s="0"/>
+      <c r="NI1" s="0"/>
+      <c r="NJ1" s="0"/>
+      <c r="NK1" s="0"/>
+      <c r="NL1" s="0"/>
+      <c r="NM1" s="0"/>
+      <c r="NN1" s="0"/>
+      <c r="NO1" s="0"/>
+      <c r="NP1" s="0"/>
+      <c r="NQ1" s="0"/>
+      <c r="NR1" s="0"/>
+      <c r="NS1" s="0"/>
+      <c r="NT1" s="0"/>
+      <c r="NU1" s="0"/>
+      <c r="NV1" s="0"/>
+      <c r="NW1" s="0"/>
+      <c r="NX1" s="0"/>
+      <c r="NY1" s="0"/>
+      <c r="NZ1" s="0"/>
+      <c r="OA1" s="0"/>
+      <c r="OB1" s="0"/>
+      <c r="OC1" s="0"/>
+      <c r="OD1" s="0"/>
+      <c r="OE1" s="0"/>
+      <c r="OF1" s="0"/>
+      <c r="OG1" s="0"/>
+      <c r="OH1" s="0"/>
+      <c r="OI1" s="0"/>
+      <c r="OJ1" s="0"/>
+      <c r="OK1" s="0"/>
+      <c r="OL1" s="0"/>
+      <c r="OM1" s="0"/>
+      <c r="ON1" s="0"/>
+      <c r="OO1" s="0"/>
+      <c r="OP1" s="0"/>
+      <c r="OQ1" s="0"/>
+      <c r="OR1" s="0"/>
+      <c r="OS1" s="0"/>
+      <c r="OT1" s="0"/>
+      <c r="OU1" s="0"/>
+      <c r="OV1" s="0"/>
+      <c r="OW1" s="0"/>
+      <c r="OX1" s="0"/>
+      <c r="OY1" s="0"/>
+      <c r="OZ1" s="0"/>
+      <c r="PA1" s="0"/>
+      <c r="PB1" s="0"/>
+      <c r="PC1" s="0"/>
+      <c r="PD1" s="0"/>
+      <c r="PE1" s="0"/>
+      <c r="PF1" s="0"/>
+      <c r="PG1" s="0"/>
+      <c r="PH1" s="0"/>
+      <c r="PI1" s="0"/>
+      <c r="PJ1" s="0"/>
+      <c r="PK1" s="0"/>
+      <c r="PL1" s="0"/>
+      <c r="PM1" s="0"/>
+      <c r="PN1" s="0"/>
+      <c r="PO1" s="0"/>
+      <c r="PP1" s="0"/>
+      <c r="PQ1" s="0"/>
+      <c r="PR1" s="0"/>
+      <c r="PS1" s="0"/>
+      <c r="PT1" s="0"/>
+      <c r="PU1" s="0"/>
+      <c r="PV1" s="0"/>
+      <c r="PW1" s="0"/>
+      <c r="PX1" s="0"/>
+      <c r="PY1" s="0"/>
+      <c r="PZ1" s="0"/>
+      <c r="QA1" s="0"/>
+      <c r="QB1" s="0"/>
+      <c r="QC1" s="0"/>
+      <c r="QD1" s="0"/>
+      <c r="QE1" s="0"/>
+      <c r="QF1" s="0"/>
+      <c r="QG1" s="0"/>
+      <c r="QH1" s="0"/>
+      <c r="QI1" s="0"/>
+      <c r="QJ1" s="0"/>
+      <c r="QK1" s="0"/>
+      <c r="QL1" s="0"/>
+      <c r="QM1" s="0"/>
+      <c r="QN1" s="0"/>
+      <c r="QO1" s="0"/>
+      <c r="QP1" s="0"/>
+      <c r="QQ1" s="0"/>
+      <c r="QR1" s="0"/>
+      <c r="QS1" s="0"/>
+      <c r="QT1" s="0"/>
+      <c r="QU1" s="0"/>
+      <c r="QV1" s="0"/>
+      <c r="QW1" s="0"/>
+      <c r="QX1" s="0"/>
+      <c r="QY1" s="0"/>
+      <c r="QZ1" s="0"/>
+      <c r="RA1" s="0"/>
+      <c r="RB1" s="0"/>
+      <c r="RC1" s="0"/>
+      <c r="RD1" s="0"/>
+      <c r="RE1" s="0"/>
+      <c r="RF1" s="0"/>
+      <c r="RG1" s="0"/>
+      <c r="RH1" s="0"/>
+      <c r="RI1" s="0"/>
+      <c r="RJ1" s="0"/>
+      <c r="RK1" s="0"/>
+      <c r="RL1" s="0"/>
+      <c r="RM1" s="0"/>
+      <c r="RN1" s="0"/>
+      <c r="RO1" s="0"/>
+      <c r="RP1" s="0"/>
+      <c r="RQ1" s="0"/>
+      <c r="RR1" s="0"/>
+      <c r="RS1" s="0"/>
+      <c r="RT1" s="0"/>
+      <c r="RU1" s="0"/>
+      <c r="RV1" s="0"/>
+      <c r="RW1" s="0"/>
+      <c r="RX1" s="0"/>
+      <c r="RY1" s="0"/>
+      <c r="RZ1" s="0"/>
+      <c r="SA1" s="0"/>
+      <c r="SB1" s="0"/>
+      <c r="SC1" s="0"/>
+      <c r="SD1" s="0"/>
+      <c r="SE1" s="0"/>
+      <c r="SF1" s="0"/>
+      <c r="SG1" s="0"/>
+      <c r="SH1" s="0"/>
+      <c r="SI1" s="0"/>
+      <c r="SJ1" s="0"/>
+      <c r="SK1" s="0"/>
+      <c r="SL1" s="0"/>
+      <c r="SM1" s="0"/>
+      <c r="SN1" s="0"/>
+      <c r="SO1" s="0"/>
+      <c r="SP1" s="0"/>
+      <c r="SQ1" s="0"/>
+      <c r="SR1" s="0"/>
+      <c r="SS1" s="0"/>
+      <c r="ST1" s="0"/>
+      <c r="SU1" s="0"/>
+      <c r="SV1" s="0"/>
+      <c r="SW1" s="0"/>
+      <c r="SX1" s="0"/>
+      <c r="SY1" s="0"/>
+      <c r="SZ1" s="0"/>
+      <c r="TA1" s="0"/>
+      <c r="TB1" s="0"/>
+      <c r="TC1" s="0"/>
+      <c r="TD1" s="0"/>
+      <c r="TE1" s="0"/>
+      <c r="TF1" s="0"/>
+      <c r="TG1" s="0"/>
+      <c r="TH1" s="0"/>
+      <c r="TI1" s="0"/>
+      <c r="TJ1" s="0"/>
+      <c r="TK1" s="0"/>
+      <c r="TL1" s="0"/>
+      <c r="TM1" s="0"/>
+      <c r="TN1" s="0"/>
+      <c r="TO1" s="0"/>
+      <c r="TP1" s="0"/>
+      <c r="TQ1" s="0"/>
+      <c r="TR1" s="0"/>
+      <c r="TS1" s="0"/>
+      <c r="TT1" s="0"/>
+      <c r="TU1" s="0"/>
+      <c r="TV1" s="0"/>
+      <c r="TW1" s="0"/>
+      <c r="TX1" s="0"/>
+      <c r="TY1" s="0"/>
+      <c r="TZ1" s="0"/>
+      <c r="UA1" s="0"/>
+      <c r="UB1" s="0"/>
+      <c r="UC1" s="0"/>
+      <c r="UD1" s="0"/>
+      <c r="UE1" s="0"/>
+      <c r="UF1" s="0"/>
+      <c r="UG1" s="0"/>
+      <c r="UH1" s="0"/>
+      <c r="UI1" s="0"/>
+      <c r="UJ1" s="0"/>
+      <c r="UK1" s="0"/>
+      <c r="UL1" s="0"/>
+      <c r="UM1" s="0"/>
+      <c r="UN1" s="0"/>
+      <c r="UO1" s="0"/>
+      <c r="UP1" s="0"/>
+      <c r="UQ1" s="0"/>
+      <c r="UR1" s="0"/>
+      <c r="US1" s="0"/>
+      <c r="UT1" s="0"/>
+      <c r="UU1" s="0"/>
+      <c r="UV1" s="0"/>
+      <c r="UW1" s="0"/>
+      <c r="UX1" s="0"/>
+      <c r="UY1" s="0"/>
+      <c r="UZ1" s="0"/>
+      <c r="VA1" s="0"/>
+      <c r="VB1" s="0"/>
+      <c r="VC1" s="0"/>
+      <c r="VD1" s="0"/>
+      <c r="VE1" s="0"/>
+      <c r="VF1" s="0"/>
+      <c r="VG1" s="0"/>
+      <c r="VH1" s="0"/>
+      <c r="VI1" s="0"/>
+      <c r="VJ1" s="0"/>
+      <c r="VK1" s="0"/>
+      <c r="VL1" s="0"/>
+      <c r="VM1" s="0"/>
+      <c r="VN1" s="0"/>
+      <c r="VO1" s="0"/>
+      <c r="VP1" s="0"/>
+      <c r="VQ1" s="0"/>
+      <c r="VR1" s="0"/>
+      <c r="VS1" s="0"/>
+      <c r="VT1" s="0"/>
+      <c r="VU1" s="0"/>
+      <c r="VV1" s="0"/>
+      <c r="VW1" s="0"/>
+      <c r="VX1" s="0"/>
+      <c r="VY1" s="0"/>
+      <c r="VZ1" s="0"/>
+      <c r="WA1" s="0"/>
+      <c r="WB1" s="0"/>
+      <c r="WC1" s="0"/>
+      <c r="WD1" s="0"/>
+      <c r="WE1" s="0"/>
+      <c r="WF1" s="0"/>
+      <c r="WG1" s="0"/>
+      <c r="WH1" s="0"/>
+      <c r="WI1" s="0"/>
+      <c r="WJ1" s="0"/>
+      <c r="WK1" s="0"/>
+      <c r="WL1" s="0"/>
+      <c r="WM1" s="0"/>
+      <c r="WN1" s="0"/>
+      <c r="WO1" s="0"/>
+      <c r="WP1" s="0"/>
+      <c r="WQ1" s="0"/>
+      <c r="WR1" s="0"/>
+      <c r="WS1" s="0"/>
+      <c r="WT1" s="0"/>
+      <c r="WU1" s="0"/>
+      <c r="WV1" s="0"/>
+      <c r="WW1" s="0"/>
+      <c r="WX1" s="0"/>
+      <c r="WY1" s="0"/>
+      <c r="WZ1" s="0"/>
+      <c r="XA1" s="0"/>
+      <c r="XB1" s="0"/>
+      <c r="XC1" s="0"/>
+      <c r="XD1" s="0"/>
+      <c r="XE1" s="0"/>
+      <c r="XF1" s="0"/>
+      <c r="XG1" s="0"/>
+      <c r="XH1" s="0"/>
+      <c r="XI1" s="0"/>
+      <c r="XJ1" s="0"/>
+      <c r="XK1" s="0"/>
+      <c r="XL1" s="0"/>
+      <c r="XM1" s="0"/>
+      <c r="XN1" s="0"/>
+      <c r="XO1" s="0"/>
+      <c r="XP1" s="0"/>
+      <c r="XQ1" s="0"/>
+      <c r="XR1" s="0"/>
+      <c r="XS1" s="0"/>
+      <c r="XT1" s="0"/>
+      <c r="XU1" s="0"/>
+      <c r="XV1" s="0"/>
+      <c r="XW1" s="0"/>
+      <c r="XX1" s="0"/>
+      <c r="XY1" s="0"/>
+      <c r="XZ1" s="0"/>
+      <c r="YA1" s="0"/>
+      <c r="YB1" s="0"/>
+      <c r="YC1" s="0"/>
+      <c r="YD1" s="0"/>
+      <c r="YE1" s="0"/>
+      <c r="YF1" s="0"/>
+      <c r="YG1" s="0"/>
+      <c r="YH1" s="0"/>
+      <c r="YI1" s="0"/>
+      <c r="YJ1" s="0"/>
+      <c r="YK1" s="0"/>
+      <c r="YL1" s="0"/>
+      <c r="YM1" s="0"/>
+      <c r="YN1" s="0"/>
+      <c r="YO1" s="0"/>
+      <c r="YP1" s="0"/>
+      <c r="YQ1" s="0"/>
+      <c r="YR1" s="0"/>
+      <c r="YS1" s="0"/>
+      <c r="YT1" s="0"/>
+      <c r="YU1" s="0"/>
+      <c r="YV1" s="0"/>
+      <c r="YW1" s="0"/>
+      <c r="YX1" s="0"/>
+      <c r="YY1" s="0"/>
+      <c r="YZ1" s="0"/>
+      <c r="ZA1" s="0"/>
+      <c r="ZB1" s="0"/>
+      <c r="ZC1" s="0"/>
+      <c r="ZD1" s="0"/>
+      <c r="ZE1" s="0"/>
+      <c r="ZF1" s="0"/>
+      <c r="ZG1" s="0"/>
+      <c r="ZH1" s="0"/>
+      <c r="ZI1" s="0"/>
+      <c r="ZJ1" s="0"/>
+      <c r="ZK1" s="0"/>
+      <c r="ZL1" s="0"/>
+      <c r="ZM1" s="0"/>
+      <c r="ZN1" s="0"/>
+      <c r="ZO1" s="0"/>
+      <c r="ZP1" s="0"/>
+      <c r="ZQ1" s="0"/>
+      <c r="ZR1" s="0"/>
+      <c r="ZS1" s="0"/>
+      <c r="ZT1" s="0"/>
+      <c r="ZU1" s="0"/>
+      <c r="ZV1" s="0"/>
+      <c r="ZW1" s="0"/>
+      <c r="ZX1" s="0"/>
+      <c r="ZY1" s="0"/>
+      <c r="ZZ1" s="0"/>
+      <c r="AAA1" s="0"/>
+      <c r="AAB1" s="0"/>
+      <c r="AAC1" s="0"/>
+      <c r="AAD1" s="0"/>
+      <c r="AAE1" s="0"/>
+      <c r="AAF1" s="0"/>
+      <c r="AAG1" s="0"/>
+      <c r="AAH1" s="0"/>
+      <c r="AAI1" s="0"/>
+      <c r="AAJ1" s="0"/>
+      <c r="AAK1" s="0"/>
+      <c r="AAL1" s="0"/>
+      <c r="AAM1" s="0"/>
+      <c r="AAN1" s="0"/>
+      <c r="AAO1" s="0"/>
+      <c r="AAP1" s="0"/>
+      <c r="AAQ1" s="0"/>
+      <c r="AAR1" s="0"/>
+      <c r="AAS1" s="0"/>
+      <c r="AAT1" s="0"/>
+      <c r="AAU1" s="0"/>
+      <c r="AAV1" s="0"/>
+      <c r="AAW1" s="0"/>
+      <c r="AAX1" s="0"/>
+      <c r="AAY1" s="0"/>
+      <c r="AAZ1" s="0"/>
+      <c r="ABA1" s="0"/>
+      <c r="ABB1" s="0"/>
+      <c r="ABC1" s="0"/>
+      <c r="ABD1" s="0"/>
+      <c r="ABE1" s="0"/>
+      <c r="ABF1" s="0"/>
+      <c r="ABG1" s="0"/>
+      <c r="ABH1" s="0"/>
+      <c r="ABI1" s="0"/>
+      <c r="ABJ1" s="0"/>
+      <c r="ABK1" s="0"/>
+      <c r="ABL1" s="0"/>
+      <c r="ABM1" s="0"/>
+      <c r="ABN1" s="0"/>
+      <c r="ABO1" s="0"/>
+      <c r="ABP1" s="0"/>
+      <c r="ABQ1" s="0"/>
+      <c r="ABR1" s="0"/>
+      <c r="ABS1" s="0"/>
+      <c r="ABT1" s="0"/>
+      <c r="ABU1" s="0"/>
+      <c r="ABV1" s="0"/>
+      <c r="ABW1" s="0"/>
+      <c r="ABX1" s="0"/>
+      <c r="ABY1" s="0"/>
+      <c r="ABZ1" s="0"/>
+      <c r="ACA1" s="0"/>
+      <c r="ACB1" s="0"/>
+      <c r="ACC1" s="0"/>
+      <c r="ACD1" s="0"/>
+      <c r="ACE1" s="0"/>
+      <c r="ACF1" s="0"/>
+      <c r="ACG1" s="0"/>
+      <c r="ACH1" s="0"/>
+      <c r="ACI1" s="0"/>
+      <c r="ACJ1" s="0"/>
+      <c r="ACK1" s="0"/>
+      <c r="ACL1" s="0"/>
+      <c r="ACM1" s="0"/>
+      <c r="ACN1" s="0"/>
+      <c r="ACO1" s="0"/>
+      <c r="ACP1" s="0"/>
+      <c r="ACQ1" s="0"/>
+      <c r="ACR1" s="0"/>
+      <c r="ACS1" s="0"/>
+      <c r="ACT1" s="0"/>
+      <c r="ACU1" s="0"/>
+      <c r="ACV1" s="0"/>
+      <c r="ACW1" s="0"/>
+      <c r="ACX1" s="0"/>
+      <c r="ACY1" s="0"/>
+      <c r="ACZ1" s="0"/>
+      <c r="ADA1" s="0"/>
+      <c r="ADB1" s="0"/>
+      <c r="ADC1" s="0"/>
+      <c r="ADD1" s="0"/>
+      <c r="ADE1" s="0"/>
+      <c r="ADF1" s="0"/>
+      <c r="ADG1" s="0"/>
+      <c r="ADH1" s="0"/>
+      <c r="ADI1" s="0"/>
+      <c r="ADJ1" s="0"/>
+      <c r="ADK1" s="0"/>
+      <c r="ADL1" s="0"/>
+      <c r="ADM1" s="0"/>
+      <c r="ADN1" s="0"/>
+      <c r="ADO1" s="0"/>
+      <c r="ADP1" s="0"/>
+      <c r="ADQ1" s="0"/>
+      <c r="ADR1" s="0"/>
+      <c r="ADS1" s="0"/>
+      <c r="ADT1" s="0"/>
+      <c r="ADU1" s="0"/>
+      <c r="ADV1" s="0"/>
+      <c r="ADW1" s="0"/>
+      <c r="ADX1" s="0"/>
+      <c r="ADY1" s="0"/>
+      <c r="ADZ1" s="0"/>
+      <c r="AEA1" s="0"/>
+      <c r="AEB1" s="0"/>
+      <c r="AEC1" s="0"/>
+      <c r="AED1" s="0"/>
+      <c r="AEE1" s="0"/>
+      <c r="AEF1" s="0"/>
+      <c r="AEG1" s="0"/>
+      <c r="AEH1" s="0"/>
+      <c r="AEI1" s="0"/>
+      <c r="AEJ1" s="0"/>
+      <c r="AEK1" s="0"/>
+      <c r="AEL1" s="0"/>
+      <c r="AEM1" s="0"/>
+      <c r="AEN1" s="0"/>
+      <c r="AEO1" s="0"/>
+      <c r="AEP1" s="0"/>
+      <c r="AEQ1" s="0"/>
+      <c r="AER1" s="0"/>
+      <c r="AES1" s="0"/>
+      <c r="AET1" s="0"/>
+      <c r="AEU1" s="0"/>
+      <c r="AEV1" s="0"/>
+      <c r="AEW1" s="0"/>
+      <c r="AEX1" s="0"/>
+      <c r="AEY1" s="0"/>
+      <c r="AEZ1" s="0"/>
+      <c r="AFA1" s="0"/>
+      <c r="AFB1" s="0"/>
+      <c r="AFC1" s="0"/>
+      <c r="AFD1" s="0"/>
+      <c r="AFE1" s="0"/>
+      <c r="AFF1" s="0"/>
+      <c r="AFG1" s="0"/>
+      <c r="AFH1" s="0"/>
+      <c r="AFI1" s="0"/>
+      <c r="AFJ1" s="0"/>
+      <c r="AFK1" s="0"/>
+      <c r="AFL1" s="0"/>
+      <c r="AFM1" s="0"/>
+      <c r="AFN1" s="0"/>
+      <c r="AFO1" s="0"/>
+      <c r="AFP1" s="0"/>
+      <c r="AFQ1" s="0"/>
+      <c r="AFR1" s="0"/>
+      <c r="AFS1" s="0"/>
+      <c r="AFT1" s="0"/>
+      <c r="AFU1" s="0"/>
+      <c r="AFV1" s="0"/>
+      <c r="AFW1" s="0"/>
+      <c r="AFX1" s="0"/>
+      <c r="AFY1" s="0"/>
+      <c r="AFZ1" s="0"/>
+      <c r="AGA1" s="0"/>
+      <c r="AGB1" s="0"/>
+      <c r="AGC1" s="0"/>
+      <c r="AGD1" s="0"/>
+      <c r="AGE1" s="0"/>
+      <c r="AGF1" s="0"/>
+      <c r="AGG1" s="0"/>
+      <c r="AGH1" s="0"/>
+      <c r="AGI1" s="0"/>
+      <c r="AGJ1" s="0"/>
+      <c r="AGK1" s="0"/>
+      <c r="AGL1" s="0"/>
+      <c r="AGM1" s="0"/>
+      <c r="AGN1" s="0"/>
+      <c r="AGO1" s="0"/>
+      <c r="AGP1" s="0"/>
+      <c r="AGQ1" s="0"/>
+      <c r="AGR1" s="0"/>
+      <c r="AGS1" s="0"/>
+      <c r="AGT1" s="0"/>
+      <c r="AGU1" s="0"/>
+      <c r="AGV1" s="0"/>
+      <c r="AGW1" s="0"/>
+      <c r="AGX1" s="0"/>
+      <c r="AGY1" s="0"/>
+      <c r="AGZ1" s="0"/>
+      <c r="AHA1" s="0"/>
+      <c r="AHB1" s="0"/>
+      <c r="AHC1" s="0"/>
+      <c r="AHD1" s="0"/>
+      <c r="AHE1" s="0"/>
+      <c r="AHF1" s="0"/>
+      <c r="AHG1" s="0"/>
+      <c r="AHH1" s="0"/>
+      <c r="AHI1" s="0"/>
+      <c r="AHJ1" s="0"/>
+      <c r="AHK1" s="0"/>
+      <c r="AHL1" s="0"/>
+      <c r="AHM1" s="0"/>
+      <c r="AHN1" s="0"/>
+      <c r="AHO1" s="0"/>
+      <c r="AHP1" s="0"/>
+      <c r="AHQ1" s="0"/>
+      <c r="AHR1" s="0"/>
+      <c r="AHS1" s="0"/>
+      <c r="AHT1" s="0"/>
+      <c r="AHU1" s="0"/>
+      <c r="AHV1" s="0"/>
+      <c r="AHW1" s="0"/>
+      <c r="AHX1" s="0"/>
+      <c r="AHY1" s="0"/>
+      <c r="AHZ1" s="0"/>
+      <c r="AIA1" s="0"/>
+      <c r="AIB1" s="0"/>
+      <c r="AIC1" s="0"/>
+      <c r="AID1" s="0"/>
+      <c r="AIE1" s="0"/>
+      <c r="AIF1" s="0"/>
+      <c r="AIG1" s="0"/>
+      <c r="AIH1" s="0"/>
+      <c r="AII1" s="0"/>
+      <c r="AIJ1" s="0"/>
+      <c r="AIK1" s="0"/>
+      <c r="AIL1" s="0"/>
+      <c r="AIM1" s="0"/>
+      <c r="AIN1" s="0"/>
+      <c r="AIO1" s="0"/>
+      <c r="AIP1" s="0"/>
+      <c r="AIQ1" s="0"/>
+      <c r="AIR1" s="0"/>
+      <c r="AIS1" s="0"/>
+      <c r="AIT1" s="0"/>
+      <c r="AIU1" s="0"/>
+      <c r="AIV1" s="0"/>
+      <c r="AIW1" s="0"/>
+      <c r="AIX1" s="0"/>
+      <c r="AIY1" s="0"/>
+      <c r="AIZ1" s="0"/>
+      <c r="AJA1" s="0"/>
+      <c r="AJB1" s="0"/>
+      <c r="AJC1" s="0"/>
+      <c r="AJD1" s="0"/>
+      <c r="AJE1" s="0"/>
+      <c r="AJF1" s="0"/>
+      <c r="AJG1" s="0"/>
+      <c r="AJH1" s="0"/>
+      <c r="AJI1" s="0"/>
+      <c r="AJJ1" s="0"/>
+      <c r="AJK1" s="0"/>
+      <c r="AJL1" s="0"/>
+      <c r="AJM1" s="0"/>
+      <c r="AJN1" s="0"/>
+      <c r="AJO1" s="0"/>
+      <c r="AJP1" s="0"/>
+      <c r="AJQ1" s="0"/>
+      <c r="AJR1" s="0"/>
+      <c r="AJS1" s="0"/>
+      <c r="AJT1" s="0"/>
+      <c r="AJU1" s="0"/>
+      <c r="AJV1" s="0"/>
+      <c r="AJW1" s="0"/>
+      <c r="AJX1" s="0"/>
+      <c r="AJY1" s="0"/>
+      <c r="AJZ1" s="0"/>
+      <c r="AKA1" s="0"/>
+      <c r="AKB1" s="0"/>
+      <c r="AKC1" s="0"/>
+      <c r="AKD1" s="0"/>
+      <c r="AKE1" s="0"/>
+      <c r="AKF1" s="0"/>
+      <c r="AKG1" s="0"/>
+      <c r="AKH1" s="0"/>
+      <c r="AKI1" s="0"/>
+      <c r="AKJ1" s="0"/>
+      <c r="AKK1" s="0"/>
+      <c r="AKL1" s="0"/>
+      <c r="AKM1" s="0"/>
+      <c r="AKN1" s="0"/>
+      <c r="AKO1" s="0"/>
+      <c r="AKP1" s="0"/>
+      <c r="AKQ1" s="0"/>
+      <c r="AKR1" s="0"/>
+      <c r="AKS1" s="0"/>
+      <c r="AKT1" s="0"/>
+      <c r="AKU1" s="0"/>
+      <c r="AKV1" s="0"/>
+      <c r="AKW1" s="0"/>
+      <c r="AKX1" s="0"/>
+      <c r="AKY1" s="0"/>
+      <c r="AKZ1" s="0"/>
+      <c r="ALA1" s="0"/>
+      <c r="ALB1" s="0"/>
+      <c r="ALC1" s="0"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
+      <c r="ALH1" s="0"/>
+      <c r="ALI1" s="0"/>
+      <c r="ALJ1" s="0"/>
+      <c r="ALK1" s="0"/>
+      <c r="ALL1" s="0"/>
+      <c r="ALM1" s="0"/>
+      <c r="ALN1" s="0"/>
+      <c r="ALO1" s="0"/>
+      <c r="ALP1" s="0"/>
+      <c r="ALQ1" s="0"/>
+      <c r="ALR1" s="0"/>
+      <c r="ALS1" s="0"/>
+      <c r="ALT1" s="0"/>
+      <c r="ALU1" s="0"/>
+      <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25"/>
@@ -20721,6 +25818,1024 @@
       <c r="F8" s="21" t="s">
         <v>382</v>
       </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
+      <c r="AI8" s="0"/>
+      <c r="AJ8" s="0"/>
+      <c r="AK8" s="0"/>
+      <c r="AL8" s="0"/>
+      <c r="AM8" s="0"/>
+      <c r="AN8" s="0"/>
+      <c r="AO8" s="0"/>
+      <c r="AP8" s="0"/>
+      <c r="AQ8" s="0"/>
+      <c r="AR8" s="0"/>
+      <c r="AS8" s="0"/>
+      <c r="AT8" s="0"/>
+      <c r="AU8" s="0"/>
+      <c r="AV8" s="0"/>
+      <c r="AW8" s="0"/>
+      <c r="AX8" s="0"/>
+      <c r="AY8" s="0"/>
+      <c r="AZ8" s="0"/>
+      <c r="BA8" s="0"/>
+      <c r="BB8" s="0"/>
+      <c r="BC8" s="0"/>
+      <c r="BD8" s="0"/>
+      <c r="BE8" s="0"/>
+      <c r="BF8" s="0"/>
+      <c r="BG8" s="0"/>
+      <c r="BH8" s="0"/>
+      <c r="BI8" s="0"/>
+      <c r="BJ8" s="0"/>
+      <c r="BK8" s="0"/>
+      <c r="BL8" s="0"/>
+      <c r="BM8" s="0"/>
+      <c r="BN8" s="0"/>
+      <c r="BO8" s="0"/>
+      <c r="BP8" s="0"/>
+      <c r="BQ8" s="0"/>
+      <c r="BR8" s="0"/>
+      <c r="BS8" s="0"/>
+      <c r="BT8" s="0"/>
+      <c r="BU8" s="0"/>
+      <c r="BV8" s="0"/>
+      <c r="BW8" s="0"/>
+      <c r="BX8" s="0"/>
+      <c r="BY8" s="0"/>
+      <c r="BZ8" s="0"/>
+      <c r="CA8" s="0"/>
+      <c r="CB8" s="0"/>
+      <c r="CC8" s="0"/>
+      <c r="CD8" s="0"/>
+      <c r="CE8" s="0"/>
+      <c r="CF8" s="0"/>
+      <c r="CG8" s="0"/>
+      <c r="CH8" s="0"/>
+      <c r="CI8" s="0"/>
+      <c r="CJ8" s="0"/>
+      <c r="CK8" s="0"/>
+      <c r="CL8" s="0"/>
+      <c r="CM8" s="0"/>
+      <c r="CN8" s="0"/>
+      <c r="CO8" s="0"/>
+      <c r="CP8" s="0"/>
+      <c r="CQ8" s="0"/>
+      <c r="CR8" s="0"/>
+      <c r="CS8" s="0"/>
+      <c r="CT8" s="0"/>
+      <c r="CU8" s="0"/>
+      <c r="CV8" s="0"/>
+      <c r="CW8" s="0"/>
+      <c r="CX8" s="0"/>
+      <c r="CY8" s="0"/>
+      <c r="CZ8" s="0"/>
+      <c r="DA8" s="0"/>
+      <c r="DB8" s="0"/>
+      <c r="DC8" s="0"/>
+      <c r="DD8" s="0"/>
+      <c r="DE8" s="0"/>
+      <c r="DF8" s="0"/>
+      <c r="DG8" s="0"/>
+      <c r="DH8" s="0"/>
+      <c r="DI8" s="0"/>
+      <c r="DJ8" s="0"/>
+      <c r="DK8" s="0"/>
+      <c r="DL8" s="0"/>
+      <c r="DM8" s="0"/>
+      <c r="DN8" s="0"/>
+      <c r="DO8" s="0"/>
+      <c r="DP8" s="0"/>
+      <c r="DQ8" s="0"/>
+      <c r="DR8" s="0"/>
+      <c r="DS8" s="0"/>
+      <c r="DT8" s="0"/>
+      <c r="DU8" s="0"/>
+      <c r="DV8" s="0"/>
+      <c r="DW8" s="0"/>
+      <c r="DX8" s="0"/>
+      <c r="DY8" s="0"/>
+      <c r="DZ8" s="0"/>
+      <c r="EA8" s="0"/>
+      <c r="EB8" s="0"/>
+      <c r="EC8" s="0"/>
+      <c r="ED8" s="0"/>
+      <c r="EE8" s="0"/>
+      <c r="EF8" s="0"/>
+      <c r="EG8" s="0"/>
+      <c r="EH8" s="0"/>
+      <c r="EI8" s="0"/>
+      <c r="EJ8" s="0"/>
+      <c r="EK8" s="0"/>
+      <c r="EL8" s="0"/>
+      <c r="EM8" s="0"/>
+      <c r="EN8" s="0"/>
+      <c r="EO8" s="0"/>
+      <c r="EP8" s="0"/>
+      <c r="EQ8" s="0"/>
+      <c r="ER8" s="0"/>
+      <c r="ES8" s="0"/>
+      <c r="ET8" s="0"/>
+      <c r="EU8" s="0"/>
+      <c r="EV8" s="0"/>
+      <c r="EW8" s="0"/>
+      <c r="EX8" s="0"/>
+      <c r="EY8" s="0"/>
+      <c r="EZ8" s="0"/>
+      <c r="FA8" s="0"/>
+      <c r="FB8" s="0"/>
+      <c r="FC8" s="0"/>
+      <c r="FD8" s="0"/>
+      <c r="FE8" s="0"/>
+      <c r="FF8" s="0"/>
+      <c r="FG8" s="0"/>
+      <c r="FH8" s="0"/>
+      <c r="FI8" s="0"/>
+      <c r="FJ8" s="0"/>
+      <c r="FK8" s="0"/>
+      <c r="FL8" s="0"/>
+      <c r="FM8" s="0"/>
+      <c r="FN8" s="0"/>
+      <c r="FO8" s="0"/>
+      <c r="FP8" s="0"/>
+      <c r="FQ8" s="0"/>
+      <c r="FR8" s="0"/>
+      <c r="FS8" s="0"/>
+      <c r="FT8" s="0"/>
+      <c r="FU8" s="0"/>
+      <c r="FV8" s="0"/>
+      <c r="FW8" s="0"/>
+      <c r="FX8" s="0"/>
+      <c r="FY8" s="0"/>
+      <c r="FZ8" s="0"/>
+      <c r="GA8" s="0"/>
+      <c r="GB8" s="0"/>
+      <c r="GC8" s="0"/>
+      <c r="GD8" s="0"/>
+      <c r="GE8" s="0"/>
+      <c r="GF8" s="0"/>
+      <c r="GG8" s="0"/>
+      <c r="GH8" s="0"/>
+      <c r="GI8" s="0"/>
+      <c r="GJ8" s="0"/>
+      <c r="GK8" s="0"/>
+      <c r="GL8" s="0"/>
+      <c r="GM8" s="0"/>
+      <c r="GN8" s="0"/>
+      <c r="GO8" s="0"/>
+      <c r="GP8" s="0"/>
+      <c r="GQ8" s="0"/>
+      <c r="GR8" s="0"/>
+      <c r="GS8" s="0"/>
+      <c r="GT8" s="0"/>
+      <c r="GU8" s="0"/>
+      <c r="GV8" s="0"/>
+      <c r="GW8" s="0"/>
+      <c r="GX8" s="0"/>
+      <c r="GY8" s="0"/>
+      <c r="GZ8" s="0"/>
+      <c r="HA8" s="0"/>
+      <c r="HB8" s="0"/>
+      <c r="HC8" s="0"/>
+      <c r="HD8" s="0"/>
+      <c r="HE8" s="0"/>
+      <c r="HF8" s="0"/>
+      <c r="HG8" s="0"/>
+      <c r="HH8" s="0"/>
+      <c r="HI8" s="0"/>
+      <c r="HJ8" s="0"/>
+      <c r="HK8" s="0"/>
+      <c r="HL8" s="0"/>
+      <c r="HM8" s="0"/>
+      <c r="HN8" s="0"/>
+      <c r="HO8" s="0"/>
+      <c r="HP8" s="0"/>
+      <c r="HQ8" s="0"/>
+      <c r="HR8" s="0"/>
+      <c r="HS8" s="0"/>
+      <c r="HT8" s="0"/>
+      <c r="HU8" s="0"/>
+      <c r="HV8" s="0"/>
+      <c r="HW8" s="0"/>
+      <c r="HX8" s="0"/>
+      <c r="HY8" s="0"/>
+      <c r="HZ8" s="0"/>
+      <c r="IA8" s="0"/>
+      <c r="IB8" s="0"/>
+      <c r="IC8" s="0"/>
+      <c r="ID8" s="0"/>
+      <c r="IE8" s="0"/>
+      <c r="IF8" s="0"/>
+      <c r="IG8" s="0"/>
+      <c r="IH8" s="0"/>
+      <c r="II8" s="0"/>
+      <c r="IJ8" s="0"/>
+      <c r="IK8" s="0"/>
+      <c r="IL8" s="0"/>
+      <c r="IM8" s="0"/>
+      <c r="IN8" s="0"/>
+      <c r="IO8" s="0"/>
+      <c r="IP8" s="0"/>
+      <c r="IQ8" s="0"/>
+      <c r="IR8" s="0"/>
+      <c r="IS8" s="0"/>
+      <c r="IT8" s="0"/>
+      <c r="IU8" s="0"/>
+      <c r="IV8" s="0"/>
+      <c r="IW8" s="0"/>
+      <c r="IX8" s="0"/>
+      <c r="IY8" s="0"/>
+      <c r="IZ8" s="0"/>
+      <c r="JA8" s="0"/>
+      <c r="JB8" s="0"/>
+      <c r="JC8" s="0"/>
+      <c r="JD8" s="0"/>
+      <c r="JE8" s="0"/>
+      <c r="JF8" s="0"/>
+      <c r="JG8" s="0"/>
+      <c r="JH8" s="0"/>
+      <c r="JI8" s="0"/>
+      <c r="JJ8" s="0"/>
+      <c r="JK8" s="0"/>
+      <c r="JL8" s="0"/>
+      <c r="JM8" s="0"/>
+      <c r="JN8" s="0"/>
+      <c r="JO8" s="0"/>
+      <c r="JP8" s="0"/>
+      <c r="JQ8" s="0"/>
+      <c r="JR8" s="0"/>
+      <c r="JS8" s="0"/>
+      <c r="JT8" s="0"/>
+      <c r="JU8" s="0"/>
+      <c r="JV8" s="0"/>
+      <c r="JW8" s="0"/>
+      <c r="JX8" s="0"/>
+      <c r="JY8" s="0"/>
+      <c r="JZ8" s="0"/>
+      <c r="KA8" s="0"/>
+      <c r="KB8" s="0"/>
+      <c r="KC8" s="0"/>
+      <c r="KD8" s="0"/>
+      <c r="KE8" s="0"/>
+      <c r="KF8" s="0"/>
+      <c r="KG8" s="0"/>
+      <c r="KH8" s="0"/>
+      <c r="KI8" s="0"/>
+      <c r="KJ8" s="0"/>
+      <c r="KK8" s="0"/>
+      <c r="KL8" s="0"/>
+      <c r="KM8" s="0"/>
+      <c r="KN8" s="0"/>
+      <c r="KO8" s="0"/>
+      <c r="KP8" s="0"/>
+      <c r="KQ8" s="0"/>
+      <c r="KR8" s="0"/>
+      <c r="KS8" s="0"/>
+      <c r="KT8" s="0"/>
+      <c r="KU8" s="0"/>
+      <c r="KV8" s="0"/>
+      <c r="KW8" s="0"/>
+      <c r="KX8" s="0"/>
+      <c r="KY8" s="0"/>
+      <c r="KZ8" s="0"/>
+      <c r="LA8" s="0"/>
+      <c r="LB8" s="0"/>
+      <c r="LC8" s="0"/>
+      <c r="LD8" s="0"/>
+      <c r="LE8" s="0"/>
+      <c r="LF8" s="0"/>
+      <c r="LG8" s="0"/>
+      <c r="LH8" s="0"/>
+      <c r="LI8" s="0"/>
+      <c r="LJ8" s="0"/>
+      <c r="LK8" s="0"/>
+      <c r="LL8" s="0"/>
+      <c r="LM8" s="0"/>
+      <c r="LN8" s="0"/>
+      <c r="LO8" s="0"/>
+      <c r="LP8" s="0"/>
+      <c r="LQ8" s="0"/>
+      <c r="LR8" s="0"/>
+      <c r="LS8" s="0"/>
+      <c r="LT8" s="0"/>
+      <c r="LU8" s="0"/>
+      <c r="LV8" s="0"/>
+      <c r="LW8" s="0"/>
+      <c r="LX8" s="0"/>
+      <c r="LY8" s="0"/>
+      <c r="LZ8" s="0"/>
+      <c r="MA8" s="0"/>
+      <c r="MB8" s="0"/>
+      <c r="MC8" s="0"/>
+      <c r="MD8" s="0"/>
+      <c r="ME8" s="0"/>
+      <c r="MF8" s="0"/>
+      <c r="MG8" s="0"/>
+      <c r="MH8" s="0"/>
+      <c r="MI8" s="0"/>
+      <c r="MJ8" s="0"/>
+      <c r="MK8" s="0"/>
+      <c r="ML8" s="0"/>
+      <c r="MM8" s="0"/>
+      <c r="MN8" s="0"/>
+      <c r="MO8" s="0"/>
+      <c r="MP8" s="0"/>
+      <c r="MQ8" s="0"/>
+      <c r="MR8" s="0"/>
+      <c r="MS8" s="0"/>
+      <c r="MT8" s="0"/>
+      <c r="MU8" s="0"/>
+      <c r="MV8" s="0"/>
+      <c r="MW8" s="0"/>
+      <c r="MX8" s="0"/>
+      <c r="MY8" s="0"/>
+      <c r="MZ8" s="0"/>
+      <c r="NA8" s="0"/>
+      <c r="NB8" s="0"/>
+      <c r="NC8" s="0"/>
+      <c r="ND8" s="0"/>
+      <c r="NE8" s="0"/>
+      <c r="NF8" s="0"/>
+      <c r="NG8" s="0"/>
+      <c r="NH8" s="0"/>
+      <c r="NI8" s="0"/>
+      <c r="NJ8" s="0"/>
+      <c r="NK8" s="0"/>
+      <c r="NL8" s="0"/>
+      <c r="NM8" s="0"/>
+      <c r="NN8" s="0"/>
+      <c r="NO8" s="0"/>
+      <c r="NP8" s="0"/>
+      <c r="NQ8" s="0"/>
+      <c r="NR8" s="0"/>
+      <c r="NS8" s="0"/>
+      <c r="NT8" s="0"/>
+      <c r="NU8" s="0"/>
+      <c r="NV8" s="0"/>
+      <c r="NW8" s="0"/>
+      <c r="NX8" s="0"/>
+      <c r="NY8" s="0"/>
+      <c r="NZ8" s="0"/>
+      <c r="OA8" s="0"/>
+      <c r="OB8" s="0"/>
+      <c r="OC8" s="0"/>
+      <c r="OD8" s="0"/>
+      <c r="OE8" s="0"/>
+      <c r="OF8" s="0"/>
+      <c r="OG8" s="0"/>
+      <c r="OH8" s="0"/>
+      <c r="OI8" s="0"/>
+      <c r="OJ8" s="0"/>
+      <c r="OK8" s="0"/>
+      <c r="OL8" s="0"/>
+      <c r="OM8" s="0"/>
+      <c r="ON8" s="0"/>
+      <c r="OO8" s="0"/>
+      <c r="OP8" s="0"/>
+      <c r="OQ8" s="0"/>
+      <c r="OR8" s="0"/>
+      <c r="OS8" s="0"/>
+      <c r="OT8" s="0"/>
+      <c r="OU8" s="0"/>
+      <c r="OV8" s="0"/>
+      <c r="OW8" s="0"/>
+      <c r="OX8" s="0"/>
+      <c r="OY8" s="0"/>
+      <c r="OZ8" s="0"/>
+      <c r="PA8" s="0"/>
+      <c r="PB8" s="0"/>
+      <c r="PC8" s="0"/>
+      <c r="PD8" s="0"/>
+      <c r="PE8" s="0"/>
+      <c r="PF8" s="0"/>
+      <c r="PG8" s="0"/>
+      <c r="PH8" s="0"/>
+      <c r="PI8" s="0"/>
+      <c r="PJ8" s="0"/>
+      <c r="PK8" s="0"/>
+      <c r="PL8" s="0"/>
+      <c r="PM8" s="0"/>
+      <c r="PN8" s="0"/>
+      <c r="PO8" s="0"/>
+      <c r="PP8" s="0"/>
+      <c r="PQ8" s="0"/>
+      <c r="PR8" s="0"/>
+      <c r="PS8" s="0"/>
+      <c r="PT8" s="0"/>
+      <c r="PU8" s="0"/>
+      <c r="PV8" s="0"/>
+      <c r="PW8" s="0"/>
+      <c r="PX8" s="0"/>
+      <c r="PY8" s="0"/>
+      <c r="PZ8" s="0"/>
+      <c r="QA8" s="0"/>
+      <c r="QB8" s="0"/>
+      <c r="QC8" s="0"/>
+      <c r="QD8" s="0"/>
+      <c r="QE8" s="0"/>
+      <c r="QF8" s="0"/>
+      <c r="QG8" s="0"/>
+      <c r="QH8" s="0"/>
+      <c r="QI8" s="0"/>
+      <c r="QJ8" s="0"/>
+      <c r="QK8" s="0"/>
+      <c r="QL8" s="0"/>
+      <c r="QM8" s="0"/>
+      <c r="QN8" s="0"/>
+      <c r="QO8" s="0"/>
+      <c r="QP8" s="0"/>
+      <c r="QQ8" s="0"/>
+      <c r="QR8" s="0"/>
+      <c r="QS8" s="0"/>
+      <c r="QT8" s="0"/>
+      <c r="QU8" s="0"/>
+      <c r="QV8" s="0"/>
+      <c r="QW8" s="0"/>
+      <c r="QX8" s="0"/>
+      <c r="QY8" s="0"/>
+      <c r="QZ8" s="0"/>
+      <c r="RA8" s="0"/>
+      <c r="RB8" s="0"/>
+      <c r="RC8" s="0"/>
+      <c r="RD8" s="0"/>
+      <c r="RE8" s="0"/>
+      <c r="RF8" s="0"/>
+      <c r="RG8" s="0"/>
+      <c r="RH8" s="0"/>
+      <c r="RI8" s="0"/>
+      <c r="RJ8" s="0"/>
+      <c r="RK8" s="0"/>
+      <c r="RL8" s="0"/>
+      <c r="RM8" s="0"/>
+      <c r="RN8" s="0"/>
+      <c r="RO8" s="0"/>
+      <c r="RP8" s="0"/>
+      <c r="RQ8" s="0"/>
+      <c r="RR8" s="0"/>
+      <c r="RS8" s="0"/>
+      <c r="RT8" s="0"/>
+      <c r="RU8" s="0"/>
+      <c r="RV8" s="0"/>
+      <c r="RW8" s="0"/>
+      <c r="RX8" s="0"/>
+      <c r="RY8" s="0"/>
+      <c r="RZ8" s="0"/>
+      <c r="SA8" s="0"/>
+      <c r="SB8" s="0"/>
+      <c r="SC8" s="0"/>
+      <c r="SD8" s="0"/>
+      <c r="SE8" s="0"/>
+      <c r="SF8" s="0"/>
+      <c r="SG8" s="0"/>
+      <c r="SH8" s="0"/>
+      <c r="SI8" s="0"/>
+      <c r="SJ8" s="0"/>
+      <c r="SK8" s="0"/>
+      <c r="SL8" s="0"/>
+      <c r="SM8" s="0"/>
+      <c r="SN8" s="0"/>
+      <c r="SO8" s="0"/>
+      <c r="SP8" s="0"/>
+      <c r="SQ8" s="0"/>
+      <c r="SR8" s="0"/>
+      <c r="SS8" s="0"/>
+      <c r="ST8" s="0"/>
+      <c r="SU8" s="0"/>
+      <c r="SV8" s="0"/>
+      <c r="SW8" s="0"/>
+      <c r="SX8" s="0"/>
+      <c r="SY8" s="0"/>
+      <c r="SZ8" s="0"/>
+      <c r="TA8" s="0"/>
+      <c r="TB8" s="0"/>
+      <c r="TC8" s="0"/>
+      <c r="TD8" s="0"/>
+      <c r="TE8" s="0"/>
+      <c r="TF8" s="0"/>
+      <c r="TG8" s="0"/>
+      <c r="TH8" s="0"/>
+      <c r="TI8" s="0"/>
+      <c r="TJ8" s="0"/>
+      <c r="TK8" s="0"/>
+      <c r="TL8" s="0"/>
+      <c r="TM8" s="0"/>
+      <c r="TN8" s="0"/>
+      <c r="TO8" s="0"/>
+      <c r="TP8" s="0"/>
+      <c r="TQ8" s="0"/>
+      <c r="TR8" s="0"/>
+      <c r="TS8" s="0"/>
+      <c r="TT8" s="0"/>
+      <c r="TU8" s="0"/>
+      <c r="TV8" s="0"/>
+      <c r="TW8" s="0"/>
+      <c r="TX8" s="0"/>
+      <c r="TY8" s="0"/>
+      <c r="TZ8" s="0"/>
+      <c r="UA8" s="0"/>
+      <c r="UB8" s="0"/>
+      <c r="UC8" s="0"/>
+      <c r="UD8" s="0"/>
+      <c r="UE8" s="0"/>
+      <c r="UF8" s="0"/>
+      <c r="UG8" s="0"/>
+      <c r="UH8" s="0"/>
+      <c r="UI8" s="0"/>
+      <c r="UJ8" s="0"/>
+      <c r="UK8" s="0"/>
+      <c r="UL8" s="0"/>
+      <c r="UM8" s="0"/>
+      <c r="UN8" s="0"/>
+      <c r="UO8" s="0"/>
+      <c r="UP8" s="0"/>
+      <c r="UQ8" s="0"/>
+      <c r="UR8" s="0"/>
+      <c r="US8" s="0"/>
+      <c r="UT8" s="0"/>
+      <c r="UU8" s="0"/>
+      <c r="UV8" s="0"/>
+      <c r="UW8" s="0"/>
+      <c r="UX8" s="0"/>
+      <c r="UY8" s="0"/>
+      <c r="UZ8" s="0"/>
+      <c r="VA8" s="0"/>
+      <c r="VB8" s="0"/>
+      <c r="VC8" s="0"/>
+      <c r="VD8" s="0"/>
+      <c r="VE8" s="0"/>
+      <c r="VF8" s="0"/>
+      <c r="VG8" s="0"/>
+      <c r="VH8" s="0"/>
+      <c r="VI8" s="0"/>
+      <c r="VJ8" s="0"/>
+      <c r="VK8" s="0"/>
+      <c r="VL8" s="0"/>
+      <c r="VM8" s="0"/>
+      <c r="VN8" s="0"/>
+      <c r="VO8" s="0"/>
+      <c r="VP8" s="0"/>
+      <c r="VQ8" s="0"/>
+      <c r="VR8" s="0"/>
+      <c r="VS8" s="0"/>
+      <c r="VT8" s="0"/>
+      <c r="VU8" s="0"/>
+      <c r="VV8" s="0"/>
+      <c r="VW8" s="0"/>
+      <c r="VX8" s="0"/>
+      <c r="VY8" s="0"/>
+      <c r="VZ8" s="0"/>
+      <c r="WA8" s="0"/>
+      <c r="WB8" s="0"/>
+      <c r="WC8" s="0"/>
+      <c r="WD8" s="0"/>
+      <c r="WE8" s="0"/>
+      <c r="WF8" s="0"/>
+      <c r="WG8" s="0"/>
+      <c r="WH8" s="0"/>
+      <c r="WI8" s="0"/>
+      <c r="WJ8" s="0"/>
+      <c r="WK8" s="0"/>
+      <c r="WL8" s="0"/>
+      <c r="WM8" s="0"/>
+      <c r="WN8" s="0"/>
+      <c r="WO8" s="0"/>
+      <c r="WP8" s="0"/>
+      <c r="WQ8" s="0"/>
+      <c r="WR8" s="0"/>
+      <c r="WS8" s="0"/>
+      <c r="WT8" s="0"/>
+      <c r="WU8" s="0"/>
+      <c r="WV8" s="0"/>
+      <c r="WW8" s="0"/>
+      <c r="WX8" s="0"/>
+      <c r="WY8" s="0"/>
+      <c r="WZ8" s="0"/>
+      <c r="XA8" s="0"/>
+      <c r="XB8" s="0"/>
+      <c r="XC8" s="0"/>
+      <c r="XD8" s="0"/>
+      <c r="XE8" s="0"/>
+      <c r="XF8" s="0"/>
+      <c r="XG8" s="0"/>
+      <c r="XH8" s="0"/>
+      <c r="XI8" s="0"/>
+      <c r="XJ8" s="0"/>
+      <c r="XK8" s="0"/>
+      <c r="XL8" s="0"/>
+      <c r="XM8" s="0"/>
+      <c r="XN8" s="0"/>
+      <c r="XO8" s="0"/>
+      <c r="XP8" s="0"/>
+      <c r="XQ8" s="0"/>
+      <c r="XR8" s="0"/>
+      <c r="XS8" s="0"/>
+      <c r="XT8" s="0"/>
+      <c r="XU8" s="0"/>
+      <c r="XV8" s="0"/>
+      <c r="XW8" s="0"/>
+      <c r="XX8" s="0"/>
+      <c r="XY8" s="0"/>
+      <c r="XZ8" s="0"/>
+      <c r="YA8" s="0"/>
+      <c r="YB8" s="0"/>
+      <c r="YC8" s="0"/>
+      <c r="YD8" s="0"/>
+      <c r="YE8" s="0"/>
+      <c r="YF8" s="0"/>
+      <c r="YG8" s="0"/>
+      <c r="YH8" s="0"/>
+      <c r="YI8" s="0"/>
+      <c r="YJ8" s="0"/>
+      <c r="YK8" s="0"/>
+      <c r="YL8" s="0"/>
+      <c r="YM8" s="0"/>
+      <c r="YN8" s="0"/>
+      <c r="YO8" s="0"/>
+      <c r="YP8" s="0"/>
+      <c r="YQ8" s="0"/>
+      <c r="YR8" s="0"/>
+      <c r="YS8" s="0"/>
+      <c r="YT8" s="0"/>
+      <c r="YU8" s="0"/>
+      <c r="YV8" s="0"/>
+      <c r="YW8" s="0"/>
+      <c r="YX8" s="0"/>
+      <c r="YY8" s="0"/>
+      <c r="YZ8" s="0"/>
+      <c r="ZA8" s="0"/>
+      <c r="ZB8" s="0"/>
+      <c r="ZC8" s="0"/>
+      <c r="ZD8" s="0"/>
+      <c r="ZE8" s="0"/>
+      <c r="ZF8" s="0"/>
+      <c r="ZG8" s="0"/>
+      <c r="ZH8" s="0"/>
+      <c r="ZI8" s="0"/>
+      <c r="ZJ8" s="0"/>
+      <c r="ZK8" s="0"/>
+      <c r="ZL8" s="0"/>
+      <c r="ZM8" s="0"/>
+      <c r="ZN8" s="0"/>
+      <c r="ZO8" s="0"/>
+      <c r="ZP8" s="0"/>
+      <c r="ZQ8" s="0"/>
+      <c r="ZR8" s="0"/>
+      <c r="ZS8" s="0"/>
+      <c r="ZT8" s="0"/>
+      <c r="ZU8" s="0"/>
+      <c r="ZV8" s="0"/>
+      <c r="ZW8" s="0"/>
+      <c r="ZX8" s="0"/>
+      <c r="ZY8" s="0"/>
+      <c r="ZZ8" s="0"/>
+      <c r="AAA8" s="0"/>
+      <c r="AAB8" s="0"/>
+      <c r="AAC8" s="0"/>
+      <c r="AAD8" s="0"/>
+      <c r="AAE8" s="0"/>
+      <c r="AAF8" s="0"/>
+      <c r="AAG8" s="0"/>
+      <c r="AAH8" s="0"/>
+      <c r="AAI8" s="0"/>
+      <c r="AAJ8" s="0"/>
+      <c r="AAK8" s="0"/>
+      <c r="AAL8" s="0"/>
+      <c r="AAM8" s="0"/>
+      <c r="AAN8" s="0"/>
+      <c r="AAO8" s="0"/>
+      <c r="AAP8" s="0"/>
+      <c r="AAQ8" s="0"/>
+      <c r="AAR8" s="0"/>
+      <c r="AAS8" s="0"/>
+      <c r="AAT8" s="0"/>
+      <c r="AAU8" s="0"/>
+      <c r="AAV8" s="0"/>
+      <c r="AAW8" s="0"/>
+      <c r="AAX8" s="0"/>
+      <c r="AAY8" s="0"/>
+      <c r="AAZ8" s="0"/>
+      <c r="ABA8" s="0"/>
+      <c r="ABB8" s="0"/>
+      <c r="ABC8" s="0"/>
+      <c r="ABD8" s="0"/>
+      <c r="ABE8" s="0"/>
+      <c r="ABF8" s="0"/>
+      <c r="ABG8" s="0"/>
+      <c r="ABH8" s="0"/>
+      <c r="ABI8" s="0"/>
+      <c r="ABJ8" s="0"/>
+      <c r="ABK8" s="0"/>
+      <c r="ABL8" s="0"/>
+      <c r="ABM8" s="0"/>
+      <c r="ABN8" s="0"/>
+      <c r="ABO8" s="0"/>
+      <c r="ABP8" s="0"/>
+      <c r="ABQ8" s="0"/>
+      <c r="ABR8" s="0"/>
+      <c r="ABS8" s="0"/>
+      <c r="ABT8" s="0"/>
+      <c r="ABU8" s="0"/>
+      <c r="ABV8" s="0"/>
+      <c r="ABW8" s="0"/>
+      <c r="ABX8" s="0"/>
+      <c r="ABY8" s="0"/>
+      <c r="ABZ8" s="0"/>
+      <c r="ACA8" s="0"/>
+      <c r="ACB8" s="0"/>
+      <c r="ACC8" s="0"/>
+      <c r="ACD8" s="0"/>
+      <c r="ACE8" s="0"/>
+      <c r="ACF8" s="0"/>
+      <c r="ACG8" s="0"/>
+      <c r="ACH8" s="0"/>
+      <c r="ACI8" s="0"/>
+      <c r="ACJ8" s="0"/>
+      <c r="ACK8" s="0"/>
+      <c r="ACL8" s="0"/>
+      <c r="ACM8" s="0"/>
+      <c r="ACN8" s="0"/>
+      <c r="ACO8" s="0"/>
+      <c r="ACP8" s="0"/>
+      <c r="ACQ8" s="0"/>
+      <c r="ACR8" s="0"/>
+      <c r="ACS8" s="0"/>
+      <c r="ACT8" s="0"/>
+      <c r="ACU8" s="0"/>
+      <c r="ACV8" s="0"/>
+      <c r="ACW8" s="0"/>
+      <c r="ACX8" s="0"/>
+      <c r="ACY8" s="0"/>
+      <c r="ACZ8" s="0"/>
+      <c r="ADA8" s="0"/>
+      <c r="ADB8" s="0"/>
+      <c r="ADC8" s="0"/>
+      <c r="ADD8" s="0"/>
+      <c r="ADE8" s="0"/>
+      <c r="ADF8" s="0"/>
+      <c r="ADG8" s="0"/>
+      <c r="ADH8" s="0"/>
+      <c r="ADI8" s="0"/>
+      <c r="ADJ8" s="0"/>
+      <c r="ADK8" s="0"/>
+      <c r="ADL8" s="0"/>
+      <c r="ADM8" s="0"/>
+      <c r="ADN8" s="0"/>
+      <c r="ADO8" s="0"/>
+      <c r="ADP8" s="0"/>
+      <c r="ADQ8" s="0"/>
+      <c r="ADR8" s="0"/>
+      <c r="ADS8" s="0"/>
+      <c r="ADT8" s="0"/>
+      <c r="ADU8" s="0"/>
+      <c r="ADV8" s="0"/>
+      <c r="ADW8" s="0"/>
+      <c r="ADX8" s="0"/>
+      <c r="ADY8" s="0"/>
+      <c r="ADZ8" s="0"/>
+      <c r="AEA8" s="0"/>
+      <c r="AEB8" s="0"/>
+      <c r="AEC8" s="0"/>
+      <c r="AED8" s="0"/>
+      <c r="AEE8" s="0"/>
+      <c r="AEF8" s="0"/>
+      <c r="AEG8" s="0"/>
+      <c r="AEH8" s="0"/>
+      <c r="AEI8" s="0"/>
+      <c r="AEJ8" s="0"/>
+      <c r="AEK8" s="0"/>
+      <c r="AEL8" s="0"/>
+      <c r="AEM8" s="0"/>
+      <c r="AEN8" s="0"/>
+      <c r="AEO8" s="0"/>
+      <c r="AEP8" s="0"/>
+      <c r="AEQ8" s="0"/>
+      <c r="AER8" s="0"/>
+      <c r="AES8" s="0"/>
+      <c r="AET8" s="0"/>
+      <c r="AEU8" s="0"/>
+      <c r="AEV8" s="0"/>
+      <c r="AEW8" s="0"/>
+      <c r="AEX8" s="0"/>
+      <c r="AEY8" s="0"/>
+      <c r="AEZ8" s="0"/>
+      <c r="AFA8" s="0"/>
+      <c r="AFB8" s="0"/>
+      <c r="AFC8" s="0"/>
+      <c r="AFD8" s="0"/>
+      <c r="AFE8" s="0"/>
+      <c r="AFF8" s="0"/>
+      <c r="AFG8" s="0"/>
+      <c r="AFH8" s="0"/>
+      <c r="AFI8" s="0"/>
+      <c r="AFJ8" s="0"/>
+      <c r="AFK8" s="0"/>
+      <c r="AFL8" s="0"/>
+      <c r="AFM8" s="0"/>
+      <c r="AFN8" s="0"/>
+      <c r="AFO8" s="0"/>
+      <c r="AFP8" s="0"/>
+      <c r="AFQ8" s="0"/>
+      <c r="AFR8" s="0"/>
+      <c r="AFS8" s="0"/>
+      <c r="AFT8" s="0"/>
+      <c r="AFU8" s="0"/>
+      <c r="AFV8" s="0"/>
+      <c r="AFW8" s="0"/>
+      <c r="AFX8" s="0"/>
+      <c r="AFY8" s="0"/>
+      <c r="AFZ8" s="0"/>
+      <c r="AGA8" s="0"/>
+      <c r="AGB8" s="0"/>
+      <c r="AGC8" s="0"/>
+      <c r="AGD8" s="0"/>
+      <c r="AGE8" s="0"/>
+      <c r="AGF8" s="0"/>
+      <c r="AGG8" s="0"/>
+      <c r="AGH8" s="0"/>
+      <c r="AGI8" s="0"/>
+      <c r="AGJ8" s="0"/>
+      <c r="AGK8" s="0"/>
+      <c r="AGL8" s="0"/>
+      <c r="AGM8" s="0"/>
+      <c r="AGN8" s="0"/>
+      <c r="AGO8" s="0"/>
+      <c r="AGP8" s="0"/>
+      <c r="AGQ8" s="0"/>
+      <c r="AGR8" s="0"/>
+      <c r="AGS8" s="0"/>
+      <c r="AGT8" s="0"/>
+      <c r="AGU8" s="0"/>
+      <c r="AGV8" s="0"/>
+      <c r="AGW8" s="0"/>
+      <c r="AGX8" s="0"/>
+      <c r="AGY8" s="0"/>
+      <c r="AGZ8" s="0"/>
+      <c r="AHA8" s="0"/>
+      <c r="AHB8" s="0"/>
+      <c r="AHC8" s="0"/>
+      <c r="AHD8" s="0"/>
+      <c r="AHE8" s="0"/>
+      <c r="AHF8" s="0"/>
+      <c r="AHG8" s="0"/>
+      <c r="AHH8" s="0"/>
+      <c r="AHI8" s="0"/>
+      <c r="AHJ8" s="0"/>
+      <c r="AHK8" s="0"/>
+      <c r="AHL8" s="0"/>
+      <c r="AHM8" s="0"/>
+      <c r="AHN8" s="0"/>
+      <c r="AHO8" s="0"/>
+      <c r="AHP8" s="0"/>
+      <c r="AHQ8" s="0"/>
+      <c r="AHR8" s="0"/>
+      <c r="AHS8" s="0"/>
+      <c r="AHT8" s="0"/>
+      <c r="AHU8" s="0"/>
+      <c r="AHV8" s="0"/>
+      <c r="AHW8" s="0"/>
+      <c r="AHX8" s="0"/>
+      <c r="AHY8" s="0"/>
+      <c r="AHZ8" s="0"/>
+      <c r="AIA8" s="0"/>
+      <c r="AIB8" s="0"/>
+      <c r="AIC8" s="0"/>
+      <c r="AID8" s="0"/>
+      <c r="AIE8" s="0"/>
+      <c r="AIF8" s="0"/>
+      <c r="AIG8" s="0"/>
+      <c r="AIH8" s="0"/>
+      <c r="AII8" s="0"/>
+      <c r="AIJ8" s="0"/>
+      <c r="AIK8" s="0"/>
+      <c r="AIL8" s="0"/>
+      <c r="AIM8" s="0"/>
+      <c r="AIN8" s="0"/>
+      <c r="AIO8" s="0"/>
+      <c r="AIP8" s="0"/>
+      <c r="AIQ8" s="0"/>
+      <c r="AIR8" s="0"/>
+      <c r="AIS8" s="0"/>
+      <c r="AIT8" s="0"/>
+      <c r="AIU8" s="0"/>
+      <c r="AIV8" s="0"/>
+      <c r="AIW8" s="0"/>
+      <c r="AIX8" s="0"/>
+      <c r="AIY8" s="0"/>
+      <c r="AIZ8" s="0"/>
+      <c r="AJA8" s="0"/>
+      <c r="AJB8" s="0"/>
+      <c r="AJC8" s="0"/>
+      <c r="AJD8" s="0"/>
+      <c r="AJE8" s="0"/>
+      <c r="AJF8" s="0"/>
+      <c r="AJG8" s="0"/>
+      <c r="AJH8" s="0"/>
+      <c r="AJI8" s="0"/>
+      <c r="AJJ8" s="0"/>
+      <c r="AJK8" s="0"/>
+      <c r="AJL8" s="0"/>
+      <c r="AJM8" s="0"/>
+      <c r="AJN8" s="0"/>
+      <c r="AJO8" s="0"/>
+      <c r="AJP8" s="0"/>
+      <c r="AJQ8" s="0"/>
+      <c r="AJR8" s="0"/>
+      <c r="AJS8" s="0"/>
+      <c r="AJT8" s="0"/>
+      <c r="AJU8" s="0"/>
+      <c r="AJV8" s="0"/>
+      <c r="AJW8" s="0"/>
+      <c r="AJX8" s="0"/>
+      <c r="AJY8" s="0"/>
+      <c r="AJZ8" s="0"/>
+      <c r="AKA8" s="0"/>
+      <c r="AKB8" s="0"/>
+      <c r="AKC8" s="0"/>
+      <c r="AKD8" s="0"/>
+      <c r="AKE8" s="0"/>
+      <c r="AKF8" s="0"/>
+      <c r="AKG8" s="0"/>
+      <c r="AKH8" s="0"/>
+      <c r="AKI8" s="0"/>
+      <c r="AKJ8" s="0"/>
+      <c r="AKK8" s="0"/>
+      <c r="AKL8" s="0"/>
+      <c r="AKM8" s="0"/>
+      <c r="AKN8" s="0"/>
+      <c r="AKO8" s="0"/>
+      <c r="AKP8" s="0"/>
+      <c r="AKQ8" s="0"/>
+      <c r="AKR8" s="0"/>
+      <c r="AKS8" s="0"/>
+      <c r="AKT8" s="0"/>
+      <c r="AKU8" s="0"/>
+      <c r="AKV8" s="0"/>
+      <c r="AKW8" s="0"/>
+      <c r="AKX8" s="0"/>
+      <c r="AKY8" s="0"/>
+      <c r="AKZ8" s="0"/>
+      <c r="ALA8" s="0"/>
+      <c r="ALB8" s="0"/>
+      <c r="ALC8" s="0"/>
+      <c r="ALD8" s="0"/>
+      <c r="ALE8" s="0"/>
+      <c r="ALF8" s="0"/>
+      <c r="ALG8" s="0"/>
+      <c r="ALH8" s="0"/>
+      <c r="ALI8" s="0"/>
+      <c r="ALJ8" s="0"/>
+      <c r="ALK8" s="0"/>
+      <c r="ALL8" s="0"/>
+      <c r="ALM8" s="0"/>
+      <c r="ALN8" s="0"/>
+      <c r="ALO8" s="0"/>
+      <c r="ALP8" s="0"/>
+      <c r="ALQ8" s="0"/>
+      <c r="ALR8" s="0"/>
+      <c r="ALS8" s="0"/>
+      <c r="ALT8" s="0"/>
+      <c r="ALU8" s="0"/>
+      <c r="ALV8" s="0"/>
+      <c r="ALW8" s="0"/>
+      <c r="ALX8" s="0"/>
+      <c r="ALY8" s="0"/>
+      <c r="ALZ8" s="0"/>
+      <c r="AMA8" s="0"/>
+      <c r="AMB8" s="0"/>
+      <c r="AMC8" s="0"/>
+      <c r="AMD8" s="0"/>
+      <c r="AME8" s="0"/>
+      <c r="AMF8" s="0"/>
+      <c r="AMG8" s="0"/>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
@@ -22801,6 +28916,1024 @@
       <c r="F11" s="19" t="s">
         <v>358</v>
       </c>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
+      <c r="AH11" s="0"/>
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="0"/>
+      <c r="AK11" s="0"/>
+      <c r="AL11" s="0"/>
+      <c r="AM11" s="0"/>
+      <c r="AN11" s="0"/>
+      <c r="AO11" s="0"/>
+      <c r="AP11" s="0"/>
+      <c r="AQ11" s="0"/>
+      <c r="AR11" s="0"/>
+      <c r="AS11" s="0"/>
+      <c r="AT11" s="0"/>
+      <c r="AU11" s="0"/>
+      <c r="AV11" s="0"/>
+      <c r="AW11" s="0"/>
+      <c r="AX11" s="0"/>
+      <c r="AY11" s="0"/>
+      <c r="AZ11" s="0"/>
+      <c r="BA11" s="0"/>
+      <c r="BB11" s="0"/>
+      <c r="BC11" s="0"/>
+      <c r="BD11" s="0"/>
+      <c r="BE11" s="0"/>
+      <c r="BF11" s="0"/>
+      <c r="BG11" s="0"/>
+      <c r="BH11" s="0"/>
+      <c r="BI11" s="0"/>
+      <c r="BJ11" s="0"/>
+      <c r="BK11" s="0"/>
+      <c r="BL11" s="0"/>
+      <c r="BM11" s="0"/>
+      <c r="BN11" s="0"/>
+      <c r="BO11" s="0"/>
+      <c r="BP11" s="0"/>
+      <c r="BQ11" s="0"/>
+      <c r="BR11" s="0"/>
+      <c r="BS11" s="0"/>
+      <c r="BT11" s="0"/>
+      <c r="BU11" s="0"/>
+      <c r="BV11" s="0"/>
+      <c r="BW11" s="0"/>
+      <c r="BX11" s="0"/>
+      <c r="BY11" s="0"/>
+      <c r="BZ11" s="0"/>
+      <c r="CA11" s="0"/>
+      <c r="CB11" s="0"/>
+      <c r="CC11" s="0"/>
+      <c r="CD11" s="0"/>
+      <c r="CE11" s="0"/>
+      <c r="CF11" s="0"/>
+      <c r="CG11" s="0"/>
+      <c r="CH11" s="0"/>
+      <c r="CI11" s="0"/>
+      <c r="CJ11" s="0"/>
+      <c r="CK11" s="0"/>
+      <c r="CL11" s="0"/>
+      <c r="CM11" s="0"/>
+      <c r="CN11" s="0"/>
+      <c r="CO11" s="0"/>
+      <c r="CP11" s="0"/>
+      <c r="CQ11" s="0"/>
+      <c r="CR11" s="0"/>
+      <c r="CS11" s="0"/>
+      <c r="CT11" s="0"/>
+      <c r="CU11" s="0"/>
+      <c r="CV11" s="0"/>
+      <c r="CW11" s="0"/>
+      <c r="CX11" s="0"/>
+      <c r="CY11" s="0"/>
+      <c r="CZ11" s="0"/>
+      <c r="DA11" s="0"/>
+      <c r="DB11" s="0"/>
+      <c r="DC11" s="0"/>
+      <c r="DD11" s="0"/>
+      <c r="DE11" s="0"/>
+      <c r="DF11" s="0"/>
+      <c r="DG11" s="0"/>
+      <c r="DH11" s="0"/>
+      <c r="DI11" s="0"/>
+      <c r="DJ11" s="0"/>
+      <c r="DK11" s="0"/>
+      <c r="DL11" s="0"/>
+      <c r="DM11" s="0"/>
+      <c r="DN11" s="0"/>
+      <c r="DO11" s="0"/>
+      <c r="DP11" s="0"/>
+      <c r="DQ11" s="0"/>
+      <c r="DR11" s="0"/>
+      <c r="DS11" s="0"/>
+      <c r="DT11" s="0"/>
+      <c r="DU11" s="0"/>
+      <c r="DV11" s="0"/>
+      <c r="DW11" s="0"/>
+      <c r="DX11" s="0"/>
+      <c r="DY11" s="0"/>
+      <c r="DZ11" s="0"/>
+      <c r="EA11" s="0"/>
+      <c r="EB11" s="0"/>
+      <c r="EC11" s="0"/>
+      <c r="ED11" s="0"/>
+      <c r="EE11" s="0"/>
+      <c r="EF11" s="0"/>
+      <c r="EG11" s="0"/>
+      <c r="EH11" s="0"/>
+      <c r="EI11" s="0"/>
+      <c r="EJ11" s="0"/>
+      <c r="EK11" s="0"/>
+      <c r="EL11" s="0"/>
+      <c r="EM11" s="0"/>
+      <c r="EN11" s="0"/>
+      <c r="EO11" s="0"/>
+      <c r="EP11" s="0"/>
+      <c r="EQ11" s="0"/>
+      <c r="ER11" s="0"/>
+      <c r="ES11" s="0"/>
+      <c r="ET11" s="0"/>
+      <c r="EU11" s="0"/>
+      <c r="EV11" s="0"/>
+      <c r="EW11" s="0"/>
+      <c r="EX11" s="0"/>
+      <c r="EY11" s="0"/>
+      <c r="EZ11" s="0"/>
+      <c r="FA11" s="0"/>
+      <c r="FB11" s="0"/>
+      <c r="FC11" s="0"/>
+      <c r="FD11" s="0"/>
+      <c r="FE11" s="0"/>
+      <c r="FF11" s="0"/>
+      <c r="FG11" s="0"/>
+      <c r="FH11" s="0"/>
+      <c r="FI11" s="0"/>
+      <c r="FJ11" s="0"/>
+      <c r="FK11" s="0"/>
+      <c r="FL11" s="0"/>
+      <c r="FM11" s="0"/>
+      <c r="FN11" s="0"/>
+      <c r="FO11" s="0"/>
+      <c r="FP11" s="0"/>
+      <c r="FQ11" s="0"/>
+      <c r="FR11" s="0"/>
+      <c r="FS11" s="0"/>
+      <c r="FT11" s="0"/>
+      <c r="FU11" s="0"/>
+      <c r="FV11" s="0"/>
+      <c r="FW11" s="0"/>
+      <c r="FX11" s="0"/>
+      <c r="FY11" s="0"/>
+      <c r="FZ11" s="0"/>
+      <c r="GA11" s="0"/>
+      <c r="GB11" s="0"/>
+      <c r="GC11" s="0"/>
+      <c r="GD11" s="0"/>
+      <c r="GE11" s="0"/>
+      <c r="GF11" s="0"/>
+      <c r="GG11" s="0"/>
+      <c r="GH11" s="0"/>
+      <c r="GI11" s="0"/>
+      <c r="GJ11" s="0"/>
+      <c r="GK11" s="0"/>
+      <c r="GL11" s="0"/>
+      <c r="GM11" s="0"/>
+      <c r="GN11" s="0"/>
+      <c r="GO11" s="0"/>
+      <c r="GP11" s="0"/>
+      <c r="GQ11" s="0"/>
+      <c r="GR11" s="0"/>
+      <c r="GS11" s="0"/>
+      <c r="GT11" s="0"/>
+      <c r="GU11" s="0"/>
+      <c r="GV11" s="0"/>
+      <c r="GW11" s="0"/>
+      <c r="GX11" s="0"/>
+      <c r="GY11" s="0"/>
+      <c r="GZ11" s="0"/>
+      <c r="HA11" s="0"/>
+      <c r="HB11" s="0"/>
+      <c r="HC11" s="0"/>
+      <c r="HD11" s="0"/>
+      <c r="HE11" s="0"/>
+      <c r="HF11" s="0"/>
+      <c r="HG11" s="0"/>
+      <c r="HH11" s="0"/>
+      <c r="HI11" s="0"/>
+      <c r="HJ11" s="0"/>
+      <c r="HK11" s="0"/>
+      <c r="HL11" s="0"/>
+      <c r="HM11" s="0"/>
+      <c r="HN11" s="0"/>
+      <c r="HO11" s="0"/>
+      <c r="HP11" s="0"/>
+      <c r="HQ11" s="0"/>
+      <c r="HR11" s="0"/>
+      <c r="HS11" s="0"/>
+      <c r="HT11" s="0"/>
+      <c r="HU11" s="0"/>
+      <c r="HV11" s="0"/>
+      <c r="HW11" s="0"/>
+      <c r="HX11" s="0"/>
+      <c r="HY11" s="0"/>
+      <c r="HZ11" s="0"/>
+      <c r="IA11" s="0"/>
+      <c r="IB11" s="0"/>
+      <c r="IC11" s="0"/>
+      <c r="ID11" s="0"/>
+      <c r="IE11" s="0"/>
+      <c r="IF11" s="0"/>
+      <c r="IG11" s="0"/>
+      <c r="IH11" s="0"/>
+      <c r="II11" s="0"/>
+      <c r="IJ11" s="0"/>
+      <c r="IK11" s="0"/>
+      <c r="IL11" s="0"/>
+      <c r="IM11" s="0"/>
+      <c r="IN11" s="0"/>
+      <c r="IO11" s="0"/>
+      <c r="IP11" s="0"/>
+      <c r="IQ11" s="0"/>
+      <c r="IR11" s="0"/>
+      <c r="IS11" s="0"/>
+      <c r="IT11" s="0"/>
+      <c r="IU11" s="0"/>
+      <c r="IV11" s="0"/>
+      <c r="IW11" s="0"/>
+      <c r="IX11" s="0"/>
+      <c r="IY11" s="0"/>
+      <c r="IZ11" s="0"/>
+      <c r="JA11" s="0"/>
+      <c r="JB11" s="0"/>
+      <c r="JC11" s="0"/>
+      <c r="JD11" s="0"/>
+      <c r="JE11" s="0"/>
+      <c r="JF11" s="0"/>
+      <c r="JG11" s="0"/>
+      <c r="JH11" s="0"/>
+      <c r="JI11" s="0"/>
+      <c r="JJ11" s="0"/>
+      <c r="JK11" s="0"/>
+      <c r="JL11" s="0"/>
+      <c r="JM11" s="0"/>
+      <c r="JN11" s="0"/>
+      <c r="JO11" s="0"/>
+      <c r="JP11" s="0"/>
+      <c r="JQ11" s="0"/>
+      <c r="JR11" s="0"/>
+      <c r="JS11" s="0"/>
+      <c r="JT11" s="0"/>
+      <c r="JU11" s="0"/>
+      <c r="JV11" s="0"/>
+      <c r="JW11" s="0"/>
+      <c r="JX11" s="0"/>
+      <c r="JY11" s="0"/>
+      <c r="JZ11" s="0"/>
+      <c r="KA11" s="0"/>
+      <c r="KB11" s="0"/>
+      <c r="KC11" s="0"/>
+      <c r="KD11" s="0"/>
+      <c r="KE11" s="0"/>
+      <c r="KF11" s="0"/>
+      <c r="KG11" s="0"/>
+      <c r="KH11" s="0"/>
+      <c r="KI11" s="0"/>
+      <c r="KJ11" s="0"/>
+      <c r="KK11" s="0"/>
+      <c r="KL11" s="0"/>
+      <c r="KM11" s="0"/>
+      <c r="KN11" s="0"/>
+      <c r="KO11" s="0"/>
+      <c r="KP11" s="0"/>
+      <c r="KQ11" s="0"/>
+      <c r="KR11" s="0"/>
+      <c r="KS11" s="0"/>
+      <c r="KT11" s="0"/>
+      <c r="KU11" s="0"/>
+      <c r="KV11" s="0"/>
+      <c r="KW11" s="0"/>
+      <c r="KX11" s="0"/>
+      <c r="KY11" s="0"/>
+      <c r="KZ11" s="0"/>
+      <c r="LA11" s="0"/>
+      <c r="LB11" s="0"/>
+      <c r="LC11" s="0"/>
+      <c r="LD11" s="0"/>
+      <c r="LE11" s="0"/>
+      <c r="LF11" s="0"/>
+      <c r="LG11" s="0"/>
+      <c r="LH11" s="0"/>
+      <c r="LI11" s="0"/>
+      <c r="LJ11" s="0"/>
+      <c r="LK11" s="0"/>
+      <c r="LL11" s="0"/>
+      <c r="LM11" s="0"/>
+      <c r="LN11" s="0"/>
+      <c r="LO11" s="0"/>
+      <c r="LP11" s="0"/>
+      <c r="LQ11" s="0"/>
+      <c r="LR11" s="0"/>
+      <c r="LS11" s="0"/>
+      <c r="LT11" s="0"/>
+      <c r="LU11" s="0"/>
+      <c r="LV11" s="0"/>
+      <c r="LW11" s="0"/>
+      <c r="LX11" s="0"/>
+      <c r="LY11" s="0"/>
+      <c r="LZ11" s="0"/>
+      <c r="MA11" s="0"/>
+      <c r="MB11" s="0"/>
+      <c r="MC11" s="0"/>
+      <c r="MD11" s="0"/>
+      <c r="ME11" s="0"/>
+      <c r="MF11" s="0"/>
+      <c r="MG11" s="0"/>
+      <c r="MH11" s="0"/>
+      <c r="MI11" s="0"/>
+      <c r="MJ11" s="0"/>
+      <c r="MK11" s="0"/>
+      <c r="ML11" s="0"/>
+      <c r="MM11" s="0"/>
+      <c r="MN11" s="0"/>
+      <c r="MO11" s="0"/>
+      <c r="MP11" s="0"/>
+      <c r="MQ11" s="0"/>
+      <c r="MR11" s="0"/>
+      <c r="MS11" s="0"/>
+      <c r="MT11" s="0"/>
+      <c r="MU11" s="0"/>
+      <c r="MV11" s="0"/>
+      <c r="MW11" s="0"/>
+      <c r="MX11" s="0"/>
+      <c r="MY11" s="0"/>
+      <c r="MZ11" s="0"/>
+      <c r="NA11" s="0"/>
+      <c r="NB11" s="0"/>
+      <c r="NC11" s="0"/>
+      <c r="ND11" s="0"/>
+      <c r="NE11" s="0"/>
+      <c r="NF11" s="0"/>
+      <c r="NG11" s="0"/>
+      <c r="NH11" s="0"/>
+      <c r="NI11" s="0"/>
+      <c r="NJ11" s="0"/>
+      <c r="NK11" s="0"/>
+      <c r="NL11" s="0"/>
+      <c r="NM11" s="0"/>
+      <c r="NN11" s="0"/>
+      <c r="NO11" s="0"/>
+      <c r="NP11" s="0"/>
+      <c r="NQ11" s="0"/>
+      <c r="NR11" s="0"/>
+      <c r="NS11" s="0"/>
+      <c r="NT11" s="0"/>
+      <c r="NU11" s="0"/>
+      <c r="NV11" s="0"/>
+      <c r="NW11" s="0"/>
+      <c r="NX11" s="0"/>
+      <c r="NY11" s="0"/>
+      <c r="NZ11" s="0"/>
+      <c r="OA11" s="0"/>
+      <c r="OB11" s="0"/>
+      <c r="OC11" s="0"/>
+      <c r="OD11" s="0"/>
+      <c r="OE11" s="0"/>
+      <c r="OF11" s="0"/>
+      <c r="OG11" s="0"/>
+      <c r="OH11" s="0"/>
+      <c r="OI11" s="0"/>
+      <c r="OJ11" s="0"/>
+      <c r="OK11" s="0"/>
+      <c r="OL11" s="0"/>
+      <c r="OM11" s="0"/>
+      <c r="ON11" s="0"/>
+      <c r="OO11" s="0"/>
+      <c r="OP11" s="0"/>
+      <c r="OQ11" s="0"/>
+      <c r="OR11" s="0"/>
+      <c r="OS11" s="0"/>
+      <c r="OT11" s="0"/>
+      <c r="OU11" s="0"/>
+      <c r="OV11" s="0"/>
+      <c r="OW11" s="0"/>
+      <c r="OX11" s="0"/>
+      <c r="OY11" s="0"/>
+      <c r="OZ11" s="0"/>
+      <c r="PA11" s="0"/>
+      <c r="PB11" s="0"/>
+      <c r="PC11" s="0"/>
+      <c r="PD11" s="0"/>
+      <c r="PE11" s="0"/>
+      <c r="PF11" s="0"/>
+      <c r="PG11" s="0"/>
+      <c r="PH11" s="0"/>
+      <c r="PI11" s="0"/>
+      <c r="PJ11" s="0"/>
+      <c r="PK11" s="0"/>
+      <c r="PL11" s="0"/>
+      <c r="PM11" s="0"/>
+      <c r="PN11" s="0"/>
+      <c r="PO11" s="0"/>
+      <c r="PP11" s="0"/>
+      <c r="PQ11" s="0"/>
+      <c r="PR11" s="0"/>
+      <c r="PS11" s="0"/>
+      <c r="PT11" s="0"/>
+      <c r="PU11" s="0"/>
+      <c r="PV11" s="0"/>
+      <c r="PW11" s="0"/>
+      <c r="PX11" s="0"/>
+      <c r="PY11" s="0"/>
+      <c r="PZ11" s="0"/>
+      <c r="QA11" s="0"/>
+      <c r="QB11" s="0"/>
+      <c r="QC11" s="0"/>
+      <c r="QD11" s="0"/>
+      <c r="QE11" s="0"/>
+      <c r="QF11" s="0"/>
+      <c r="QG11" s="0"/>
+      <c r="QH11" s="0"/>
+      <c r="QI11" s="0"/>
+      <c r="QJ11" s="0"/>
+      <c r="QK11" s="0"/>
+      <c r="QL11" s="0"/>
+      <c r="QM11" s="0"/>
+      <c r="QN11" s="0"/>
+      <c r="QO11" s="0"/>
+      <c r="QP11" s="0"/>
+      <c r="QQ11" s="0"/>
+      <c r="QR11" s="0"/>
+      <c r="QS11" s="0"/>
+      <c r="QT11" s="0"/>
+      <c r="QU11" s="0"/>
+      <c r="QV11" s="0"/>
+      <c r="QW11" s="0"/>
+      <c r="QX11" s="0"/>
+      <c r="QY11" s="0"/>
+      <c r="QZ11" s="0"/>
+      <c r="RA11" s="0"/>
+      <c r="RB11" s="0"/>
+      <c r="RC11" s="0"/>
+      <c r="RD11" s="0"/>
+      <c r="RE11" s="0"/>
+      <c r="RF11" s="0"/>
+      <c r="RG11" s="0"/>
+      <c r="RH11" s="0"/>
+      <c r="RI11" s="0"/>
+      <c r="RJ11" s="0"/>
+      <c r="RK11" s="0"/>
+      <c r="RL11" s="0"/>
+      <c r="RM11" s="0"/>
+      <c r="RN11" s="0"/>
+      <c r="RO11" s="0"/>
+      <c r="RP11" s="0"/>
+      <c r="RQ11" s="0"/>
+      <c r="RR11" s="0"/>
+      <c r="RS11" s="0"/>
+      <c r="RT11" s="0"/>
+      <c r="RU11" s="0"/>
+      <c r="RV11" s="0"/>
+      <c r="RW11" s="0"/>
+      <c r="RX11" s="0"/>
+      <c r="RY11" s="0"/>
+      <c r="RZ11" s="0"/>
+      <c r="SA11" s="0"/>
+      <c r="SB11" s="0"/>
+      <c r="SC11" s="0"/>
+      <c r="SD11" s="0"/>
+      <c r="SE11" s="0"/>
+      <c r="SF11" s="0"/>
+      <c r="SG11" s="0"/>
+      <c r="SH11" s="0"/>
+      <c r="SI11" s="0"/>
+      <c r="SJ11" s="0"/>
+      <c r="SK11" s="0"/>
+      <c r="SL11" s="0"/>
+      <c r="SM11" s="0"/>
+      <c r="SN11" s="0"/>
+      <c r="SO11" s="0"/>
+      <c r="SP11" s="0"/>
+      <c r="SQ11" s="0"/>
+      <c r="SR11" s="0"/>
+      <c r="SS11" s="0"/>
+      <c r="ST11" s="0"/>
+      <c r="SU11" s="0"/>
+      <c r="SV11" s="0"/>
+      <c r="SW11" s="0"/>
+      <c r="SX11" s="0"/>
+      <c r="SY11" s="0"/>
+      <c r="SZ11" s="0"/>
+      <c r="TA11" s="0"/>
+      <c r="TB11" s="0"/>
+      <c r="TC11" s="0"/>
+      <c r="TD11" s="0"/>
+      <c r="TE11" s="0"/>
+      <c r="TF11" s="0"/>
+      <c r="TG11" s="0"/>
+      <c r="TH11" s="0"/>
+      <c r="TI11" s="0"/>
+      <c r="TJ11" s="0"/>
+      <c r="TK11" s="0"/>
+      <c r="TL11" s="0"/>
+      <c r="TM11" s="0"/>
+      <c r="TN11" s="0"/>
+      <c r="TO11" s="0"/>
+      <c r="TP11" s="0"/>
+      <c r="TQ11" s="0"/>
+      <c r="TR11" s="0"/>
+      <c r="TS11" s="0"/>
+      <c r="TT11" s="0"/>
+      <c r="TU11" s="0"/>
+      <c r="TV11" s="0"/>
+      <c r="TW11" s="0"/>
+      <c r="TX11" s="0"/>
+      <c r="TY11" s="0"/>
+      <c r="TZ11" s="0"/>
+      <c r="UA11" s="0"/>
+      <c r="UB11" s="0"/>
+      <c r="UC11" s="0"/>
+      <c r="UD11" s="0"/>
+      <c r="UE11" s="0"/>
+      <c r="UF11" s="0"/>
+      <c r="UG11" s="0"/>
+      <c r="UH11" s="0"/>
+      <c r="UI11" s="0"/>
+      <c r="UJ11" s="0"/>
+      <c r="UK11" s="0"/>
+      <c r="UL11" s="0"/>
+      <c r="UM11" s="0"/>
+      <c r="UN11" s="0"/>
+      <c r="UO11" s="0"/>
+      <c r="UP11" s="0"/>
+      <c r="UQ11" s="0"/>
+      <c r="UR11" s="0"/>
+      <c r="US11" s="0"/>
+      <c r="UT11" s="0"/>
+      <c r="UU11" s="0"/>
+      <c r="UV11" s="0"/>
+      <c r="UW11" s="0"/>
+      <c r="UX11" s="0"/>
+      <c r="UY11" s="0"/>
+      <c r="UZ11" s="0"/>
+      <c r="VA11" s="0"/>
+      <c r="VB11" s="0"/>
+      <c r="VC11" s="0"/>
+      <c r="VD11" s="0"/>
+      <c r="VE11" s="0"/>
+      <c r="VF11" s="0"/>
+      <c r="VG11" s="0"/>
+      <c r="VH11" s="0"/>
+      <c r="VI11" s="0"/>
+      <c r="VJ11" s="0"/>
+      <c r="VK11" s="0"/>
+      <c r="VL11" s="0"/>
+      <c r="VM11" s="0"/>
+      <c r="VN11" s="0"/>
+      <c r="VO11" s="0"/>
+      <c r="VP11" s="0"/>
+      <c r="VQ11" s="0"/>
+      <c r="VR11" s="0"/>
+      <c r="VS11" s="0"/>
+      <c r="VT11" s="0"/>
+      <c r="VU11" s="0"/>
+      <c r="VV11" s="0"/>
+      <c r="VW11" s="0"/>
+      <c r="VX11" s="0"/>
+      <c r="VY11" s="0"/>
+      <c r="VZ11" s="0"/>
+      <c r="WA11" s="0"/>
+      <c r="WB11" s="0"/>
+      <c r="WC11" s="0"/>
+      <c r="WD11" s="0"/>
+      <c r="WE11" s="0"/>
+      <c r="WF11" s="0"/>
+      <c r="WG11" s="0"/>
+      <c r="WH11" s="0"/>
+      <c r="WI11" s="0"/>
+      <c r="WJ11" s="0"/>
+      <c r="WK11" s="0"/>
+      <c r="WL11" s="0"/>
+      <c r="WM11" s="0"/>
+      <c r="WN11" s="0"/>
+      <c r="WO11" s="0"/>
+      <c r="WP11" s="0"/>
+      <c r="WQ11" s="0"/>
+      <c r="WR11" s="0"/>
+      <c r="WS11" s="0"/>
+      <c r="WT11" s="0"/>
+      <c r="WU11" s="0"/>
+      <c r="WV11" s="0"/>
+      <c r="WW11" s="0"/>
+      <c r="WX11" s="0"/>
+      <c r="WY11" s="0"/>
+      <c r="WZ11" s="0"/>
+      <c r="XA11" s="0"/>
+      <c r="XB11" s="0"/>
+      <c r="XC11" s="0"/>
+      <c r="XD11" s="0"/>
+      <c r="XE11" s="0"/>
+      <c r="XF11" s="0"/>
+      <c r="XG11" s="0"/>
+      <c r="XH11" s="0"/>
+      <c r="XI11" s="0"/>
+      <c r="XJ11" s="0"/>
+      <c r="XK11" s="0"/>
+      <c r="XL11" s="0"/>
+      <c r="XM11" s="0"/>
+      <c r="XN11" s="0"/>
+      <c r="XO11" s="0"/>
+      <c r="XP11" s="0"/>
+      <c r="XQ11" s="0"/>
+      <c r="XR11" s="0"/>
+      <c r="XS11" s="0"/>
+      <c r="XT11" s="0"/>
+      <c r="XU11" s="0"/>
+      <c r="XV11" s="0"/>
+      <c r="XW11" s="0"/>
+      <c r="XX11" s="0"/>
+      <c r="XY11" s="0"/>
+      <c r="XZ11" s="0"/>
+      <c r="YA11" s="0"/>
+      <c r="YB11" s="0"/>
+      <c r="YC11" s="0"/>
+      <c r="YD11" s="0"/>
+      <c r="YE11" s="0"/>
+      <c r="YF11" s="0"/>
+      <c r="YG11" s="0"/>
+      <c r="YH11" s="0"/>
+      <c r="YI11" s="0"/>
+      <c r="YJ11" s="0"/>
+      <c r="YK11" s="0"/>
+      <c r="YL11" s="0"/>
+      <c r="YM11" s="0"/>
+      <c r="YN11" s="0"/>
+      <c r="YO11" s="0"/>
+      <c r="YP11" s="0"/>
+      <c r="YQ11" s="0"/>
+      <c r="YR11" s="0"/>
+      <c r="YS11" s="0"/>
+      <c r="YT11" s="0"/>
+      <c r="YU11" s="0"/>
+      <c r="YV11" s="0"/>
+      <c r="YW11" s="0"/>
+      <c r="YX11" s="0"/>
+      <c r="YY11" s="0"/>
+      <c r="YZ11" s="0"/>
+      <c r="ZA11" s="0"/>
+      <c r="ZB11" s="0"/>
+      <c r="ZC11" s="0"/>
+      <c r="ZD11" s="0"/>
+      <c r="ZE11" s="0"/>
+      <c r="ZF11" s="0"/>
+      <c r="ZG11" s="0"/>
+      <c r="ZH11" s="0"/>
+      <c r="ZI11" s="0"/>
+      <c r="ZJ11" s="0"/>
+      <c r="ZK11" s="0"/>
+      <c r="ZL11" s="0"/>
+      <c r="ZM11" s="0"/>
+      <c r="ZN11" s="0"/>
+      <c r="ZO11" s="0"/>
+      <c r="ZP11" s="0"/>
+      <c r="ZQ11" s="0"/>
+      <c r="ZR11" s="0"/>
+      <c r="ZS11" s="0"/>
+      <c r="ZT11" s="0"/>
+      <c r="ZU11" s="0"/>
+      <c r="ZV11" s="0"/>
+      <c r="ZW11" s="0"/>
+      <c r="ZX11" s="0"/>
+      <c r="ZY11" s="0"/>
+      <c r="ZZ11" s="0"/>
+      <c r="AAA11" s="0"/>
+      <c r="AAB11" s="0"/>
+      <c r="AAC11" s="0"/>
+      <c r="AAD11" s="0"/>
+      <c r="AAE11" s="0"/>
+      <c r="AAF11" s="0"/>
+      <c r="AAG11" s="0"/>
+      <c r="AAH11" s="0"/>
+      <c r="AAI11" s="0"/>
+      <c r="AAJ11" s="0"/>
+      <c r="AAK11" s="0"/>
+      <c r="AAL11" s="0"/>
+      <c r="AAM11" s="0"/>
+      <c r="AAN11" s="0"/>
+      <c r="AAO11" s="0"/>
+      <c r="AAP11" s="0"/>
+      <c r="AAQ11" s="0"/>
+      <c r="AAR11" s="0"/>
+      <c r="AAS11" s="0"/>
+      <c r="AAT11" s="0"/>
+      <c r="AAU11" s="0"/>
+      <c r="AAV11" s="0"/>
+      <c r="AAW11" s="0"/>
+      <c r="AAX11" s="0"/>
+      <c r="AAY11" s="0"/>
+      <c r="AAZ11" s="0"/>
+      <c r="ABA11" s="0"/>
+      <c r="ABB11" s="0"/>
+      <c r="ABC11" s="0"/>
+      <c r="ABD11" s="0"/>
+      <c r="ABE11" s="0"/>
+      <c r="ABF11" s="0"/>
+      <c r="ABG11" s="0"/>
+      <c r="ABH11" s="0"/>
+      <c r="ABI11" s="0"/>
+      <c r="ABJ11" s="0"/>
+      <c r="ABK11" s="0"/>
+      <c r="ABL11" s="0"/>
+      <c r="ABM11" s="0"/>
+      <c r="ABN11" s="0"/>
+      <c r="ABO11" s="0"/>
+      <c r="ABP11" s="0"/>
+      <c r="ABQ11" s="0"/>
+      <c r="ABR11" s="0"/>
+      <c r="ABS11" s="0"/>
+      <c r="ABT11" s="0"/>
+      <c r="ABU11" s="0"/>
+      <c r="ABV11" s="0"/>
+      <c r="ABW11" s="0"/>
+      <c r="ABX11" s="0"/>
+      <c r="ABY11" s="0"/>
+      <c r="ABZ11" s="0"/>
+      <c r="ACA11" s="0"/>
+      <c r="ACB11" s="0"/>
+      <c r="ACC11" s="0"/>
+      <c r="ACD11" s="0"/>
+      <c r="ACE11" s="0"/>
+      <c r="ACF11" s="0"/>
+      <c r="ACG11" s="0"/>
+      <c r="ACH11" s="0"/>
+      <c r="ACI11" s="0"/>
+      <c r="ACJ11" s="0"/>
+      <c r="ACK11" s="0"/>
+      <c r="ACL11" s="0"/>
+      <c r="ACM11" s="0"/>
+      <c r="ACN11" s="0"/>
+      <c r="ACO11" s="0"/>
+      <c r="ACP11" s="0"/>
+      <c r="ACQ11" s="0"/>
+      <c r="ACR11" s="0"/>
+      <c r="ACS11" s="0"/>
+      <c r="ACT11" s="0"/>
+      <c r="ACU11" s="0"/>
+      <c r="ACV11" s="0"/>
+      <c r="ACW11" s="0"/>
+      <c r="ACX11" s="0"/>
+      <c r="ACY11" s="0"/>
+      <c r="ACZ11" s="0"/>
+      <c r="ADA11" s="0"/>
+      <c r="ADB11" s="0"/>
+      <c r="ADC11" s="0"/>
+      <c r="ADD11" s="0"/>
+      <c r="ADE11" s="0"/>
+      <c r="ADF11" s="0"/>
+      <c r="ADG11" s="0"/>
+      <c r="ADH11" s="0"/>
+      <c r="ADI11" s="0"/>
+      <c r="ADJ11" s="0"/>
+      <c r="ADK11" s="0"/>
+      <c r="ADL11" s="0"/>
+      <c r="ADM11" s="0"/>
+      <c r="ADN11" s="0"/>
+      <c r="ADO11" s="0"/>
+      <c r="ADP11" s="0"/>
+      <c r="ADQ11" s="0"/>
+      <c r="ADR11" s="0"/>
+      <c r="ADS11" s="0"/>
+      <c r="ADT11" s="0"/>
+      <c r="ADU11" s="0"/>
+      <c r="ADV11" s="0"/>
+      <c r="ADW11" s="0"/>
+      <c r="ADX11" s="0"/>
+      <c r="ADY11" s="0"/>
+      <c r="ADZ11" s="0"/>
+      <c r="AEA11" s="0"/>
+      <c r="AEB11" s="0"/>
+      <c r="AEC11" s="0"/>
+      <c r="AED11" s="0"/>
+      <c r="AEE11" s="0"/>
+      <c r="AEF11" s="0"/>
+      <c r="AEG11" s="0"/>
+      <c r="AEH11" s="0"/>
+      <c r="AEI11" s="0"/>
+      <c r="AEJ11" s="0"/>
+      <c r="AEK11" s="0"/>
+      <c r="AEL11" s="0"/>
+      <c r="AEM11" s="0"/>
+      <c r="AEN11" s="0"/>
+      <c r="AEO11" s="0"/>
+      <c r="AEP11" s="0"/>
+      <c r="AEQ11" s="0"/>
+      <c r="AER11" s="0"/>
+      <c r="AES11" s="0"/>
+      <c r="AET11" s="0"/>
+      <c r="AEU11" s="0"/>
+      <c r="AEV11" s="0"/>
+      <c r="AEW11" s="0"/>
+      <c r="AEX11" s="0"/>
+      <c r="AEY11" s="0"/>
+      <c r="AEZ11" s="0"/>
+      <c r="AFA11" s="0"/>
+      <c r="AFB11" s="0"/>
+      <c r="AFC11" s="0"/>
+      <c r="AFD11" s="0"/>
+      <c r="AFE11" s="0"/>
+      <c r="AFF11" s="0"/>
+      <c r="AFG11" s="0"/>
+      <c r="AFH11" s="0"/>
+      <c r="AFI11" s="0"/>
+      <c r="AFJ11" s="0"/>
+      <c r="AFK11" s="0"/>
+      <c r="AFL11" s="0"/>
+      <c r="AFM11" s="0"/>
+      <c r="AFN11" s="0"/>
+      <c r="AFO11" s="0"/>
+      <c r="AFP11" s="0"/>
+      <c r="AFQ11" s="0"/>
+      <c r="AFR11" s="0"/>
+      <c r="AFS11" s="0"/>
+      <c r="AFT11" s="0"/>
+      <c r="AFU11" s="0"/>
+      <c r="AFV11" s="0"/>
+      <c r="AFW11" s="0"/>
+      <c r="AFX11" s="0"/>
+      <c r="AFY11" s="0"/>
+      <c r="AFZ11" s="0"/>
+      <c r="AGA11" s="0"/>
+      <c r="AGB11" s="0"/>
+      <c r="AGC11" s="0"/>
+      <c r="AGD11" s="0"/>
+      <c r="AGE11" s="0"/>
+      <c r="AGF11" s="0"/>
+      <c r="AGG11" s="0"/>
+      <c r="AGH11" s="0"/>
+      <c r="AGI11" s="0"/>
+      <c r="AGJ11" s="0"/>
+      <c r="AGK11" s="0"/>
+      <c r="AGL11" s="0"/>
+      <c r="AGM11" s="0"/>
+      <c r="AGN11" s="0"/>
+      <c r="AGO11" s="0"/>
+      <c r="AGP11" s="0"/>
+      <c r="AGQ11" s="0"/>
+      <c r="AGR11" s="0"/>
+      <c r="AGS11" s="0"/>
+      <c r="AGT11" s="0"/>
+      <c r="AGU11" s="0"/>
+      <c r="AGV11" s="0"/>
+      <c r="AGW11" s="0"/>
+      <c r="AGX11" s="0"/>
+      <c r="AGY11" s="0"/>
+      <c r="AGZ11" s="0"/>
+      <c r="AHA11" s="0"/>
+      <c r="AHB11" s="0"/>
+      <c r="AHC11" s="0"/>
+      <c r="AHD11" s="0"/>
+      <c r="AHE11" s="0"/>
+      <c r="AHF11" s="0"/>
+      <c r="AHG11" s="0"/>
+      <c r="AHH11" s="0"/>
+      <c r="AHI11" s="0"/>
+      <c r="AHJ11" s="0"/>
+      <c r="AHK11" s="0"/>
+      <c r="AHL11" s="0"/>
+      <c r="AHM11" s="0"/>
+      <c r="AHN11" s="0"/>
+      <c r="AHO11" s="0"/>
+      <c r="AHP11" s="0"/>
+      <c r="AHQ11" s="0"/>
+      <c r="AHR11" s="0"/>
+      <c r="AHS11" s="0"/>
+      <c r="AHT11" s="0"/>
+      <c r="AHU11" s="0"/>
+      <c r="AHV11" s="0"/>
+      <c r="AHW11" s="0"/>
+      <c r="AHX11" s="0"/>
+      <c r="AHY11" s="0"/>
+      <c r="AHZ11" s="0"/>
+      <c r="AIA11" s="0"/>
+      <c r="AIB11" s="0"/>
+      <c r="AIC11" s="0"/>
+      <c r="AID11" s="0"/>
+      <c r="AIE11" s="0"/>
+      <c r="AIF11" s="0"/>
+      <c r="AIG11" s="0"/>
+      <c r="AIH11" s="0"/>
+      <c r="AII11" s="0"/>
+      <c r="AIJ11" s="0"/>
+      <c r="AIK11" s="0"/>
+      <c r="AIL11" s="0"/>
+      <c r="AIM11" s="0"/>
+      <c r="AIN11" s="0"/>
+      <c r="AIO11" s="0"/>
+      <c r="AIP11" s="0"/>
+      <c r="AIQ11" s="0"/>
+      <c r="AIR11" s="0"/>
+      <c r="AIS11" s="0"/>
+      <c r="AIT11" s="0"/>
+      <c r="AIU11" s="0"/>
+      <c r="AIV11" s="0"/>
+      <c r="AIW11" s="0"/>
+      <c r="AIX11" s="0"/>
+      <c r="AIY11" s="0"/>
+      <c r="AIZ11" s="0"/>
+      <c r="AJA11" s="0"/>
+      <c r="AJB11" s="0"/>
+      <c r="AJC11" s="0"/>
+      <c r="AJD11" s="0"/>
+      <c r="AJE11" s="0"/>
+      <c r="AJF11" s="0"/>
+      <c r="AJG11" s="0"/>
+      <c r="AJH11" s="0"/>
+      <c r="AJI11" s="0"/>
+      <c r="AJJ11" s="0"/>
+      <c r="AJK11" s="0"/>
+      <c r="AJL11" s="0"/>
+      <c r="AJM11" s="0"/>
+      <c r="AJN11" s="0"/>
+      <c r="AJO11" s="0"/>
+      <c r="AJP11" s="0"/>
+      <c r="AJQ11" s="0"/>
+      <c r="AJR11" s="0"/>
+      <c r="AJS11" s="0"/>
+      <c r="AJT11" s="0"/>
+      <c r="AJU11" s="0"/>
+      <c r="AJV11" s="0"/>
+      <c r="AJW11" s="0"/>
+      <c r="AJX11" s="0"/>
+      <c r="AJY11" s="0"/>
+      <c r="AJZ11" s="0"/>
+      <c r="AKA11" s="0"/>
+      <c r="AKB11" s="0"/>
+      <c r="AKC11" s="0"/>
+      <c r="AKD11" s="0"/>
+      <c r="AKE11" s="0"/>
+      <c r="AKF11" s="0"/>
+      <c r="AKG11" s="0"/>
+      <c r="AKH11" s="0"/>
+      <c r="AKI11" s="0"/>
+      <c r="AKJ11" s="0"/>
+      <c r="AKK11" s="0"/>
+      <c r="AKL11" s="0"/>
+      <c r="AKM11" s="0"/>
+      <c r="AKN11" s="0"/>
+      <c r="AKO11" s="0"/>
+      <c r="AKP11" s="0"/>
+      <c r="AKQ11" s="0"/>
+      <c r="AKR11" s="0"/>
+      <c r="AKS11" s="0"/>
+      <c r="AKT11" s="0"/>
+      <c r="AKU11" s="0"/>
+      <c r="AKV11" s="0"/>
+      <c r="AKW11" s="0"/>
+      <c r="AKX11" s="0"/>
+      <c r="AKY11" s="0"/>
+      <c r="AKZ11" s="0"/>
+      <c r="ALA11" s="0"/>
+      <c r="ALB11" s="0"/>
+      <c r="ALC11" s="0"/>
+      <c r="ALD11" s="0"/>
+      <c r="ALE11" s="0"/>
+      <c r="ALF11" s="0"/>
+      <c r="ALG11" s="0"/>
+      <c r="ALH11" s="0"/>
+      <c r="ALI11" s="0"/>
+      <c r="ALJ11" s="0"/>
+      <c r="ALK11" s="0"/>
+      <c r="ALL11" s="0"/>
+      <c r="ALM11" s="0"/>
+      <c r="ALN11" s="0"/>
+      <c r="ALO11" s="0"/>
+      <c r="ALP11" s="0"/>
+      <c r="ALQ11" s="0"/>
+      <c r="ALR11" s="0"/>
+      <c r="ALS11" s="0"/>
+      <c r="ALT11" s="0"/>
+      <c r="ALU11" s="0"/>
+      <c r="ALV11" s="0"/>
+      <c r="ALW11" s="0"/>
+      <c r="ALX11" s="0"/>
+      <c r="ALY11" s="0"/>
+      <c r="ALZ11" s="0"/>
+      <c r="AMA11" s="0"/>
+      <c r="AMB11" s="0"/>
+      <c r="AMC11" s="0"/>
+      <c r="AMD11" s="0"/>
+      <c r="AME11" s="0"/>
+      <c r="AMF11" s="0"/>
+      <c r="AMG11" s="0"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
@@ -22817,6 +29950,1024 @@
       <c r="F12" s="19" t="s">
         <v>358</v>
       </c>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0"/>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="0"/>
+      <c r="AK12" s="0"/>
+      <c r="AL12" s="0"/>
+      <c r="AM12" s="0"/>
+      <c r="AN12" s="0"/>
+      <c r="AO12" s="0"/>
+      <c r="AP12" s="0"/>
+      <c r="AQ12" s="0"/>
+      <c r="AR12" s="0"/>
+      <c r="AS12" s="0"/>
+      <c r="AT12" s="0"/>
+      <c r="AU12" s="0"/>
+      <c r="AV12" s="0"/>
+      <c r="AW12" s="0"/>
+      <c r="AX12" s="0"/>
+      <c r="AY12" s="0"/>
+      <c r="AZ12" s="0"/>
+      <c r="BA12" s="0"/>
+      <c r="BB12" s="0"/>
+      <c r="BC12" s="0"/>
+      <c r="BD12" s="0"/>
+      <c r="BE12" s="0"/>
+      <c r="BF12" s="0"/>
+      <c r="BG12" s="0"/>
+      <c r="BH12" s="0"/>
+      <c r="BI12" s="0"/>
+      <c r="BJ12" s="0"/>
+      <c r="BK12" s="0"/>
+      <c r="BL12" s="0"/>
+      <c r="BM12" s="0"/>
+      <c r="BN12" s="0"/>
+      <c r="BO12" s="0"/>
+      <c r="BP12" s="0"/>
+      <c r="BQ12" s="0"/>
+      <c r="BR12" s="0"/>
+      <c r="BS12" s="0"/>
+      <c r="BT12" s="0"/>
+      <c r="BU12" s="0"/>
+      <c r="BV12" s="0"/>
+      <c r="BW12" s="0"/>
+      <c r="BX12" s="0"/>
+      <c r="BY12" s="0"/>
+      <c r="BZ12" s="0"/>
+      <c r="CA12" s="0"/>
+      <c r="CB12" s="0"/>
+      <c r="CC12" s="0"/>
+      <c r="CD12" s="0"/>
+      <c r="CE12" s="0"/>
+      <c r="CF12" s="0"/>
+      <c r="CG12" s="0"/>
+      <c r="CH12" s="0"/>
+      <c r="CI12" s="0"/>
+      <c r="CJ12" s="0"/>
+      <c r="CK12" s="0"/>
+      <c r="CL12" s="0"/>
+      <c r="CM12" s="0"/>
+      <c r="CN12" s="0"/>
+      <c r="CO12" s="0"/>
+      <c r="CP12" s="0"/>
+      <c r="CQ12" s="0"/>
+      <c r="CR12" s="0"/>
+      <c r="CS12" s="0"/>
+      <c r="CT12" s="0"/>
+      <c r="CU12" s="0"/>
+      <c r="CV12" s="0"/>
+      <c r="CW12" s="0"/>
+      <c r="CX12" s="0"/>
+      <c r="CY12" s="0"/>
+      <c r="CZ12" s="0"/>
+      <c r="DA12" s="0"/>
+      <c r="DB12" s="0"/>
+      <c r="DC12" s="0"/>
+      <c r="DD12" s="0"/>
+      <c r="DE12" s="0"/>
+      <c r="DF12" s="0"/>
+      <c r="DG12" s="0"/>
+      <c r="DH12" s="0"/>
+      <c r="DI12" s="0"/>
+      <c r="DJ12" s="0"/>
+      <c r="DK12" s="0"/>
+      <c r="DL12" s="0"/>
+      <c r="DM12" s="0"/>
+      <c r="DN12" s="0"/>
+      <c r="DO12" s="0"/>
+      <c r="DP12" s="0"/>
+      <c r="DQ12" s="0"/>
+      <c r="DR12" s="0"/>
+      <c r="DS12" s="0"/>
+      <c r="DT12" s="0"/>
+      <c r="DU12" s="0"/>
+      <c r="DV12" s="0"/>
+      <c r="DW12" s="0"/>
+      <c r="DX12" s="0"/>
+      <c r="DY12" s="0"/>
+      <c r="DZ12" s="0"/>
+      <c r="EA12" s="0"/>
+      <c r="EB12" s="0"/>
+      <c r="EC12" s="0"/>
+      <c r="ED12" s="0"/>
+      <c r="EE12" s="0"/>
+      <c r="EF12" s="0"/>
+      <c r="EG12" s="0"/>
+      <c r="EH12" s="0"/>
+      <c r="EI12" s="0"/>
+      <c r="EJ12" s="0"/>
+      <c r="EK12" s="0"/>
+      <c r="EL12" s="0"/>
+      <c r="EM12" s="0"/>
+      <c r="EN12" s="0"/>
+      <c r="EO12" s="0"/>
+      <c r="EP12" s="0"/>
+      <c r="EQ12" s="0"/>
+      <c r="ER12" s="0"/>
+      <c r="ES12" s="0"/>
+      <c r="ET12" s="0"/>
+      <c r="EU12" s="0"/>
+      <c r="EV12" s="0"/>
+      <c r="EW12" s="0"/>
+      <c r="EX12" s="0"/>
+      <c r="EY12" s="0"/>
+      <c r="EZ12" s="0"/>
+      <c r="FA12" s="0"/>
+      <c r="FB12" s="0"/>
+      <c r="FC12" s="0"/>
+      <c r="FD12" s="0"/>
+      <c r="FE12" s="0"/>
+      <c r="FF12" s="0"/>
+      <c r="FG12" s="0"/>
+      <c r="FH12" s="0"/>
+      <c r="FI12" s="0"/>
+      <c r="FJ12" s="0"/>
+      <c r="FK12" s="0"/>
+      <c r="FL12" s="0"/>
+      <c r="FM12" s="0"/>
+      <c r="FN12" s="0"/>
+      <c r="FO12" s="0"/>
+      <c r="FP12" s="0"/>
+      <c r="FQ12" s="0"/>
+      <c r="FR12" s="0"/>
+      <c r="FS12" s="0"/>
+      <c r="FT12" s="0"/>
+      <c r="FU12" s="0"/>
+      <c r="FV12" s="0"/>
+      <c r="FW12" s="0"/>
+      <c r="FX12" s="0"/>
+      <c r="FY12" s="0"/>
+      <c r="FZ12" s="0"/>
+      <c r="GA12" s="0"/>
+      <c r="GB12" s="0"/>
+      <c r="GC12" s="0"/>
+      <c r="GD12" s="0"/>
+      <c r="GE12" s="0"/>
+      <c r="GF12" s="0"/>
+      <c r="GG12" s="0"/>
+      <c r="GH12" s="0"/>
+      <c r="GI12" s="0"/>
+      <c r="GJ12" s="0"/>
+      <c r="GK12" s="0"/>
+      <c r="GL12" s="0"/>
+      <c r="GM12" s="0"/>
+      <c r="GN12" s="0"/>
+      <c r="GO12" s="0"/>
+      <c r="GP12" s="0"/>
+      <c r="GQ12" s="0"/>
+      <c r="GR12" s="0"/>
+      <c r="GS12" s="0"/>
+      <c r="GT12" s="0"/>
+      <c r="GU12" s="0"/>
+      <c r="GV12" s="0"/>
+      <c r="GW12" s="0"/>
+      <c r="GX12" s="0"/>
+      <c r="GY12" s="0"/>
+      <c r="GZ12" s="0"/>
+      <c r="HA12" s="0"/>
+      <c r="HB12" s="0"/>
+      <c r="HC12" s="0"/>
+      <c r="HD12" s="0"/>
+      <c r="HE12" s="0"/>
+      <c r="HF12" s="0"/>
+      <c r="HG12" s="0"/>
+      <c r="HH12" s="0"/>
+      <c r="HI12" s="0"/>
+      <c r="HJ12" s="0"/>
+      <c r="HK12" s="0"/>
+      <c r="HL12" s="0"/>
+      <c r="HM12" s="0"/>
+      <c r="HN12" s="0"/>
+      <c r="HO12" s="0"/>
+      <c r="HP12" s="0"/>
+      <c r="HQ12" s="0"/>
+      <c r="HR12" s="0"/>
+      <c r="HS12" s="0"/>
+      <c r="HT12" s="0"/>
+      <c r="HU12" s="0"/>
+      <c r="HV12" s="0"/>
+      <c r="HW12" s="0"/>
+      <c r="HX12" s="0"/>
+      <c r="HY12" s="0"/>
+      <c r="HZ12" s="0"/>
+      <c r="IA12" s="0"/>
+      <c r="IB12" s="0"/>
+      <c r="IC12" s="0"/>
+      <c r="ID12" s="0"/>
+      <c r="IE12" s="0"/>
+      <c r="IF12" s="0"/>
+      <c r="IG12" s="0"/>
+      <c r="IH12" s="0"/>
+      <c r="II12" s="0"/>
+      <c r="IJ12" s="0"/>
+      <c r="IK12" s="0"/>
+      <c r="IL12" s="0"/>
+      <c r="IM12" s="0"/>
+      <c r="IN12" s="0"/>
+      <c r="IO12" s="0"/>
+      <c r="IP12" s="0"/>
+      <c r="IQ12" s="0"/>
+      <c r="IR12" s="0"/>
+      <c r="IS12" s="0"/>
+      <c r="IT12" s="0"/>
+      <c r="IU12" s="0"/>
+      <c r="IV12" s="0"/>
+      <c r="IW12" s="0"/>
+      <c r="IX12" s="0"/>
+      <c r="IY12" s="0"/>
+      <c r="IZ12" s="0"/>
+      <c r="JA12" s="0"/>
+      <c r="JB12" s="0"/>
+      <c r="JC12" s="0"/>
+      <c r="JD12" s="0"/>
+      <c r="JE12" s="0"/>
+      <c r="JF12" s="0"/>
+      <c r="JG12" s="0"/>
+      <c r="JH12" s="0"/>
+      <c r="JI12" s="0"/>
+      <c r="JJ12" s="0"/>
+      <c r="JK12" s="0"/>
+      <c r="JL12" s="0"/>
+      <c r="JM12" s="0"/>
+      <c r="JN12" s="0"/>
+      <c r="JO12" s="0"/>
+      <c r="JP12" s="0"/>
+      <c r="JQ12" s="0"/>
+      <c r="JR12" s="0"/>
+      <c r="JS12" s="0"/>
+      <c r="JT12" s="0"/>
+      <c r="JU12" s="0"/>
+      <c r="JV12" s="0"/>
+      <c r="JW12" s="0"/>
+      <c r="JX12" s="0"/>
+      <c r="JY12" s="0"/>
+      <c r="JZ12" s="0"/>
+      <c r="KA12" s="0"/>
+      <c r="KB12" s="0"/>
+      <c r="KC12" s="0"/>
+      <c r="KD12" s="0"/>
+      <c r="KE12" s="0"/>
+      <c r="KF12" s="0"/>
+      <c r="KG12" s="0"/>
+      <c r="KH12" s="0"/>
+      <c r="KI12" s="0"/>
+      <c r="KJ12" s="0"/>
+      <c r="KK12" s="0"/>
+      <c r="KL12" s="0"/>
+      <c r="KM12" s="0"/>
+      <c r="KN12" s="0"/>
+      <c r="KO12" s="0"/>
+      <c r="KP12" s="0"/>
+      <c r="KQ12" s="0"/>
+      <c r="KR12" s="0"/>
+      <c r="KS12" s="0"/>
+      <c r="KT12" s="0"/>
+      <c r="KU12" s="0"/>
+      <c r="KV12" s="0"/>
+      <c r="KW12" s="0"/>
+      <c r="KX12" s="0"/>
+      <c r="KY12" s="0"/>
+      <c r="KZ12" s="0"/>
+      <c r="LA12" s="0"/>
+      <c r="LB12" s="0"/>
+      <c r="LC12" s="0"/>
+      <c r="LD12" s="0"/>
+      <c r="LE12" s="0"/>
+      <c r="LF12" s="0"/>
+      <c r="LG12" s="0"/>
+      <c r="LH12" s="0"/>
+      <c r="LI12" s="0"/>
+      <c r="LJ12" s="0"/>
+      <c r="LK12" s="0"/>
+      <c r="LL12" s="0"/>
+      <c r="LM12" s="0"/>
+      <c r="LN12" s="0"/>
+      <c r="LO12" s="0"/>
+      <c r="LP12" s="0"/>
+      <c r="LQ12" s="0"/>
+      <c r="LR12" s="0"/>
+      <c r="LS12" s="0"/>
+      <c r="LT12" s="0"/>
+      <c r="LU12" s="0"/>
+      <c r="LV12" s="0"/>
+      <c r="LW12" s="0"/>
+      <c r="LX12" s="0"/>
+      <c r="LY12" s="0"/>
+      <c r="LZ12" s="0"/>
+      <c r="MA12" s="0"/>
+      <c r="MB12" s="0"/>
+      <c r="MC12" s="0"/>
+      <c r="MD12" s="0"/>
+      <c r="ME12" s="0"/>
+      <c r="MF12" s="0"/>
+      <c r="MG12" s="0"/>
+      <c r="MH12" s="0"/>
+      <c r="MI12" s="0"/>
+      <c r="MJ12" s="0"/>
+      <c r="MK12" s="0"/>
+      <c r="ML12" s="0"/>
+      <c r="MM12" s="0"/>
+      <c r="MN12" s="0"/>
+      <c r="MO12" s="0"/>
+      <c r="MP12" s="0"/>
+      <c r="MQ12" s="0"/>
+      <c r="MR12" s="0"/>
+      <c r="MS12" s="0"/>
+      <c r="MT12" s="0"/>
+      <c r="MU12" s="0"/>
+      <c r="MV12" s="0"/>
+      <c r="MW12" s="0"/>
+      <c r="MX12" s="0"/>
+      <c r="MY12" s="0"/>
+      <c r="MZ12" s="0"/>
+      <c r="NA12" s="0"/>
+      <c r="NB12" s="0"/>
+      <c r="NC12" s="0"/>
+      <c r="ND12" s="0"/>
+      <c r="NE12" s="0"/>
+      <c r="NF12" s="0"/>
+      <c r="NG12" s="0"/>
+      <c r="NH12" s="0"/>
+      <c r="NI12" s="0"/>
+      <c r="NJ12" s="0"/>
+      <c r="NK12" s="0"/>
+      <c r="NL12" s="0"/>
+      <c r="NM12" s="0"/>
+      <c r="NN12" s="0"/>
+      <c r="NO12" s="0"/>
+      <c r="NP12" s="0"/>
+      <c r="NQ12" s="0"/>
+      <c r="NR12" s="0"/>
+      <c r="NS12" s="0"/>
+      <c r="NT12" s="0"/>
+      <c r="NU12" s="0"/>
+      <c r="NV12" s="0"/>
+      <c r="NW12" s="0"/>
+      <c r="NX12" s="0"/>
+      <c r="NY12" s="0"/>
+      <c r="NZ12" s="0"/>
+      <c r="OA12" s="0"/>
+      <c r="OB12" s="0"/>
+      <c r="OC12" s="0"/>
+      <c r="OD12" s="0"/>
+      <c r="OE12" s="0"/>
+      <c r="OF12" s="0"/>
+      <c r="OG12" s="0"/>
+      <c r="OH12" s="0"/>
+      <c r="OI12" s="0"/>
+      <c r="OJ12" s="0"/>
+      <c r="OK12" s="0"/>
+      <c r="OL12" s="0"/>
+      <c r="OM12" s="0"/>
+      <c r="ON12" s="0"/>
+      <c r="OO12" s="0"/>
+      <c r="OP12" s="0"/>
+      <c r="OQ12" s="0"/>
+      <c r="OR12" s="0"/>
+      <c r="OS12" s="0"/>
+      <c r="OT12" s="0"/>
+      <c r="OU12" s="0"/>
+      <c r="OV12" s="0"/>
+      <c r="OW12" s="0"/>
+      <c r="OX12" s="0"/>
+      <c r="OY12" s="0"/>
+      <c r="OZ12" s="0"/>
+      <c r="PA12" s="0"/>
+      <c r="PB12" s="0"/>
+      <c r="PC12" s="0"/>
+      <c r="PD12" s="0"/>
+      <c r="PE12" s="0"/>
+      <c r="PF12" s="0"/>
+      <c r="PG12" s="0"/>
+      <c r="PH12" s="0"/>
+      <c r="PI12" s="0"/>
+      <c r="PJ12" s="0"/>
+      <c r="PK12" s="0"/>
+      <c r="PL12" s="0"/>
+      <c r="PM12" s="0"/>
+      <c r="PN12" s="0"/>
+      <c r="PO12" s="0"/>
+      <c r="PP12" s="0"/>
+      <c r="PQ12" s="0"/>
+      <c r="PR12" s="0"/>
+      <c r="PS12" s="0"/>
+      <c r="PT12" s="0"/>
+      <c r="PU12" s="0"/>
+      <c r="PV12" s="0"/>
+      <c r="PW12" s="0"/>
+      <c r="PX12" s="0"/>
+      <c r="PY12" s="0"/>
+      <c r="PZ12" s="0"/>
+      <c r="QA12" s="0"/>
+      <c r="QB12" s="0"/>
+      <c r="QC12" s="0"/>
+      <c r="QD12" s="0"/>
+      <c r="QE12" s="0"/>
+      <c r="QF12" s="0"/>
+      <c r="QG12" s="0"/>
+      <c r="QH12" s="0"/>
+      <c r="QI12" s="0"/>
+      <c r="QJ12" s="0"/>
+      <c r="QK12" s="0"/>
+      <c r="QL12" s="0"/>
+      <c r="QM12" s="0"/>
+      <c r="QN12" s="0"/>
+      <c r="QO12" s="0"/>
+      <c r="QP12" s="0"/>
+      <c r="QQ12" s="0"/>
+      <c r="QR12" s="0"/>
+      <c r="QS12" s="0"/>
+      <c r="QT12" s="0"/>
+      <c r="QU12" s="0"/>
+      <c r="QV12" s="0"/>
+      <c r="QW12" s="0"/>
+      <c r="QX12" s="0"/>
+      <c r="QY12" s="0"/>
+      <c r="QZ12" s="0"/>
+      <c r="RA12" s="0"/>
+      <c r="RB12" s="0"/>
+      <c r="RC12" s="0"/>
+      <c r="RD12" s="0"/>
+      <c r="RE12" s="0"/>
+      <c r="RF12" s="0"/>
+      <c r="RG12" s="0"/>
+      <c r="RH12" s="0"/>
+      <c r="RI12" s="0"/>
+      <c r="RJ12" s="0"/>
+      <c r="RK12" s="0"/>
+      <c r="RL12" s="0"/>
+      <c r="RM12" s="0"/>
+      <c r="RN12" s="0"/>
+      <c r="RO12" s="0"/>
+      <c r="RP12" s="0"/>
+      <c r="RQ12" s="0"/>
+      <c r="RR12" s="0"/>
+      <c r="RS12" s="0"/>
+      <c r="RT12" s="0"/>
+      <c r="RU12" s="0"/>
+      <c r="RV12" s="0"/>
+      <c r="RW12" s="0"/>
+      <c r="RX12" s="0"/>
+      <c r="RY12" s="0"/>
+      <c r="RZ12" s="0"/>
+      <c r="SA12" s="0"/>
+      <c r="SB12" s="0"/>
+      <c r="SC12" s="0"/>
+      <c r="SD12" s="0"/>
+      <c r="SE12" s="0"/>
+      <c r="SF12" s="0"/>
+      <c r="SG12" s="0"/>
+      <c r="SH12" s="0"/>
+      <c r="SI12" s="0"/>
+      <c r="SJ12" s="0"/>
+      <c r="SK12" s="0"/>
+      <c r="SL12" s="0"/>
+      <c r="SM12" s="0"/>
+      <c r="SN12" s="0"/>
+      <c r="SO12" s="0"/>
+      <c r="SP12" s="0"/>
+      <c r="SQ12" s="0"/>
+      <c r="SR12" s="0"/>
+      <c r="SS12" s="0"/>
+      <c r="ST12" s="0"/>
+      <c r="SU12" s="0"/>
+      <c r="SV12" s="0"/>
+      <c r="SW12" s="0"/>
+      <c r="SX12" s="0"/>
+      <c r="SY12" s="0"/>
+      <c r="SZ12" s="0"/>
+      <c r="TA12" s="0"/>
+      <c r="TB12" s="0"/>
+      <c r="TC12" s="0"/>
+      <c r="TD12" s="0"/>
+      <c r="TE12" s="0"/>
+      <c r="TF12" s="0"/>
+      <c r="TG12" s="0"/>
+      <c r="TH12" s="0"/>
+      <c r="TI12" s="0"/>
+      <c r="TJ12" s="0"/>
+      <c r="TK12" s="0"/>
+      <c r="TL12" s="0"/>
+      <c r="TM12" s="0"/>
+      <c r="TN12" s="0"/>
+      <c r="TO12" s="0"/>
+      <c r="TP12" s="0"/>
+      <c r="TQ12" s="0"/>
+      <c r="TR12" s="0"/>
+      <c r="TS12" s="0"/>
+      <c r="TT12" s="0"/>
+      <c r="TU12" s="0"/>
+      <c r="TV12" s="0"/>
+      <c r="TW12" s="0"/>
+      <c r="TX12" s="0"/>
+      <c r="TY12" s="0"/>
+      <c r="TZ12" s="0"/>
+      <c r="UA12" s="0"/>
+      <c r="UB12" s="0"/>
+      <c r="UC12" s="0"/>
+      <c r="UD12" s="0"/>
+      <c r="UE12" s="0"/>
+      <c r="UF12" s="0"/>
+      <c r="UG12" s="0"/>
+      <c r="UH12" s="0"/>
+      <c r="UI12" s="0"/>
+      <c r="UJ12" s="0"/>
+      <c r="UK12" s="0"/>
+      <c r="UL12" s="0"/>
+      <c r="UM12" s="0"/>
+      <c r="UN12" s="0"/>
+      <c r="UO12" s="0"/>
+      <c r="UP12" s="0"/>
+      <c r="UQ12" s="0"/>
+      <c r="UR12" s="0"/>
+      <c r="US12" s="0"/>
+      <c r="UT12" s="0"/>
+      <c r="UU12" s="0"/>
+      <c r="UV12" s="0"/>
+      <c r="UW12" s="0"/>
+      <c r="UX12" s="0"/>
+      <c r="UY12" s="0"/>
+      <c r="UZ12" s="0"/>
+      <c r="VA12" s="0"/>
+      <c r="VB12" s="0"/>
+      <c r="VC12" s="0"/>
+      <c r="VD12" s="0"/>
+      <c r="VE12" s="0"/>
+      <c r="VF12" s="0"/>
+      <c r="VG12" s="0"/>
+      <c r="VH12" s="0"/>
+      <c r="VI12" s="0"/>
+      <c r="VJ12" s="0"/>
+      <c r="VK12" s="0"/>
+      <c r="VL12" s="0"/>
+      <c r="VM12" s="0"/>
+      <c r="VN12" s="0"/>
+      <c r="VO12" s="0"/>
+      <c r="VP12" s="0"/>
+      <c r="VQ12" s="0"/>
+      <c r="VR12" s="0"/>
+      <c r="VS12" s="0"/>
+      <c r="VT12" s="0"/>
+      <c r="VU12" s="0"/>
+      <c r="VV12" s="0"/>
+      <c r="VW12" s="0"/>
+      <c r="VX12" s="0"/>
+      <c r="VY12" s="0"/>
+      <c r="VZ12" s="0"/>
+      <c r="WA12" s="0"/>
+      <c r="WB12" s="0"/>
+      <c r="WC12" s="0"/>
+      <c r="WD12" s="0"/>
+      <c r="WE12" s="0"/>
+      <c r="WF12" s="0"/>
+      <c r="WG12" s="0"/>
+      <c r="WH12" s="0"/>
+      <c r="WI12" s="0"/>
+      <c r="WJ12" s="0"/>
+      <c r="WK12" s="0"/>
+      <c r="WL12" s="0"/>
+      <c r="WM12" s="0"/>
+      <c r="WN12" s="0"/>
+      <c r="WO12" s="0"/>
+      <c r="WP12" s="0"/>
+      <c r="WQ12" s="0"/>
+      <c r="WR12" s="0"/>
+      <c r="WS12" s="0"/>
+      <c r="WT12" s="0"/>
+      <c r="WU12" s="0"/>
+      <c r="WV12" s="0"/>
+      <c r="WW12" s="0"/>
+      <c r="WX12" s="0"/>
+      <c r="WY12" s="0"/>
+      <c r="WZ12" s="0"/>
+      <c r="XA12" s="0"/>
+      <c r="XB12" s="0"/>
+      <c r="XC12" s="0"/>
+      <c r="XD12" s="0"/>
+      <c r="XE12" s="0"/>
+      <c r="XF12" s="0"/>
+      <c r="XG12" s="0"/>
+      <c r="XH12" s="0"/>
+      <c r="XI12" s="0"/>
+      <c r="XJ12" s="0"/>
+      <c r="XK12" s="0"/>
+      <c r="XL12" s="0"/>
+      <c r="XM12" s="0"/>
+      <c r="XN12" s="0"/>
+      <c r="XO12" s="0"/>
+      <c r="XP12" s="0"/>
+      <c r="XQ12" s="0"/>
+      <c r="XR12" s="0"/>
+      <c r="XS12" s="0"/>
+      <c r="XT12" s="0"/>
+      <c r="XU12" s="0"/>
+      <c r="XV12" s="0"/>
+      <c r="XW12" s="0"/>
+      <c r="XX12" s="0"/>
+      <c r="XY12" s="0"/>
+      <c r="XZ12" s="0"/>
+      <c r="YA12" s="0"/>
+      <c r="YB12" s="0"/>
+      <c r="YC12" s="0"/>
+      <c r="YD12" s="0"/>
+      <c r="YE12" s="0"/>
+      <c r="YF12" s="0"/>
+      <c r="YG12" s="0"/>
+      <c r="YH12" s="0"/>
+      <c r="YI12" s="0"/>
+      <c r="YJ12" s="0"/>
+      <c r="YK12" s="0"/>
+      <c r="YL12" s="0"/>
+      <c r="YM12" s="0"/>
+      <c r="YN12" s="0"/>
+      <c r="YO12" s="0"/>
+      <c r="YP12" s="0"/>
+      <c r="YQ12" s="0"/>
+      <c r="YR12" s="0"/>
+      <c r="YS12" s="0"/>
+      <c r="YT12" s="0"/>
+      <c r="YU12" s="0"/>
+      <c r="YV12" s="0"/>
+      <c r="YW12" s="0"/>
+      <c r="YX12" s="0"/>
+      <c r="YY12" s="0"/>
+      <c r="YZ12" s="0"/>
+      <c r="ZA12" s="0"/>
+      <c r="ZB12" s="0"/>
+      <c r="ZC12" s="0"/>
+      <c r="ZD12" s="0"/>
+      <c r="ZE12" s="0"/>
+      <c r="ZF12" s="0"/>
+      <c r="ZG12" s="0"/>
+      <c r="ZH12" s="0"/>
+      <c r="ZI12" s="0"/>
+      <c r="ZJ12" s="0"/>
+      <c r="ZK12" s="0"/>
+      <c r="ZL12" s="0"/>
+      <c r="ZM12" s="0"/>
+      <c r="ZN12" s="0"/>
+      <c r="ZO12" s="0"/>
+      <c r="ZP12" s="0"/>
+      <c r="ZQ12" s="0"/>
+      <c r="ZR12" s="0"/>
+      <c r="ZS12" s="0"/>
+      <c r="ZT12" s="0"/>
+      <c r="ZU12" s="0"/>
+      <c r="ZV12" s="0"/>
+      <c r="ZW12" s="0"/>
+      <c r="ZX12" s="0"/>
+      <c r="ZY12" s="0"/>
+      <c r="ZZ12" s="0"/>
+      <c r="AAA12" s="0"/>
+      <c r="AAB12" s="0"/>
+      <c r="AAC12" s="0"/>
+      <c r="AAD12" s="0"/>
+      <c r="AAE12" s="0"/>
+      <c r="AAF12" s="0"/>
+      <c r="AAG12" s="0"/>
+      <c r="AAH12" s="0"/>
+      <c r="AAI12" s="0"/>
+      <c r="AAJ12" s="0"/>
+      <c r="AAK12" s="0"/>
+      <c r="AAL12" s="0"/>
+      <c r="AAM12" s="0"/>
+      <c r="AAN12" s="0"/>
+      <c r="AAO12" s="0"/>
+      <c r="AAP12" s="0"/>
+      <c r="AAQ12" s="0"/>
+      <c r="AAR12" s="0"/>
+      <c r="AAS12" s="0"/>
+      <c r="AAT12" s="0"/>
+      <c r="AAU12" s="0"/>
+      <c r="AAV12" s="0"/>
+      <c r="AAW12" s="0"/>
+      <c r="AAX12" s="0"/>
+      <c r="AAY12" s="0"/>
+      <c r="AAZ12" s="0"/>
+      <c r="ABA12" s="0"/>
+      <c r="ABB12" s="0"/>
+      <c r="ABC12" s="0"/>
+      <c r="ABD12" s="0"/>
+      <c r="ABE12" s="0"/>
+      <c r="ABF12" s="0"/>
+      <c r="ABG12" s="0"/>
+      <c r="ABH12" s="0"/>
+      <c r="ABI12" s="0"/>
+      <c r="ABJ12" s="0"/>
+      <c r="ABK12" s="0"/>
+      <c r="ABL12" s="0"/>
+      <c r="ABM12" s="0"/>
+      <c r="ABN12" s="0"/>
+      <c r="ABO12" s="0"/>
+      <c r="ABP12" s="0"/>
+      <c r="ABQ12" s="0"/>
+      <c r="ABR12" s="0"/>
+      <c r="ABS12" s="0"/>
+      <c r="ABT12" s="0"/>
+      <c r="ABU12" s="0"/>
+      <c r="ABV12" s="0"/>
+      <c r="ABW12" s="0"/>
+      <c r="ABX12" s="0"/>
+      <c r="ABY12" s="0"/>
+      <c r="ABZ12" s="0"/>
+      <c r="ACA12" s="0"/>
+      <c r="ACB12" s="0"/>
+      <c r="ACC12" s="0"/>
+      <c r="ACD12" s="0"/>
+      <c r="ACE12" s="0"/>
+      <c r="ACF12" s="0"/>
+      <c r="ACG12" s="0"/>
+      <c r="ACH12" s="0"/>
+      <c r="ACI12" s="0"/>
+      <c r="ACJ12" s="0"/>
+      <c r="ACK12" s="0"/>
+      <c r="ACL12" s="0"/>
+      <c r="ACM12" s="0"/>
+      <c r="ACN12" s="0"/>
+      <c r="ACO12" s="0"/>
+      <c r="ACP12" s="0"/>
+      <c r="ACQ12" s="0"/>
+      <c r="ACR12" s="0"/>
+      <c r="ACS12" s="0"/>
+      <c r="ACT12" s="0"/>
+      <c r="ACU12" s="0"/>
+      <c r="ACV12" s="0"/>
+      <c r="ACW12" s="0"/>
+      <c r="ACX12" s="0"/>
+      <c r="ACY12" s="0"/>
+      <c r="ACZ12" s="0"/>
+      <c r="ADA12" s="0"/>
+      <c r="ADB12" s="0"/>
+      <c r="ADC12" s="0"/>
+      <c r="ADD12" s="0"/>
+      <c r="ADE12" s="0"/>
+      <c r="ADF12" s="0"/>
+      <c r="ADG12" s="0"/>
+      <c r="ADH12" s="0"/>
+      <c r="ADI12" s="0"/>
+      <c r="ADJ12" s="0"/>
+      <c r="ADK12" s="0"/>
+      <c r="ADL12" s="0"/>
+      <c r="ADM12" s="0"/>
+      <c r="ADN12" s="0"/>
+      <c r="ADO12" s="0"/>
+      <c r="ADP12" s="0"/>
+      <c r="ADQ12" s="0"/>
+      <c r="ADR12" s="0"/>
+      <c r="ADS12" s="0"/>
+      <c r="ADT12" s="0"/>
+      <c r="ADU12" s="0"/>
+      <c r="ADV12" s="0"/>
+      <c r="ADW12" s="0"/>
+      <c r="ADX12" s="0"/>
+      <c r="ADY12" s="0"/>
+      <c r="ADZ12" s="0"/>
+      <c r="AEA12" s="0"/>
+      <c r="AEB12" s="0"/>
+      <c r="AEC12" s="0"/>
+      <c r="AED12" s="0"/>
+      <c r="AEE12" s="0"/>
+      <c r="AEF12" s="0"/>
+      <c r="AEG12" s="0"/>
+      <c r="AEH12" s="0"/>
+      <c r="AEI12" s="0"/>
+      <c r="AEJ12" s="0"/>
+      <c r="AEK12" s="0"/>
+      <c r="AEL12" s="0"/>
+      <c r="AEM12" s="0"/>
+      <c r="AEN12" s="0"/>
+      <c r="AEO12" s="0"/>
+      <c r="AEP12" s="0"/>
+      <c r="AEQ12" s="0"/>
+      <c r="AER12" s="0"/>
+      <c r="AES12" s="0"/>
+      <c r="AET12" s="0"/>
+      <c r="AEU12" s="0"/>
+      <c r="AEV12" s="0"/>
+      <c r="AEW12" s="0"/>
+      <c r="AEX12" s="0"/>
+      <c r="AEY12" s="0"/>
+      <c r="AEZ12" s="0"/>
+      <c r="AFA12" s="0"/>
+      <c r="AFB12" s="0"/>
+      <c r="AFC12" s="0"/>
+      <c r="AFD12" s="0"/>
+      <c r="AFE12" s="0"/>
+      <c r="AFF12" s="0"/>
+      <c r="AFG12" s="0"/>
+      <c r="AFH12" s="0"/>
+      <c r="AFI12" s="0"/>
+      <c r="AFJ12" s="0"/>
+      <c r="AFK12" s="0"/>
+      <c r="AFL12" s="0"/>
+      <c r="AFM12" s="0"/>
+      <c r="AFN12" s="0"/>
+      <c r="AFO12" s="0"/>
+      <c r="AFP12" s="0"/>
+      <c r="AFQ12" s="0"/>
+      <c r="AFR12" s="0"/>
+      <c r="AFS12" s="0"/>
+      <c r="AFT12" s="0"/>
+      <c r="AFU12" s="0"/>
+      <c r="AFV12" s="0"/>
+      <c r="AFW12" s="0"/>
+      <c r="AFX12" s="0"/>
+      <c r="AFY12" s="0"/>
+      <c r="AFZ12" s="0"/>
+      <c r="AGA12" s="0"/>
+      <c r="AGB12" s="0"/>
+      <c r="AGC12" s="0"/>
+      <c r="AGD12" s="0"/>
+      <c r="AGE12" s="0"/>
+      <c r="AGF12" s="0"/>
+      <c r="AGG12" s="0"/>
+      <c r="AGH12" s="0"/>
+      <c r="AGI12" s="0"/>
+      <c r="AGJ12" s="0"/>
+      <c r="AGK12" s="0"/>
+      <c r="AGL12" s="0"/>
+      <c r="AGM12" s="0"/>
+      <c r="AGN12" s="0"/>
+      <c r="AGO12" s="0"/>
+      <c r="AGP12" s="0"/>
+      <c r="AGQ12" s="0"/>
+      <c r="AGR12" s="0"/>
+      <c r="AGS12" s="0"/>
+      <c r="AGT12" s="0"/>
+      <c r="AGU12" s="0"/>
+      <c r="AGV12" s="0"/>
+      <c r="AGW12" s="0"/>
+      <c r="AGX12" s="0"/>
+      <c r="AGY12" s="0"/>
+      <c r="AGZ12" s="0"/>
+      <c r="AHA12" s="0"/>
+      <c r="AHB12" s="0"/>
+      <c r="AHC12" s="0"/>
+      <c r="AHD12" s="0"/>
+      <c r="AHE12" s="0"/>
+      <c r="AHF12" s="0"/>
+      <c r="AHG12" s="0"/>
+      <c r="AHH12" s="0"/>
+      <c r="AHI12" s="0"/>
+      <c r="AHJ12" s="0"/>
+      <c r="AHK12" s="0"/>
+      <c r="AHL12" s="0"/>
+      <c r="AHM12" s="0"/>
+      <c r="AHN12" s="0"/>
+      <c r="AHO12" s="0"/>
+      <c r="AHP12" s="0"/>
+      <c r="AHQ12" s="0"/>
+      <c r="AHR12" s="0"/>
+      <c r="AHS12" s="0"/>
+      <c r="AHT12" s="0"/>
+      <c r="AHU12" s="0"/>
+      <c r="AHV12" s="0"/>
+      <c r="AHW12" s="0"/>
+      <c r="AHX12" s="0"/>
+      <c r="AHY12" s="0"/>
+      <c r="AHZ12" s="0"/>
+      <c r="AIA12" s="0"/>
+      <c r="AIB12" s="0"/>
+      <c r="AIC12" s="0"/>
+      <c r="AID12" s="0"/>
+      <c r="AIE12" s="0"/>
+      <c r="AIF12" s="0"/>
+      <c r="AIG12" s="0"/>
+      <c r="AIH12" s="0"/>
+      <c r="AII12" s="0"/>
+      <c r="AIJ12" s="0"/>
+      <c r="AIK12" s="0"/>
+      <c r="AIL12" s="0"/>
+      <c r="AIM12" s="0"/>
+      <c r="AIN12" s="0"/>
+      <c r="AIO12" s="0"/>
+      <c r="AIP12" s="0"/>
+      <c r="AIQ12" s="0"/>
+      <c r="AIR12" s="0"/>
+      <c r="AIS12" s="0"/>
+      <c r="AIT12" s="0"/>
+      <c r="AIU12" s="0"/>
+      <c r="AIV12" s="0"/>
+      <c r="AIW12" s="0"/>
+      <c r="AIX12" s="0"/>
+      <c r="AIY12" s="0"/>
+      <c r="AIZ12" s="0"/>
+      <c r="AJA12" s="0"/>
+      <c r="AJB12" s="0"/>
+      <c r="AJC12" s="0"/>
+      <c r="AJD12" s="0"/>
+      <c r="AJE12" s="0"/>
+      <c r="AJF12" s="0"/>
+      <c r="AJG12" s="0"/>
+      <c r="AJH12" s="0"/>
+      <c r="AJI12" s="0"/>
+      <c r="AJJ12" s="0"/>
+      <c r="AJK12" s="0"/>
+      <c r="AJL12" s="0"/>
+      <c r="AJM12" s="0"/>
+      <c r="AJN12" s="0"/>
+      <c r="AJO12" s="0"/>
+      <c r="AJP12" s="0"/>
+      <c r="AJQ12" s="0"/>
+      <c r="AJR12" s="0"/>
+      <c r="AJS12" s="0"/>
+      <c r="AJT12" s="0"/>
+      <c r="AJU12" s="0"/>
+      <c r="AJV12" s="0"/>
+      <c r="AJW12" s="0"/>
+      <c r="AJX12" s="0"/>
+      <c r="AJY12" s="0"/>
+      <c r="AJZ12" s="0"/>
+      <c r="AKA12" s="0"/>
+      <c r="AKB12" s="0"/>
+      <c r="AKC12" s="0"/>
+      <c r="AKD12" s="0"/>
+      <c r="AKE12" s="0"/>
+      <c r="AKF12" s="0"/>
+      <c r="AKG12" s="0"/>
+      <c r="AKH12" s="0"/>
+      <c r="AKI12" s="0"/>
+      <c r="AKJ12" s="0"/>
+      <c r="AKK12" s="0"/>
+      <c r="AKL12" s="0"/>
+      <c r="AKM12" s="0"/>
+      <c r="AKN12" s="0"/>
+      <c r="AKO12" s="0"/>
+      <c r="AKP12" s="0"/>
+      <c r="AKQ12" s="0"/>
+      <c r="AKR12" s="0"/>
+      <c r="AKS12" s="0"/>
+      <c r="AKT12" s="0"/>
+      <c r="AKU12" s="0"/>
+      <c r="AKV12" s="0"/>
+      <c r="AKW12" s="0"/>
+      <c r="AKX12" s="0"/>
+      <c r="AKY12" s="0"/>
+      <c r="AKZ12" s="0"/>
+      <c r="ALA12" s="0"/>
+      <c r="ALB12" s="0"/>
+      <c r="ALC12" s="0"/>
+      <c r="ALD12" s="0"/>
+      <c r="ALE12" s="0"/>
+      <c r="ALF12" s="0"/>
+      <c r="ALG12" s="0"/>
+      <c r="ALH12" s="0"/>
+      <c r="ALI12" s="0"/>
+      <c r="ALJ12" s="0"/>
+      <c r="ALK12" s="0"/>
+      <c r="ALL12" s="0"/>
+      <c r="ALM12" s="0"/>
+      <c r="ALN12" s="0"/>
+      <c r="ALO12" s="0"/>
+      <c r="ALP12" s="0"/>
+      <c r="ALQ12" s="0"/>
+      <c r="ALR12" s="0"/>
+      <c r="ALS12" s="0"/>
+      <c r="ALT12" s="0"/>
+      <c r="ALU12" s="0"/>
+      <c r="ALV12" s="0"/>
+      <c r="ALW12" s="0"/>
+      <c r="ALX12" s="0"/>
+      <c r="ALY12" s="0"/>
+      <c r="ALZ12" s="0"/>
+      <c r="AMA12" s="0"/>
+      <c r="AMB12" s="0"/>
+      <c r="AMC12" s="0"/>
+      <c r="AMD12" s="0"/>
+      <c r="AME12" s="0"/>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">

--- a/PaediatricDosage.xlsx
+++ b/PaediatricDosage.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="409">
   <si>
     <t>Fluid  Requirement</t>
   </si>
@@ -1521,12 +1521,15 @@
     <t>Amoxicillin +
 Clavulinic acid</t>
   </si>
+  <si>
+    <t>Paracetamol</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1577,6 +1580,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1598,7 +1615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1628,61 +1645,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1695,6 +1664,82 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1977,7 +2022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
@@ -1989,148 +2034,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="19">
         <v>60</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="19">
         <v>80</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="19">
         <v>100</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="19">
         <v>120</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="19">
         <v>140</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="19">
         <v>150</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
@@ -2196,21 +2241,21 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
@@ -2246,24 +2291,14 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="A26:C28"/>
     <mergeCell ref="A33:C33"/>
@@ -2272,6 +2307,16 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -2282,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView windowProtection="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2297,60 +2342,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="19"/>
+      <c r="A12" s="24"/>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
@@ -2406,42 +2451,42 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="15"/>
+      <c r="A22" s="25"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="41"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="43" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2449,29 +2494,29 @@
       <c r="A25" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:C5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -2482,9 +2527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK15"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2499,161 +2544,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="24"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34.9" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="26"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45.95" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="27" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="36">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.65" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="27" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" ht="48">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:6" ht="60">
+      <c r="A10" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -2661,77 +2706,67 @@
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="182.25" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="24">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="26" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="23" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="25"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B7:D7"/>
@@ -2740,6 +2775,16 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -2751,8 +2796,8 @@
   <dimension ref="A1:AMK16"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2767,256 +2812,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="24"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34.9" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="59.25" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45.95" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="26" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="24">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="27" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="61.5" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="27" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="27" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:6" ht="72">
+      <c r="A11" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="63" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6" ht="24">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="31" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="14" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="25" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="12" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:F14"/>
@@ -3025,11 +3070,11 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -3041,8 +3086,8 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3057,317 +3102,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="24"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34.9" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="27" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="25" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="59.25" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="27" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.95" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="32" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="11" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="11" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="27" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:6" ht="36">
+      <c r="A10" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="27" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="27" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="12" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="12" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="12" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="12" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="45" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="24">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="24">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="11" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
@@ -3376,6 +3411,16 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -3387,13 +3432,13 @@
   <dimension ref="A1:AMK25"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:D7"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="10" customWidth="1"/>
     <col min="3" max="3" width="13" style="10"/>
     <col min="4" max="4" width="13.42578125" style="10" customWidth="1"/>
@@ -3403,387 +3448,387 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="24"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34.9" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="12" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="27" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="11" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="11" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45.95" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="23"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="38"/>
+      <c r="E11" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="25" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="11" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="23" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6" ht="60" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="11" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="25" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="12" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="27" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="24"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="72">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:6" ht="96">
+      <c r="A24" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="25" t="s">
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="12" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="25" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="11" t="s">
         <v>262</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A19:F21"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A19:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -3796,12 +3841,12 @@
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="10" customWidth="1"/>
     <col min="2" max="3" width="10" style="10"/>
     <col min="4" max="4" width="13.42578125" style="10" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="10"/>
@@ -3810,314 +3855,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48.75" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="27" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="11" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="25" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="11" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="6" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="12" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="25" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="27" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="12" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="25" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="25" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="27" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="25" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="11" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60.75" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="27" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="87.75" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="25" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="12" t="s">
         <v>307</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A6:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B16:D16"/>
@@ -4125,6 +4155,21 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A6:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -4137,7 +4182,7 @@
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4150,19 +4195,19 @@
     <col min="7" max="1025" width="10" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="13.9" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:1024" ht="17.25" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="F1" s="32"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -5183,20 +5228,20 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024">
-      <c r="A2" s="22"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="33" t="s">
         <v>73</v>
       </c>
       <c r="G2"/>
@@ -6218,19 +6263,19 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" ht="49.5" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="1:1024" ht="37.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="12" t="s">
         <v>310</v>
       </c>
       <c r="G3"/>
@@ -7252,19 +7297,19 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" ht="45" customHeight="1">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:1024" ht="37.5" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="27" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="12" t="s">
         <v>314</v>
       </c>
       <c r="G4"/>
@@ -8287,18 +8332,18 @@
       <c r="AMJ4"/>
     </row>
     <row r="5" spans="1:1024" ht="32.25" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="27" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="11" t="s">
         <v>318</v>
       </c>
       <c r="G5"/>
@@ -9320,19 +9365,19 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" ht="95.25" customHeight="1">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:1024" ht="64.5" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="27" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="13"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -10353,16 +10398,16 @@
       <c r="AMJ6"/>
     </row>
     <row r="7" spans="1:1024">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11" t="s">
         <v>73</v>
       </c>
       <c r="G7"/>
@@ -11384,19 +11429,19 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="37.5" customHeight="1">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:1024" ht="26.25" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="12" t="s">
         <v>327</v>
       </c>
       <c r="G8"/>
@@ -12419,18 +12464,18 @@
       <c r="AMJ8"/>
     </row>
     <row r="9" spans="1:1024" ht="24">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="13"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -13450,19 +13495,19 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" ht="60.75" customHeight="1">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:1024" ht="49.5" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="25" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="11" t="s">
         <v>334</v>
       </c>
       <c r="G10"/>
@@ -14484,17 +14529,17 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" ht="35.25" customHeight="1">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:1024" ht="26.25" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="25" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11" t="s">
         <v>337</v>
       </c>
       <c r="G11"/>
@@ -15516,17 +15561,17 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" ht="43.5" customHeight="1">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:1024" ht="37.5" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="25" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11" t="s">
         <v>340</v>
       </c>
       <c r="G12"/>
@@ -16548,19 +16593,19 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" ht="45" customHeight="1">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:1024" ht="15.75" customHeight="1">
+      <c r="A13" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="11" t="s">
         <v>343</v>
       </c>
       <c r="G13"/>
@@ -17583,16 +17628,16 @@
       <c r="AMJ13"/>
     </row>
     <row r="14" spans="1:1024">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="25" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="11" t="s">
         <v>346</v>
       </c>
       <c r="G14"/>
@@ -18614,105 +18659,105 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" ht="31.5" customHeight="1">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:1024" ht="26.25" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:1024">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="11" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" ht="48.75" customHeight="1">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:6" ht="39" customHeight="1">
+      <c r="A20" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -18724,8 +18769,8 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18738,19 +18783,19 @@
     <col min="7" max="1025" width="10" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="13.9" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:1024" ht="17.25" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="F1" s="32"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -19771,20 +19816,20 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024">
-      <c r="A2" s="22"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="33" t="s">
         <v>73</v>
       </c>
       <c r="G2"/>
@@ -20807,16 +20852,16 @@
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024" ht="25.35" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -21837,18 +21882,18 @@
       <c r="AMJ3"/>
     </row>
     <row r="4" spans="1:1024" ht="17.25" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="27" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="12" t="s">
         <v>365</v>
       </c>
       <c r="G4"/>
@@ -22871,18 +22916,18 @@
       <c r="AMJ4"/>
     </row>
     <row r="5" spans="1:1024" ht="17.25" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="27" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="13"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -23903,18 +23948,18 @@
       <c r="AMJ5"/>
     </row>
     <row r="6" spans="1:1024" ht="34.9" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="27" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="13"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -24935,16 +24980,16 @@
       <c r="AMJ6"/>
     </row>
     <row r="7" spans="1:1024">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11" t="s">
         <v>373</v>
       </c>
       <c r="G7"/>
@@ -25967,18 +26012,18 @@
       <c r="AMJ7"/>
     </row>
     <row r="8" spans="1:1024" ht="20.25" customHeight="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="12" t="s">
         <v>377</v>
       </c>
       <c r="G8"/>
@@ -27001,16 +27046,16 @@
       <c r="AMJ8"/>
     </row>
     <row r="9" spans="1:1024" ht="30" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -28031,18 +28076,18 @@
       <c r="AMJ9"/>
     </row>
     <row r="10" spans="1:1024" ht="25.35" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="25" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="11" t="s">
         <v>383</v>
       </c>
       <c r="G10"/>
@@ -29065,18 +29110,18 @@
       <c r="AMJ10"/>
     </row>
     <row r="11" spans="1:1024" ht="24.6" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="11" t="s">
         <v>353</v>
       </c>
       <c r="G11"/>
@@ -30099,18 +30144,18 @@
       <c r="AMJ11"/>
     </row>
     <row r="12" spans="1:1024" ht="35.65" customHeight="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="25" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="11" t="s">
         <v>353</v>
       </c>
       <c r="G12"/>
@@ -31133,16 +31178,16 @@
       <c r="AMJ12"/>
     </row>
     <row r="13" spans="1:1024" ht="18.95" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="25" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11" t="s">
         <v>390</v>
       </c>
       <c r="G13"/>
@@ -32164,19 +32209,19 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" ht="18.2" customHeight="1">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:1024" ht="24.75" customHeight="1">
+      <c r="A14" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="33" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="13"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -33197,75 +33242,65 @@
       <c r="AMJ14"/>
     </row>
     <row r="15" spans="1:1024" ht="35.65" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="27" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:1024" ht="23.65" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="27" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="23.65" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="27" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="46.5" customHeight="1"/>
     <row r="20" spans="1:6" ht="48.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
@@ -33275,6 +33310,16 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/PaediatricDosage.xlsx
+++ b/PaediatricDosage.xlsx
@@ -22,6 +22,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="435">
   <si>
     <t>Fluid  Requirement</t>
   </si>
@@ -133,9 +134,6 @@
   </si>
   <si>
     <t>5% BS</t>
-  </si>
-  <si>
-    <t>5% glucose + 0.22% Na</t>
   </si>
   <si>
     <t>6 - 10 years</t>
@@ -227,11 +225,6 @@
     <t>Blood</t>
   </si>
   <si>
-    <t>Blood equivalent = 20 ml/kg
-Transfusion of blood (4.2 ml x wt in kg) = increase of Hb% 1 gm/dl
-Transfusion of 1 unit of plasma = 10% increase of platelet</t>
-  </si>
-  <si>
     <t>Inj. Sedil
 Inj. Lasix
 Inj. Cotson</t>
@@ -252,28 +245,13 @@
     <t>125 mg</t>
   </si>
   <si>
-    <t>azithromycin</t>
-  </si>
-  <si>
     <t>200 mg</t>
   </si>
   <si>
-    <t>metronidazole</t>
-  </si>
-  <si>
-    <t>ciprofloxacin</t>
-  </si>
-  <si>
     <t>250 mg</t>
   </si>
   <si>
-    <t>cefixime</t>
-  </si>
-  <si>
     <t>100 mg</t>
-  </si>
-  <si>
-    <t>nalid</t>
   </si>
   <si>
     <t>300 mg</t>
@@ -314,13 +292,6 @@
 20 mg/kg/dose, 5 times daily, for 5 days, orally</t>
   </si>
   <si>
-    <t xml:space="preserve">Inj. Zovirux(250mg/10ml),
-Tab. Virux (200 mg, 100mg),
-Syp. Virux (200 mg, 5 ml)
-1 tsf = 200 mg
-</t>
-  </si>
-  <si>
     <t>Antibiotic:</t>
   </si>
   <si>
@@ -329,19 +300,6 @@
   </si>
   <si>
     <t>Ampicillin</t>
-  </si>
-  <si>
-    <t>200 mg/kg/day
-12 hourly</t>
-  </si>
-  <si>
-    <t>Neonate: 
-100 -200mg/kg/day
-Children: 400mg/kg/day</t>
-  </si>
-  <si>
-    <t>Inj. Ampexin, pen A, amicillin,
-(500mg/5m)</t>
   </si>
   <si>
     <t>Generic  name</t>
@@ -352,12 +310,6 @@
 8 hourly</t>
   </si>
   <si>
-    <t>paediatric drop-
-125mg/125ml
-Syp. 125Mg/5ml;
-250mg/5ml</t>
-  </si>
-  <si>
     <t>50mg/kg/day
 12 hourly, oral</t>
   </si>
@@ -375,10 +327,6 @@
   </si>
   <si>
     <t>2 – 5 mg/kg/day ----------------------12 – 24 hourly</t>
-  </si>
-  <si>
-    <t>Cap doxycap
-(100 mg)</t>
   </si>
   <si>
     <t>Flucloxacillin</t>
@@ -393,16 +341,6 @@
     <t>50 – 100 mg/kg/day
 6 hourly, I/V or
 Oral</t>
-  </si>
-  <si>
-    <t>Cap. 250 mg,
-500 mg</t>
-  </si>
-  <si>
-    <t>Ing. Phylopen,
-Flupen, flux,Fluclox
-(250, 500 mg, 1gm)
-Syp. 125 mg/5ml</t>
   </si>
   <si>
     <t>Cloxacillin</t>
@@ -490,22 +428,12 @@
 12 hourly, I/V or I/M</t>
   </si>
   <si>
-    <t>20 - 30
-mg/kg/day,
-8 hourly oral</t>
-  </si>
-  <si>
     <t>Child: 200 - 400
 mg/kg/day,
 12 hourly,
 I/V or I/M</t>
   </si>
   <si>
-    <t>Tab. 125mg,
-250mg, 
-500mg</t>
-  </si>
-  <si>
     <t>Inj. 250mg,
 750 mg powder
 for suspension
@@ -539,10 +467,6 @@
 In enteric fever</t>
   </si>
   <si>
-    <t>Cap. 200 mg,
-400 mg</t>
-  </si>
-  <si>
     <t>Syp. 30 ml, 40 ml, 50ml,
 (100 mg - 5 ml=
 1 tsf)</t>
@@ -563,10 +487,6 @@
   </si>
   <si>
     <t>15 - 30 mg/kg/day, 12 hourly</t>
-  </si>
-  <si>
-    <t>Tab. 250 mg,
-500 mg</t>
   </si>
   <si>
     <t>Syp. 60 ml
@@ -601,10 +521,6 @@
     <t>Imipenem</t>
   </si>
   <si>
-    <t>15 mg/kg/day, 6 hourly, I/V dilute
-100 ml N/S &amp; give within half an hour, cant be given with gentamycin</t>
-  </si>
-  <si>
     <t>Erythromycin</t>
   </si>
   <si>
@@ -634,10 +550,6 @@
   <si>
     <t>Inj. 1.5 ml/kg/dose or 7.5 mg/kg/day, 8 hourly.
 Oral: 15 – 30 mg/kg/day, 8 hourly</t>
-  </si>
-  <si>
-    <t>Tab. 200 mg,
-400 mg</t>
   </si>
   <si>
     <t>500mg/100ml bottle
@@ -664,10 +576,6 @@
 &gt; 9 years: 100 mg/kg/day, 12 hourly</t>
   </si>
   <si>
-    <t>Cap. 100 mg,
-20 mg</t>
-  </si>
-  <si>
     <t>Suspension 
 40 mg/5ml
 Paediatric drop:
@@ -692,10 +600,6 @@
     <t>25 - 50 mg/kg/day, 6 hourly</t>
   </si>
   <si>
-    <t>Tab. 125 mg,
-250 mg</t>
-  </si>
-  <si>
     <t>Syp. 1 tsf = 125 mg</t>
   </si>
   <si>
@@ -706,19 +610,8 @@
     <t>25000 - 50000 unit/kg/day</t>
   </si>
   <si>
-    <t>Pronapen 4 - 8 lac/
-vial</t>
-  </si>
-  <si>
     <t>Penicillin G
 benzathine</t>
-  </si>
-  <si>
-    <t>600000 - 1200000</t>
-  </si>
-  <si>
-    <t>Benzapen 6 - 12 lac/
-vial</t>
   </si>
   <si>
     <t>Clarithromycin</t>
@@ -743,10 +636,6 @@
  6 hourly</t>
   </si>
   <si>
-    <t>Cap. 125 mg,
-250 mg</t>
-  </si>
-  <si>
     <t>Inj. Medophenicol
 (1 gm/ 10 mg)</t>
   </si>
@@ -777,9 +666,6 @@
 12 hourly</t>
   </si>
   <si>
-    <t>Neomycic</t>
-  </si>
-  <si>
     <t>50 mg/kg/day,
 6 hourly, oral</t>
   </si>
@@ -803,9 +689,6 @@
     <t>Ofloxacin</t>
   </si>
   <si>
-    <t xml:space="preserve"> 15 - 20 mg/kg/day, 12 hourly, oral</t>
-  </si>
-  <si>
     <t>Pivmacillanum</t>
   </si>
   <si>
@@ -845,14 +728,6 @@
     <t>Fluconazole</t>
   </si>
   <si>
-    <t>6 - 12 mg/kg/day, daily,
-oral</t>
-  </si>
-  <si>
-    <t>Cap. 50 mg,
-150 mg</t>
-  </si>
-  <si>
     <t>50 mg/tsf</t>
   </si>
   <si>
@@ -872,11 +747,6 @@
   </si>
   <si>
     <t>Topical cream, apply twice daily</t>
-  </si>
-  <si>
-    <t>Micoral gel,
-fungidal 2%
-cream</t>
   </si>
   <si>
     <t>Griseofulvin</t>
@@ -917,14 +787,6 @@
     <t>5 mg/kg/dose, 12 hourly</t>
   </si>
   <si>
-    <t>Tab. 200 mg,
-60 mg</t>
-  </si>
-  <si>
-    <t>Inj. Barbit (200mg/ml) + 9 ml DW
-= barbit (200 mg/10ml), then I/V slowly</t>
-  </si>
-  <si>
     <t>Phenytoin</t>
   </si>
   <si>
@@ -946,10 +808,6 @@
     <t>10 mg/kg/day, 12 hourly</t>
   </si>
   <si>
-    <t>Tab.
-200 mg</t>
-  </si>
-  <si>
     <t>1 tsf = 
 100 mg</t>
   </si>
@@ -967,11 +825,6 @@
   </si>
   <si>
     <t>Clonazepam</t>
-  </si>
-  <si>
-    <t>0.01 mg - 0.3 mg/kg/day, 8 - 12 hourly, oral
-Increase by 0.5 mg/day for 3 - 5 days (maximum
-0.3 mg/kg/day)</t>
   </si>
   <si>
     <t>Tab.
@@ -1019,11 +872,6 @@
 Children &lt;6 months not recommended</t>
   </si>
   <si>
-    <t>Tab. 25 mg,
-50 mg,
-100 mg</t>
-  </si>
-  <si>
     <t>Inj. 50 mg/2 ml</t>
   </si>
   <si>
@@ -1080,15 +928,6 @@
     <t>Salbutamol</t>
   </si>
   <si>
-    <t>0.2 - 0.4 mg/kg/day
-Nebulisation dose: 0.3 ml/kg/dose
-Saltolin 0.3 ml + N/S 2.7 ml ----give 8 hourly</t>
-  </si>
-  <si>
-    <t>Tab. 2 mg,
-4 mg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inj. 1 ml = 5 mg
 Suspension:
 1 tsf = 2 mg = 5 ml
@@ -1101,10 +940,6 @@
     <t>1 - 1.5 mg/kg/day, 8 hourly</t>
   </si>
   <si>
-    <t>Tab. 10 mg,
-25 mg</t>
-  </si>
-  <si>
     <t>Allopurinol</t>
   </si>
   <si>
@@ -1150,25 +985,7 @@
     <t>Prednisolone</t>
   </si>
   <si>
-    <t>1 - 2 mg/kg/day, 6 - 12 hourly
-Nephrotic syndrome: 60 mg/m2, for 6 weeks
-Then, 40 mg/m2, every alternate day,
-for 6 weeks [single morning dose]</t>
-  </si>
-  <si>
-    <t>Tab. 5 mg,
-10 mg,
-20 mg</t>
-  </si>
-  <si>
     <t>Cyclophosphamide</t>
-  </si>
-  <si>
-    <t>Indication: Frequent relapse of Nephrotic Syndrome
-Steroid resistant nephrotic syndrome
-3 mg/kg/day as a single dose for 12 weeks
-Alternatively prednisolone therapy
-(0.5 mg/kg/day) for 1 year</t>
   </si>
   <si>
     <t>Tab. 50 mg</t>
@@ -1193,15 +1010,6 @@
     <t>Naproxen</t>
   </si>
   <si>
-    <t>10 - 20 mg/kg/day, 8 - 12 hourly,
-oral. Under 5 years not recommended</t>
-  </si>
-  <si>
-    <t>Tab.
-250 mg,
-500 mg</t>
-  </si>
-  <si>
     <t>Susp. 
 125 mg/5ml</t>
   </si>
@@ -1211,10 +1019,6 @@
   <si>
     <t>5 - 10 mg/kg/dose, 6 - 8 hourly
 or half tsf 8 hourly</t>
-  </si>
-  <si>
-    <t>Tab. 200 mg
-500 mg</t>
   </si>
   <si>
     <t>Susp. 100 mg/tsf</t>
@@ -1230,306 +1034,626 @@
 Then tapering</t>
   </si>
   <si>
+    <t>Mannitol</t>
+  </si>
+  <si>
+    <t>5 - 7.5 ml/kg/day within half hour</t>
+  </si>
+  <si>
+    <t>Ranitidine</t>
+  </si>
+  <si>
+    <t>2 - 4 mg/kg/day, 12 hourly</t>
+  </si>
+  <si>
+    <t>Tab. 150 mg</t>
+  </si>
+  <si>
+    <t>Omeprazole</t>
+  </si>
+  <si>
+    <t>0.6 - 0.7 mg/kg/day, 12 - 24 hourly</t>
+  </si>
+  <si>
+    <t>Digoxin</t>
+  </si>
+  <si>
+    <t>Tab. 0.25 mg</t>
+  </si>
+  <si>
+    <t>Inj. 0.5 mg/2 ml</t>
+  </si>
+  <si>
+    <t>Zinc sulfate</t>
+  </si>
+  <si>
+    <t>2 - 3 mg/kg/day
+Wt &lt; 10 kg, &lt; 6 month, 1/2 tsf, 12 hourly</t>
+  </si>
+  <si>
+    <t>1 tsf = 10 mg</t>
+  </si>
+  <si>
+    <t>Potassium
+chloride</t>
+  </si>
+  <si>
+    <t>4 - 8 mmol/kg/day, 8 hourly
+Wt &lt; 10 kg, &lt; 6 month, 1/2 tsf, 12 hourly
+wt &gt; 10 kg, &gt; 6 month, 1 tsf, 12 hourly</t>
+  </si>
+  <si>
+    <t>1 tsf = 10 mmol</t>
+  </si>
+  <si>
+    <t>Mebendazole</t>
+  </si>
+  <si>
+    <t>100 mg, 12 hourly</t>
+  </si>
+  <si>
+    <t>1 tsf = 100 mg</t>
+  </si>
+  <si>
+    <t>Pyrental pamoate</t>
+  </si>
+  <si>
+    <t>10 mg/kg/day, single dose</t>
+  </si>
+  <si>
+    <t>200 mg/tsf</t>
+  </si>
+  <si>
+    <t>Albendazole</t>
+  </si>
+  <si>
+    <t>1 - 2 year, 200 mg/day
+2 - 4 year, 400 mg/day</t>
+  </si>
+  <si>
+    <t>Spironolactone</t>
+  </si>
+  <si>
+    <t>Folic acid</t>
+  </si>
+  <si>
+    <t>0.2 mg/kg/day</t>
+  </si>
+  <si>
+    <t>Tab. 5mg</t>
+  </si>
+  <si>
+    <t>5 mg/tsf</t>
+  </si>
+  <si>
+    <t>Calcium gluconate</t>
+  </si>
+  <si>
+    <t>1 - 2 ml/kg/dose, I/V, repeate………..</t>
+  </si>
+  <si>
+    <t>Inj. 5ml/amp</t>
+  </si>
+  <si>
+    <t>Calcium salt</t>
+  </si>
+  <si>
+    <t>6 months: 400 mg/day
+6 months - 1 year: 600 mg/day
+1 year - 5 year: 800 mg/day</t>
+  </si>
+  <si>
+    <t>Vitamin A</t>
+  </si>
+  <si>
+    <t>&lt; 6 months: 1 cap, 6 months - 1 year 2 cap,
+&gt; 1 year: 4 cap; xerophthalmia, 
+Rx on D1, D2, D14</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Prophylaxis: 1 - 2 mg/kg/day
+Deficiency: 3 - 6 mg/kg/day</t>
+  </si>
+  <si>
+    <t>Vitamin B1</t>
+  </si>
+  <si>
+    <t>0.2 - 1 mg/kg/day, 12 hourly, oral or I/M</t>
+  </si>
+  <si>
+    <t>100 mg/ml/amp</t>
+  </si>
+  <si>
+    <t>Vitamin B2</t>
+  </si>
+  <si>
+    <t>2.5 - 10 mg/kg/day, 8 - 12 hourly</t>
+  </si>
+  <si>
+    <t>Vitamin B6</t>
+  </si>
+  <si>
+    <t>Deficiency: 5 - 15 mg/kg/day, oral 3 - 5 weeks, then 2.5 mg/day,
+Drug induced neuritis: 1 mg/kg/day</t>
+  </si>
+  <si>
+    <t>Tab. 20 mg</t>
+  </si>
+  <si>
+    <t>Vitamin D</t>
+  </si>
+  <si>
+    <t>3 - 6 lac unit, I/M , stat</t>
+  </si>
+  <si>
+    <t>Inj. 200000 IU</t>
+  </si>
+  <si>
+    <t>Vitamin C</t>
+  </si>
+  <si>
+    <t>100 - 300 mg/day</t>
+  </si>
+  <si>
+    <t>Tab. 250 mg</t>
+  </si>
+  <si>
+    <t>Syp. 100 mg/5 ml</t>
+  </si>
+  <si>
+    <t>Magnesium
+sulfate</t>
+  </si>
+  <si>
+    <t>0.3 ml/kg/dose, I/M, daily, for 3 days
+Then, if PEM, on next day, 0.1 ml/kg/day</t>
+  </si>
+  <si>
+    <t>Ketotifen</t>
+  </si>
+  <si>
+    <t>6 month - 3years: 0.5 mg, 12 hourly
+&gt; 3 years: 1 mg, 12 hourly</t>
+  </si>
+  <si>
+    <t>Tab. 1 mg</t>
+  </si>
+  <si>
+    <t>1 mg/tsf</t>
+  </si>
+  <si>
+    <t>Promethzine</t>
+  </si>
+  <si>
+    <t>0.5 - 1 mg/kg/dose, I/M or oral, single
+dose or 8 - 12 hourly</t>
+  </si>
+  <si>
+    <t>Loratadine</t>
+  </si>
+  <si>
+    <t>Weight &lt; 30 kg, 5 mg/dose, daily
+Weight &gt; 30 kg, 10 mg/dose, daily
+&lt;2 year not recommended</t>
+  </si>
+  <si>
+    <t>Lactulose</t>
+  </si>
+  <si>
+    <t>0.5 mg/kg/day, 12 hourly</t>
+  </si>
+  <si>
+    <t>1tsf = 5ml = 3.35 gm</t>
+  </si>
+  <si>
+    <t>Propranolol</t>
+  </si>
+  <si>
+    <t>0.5 – 1 mg/kg/day</t>
+  </si>
+  <si>
+    <t>Atenolol</t>
+  </si>
+  <si>
+    <t>0.8 – 1.5 mg/kg/day</t>
+  </si>
+  <si>
+    <t>Captopril</t>
+  </si>
+  <si>
+    <t>Neonate: 0.5 – 0.6 mg/kg/day, 8 hourly
+Children: 0.15 mg/kg/day, 8 hourly</t>
+  </si>
+  <si>
+    <t>Tab. 25 mg,
+50 mg</t>
+  </si>
+  <si>
+    <t>Enalapril</t>
+  </si>
+  <si>
+    <t>0.1 mg/kg/day, 12 – 24 hourly, can be increased to
+0.4 mg/kg/day</t>
+  </si>
+  <si>
+    <t>Nifedipine</t>
+  </si>
+  <si>
+    <t>0.25 – 0.5 mg/kg/dose</t>
+  </si>
+  <si>
+    <t>Paracetamol</t>
+  </si>
+  <si>
+    <t>5% glucose + 0.225% Na</t>
+  </si>
+  <si>
+    <t>Approximate weight</t>
+  </si>
+  <si>
+    <t>New born</t>
+  </si>
+  <si>
+    <t>3.2 kg</t>
+  </si>
+  <si>
+    <t>2 months</t>
+  </si>
+  <si>
+    <t>4 months</t>
+  </si>
+  <si>
+    <t>6.5 kg</t>
+  </si>
+  <si>
+    <t>1 year</t>
+  </si>
+  <si>
+    <t>10 kg</t>
+  </si>
+  <si>
+    <t>13 kg</t>
+  </si>
+  <si>
+    <t>3 years</t>
+  </si>
+  <si>
+    <t>15 kg</t>
+  </si>
+  <si>
+    <t>5 years</t>
+  </si>
+  <si>
+    <t>18 kg</t>
+  </si>
+  <si>
+    <t>7 years</t>
+  </si>
+  <si>
+    <t>23 kg</t>
+  </si>
+  <si>
+    <t>10 years</t>
+  </si>
+  <si>
+    <t>30 kg</t>
+  </si>
+  <si>
+    <t>40 kg</t>
+  </si>
+  <si>
+    <t>14 years</t>
+  </si>
+  <si>
+    <t>45 kg</t>
+  </si>
+  <si>
+    <t>16 years</t>
+  </si>
+  <si>
+    <t>58 kg</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>65 kg</t>
+  </si>
+  <si>
+    <t>8 months</t>
+  </si>
+  <si>
+    <t>8.5 kg</t>
+  </si>
+  <si>
+    <t>4.5 kg</t>
+  </si>
+  <si>
+    <t>Nalid</t>
+  </si>
+  <si>
+    <t>Blood equivalent = 20 ml/kg
+Transfusion of blood (4.2 ml x wt in kg) = increase of Hb%
+                                                                                   1  gm/dl
+Transfusion of 1 unit of plasma = 10% increase of platelet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inj. Zovirux(250mg/10ml),
+Tab. Virux (200 mg, 100mg),
+Syp. Virux (200 mg/ 5 ml)
+1 tsf = 200 mg
+</t>
+  </si>
+  <si>
+    <t>200 mg/kg/day
+12 hourly
+6 hourly if &gt; 28 days</t>
+  </si>
+  <si>
+    <t>Neonate: 
+100 -200mg/kg/day - 12 hourly
+Children: 400mg/kg/day</t>
+  </si>
+  <si>
+    <t>Inj. Ampexin, pen A, amicillin,
+(500mg/5ml)</t>
+  </si>
+  <si>
+    <t>Amoxicillin</t>
+  </si>
+  <si>
+    <t>Paediatric drop-
+125mg/125ml
+Syp. 125Mg/5ml;
+250mg/5ml</t>
+  </si>
+  <si>
+    <t>Amoxicillin +
+Clavulanic acid</t>
+  </si>
+  <si>
+    <t>Cap. Doxycap
+(100 mg)</t>
+  </si>
+  <si>
+    <t>Inj. Phylopen,
+Flupen, flux,Fluclox
+(250, 500 mg, 1gm)
+Syp. 125 mg/5ml</t>
+  </si>
+  <si>
+    <t>Cap. 500mg</t>
+  </si>
+  <si>
+    <t>Syp. 125 mg/5 ml</t>
+  </si>
+  <si>
+    <t>Inj. 80 mg/2 ml</t>
+  </si>
+  <si>
+    <t>20 - 30
+mg/kg/day,
+8 hourly, 
+oral</t>
+  </si>
+  <si>
+    <t>15 mg/kg/day, 6 hourly, I/V dilute with
+100 ml N/S &amp; give within half an hour, cant be given with gentamycin</t>
+  </si>
+  <si>
+    <t>Tab. 125mg,
+         250mg, 
+         500mg</t>
+  </si>
+  <si>
+    <t>Cap. 200 mg,
+        400 mg</t>
+  </si>
+  <si>
+    <t>Cap. 250 mg,
+         500 mg</t>
+  </si>
+  <si>
+    <t>Tab. 250 mg,
+         500 mg</t>
+  </si>
+  <si>
+    <t>Tab. 375 mg,
+         625 mg</t>
+  </si>
+  <si>
+    <t>Tab. 200 mg,
+         400 mg</t>
+  </si>
+  <si>
+    <t>Tab. 125 mg,
+         250 mg</t>
+  </si>
+  <si>
+    <t>Cap. 125 mg,
+         250 mg</t>
+  </si>
+  <si>
+    <t>Tab. 25 mg,
+         50 mg,
+        100 mg</t>
+  </si>
+  <si>
+    <t>Tab. 2 mg,
+        4 mg</t>
+  </si>
+  <si>
+    <t>Tab. 10 mg,
+         25 mg</t>
+  </si>
+  <si>
+    <t>Tab. 5 mg,
+       10 mg,
+       20 mg</t>
+  </si>
+  <si>
     <t>Tab. 75 mg,
-300 mg</t>
-  </si>
-  <si>
-    <t>Mannitol</t>
-  </si>
-  <si>
-    <t>5 - 7.5 ml/kg/day within half hour</t>
-  </si>
-  <si>
-    <t>Ranitidine</t>
-  </si>
-  <si>
-    <t>2 - 4 mg/kg/day, 12 hourly</t>
-  </si>
-  <si>
-    <t>Tab. 150 mg</t>
-  </si>
-  <si>
-    <t>Syp. 1tsf = 75 mg,
-Inj. 50mg/2ml</t>
-  </si>
-  <si>
-    <t>Omeprazole</t>
-  </si>
-  <si>
-    <t>0.6 - 0.7 mg/kg/day, 12 - 24 hourly</t>
+       300 mg</t>
   </si>
   <si>
     <t>Cap. 20 mg,
-40 mg</t>
-  </si>
-  <si>
-    <t>Digoxin</t>
-  </si>
-  <si>
-    <t>Children &lt;2 years: 0.04mg/kg/dose
+         40 mg</t>
+  </si>
+  <si>
+    <t>Tab. 10 mg,
+         40 mg</t>
+  </si>
+  <si>
+    <t>Tab. 25 mg,
+         50 mg,
+       100 mg</t>
+  </si>
+  <si>
+    <t>Tab. 5 mg,
+       10 mg</t>
+  </si>
+  <si>
+    <t>Cap. 100 mg,
+         200 mg</t>
+  </si>
+  <si>
+    <t>Pronapen 4 - 8
+lac/vial</t>
+  </si>
+  <si>
+    <t>Benzapen 6 - 12
+lac/vial</t>
+  </si>
+  <si>
+    <t>600000 - 1200000 unit, deep I/M, single dose</t>
+  </si>
+  <si>
+    <t>Syp, Pedi Drop
+15 ml,
+100 mg/ ml</t>
+  </si>
+  <si>
+    <t>Neomycin</t>
+  </si>
+  <si>
+    <t>15 - 20 mg/kg/day, 12 hourly, oral</t>
+  </si>
+  <si>
+    <t>6 - 12 mg/kg/day, daily, oral</t>
+  </si>
+  <si>
+    <t>Cap. 50 mg,
+       150 mg</t>
+  </si>
+  <si>
+    <t>Micoral gel, fungidal 2% 
+cream</t>
+  </si>
+  <si>
+    <t>Inj. Barbit (200 mg/ml) + 9 ml DW
+= barbit (200 mg/10ml), then I/V slowly</t>
+  </si>
+  <si>
+    <t>Tab. 20 mg,
+         60 mg</t>
+  </si>
+  <si>
+    <t>0.01 mg - 0.03 mg/kg/day, 8 - 12 hourly, oral
+Increase by 0.5 mg/day for 3 - 5 days (maximum
+0.3 mg/kg/day)</t>
+  </si>
+  <si>
+    <t>0.2 - 0.4 mg/kg/day
+Nebulisation dose: 0.3 ml/kg/dose
+Sultolin 0.3 ml + N/S 2.7 ml ----give 8 hourly</t>
+  </si>
+  <si>
+    <r>
+      <t>1 - 2 mg/kg/day, 6 - 12 hourly
+Nephrotic syndrome: 60 mg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, for 6 weeks
+Then, 40 mg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, every alternate day,
+for 6 weeks [single morning dose]</t>
+    </r>
+  </si>
+  <si>
+    <t>Indication: Frequent relapse of Nephrotic Syndrome
+Steroid resistant nephrotic syndrome
+Steroid dependent nephrotic syndrome
+3 mg/kg/day as a single dose for 12 weeks
+Alternatively prednisolone therapy
+(0.5 mg/kg/day) for 1 year</t>
+  </si>
+  <si>
+    <t>10 - 20 mg/kg/day, 8 - 12 hourly, oral. 
+Under 5 years not recommended</t>
+  </si>
+  <si>
+    <t>Tab. 200 mg
+         400 mg</t>
+  </si>
+  <si>
+    <t>Syp. 1 tsf = 75 mg,
+Inj. 50 mg/2 ml</t>
+  </si>
+  <si>
+    <t>Children &lt;2 years: 0.04 mg/kg/dose
 Children &gt;2 years: 0.04 - 0.06 mg/kg/dose
 Preterm newborn: 0.02 mg/kg/dose
 Fullterm newborn: 0.03 mg/kg/dose</t>
   </si>
   <si>
-    <t>Tab. 0.25 mg</t>
-  </si>
-  <si>
-    <t>Inj. 0.5 mg/2 ml</t>
-  </si>
-  <si>
-    <t>Zinc sulfate</t>
-  </si>
-  <si>
-    <t>2 - 3 mg/kg/day
-Wt &lt; 10 kg, &lt; 6 month, 1/2 tsf, 12 hourly</t>
-  </si>
-  <si>
-    <t>1 tsf = 10 mg</t>
-  </si>
-  <si>
-    <t>Potassium
-chloride</t>
-  </si>
-  <si>
-    <t>4 - 8 mmol/kg/day, 8 hourly
-Wt &lt; 10 kg, &lt; 6 month, 1/2 tsf, 12 hourly
-wt &gt; 10 kg, &gt; 6 month, 1 tsf, 12 hourly</t>
-  </si>
-  <si>
-    <t>1 tsf = 10 mmol</t>
-  </si>
-  <si>
-    <t>Mebendazole</t>
-  </si>
-  <si>
-    <t>100 mg, 12 hourly</t>
-  </si>
-  <si>
-    <t>1 tsf = 100 mg</t>
-  </si>
-  <si>
-    <t>Pyrental pamoate</t>
-  </si>
-  <si>
-    <t>10 mg/kg/day, single dose</t>
-  </si>
-  <si>
-    <t>200 mg/tsf</t>
-  </si>
-  <si>
-    <t>Albendazole</t>
-  </si>
-  <si>
-    <t>1 - 2 year, 200 mg/day
-2 - 4 year, 400 mg/day</t>
-  </si>
-  <si>
-    <t>Spironolactone</t>
-  </si>
-  <si>
-    <t>Folic acid</t>
-  </si>
-  <si>
-    <t>0.2 mg/kg/day</t>
-  </si>
-  <si>
-    <t>Tab. 5mg</t>
-  </si>
-  <si>
-    <t>5 mg/tsf</t>
-  </si>
-  <si>
-    <t>Calcium gluconate</t>
-  </si>
-  <si>
-    <t>1 - 2 ml/kg/dose, I/V, repeate………..</t>
-  </si>
-  <si>
-    <t>Inj. 5ml/amp</t>
-  </si>
-  <si>
-    <t>Calcium salt</t>
-  </si>
-  <si>
-    <t>6 months: 400 mg/day
-6 months - 1 year: 600 mg/day
-1 year - 5 year: 800 mg/day</t>
-  </si>
-  <si>
-    <t>Vitamin A</t>
-  </si>
-  <si>
-    <t>&lt; 6 months: 1 cap, 6 months - 1 year 2 cap,
-&gt; 1 year: 4 cap; xerophthalmia, 
-Rx on D1, D2, D14</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Prophylaxis: 1 - 2 mg/kg/day
-Deficiency: 3 - 6 mg/kg/day</t>
-  </si>
-  <si>
-    <t>Vitamin B1</t>
-  </si>
-  <si>
-    <t>0.2 - 1 mg/kg/day, 12 hourly, oral or I/M</t>
-  </si>
-  <si>
-    <t>100 mg/ml/amp</t>
-  </si>
-  <si>
-    <t>Vitamin B2</t>
-  </si>
-  <si>
-    <t>2.5 - 10 mg/kg/day, 8 - 12 hourly</t>
-  </si>
-  <si>
-    <t>Vitamin B6</t>
-  </si>
-  <si>
-    <t>Deficiency: 5 - 15 mg/kg/day, oral 3 - 5 weeks, then 2.5 mg/day,
-Drug induced neuritis: 1 mg/kg/day</t>
-  </si>
-  <si>
-    <t>Tab. 20 mg</t>
-  </si>
-  <si>
-    <t>Vitamin D</t>
-  </si>
-  <si>
-    <t>3 - 6 lac unit, I/M , stat</t>
-  </si>
-  <si>
-    <t>Inj. 200000 IU</t>
-  </si>
-  <si>
-    <t>Vitamin C</t>
-  </si>
-  <si>
-    <t>100 - 300 mg/day</t>
-  </si>
-  <si>
-    <t>Tab. 250 mg</t>
-  </si>
-  <si>
-    <t>Syp. 100 mg/5 ml</t>
-  </si>
-  <si>
-    <t>Magnesium
-sulfate</t>
-  </si>
-  <si>
-    <t>0.3 ml/kg/dose, I/M, daily, for 3 days
-Then, if PEM, on next day, 0.1 ml/kg/day</t>
-  </si>
-  <si>
-    <t>Ketotifen</t>
-  </si>
-  <si>
-    <t>6 month - 3years: 0.5 mg, 12 hourly
-&gt; 3 years: 1 mg, 12 hourly</t>
-  </si>
-  <si>
-    <t>Tab. 1 mg</t>
-  </si>
-  <si>
-    <t>1 mg/tsf</t>
-  </si>
-  <si>
-    <t>Promethzine</t>
-  </si>
-  <si>
-    <t>0.5 - 1 mg/kg/dose, I/M or oral, single
-dose or 8 - 12 hourly</t>
-  </si>
-  <si>
-    <t>Loratadine</t>
-  </si>
-  <si>
-    <t>Weight &lt; 30 kg, 5 mg/dose, daily
-Weight &gt; 30 kg, 10 mg/dose, daily
-&lt;2 year not recommended</t>
-  </si>
-  <si>
-    <t>Lactulose</t>
-  </si>
-  <si>
-    <t>0.5 mg/kg/day, 12 hourly</t>
-  </si>
-  <si>
-    <t>1tsf = 5ml = 3.35 gm</t>
-  </si>
-  <si>
-    <t>Propranolol</t>
-  </si>
-  <si>
-    <t>0.5 – 1 mg/kg/day</t>
-  </si>
-  <si>
-    <t>Tab. 10 mg,
-40 mg</t>
-  </si>
-  <si>
-    <t>Atenolol</t>
-  </si>
-  <si>
-    <t>0.8 – 1.5 mg/kg/day</t>
-  </si>
-  <si>
-    <t>Captopril</t>
-  </si>
-  <si>
-    <t>Neonate: 0.5 – 0.6 mg/kg/day, 8 hourly
-Children: 0.15 mg/kg/day, 8 hourly</t>
-  </si>
-  <si>
-    <t>Tab. 25 mg,
-50 mg</t>
-  </si>
-  <si>
-    <t>Enalapril</t>
-  </si>
-  <si>
-    <t>0.1 mg/kg/day, 12 – 24 hourly, can be increased to
-0.4 mg/kg/day</t>
-  </si>
-  <si>
-    <t>Tab. 5 mg,
-10 mg</t>
-  </si>
-  <si>
-    <t>Nifedipine</t>
-  </si>
-  <si>
-    <t>0.25 – 0.5 mg/kg/dose</t>
-  </si>
-  <si>
-    <t>amoxicillin</t>
-  </si>
-  <si>
-    <t>Cap. 250Mg,
- 500 mg</t>
-  </si>
-  <si>
-    <t>tab. 375Mg,
- 625 mg</t>
-  </si>
-  <si>
-    <t>Amoxicillin +
-Clavulinic acid</t>
-  </si>
-  <si>
-    <t>Paracetamol</t>
+    <t>5 mg/tsf,
+25 mg/amp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1594,6 +1718,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1615,16 +1746,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1740,6 +1868,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2022,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2034,148 +2174,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>60</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>80</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>100</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>120</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>140</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>150</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
@@ -2189,24 +2329,24 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2217,85 +2357,85 @@
       <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>32</v>
+      <c r="C22" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
-      <c r="A26" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" t="s">
         <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" t="s">
         <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+      <c r="A33" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2323,12 +2463,155 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView windowProtection="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="44"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F24"/>
+    <sheetView windowProtection="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2342,167 +2625,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+    <row r="5" spans="1:5" ht="44.25" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="23"/>
+      <c r="A6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="20"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="20"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="24" t="s">
-        <v>52</v>
+      <c r="A11" s="23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>381</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="25" t="s">
-        <v>65</v>
+      <c r="A21" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="25"/>
+      <c r="A22" s="24"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="41"/>
+      <c r="A23" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="40"/>
-      <c r="B24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>73</v>
+      <c r="A24" s="39"/>
+      <c r="B24" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="93" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="20"/>
+    <row r="25" spans="1:6" ht="117" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="F25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2528,242 +2811,244 @@
   <dimension ref="A1:AMK15"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F3"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="10" customWidth="1"/>
-    <col min="7" max="1025" width="10.140625" style="10"/>
+    <col min="1" max="1" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="9" customWidth="1"/>
+    <col min="7" max="1025" width="10.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="24"/>
+      <c r="A1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="23"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="36"/>
+      <c r="A2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="34.9" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="26"/>
+      <c r="B4" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="27"/>
+      <c r="A5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="54" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="45.95" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>85</v>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="36">
-      <c r="A8" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>88</v>
+      <c r="A8" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="23.65" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="13"/>
+    <row r="9" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="60">
-      <c r="A10" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>96</v>
+    <row r="10" spans="1:6" ht="52.5" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="182.25" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="24">
-      <c r="A13" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="28"/>
+      <c r="A13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="26"/>
+      <c r="A14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="27"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2796,273 +3081,272 @@
   <dimension ref="A1:AMK16"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F3"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14" style="10" customWidth="1"/>
-    <col min="7" max="1025" width="10.42578125" style="10"/>
+    <col min="1" max="1" width="13" style="9" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14" style="9" customWidth="1"/>
+    <col min="7" max="1025" width="10.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="24"/>
+      <c r="A1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="23"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="36"/>
+      <c r="A2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>73</v>
+      <c r="A3" s="34"/>
+      <c r="B3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34.9" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
-        <v>112</v>
+      <c r="A4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15" t="s">
-        <v>116</v>
+      <c r="A5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="59.25" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>122</v>
+      <c r="A6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45.95" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="28"/>
+      <c r="A7" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="24">
-      <c r="A8" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12" t="s">
-        <v>128</v>
+      <c r="A8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="61.5" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>132</v>
+    <row r="9" spans="1:6" ht="51" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>135</v>
+    <row r="10" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="72">
-      <c r="A11" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>139</v>
+    <row r="11" spans="1:6" ht="61.5" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>142</v>
+      <c r="A12" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="63" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="28"/>
+      <c r="A13" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="A14" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="24">
-      <c r="A15" s="11" t="s">
-        <v>148</v>
+      <c r="A15" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>150</v>
+      <c r="E15" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>154</v>
+      <c r="A16" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="B5:C5"/>
@@ -3086,320 +3370,320 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:D6"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="10"/>
-    <col min="6" max="6" width="16" style="10" customWidth="1"/>
-    <col min="7" max="1025" width="10.42578125" style="10"/>
+    <col min="1" max="1" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="9"/>
+    <col min="6" max="6" width="16" style="9" customWidth="1"/>
+    <col min="7" max="1025" width="10.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="24"/>
+      <c r="A1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="23"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="38"/>
+      <c r="A2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>73</v>
+      <c r="A3" s="34"/>
+      <c r="B3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34.9" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>158</v>
+      <c r="A4" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="12"/>
+      <c r="A5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="59.25" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>165</v>
+      <c r="A6" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.95" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>169</v>
+      <c r="A7" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>173</v>
+      <c r="A8" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12" t="s">
-        <v>176</v>
+      <c r="A9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11" t="s">
+        <v>415</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="36">
-      <c r="A10" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12" t="s">
-        <v>179</v>
+    <row r="10" spans="1:6" ht="24">
+      <c r="A10" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>182</v>
+      <c r="A11" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>187</v>
+    <row r="12" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>191</v>
+    <row r="13" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>191</v>
+      <c r="A14" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24">
-      <c r="A15" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="45" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="13"/>
+    <row r="16" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F17" s="13"/>
+      <c r="A17" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="24">
-      <c r="A18" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="13"/>
+      <c r="A18" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="24">
-      <c r="A19" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>207</v>
+      <c r="A19" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24">
-      <c r="A20" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="11"/>
+      <c r="A20" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3432,373 +3716,373 @@
   <dimension ref="A1:AMK25"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:F23"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13" style="10"/>
-    <col min="4" max="4" width="13.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12" style="10" customWidth="1"/>
-    <col min="7" max="1025" width="10.42578125" style="10"/>
+    <col min="1" max="1" width="13.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13" style="9"/>
+    <col min="4" max="4" width="13.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12" style="9" customWidth="1"/>
+    <col min="7" max="1025" width="10.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="24"/>
+      <c r="A1" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="23"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="38"/>
+      <c r="A2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>73</v>
+      <c r="A3" s="34"/>
+      <c r="B3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34.9" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>215</v>
+      <c r="A4" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>219</v>
+      <c r="A5" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>223</v>
+      <c r="A6" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45.95" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="13"/>
+    <row r="7" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="13"/>
+      <c r="A8" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A9" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="A9" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="36"/>
+      <c r="A10" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="35"/>
-      <c r="B11" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>73</v>
+      <c r="A11" s="34"/>
+      <c r="B11" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>235</v>
+      <c r="A12" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="28"/>
+      <c r="A13" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:6" ht="60" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>244</v>
+    <row r="15" spans="1:6" ht="52.5" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>248</v>
+    <row r="16" spans="1:6" ht="27" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>251</v>
+    <row r="17" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F18" s="13"/>
+      <c r="A18" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="A19" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="36"/>
+      <c r="A22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>73</v>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="96">
-      <c r="A24" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>259</v>
+      <c r="A24" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A25" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>262</v>
+      <c r="A25" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="E22:F22"/>
@@ -3824,6 +4108,7 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A9:F9"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:D2"/>
@@ -3840,310 +4125,310 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:F10"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="10" customWidth="1"/>
-    <col min="2" max="3" width="10" style="10"/>
-    <col min="4" max="4" width="13.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="10"/>
-    <col min="6" max="6" width="16.28515625" style="10" customWidth="1"/>
-    <col min="7" max="1025" width="10" style="10"/>
+    <col min="1" max="1" width="15.28515625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="10" style="9"/>
+    <col min="4" max="4" width="14.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="9"/>
+    <col min="6" max="6" width="16.28515625" style="9" customWidth="1"/>
+    <col min="7" max="1025" width="10" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="A1" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="36"/>
+      <c r="A2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>73</v>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48.75" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>267</v>
+      <c r="A4" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>270</v>
+      <c r="A5" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="A6" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="6" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="36"/>
+      <c r="A9" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>73</v>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>275</v>
+      <c r="A11" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="11" t="s">
-        <v>278</v>
+      <c r="A12" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="10" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>284</v>
+    <row r="14" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24">
-      <c r="A15" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="F15" s="13"/>
+      <c r="A15" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="13"/>
+      <c r="A16" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11" t="s">
-        <v>292</v>
+      <c r="A17" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12" t="s">
-        <v>295</v>
+      <c r="A18" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="A19" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>270</v>
+      <c r="A20" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60.75" customHeight="1">
-      <c r="A21" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="F21" s="13"/>
+      <c r="A21" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="87.75" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>307</v>
+      <c r="A22" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4181,33 +4466,33 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="10"/>
-    <col min="2" max="3" width="10" style="10"/>
-    <col min="4" max="4" width="15.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="10"/>
-    <col min="6" max="6" width="19.5703125" style="10"/>
-    <col min="7" max="1025" width="10" style="10"/>
+    <col min="1" max="1" width="18.28515625" style="9"/>
+    <col min="2" max="3" width="10" style="9"/>
+    <col min="4" max="4" width="15.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="9"/>
+    <col min="6" max="6" width="19.5703125" style="9"/>
+    <col min="7" max="1025" width="10" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="17.25" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="32"/>
+      <c r="A1" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="31"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -5228,21 +5513,21 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>73</v>
+      <c r="A2" s="30"/>
+      <c r="B2" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -6264,19 +6549,19 @@
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024" ht="37.5" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>310</v>
+      <c r="A3" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -7297,20 +7582,20 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" ht="37.5" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>314</v>
+    <row r="4" spans="1:1024" ht="27" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -8331,20 +8616,20 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" ht="32.25" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>318</v>
+    <row r="5" spans="1:1024" ht="26.25" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -9366,18 +9651,18 @@
       <c r="AMJ5"/>
     </row>
     <row r="6" spans="1:1024" ht="64.5" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="F6" s="13"/>
+      <c r="A6" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F6" s="12"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -10398,17 +10683,17 @@
       <c r="AMJ6"/>
     </row>
     <row r="7" spans="1:1024">
-      <c r="A7" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="11" t="s">
-        <v>73</v>
+      <c r="A7" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -11430,19 +11715,19 @@
       <c r="AMJ7"/>
     </row>
     <row r="8" spans="1:1024" ht="26.25" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>327</v>
+      <c r="A8" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>432</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -12464,18 +12749,18 @@
       <c r="AMJ8"/>
     </row>
     <row r="9" spans="1:1024" ht="24">
-      <c r="A9" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F9" s="13"/>
+      <c r="A9" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F9" s="12"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -13496,19 +13781,19 @@
       <c r="AMJ9"/>
     </row>
     <row r="10" spans="1:1024" ht="49.5" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>334</v>
+      <c r="A10" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -14530,17 +14815,17 @@
       <c r="AMJ10"/>
     </row>
     <row r="11" spans="1:1024" ht="26.25" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="11" t="s">
-        <v>337</v>
+      <c r="A11" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -15562,17 +15847,17 @@
       <c r="AMJ11"/>
     </row>
     <row r="12" spans="1:1024" ht="37.5" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="11" t="s">
-        <v>340</v>
+      <c r="A12" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -16594,19 +16879,19 @@
       <c r="AMJ12"/>
     </row>
     <row r="13" spans="1:1024" ht="15.75" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>343</v>
+      <c r="A13" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -17628,17 +17913,17 @@
       <c r="AMJ13"/>
     </row>
     <row r="14" spans="1:1024">
-      <c r="A14" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="11" t="s">
-        <v>346</v>
+      <c r="A14" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -18660,80 +18945,80 @@
       <c r="AMJ14"/>
     </row>
     <row r="15" spans="1:1024" ht="26.25" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:1024">
-      <c r="A16" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>353</v>
+      <c r="A17" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
-        <v>356</v>
+      <c r="A18" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+    <row r="19" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="39" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="A20" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -18769,33 +19054,33 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:D7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" style="10" customWidth="1"/>
-    <col min="2" max="3" width="10" style="10"/>
-    <col min="4" max="4" width="19.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="10" customWidth="1"/>
-    <col min="7" max="1025" width="10" style="10"/>
+    <col min="1" max="1" width="13" style="9" customWidth="1"/>
+    <col min="2" max="3" width="10" style="9"/>
+    <col min="4" max="4" width="19.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="9" customWidth="1"/>
+    <col min="7" max="1025" width="10" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="17.25" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="32"/>
+      <c r="A1" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="31"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -19816,21 +20101,21 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024">
-      <c r="A2" s="31"/>
-      <c r="B2" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>73</v>
+      <c r="A2" s="30"/>
+      <c r="B2" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -20852,16 +21137,16 @@
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024" ht="25.35" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -21882,19 +22167,19 @@
       <c r="AMJ3"/>
     </row>
     <row r="4" spans="1:1024" ht="17.25" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>365</v>
+      <c r="A4" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>315</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -22916,18 +23201,18 @@
       <c r="AMJ4"/>
     </row>
     <row r="5" spans="1:1024" ht="17.25" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" s="13"/>
+      <c r="A5" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -23947,19 +24232,19 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" ht="34.9" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="F6" s="13"/>
+    <row r="6" spans="1:1024" ht="39" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F6" s="12"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -24980,17 +25265,17 @@
       <c r="AMJ6"/>
     </row>
     <row r="7" spans="1:1024">
-      <c r="A7" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="11" t="s">
-        <v>373</v>
+      <c r="A7" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10" t="s">
+        <v>323</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -26012,19 +26297,19 @@
       <c r="AMJ7"/>
     </row>
     <row r="8" spans="1:1024" ht="20.25" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>377</v>
+      <c r="A8" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -27046,16 +27331,16 @@
       <c r="AMJ8"/>
     </row>
     <row r="9" spans="1:1024" ht="30" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -28076,19 +28361,19 @@
       <c r="AMJ9"/>
     </row>
     <row r="10" spans="1:1024" ht="25.35" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>383</v>
+      <c r="A10" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -29110,19 +29395,19 @@
       <c r="AMJ10"/>
     </row>
     <row r="11" spans="1:1024" ht="24.6" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="A11" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="11" t="s">
-        <v>258</v>
+        <v>407</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>353</v>
+        <v>434</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -30144,19 +30429,19 @@
       <c r="AMJ11"/>
     </row>
     <row r="12" spans="1:1024" ht="35.65" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>353</v>
+      <c r="A12" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>303</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -31178,17 +31463,17 @@
       <c r="AMJ12"/>
     </row>
     <row r="13" spans="1:1024" ht="18.95" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="11" t="s">
-        <v>390</v>
+      <c r="A13" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -32211,17 +32496,17 @@
     </row>
     <row r="14" spans="1:1024" ht="24.75" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="F14" s="13"/>
+        <v>341</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="F14" s="12"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -33242,60 +33527,60 @@
       <c r="AMJ14"/>
     </row>
     <row r="15" spans="1:1024" ht="35.65" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F15" s="11"/>
+      <c r="A15" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:1024" ht="23.65" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="F16" s="11"/>
+      <c r="A16" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="23.65" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="F17" s="11"/>
+      <c r="A17" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F18" s="11"/>
+      <c r="A18" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="46.5" customHeight="1"/>
     <row r="20" spans="1:6" ht="48.75" customHeight="1"/>

--- a/PaediatricDosage.xlsx
+++ b/PaediatricDosage.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1792,17 +1792,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1813,23 +1844,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1838,47 +1878,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2162,7 +2162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -2174,148 +2174,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="28">
         <v>60</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="28">
         <v>80</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="28">
         <v>100</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="28">
         <v>120</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="28">
         <v>140</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="28">
         <v>150</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="25"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
@@ -2329,7 +2329,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2381,21 +2381,21 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
@@ -2431,14 +2431,24 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="A26:C28"/>
     <mergeCell ref="A33:C33"/>
@@ -2447,16 +2457,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -2467,24 +2467,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2625,60 +2626,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="33"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="19"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="34" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="23"/>
+      <c r="A12" s="34"/>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
@@ -2734,42 +2735,42 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="24"/>
+      <c r="A22" s="29"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="40"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="39"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2777,29 +2778,29 @@
       <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:C5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -2827,42 +2828,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="34"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="35"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="34"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2873,44 +2874,44 @@
       <c r="B4" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="36" t="s">
         <v>385</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="37"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2918,11 +2919,11 @@
       <c r="A7" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="11" t="s">
         <v>399</v>
       </c>
@@ -2952,11 +2953,11 @@
       <c r="A9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="11" t="s">
         <v>390</v>
       </c>
@@ -2984,11 +2985,11 @@
       <c r="A11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="12" t="s">
         <v>392</v>
       </c>
@@ -3023,35 +3024,45 @@
         <v>89</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="39.75" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="10"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B7:D7"/>
@@ -3060,16 +3071,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -3097,44 +3098,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="34"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="35"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="34"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3145,10 +3146,10 @@
       <c r="B4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
         <v>97</v>
@@ -3158,10 +3159,10 @@
       <c r="A5" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="14" t="s">
         <v>100</v>
       </c>
@@ -3194,15 +3195,15 @@
       <c r="A7" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:6" ht="24">
       <c r="A8" s="11" t="s">
@@ -3222,11 +3223,11 @@
       <c r="A9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="11" t="s">
         <v>398</v>
       </c>
@@ -3238,11 +3239,11 @@
       <c r="A10" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="11" t="s">
         <v>399</v>
       </c>
@@ -3254,11 +3255,11 @@
       <c r="A11" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="11" t="s">
         <v>400</v>
       </c>
@@ -3270,11 +3271,11 @@
       <c r="A12" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="11" t="s">
         <v>400</v>
       </c>
@@ -3286,13 +3287,13 @@
       <c r="A13" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3300,23 +3301,23 @@
       <c r="A14" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" ht="24">
       <c r="A15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="14" t="s">
         <v>400</v>
       </c>
@@ -3328,11 +3329,11 @@
       <c r="A16" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="10" t="s">
         <v>133</v>
       </c>
@@ -3342,23 +3343,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -3386,44 +3387,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="34"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="34"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3431,11 +3432,11 @@
       <c r="A4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="11" t="s">
         <v>402</v>
       </c>
@@ -3447,11 +3448,11 @@
       <c r="A5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="10" t="s">
         <v>140</v>
       </c>
@@ -3461,11 +3462,11 @@
       <c r="A6" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="11" t="s">
         <v>414</v>
       </c>
@@ -3477,11 +3478,11 @@
       <c r="A7" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="15" t="s">
         <v>146</v>
       </c>
@@ -3493,11 +3494,11 @@
       <c r="A8" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="11" t="s">
         <v>403</v>
       </c>
@@ -3509,11 +3510,11 @@
       <c r="A9" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="12"/>
       <c r="F9" s="11" t="s">
         <v>415</v>
@@ -3523,11 +3524,11 @@
       <c r="A10" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="12"/>
       <c r="F10" s="11" t="s">
         <v>416</v>
@@ -3537,11 +3538,11 @@
       <c r="A11" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="11" t="s">
         <v>400</v>
       </c>
@@ -3571,11 +3572,11 @@
       <c r="A13" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="10" t="s">
         <v>163</v>
       </c>
@@ -3587,11 +3588,11 @@
       <c r="A14" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="11" t="s">
         <v>399</v>
       </c>
@@ -3631,11 +3632,11 @@
       <c r="A17" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="10" t="s">
         <v>174</v>
       </c>
@@ -3645,11 +3646,11 @@
       <c r="A18" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="38" t="s">
         <v>420</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="11" t="s">
         <v>402</v>
       </c>
@@ -3659,11 +3660,11 @@
       <c r="A19" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="11" t="s">
         <v>402</v>
       </c>
@@ -3675,11 +3676,11 @@
       <c r="A20" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="11" t="s">
         <v>399</v>
       </c>
@@ -3687,6 +3688,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
@@ -3695,16 +3706,6 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -3732,44 +3733,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="34"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="34"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3780,10 +3781,10 @@
       <c r="B4" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="10" t="s">
         <v>185</v>
       </c>
@@ -3795,11 +3796,11 @@
       <c r="A5" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="11" t="s">
         <v>422</v>
       </c>
@@ -3811,11 +3812,11 @@
       <c r="A6" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="10" t="s">
         <v>191</v>
       </c>
@@ -3827,67 +3828,67 @@
       <c r="A7" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="46" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="F7" s="46"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="10" t="s">
         <v>133</v>
       </c>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="34"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="36" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3895,11 +3896,11 @@
       <c r="A12" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="10" t="s">
         <v>202</v>
       </c>
@@ -3908,30 +3909,30 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="38" t="s">
         <v>204</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" ht="52.5" customHeight="1">
       <c r="A15" s="10" t="s">
@@ -3940,10 +3941,10 @@
       <c r="B15" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="10" t="s">
         <v>174</v>
       </c>
@@ -3955,11 +3956,11 @@
       <c r="A16" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="11" t="s">
         <v>191</v>
       </c>
@@ -3971,11 +3972,11 @@
       <c r="A17" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="10" t="s">
         <v>191</v>
       </c>
@@ -3987,65 +3988,65 @@
       <c r="A18" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="11" t="s">
         <v>218</v>
       </c>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="35"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4053,11 +4054,11 @@
       <c r="A24" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="10" t="s">
         <v>222</v>
       </c>
@@ -4069,11 +4070,11 @@
       <c r="A25" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="10" t="s">
         <v>202</v>
       </c>
@@ -4083,37 +4084,37 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A19:F21"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A19:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -4140,38 +4141,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="35"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4179,11 +4180,11 @@
       <c r="A4" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="11" t="s">
         <v>405</v>
       </c>
@@ -4195,11 +4196,11 @@
       <c r="A5" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="10" t="s">
         <v>202</v>
       </c>
@@ -4208,54 +4209,54 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="6" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4263,11 +4264,11 @@
       <c r="A11" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="10" t="s">
         <v>237</v>
       </c>
@@ -4279,11 +4280,11 @@
       <c r="A12" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="12"/>
       <c r="F12" s="10" t="s">
         <v>241</v>
@@ -4293,11 +4294,11 @@
       <c r="A13" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
@@ -4305,11 +4306,11 @@
       <c r="A14" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="11" t="s">
         <v>406</v>
       </c>
@@ -4321,11 +4322,11 @@
       <c r="A15" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="11" t="s">
         <v>407</v>
       </c>
@@ -4335,11 +4336,11 @@
       <c r="A16" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="10" t="s">
         <v>174</v>
       </c>
@@ -4349,11 +4350,11 @@
       <c r="A17" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="12"/>
       <c r="F17" s="10" t="s">
         <v>252</v>
@@ -4363,11 +4364,11 @@
       <c r="A18" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="12"/>
       <c r="F18" s="11" t="s">
         <v>255</v>
@@ -4377,11 +4378,11 @@
       <c r="A19" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
@@ -4389,11 +4390,11 @@
       <c r="A20" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="10" t="s">
         <v>260</v>
       </c>
@@ -4405,11 +4406,11 @@
       <c r="A21" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="11" t="s">
         <v>408</v>
       </c>
@@ -4419,11 +4420,11 @@
       <c r="A22" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="10" t="s">
         <v>263</v>
       </c>
@@ -4433,6 +4434,21 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A6:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B16:D16"/>
@@ -4440,21 +4456,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A6:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -4481,18 +4482,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="17.25" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="31"/>
+      <c r="F1" s="45"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -5513,20 +5514,20 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024">
-      <c r="A2" s="30"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="17" t="s">
         <v>66</v>
       </c>
       <c r="G2"/>
@@ -6552,11 +6553,11 @@
       <c r="A3" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="11" t="s">
         <v>266</v>
       </c>
@@ -7586,11 +7587,11 @@
       <c r="A4" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="11" t="s">
         <v>400</v>
       </c>
@@ -8620,11 +8621,11 @@
       <c r="A5" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="11" t="s">
         <v>431</v>
       </c>
@@ -9654,11 +9655,11 @@
       <c r="A6" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="11" t="s">
         <v>409</v>
       </c>
@@ -10686,11 +10687,11 @@
       <c r="A7" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="12"/>
       <c r="F7" s="10" t="s">
         <v>66</v>
@@ -11718,11 +11719,11 @@
       <c r="A8" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="10" t="s">
         <v>279</v>
       </c>
@@ -12752,11 +12753,11 @@
       <c r="A9" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="11" t="s">
         <v>410</v>
       </c>
@@ -13784,11 +13785,11 @@
       <c r="A10" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="36" t="s">
         <v>433</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="10" t="s">
         <v>283</v>
       </c>
@@ -14818,11 +14819,11 @@
       <c r="A11" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="12"/>
       <c r="F11" s="10" t="s">
         <v>287</v>
@@ -15850,11 +15851,11 @@
       <c r="A12" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="12"/>
       <c r="F12" s="10" t="s">
         <v>290</v>
@@ -16882,11 +16883,11 @@
       <c r="A13" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="10" t="s">
         <v>174</v>
       </c>
@@ -17916,11 +17917,11 @@
       <c r="A14" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="12"/>
       <c r="F14" s="10" t="s">
         <v>296</v>
@@ -18948,11 +18949,11 @@
       <c r="A15" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
@@ -18960,9 +18961,9 @@
       <c r="A16" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
@@ -18970,11 +18971,11 @@
       <c r="A17" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="10" t="s">
         <v>302</v>
       </c>
@@ -18986,11 +18987,11 @@
       <c r="A18" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
         <v>306</v>
@@ -19000,11 +19001,11 @@
       <c r="A19" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
@@ -19012,37 +19013,37 @@
       <c r="A20" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -19069,18 +19070,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="17.25" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="31"/>
+      <c r="F1" s="45"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -20101,20 +20102,20 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024">
-      <c r="A2" s="30"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="17" t="s">
         <v>66</v>
       </c>
       <c r="G2"/>
@@ -21140,11 +21141,11 @@
       <c r="A3" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3"/>
@@ -22170,11 +22171,11 @@
       <c r="A4" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="11" t="s">
         <v>174</v>
       </c>
@@ -23204,11 +23205,11 @@
       <c r="A5" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="11" t="s">
         <v>202</v>
       </c>
@@ -24236,11 +24237,11 @@
       <c r="A6" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="11" t="s">
         <v>320</v>
       </c>
@@ -25268,11 +25269,11 @@
       <c r="A7" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="12"/>
       <c r="F7" s="10" t="s">
         <v>323</v>
@@ -26300,11 +26301,11 @@
       <c r="A8" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="10" t="s">
         <v>326</v>
       </c>
@@ -27334,11 +27335,11 @@
       <c r="A9" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9"/>
@@ -28364,11 +28365,11 @@
       <c r="A10" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="10" t="s">
         <v>332</v>
       </c>
@@ -29398,11 +29399,11 @@
       <c r="A11" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="11" t="s">
         <v>407</v>
       </c>
@@ -30432,11 +30433,11 @@
       <c r="A12" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="10" t="s">
         <v>222</v>
       </c>
@@ -31466,11 +31467,11 @@
       <c r="A13" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="12"/>
       <c r="F13" s="10" t="s">
         <v>340</v>
@@ -32498,11 +32499,11 @@
       <c r="A14" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="16" t="s">
         <v>411</v>
       </c>
@@ -33530,11 +33531,11 @@
       <c r="A15" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="11" t="s">
         <v>412</v>
       </c>
@@ -33544,11 +33545,11 @@
       <c r="A16" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="11" t="s">
         <v>347</v>
       </c>
@@ -33558,11 +33559,11 @@
       <c r="A17" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="11" t="s">
         <v>413</v>
       </c>
@@ -33572,11 +33573,11 @@
       <c r="A18" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="10" t="s">
         <v>222</v>
       </c>
@@ -33586,6 +33587,16 @@
     <row r="20" spans="1:6" ht="48.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
@@ -33595,16 +33606,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/PaediatricDosage.xlsx
+++ b/PaediatricDosage.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1818,13 +1818,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1835,35 +1844,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2162,7 +2162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -2189,123 +2189,123 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>60</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>80</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>100</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>120</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>140</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>150</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="25" t="s">
@@ -2381,21 +2381,21 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
@@ -2431,24 +2431,14 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="A26:C28"/>
     <mergeCell ref="A33:C33"/>
@@ -2457,7 +2447,18 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2467,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView windowProtection="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2603,7 +2604,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2626,60 +2629,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="26"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="34"/>
+      <c r="A12" s="31"/>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
@@ -2735,29 +2738,29 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="29"/>
+      <c r="A22" s="32"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="30"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="21" t="s">
         <v>62</v>
       </c>
@@ -2778,30 +2781,31 @@
       <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:C5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2828,38 +2832,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="31"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="41"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="19" t="s">
         <v>65</v>
       </c>
@@ -2874,31 +2878,31 @@
       <c r="B4" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="39"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
@@ -2919,11 +2923,11 @@
       <c r="A7" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="11" t="s">
         <v>399</v>
       </c>
@@ -2953,11 +2957,11 @@
       <c r="A9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="11" t="s">
         <v>390</v>
       </c>
@@ -2985,11 +2989,11 @@
       <c r="A11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="12" t="s">
         <v>392</v>
       </c>
@@ -3024,45 +3028,35 @@
         <v>89</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6" ht="39.75" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="10"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B7:D7"/>
@@ -3071,7 +3065,18 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3098,31 +3103,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="31"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="41"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
@@ -3146,10 +3151,10 @@
       <c r="B4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
         <v>97</v>
@@ -3159,10 +3164,10 @@
       <c r="A5" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="14" t="s">
         <v>100</v>
       </c>
@@ -3195,15 +3200,15 @@
       <c r="A7" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="38" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:6" ht="24">
       <c r="A8" s="11" t="s">
@@ -3223,11 +3228,11 @@
       <c r="A9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="11" t="s">
         <v>398</v>
       </c>
@@ -3239,11 +3244,11 @@
       <c r="A10" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="11" t="s">
         <v>399</v>
       </c>
@@ -3255,11 +3260,11 @@
       <c r="A11" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="11" t="s">
         <v>400</v>
       </c>
@@ -3271,11 +3276,11 @@
       <c r="A12" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="11" t="s">
         <v>400</v>
       </c>
@@ -3287,11 +3292,11 @@
       <c r="A13" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24" t="s">
         <v>126</v>
@@ -3301,23 +3306,23 @@
       <c r="A14" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" ht="24">
       <c r="A15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="14" t="s">
         <v>400</v>
       </c>
@@ -3329,11 +3334,11 @@
       <c r="A16" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="10" t="s">
         <v>133</v>
       </c>
@@ -3343,24 +3348,25 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3387,31 +3393,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="31"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="41"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
@@ -3432,11 +3438,11 @@
       <c r="A4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="11" t="s">
         <v>402</v>
       </c>
@@ -3448,11 +3454,11 @@
       <c r="A5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="10" t="s">
         <v>140</v>
       </c>
@@ -3462,11 +3468,11 @@
       <c r="A6" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="11" t="s">
         <v>414</v>
       </c>
@@ -3478,11 +3484,11 @@
       <c r="A7" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="15" t="s">
         <v>146</v>
       </c>
@@ -3494,11 +3500,11 @@
       <c r="A8" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="11" t="s">
         <v>403</v>
       </c>
@@ -3510,11 +3516,11 @@
       <c r="A9" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="12"/>
       <c r="F9" s="11" t="s">
         <v>415</v>
@@ -3524,11 +3530,11 @@
       <c r="A10" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="12"/>
       <c r="F10" s="11" t="s">
         <v>416</v>
@@ -3538,11 +3544,11 @@
       <c r="A11" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="11" t="s">
         <v>400</v>
       </c>
@@ -3572,11 +3578,11 @@
       <c r="A13" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="10" t="s">
         <v>163</v>
       </c>
@@ -3588,11 +3594,11 @@
       <c r="A14" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="11" t="s">
         <v>399</v>
       </c>
@@ -3632,11 +3638,11 @@
       <c r="A17" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="10" t="s">
         <v>174</v>
       </c>
@@ -3646,11 +3652,11 @@
       <c r="A18" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="11" t="s">
         <v>402</v>
       </c>
@@ -3660,11 +3666,11 @@
       <c r="A19" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="11" t="s">
         <v>402</v>
       </c>
@@ -3676,11 +3682,11 @@
       <c r="A20" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="11" t="s">
         <v>399</v>
       </c>
@@ -3688,16 +3694,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
@@ -3706,7 +3702,18 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3733,31 +3740,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="31"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="41"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
@@ -3781,10 +3788,10 @@
       <c r="B4" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="10" t="s">
         <v>185</v>
       </c>
@@ -3796,11 +3803,11 @@
       <c r="A5" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="11" t="s">
         <v>422</v>
       </c>
@@ -3812,11 +3819,11 @@
       <c r="A6" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="10" t="s">
         <v>191</v>
       </c>
@@ -3828,11 +3835,11 @@
       <c r="A7" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="43" t="s">
         <v>423</v>
       </c>
@@ -3842,11 +3849,11 @@
       <c r="A8" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>133</v>
       </c>
@@ -3863,28 +3870,28 @@
       <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="41"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="19" t="s">
         <v>65</v>
       </c>
@@ -3896,11 +3903,11 @@
       <c r="A12" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="10" t="s">
         <v>202</v>
       </c>
@@ -3909,30 +3916,30 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="41" t="s">
         <v>204</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="36" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="38" t="s">
         <v>425</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="38" t="s">
         <v>424</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" ht="52.5" customHeight="1">
       <c r="A15" s="10" t="s">
@@ -3941,10 +3948,10 @@
       <c r="B15" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="10" t="s">
         <v>174</v>
       </c>
@@ -3956,11 +3963,11 @@
       <c r="A16" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="11" t="s">
         <v>191</v>
       </c>
@@ -3972,11 +3979,11 @@
       <c r="A17" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="10" t="s">
         <v>191</v>
       </c>
@@ -3988,11 +3995,11 @@
       <c r="A18" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="38" t="s">
         <v>426</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="11" t="s">
         <v>218</v>
       </c>
@@ -4025,24 +4032,24 @@
       <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="40"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="41"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="19" t="s">
         <v>65</v>
       </c>
@@ -4054,11 +4061,11 @@
       <c r="A24" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="10" t="s">
         <v>222</v>
       </c>
@@ -4070,11 +4077,11 @@
       <c r="A25" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="10" t="s">
         <v>202</v>
       </c>
@@ -4084,38 +4091,39 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A19:F21"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A19:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4141,34 +4149,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="41"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="19" t="s">
         <v>65</v>
       </c>
@@ -4180,11 +4188,11 @@
       <c r="A4" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="11" t="s">
         <v>405</v>
       </c>
@@ -4196,11 +4204,11 @@
       <c r="A5" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="10" t="s">
         <v>202</v>
       </c>
@@ -4235,24 +4243,24 @@
       <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="40"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="41"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="19" t="s">
         <v>65</v>
       </c>
@@ -4264,11 +4272,11 @@
       <c r="A11" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="10" t="s">
         <v>237</v>
       </c>
@@ -4280,11 +4288,11 @@
       <c r="A12" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="12"/>
       <c r="F12" s="10" t="s">
         <v>241</v>
@@ -4294,11 +4302,11 @@
       <c r="A13" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
@@ -4306,11 +4314,11 @@
       <c r="A14" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="11" t="s">
         <v>406</v>
       </c>
@@ -4322,11 +4330,11 @@
       <c r="A15" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="11" t="s">
         <v>407</v>
       </c>
@@ -4336,11 +4344,11 @@
       <c r="A16" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="10" t="s">
         <v>174</v>
       </c>
@@ -4350,11 +4358,11 @@
       <c r="A17" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="12"/>
       <c r="F17" s="10" t="s">
         <v>252</v>
@@ -4364,11 +4372,11 @@
       <c r="A18" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="12"/>
       <c r="F18" s="11" t="s">
         <v>255</v>
@@ -4378,11 +4386,11 @@
       <c r="A19" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
@@ -4390,11 +4398,11 @@
       <c r="A20" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="10" t="s">
         <v>260</v>
       </c>
@@ -4406,11 +4414,11 @@
       <c r="A21" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="11" t="s">
         <v>408</v>
       </c>
@@ -4420,11 +4428,11 @@
       <c r="A22" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="10" t="s">
         <v>263</v>
       </c>
@@ -4434,21 +4442,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A6:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B16:D16"/>
@@ -4456,7 +4449,23 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A6:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4467,8 +4476,8 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6553,11 +6562,11 @@
       <c r="A3" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="11" t="s">
         <v>266</v>
       </c>
@@ -7587,11 +7596,11 @@
       <c r="A4" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="11" t="s">
         <v>400</v>
       </c>
@@ -8621,11 +8630,11 @@
       <c r="A5" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="11" t="s">
         <v>431</v>
       </c>
@@ -9655,11 +9664,11 @@
       <c r="A6" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="11" t="s">
         <v>409</v>
       </c>
@@ -10687,11 +10696,11 @@
       <c r="A7" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="12"/>
       <c r="F7" s="10" t="s">
         <v>66</v>
@@ -11719,11 +11728,11 @@
       <c r="A8" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>279</v>
       </c>
@@ -12753,11 +12762,11 @@
       <c r="A9" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="11" t="s">
         <v>410</v>
       </c>
@@ -13785,11 +13794,11 @@
       <c r="A10" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="10" t="s">
         <v>283</v>
       </c>
@@ -14819,11 +14828,11 @@
       <c r="A11" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="12"/>
       <c r="F11" s="10" t="s">
         <v>287</v>
@@ -15851,11 +15860,11 @@
       <c r="A12" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="12"/>
       <c r="F12" s="10" t="s">
         <v>290</v>
@@ -16883,11 +16892,11 @@
       <c r="A13" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="10" t="s">
         <v>174</v>
       </c>
@@ -17917,11 +17926,11 @@
       <c r="A14" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="12"/>
       <c r="F14" s="10" t="s">
         <v>296</v>
@@ -18949,11 +18958,11 @@
       <c r="A15" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
@@ -18961,9 +18970,9 @@
       <c r="A16" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
@@ -18971,11 +18980,11 @@
       <c r="A17" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="10" t="s">
         <v>302</v>
       </c>
@@ -18987,11 +18996,11 @@
       <c r="A18" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
         <v>306</v>
@@ -19001,11 +19010,11 @@
       <c r="A19" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
@@ -19013,38 +19022,39 @@
       <c r="A20" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -21141,11 +21151,11 @@
       <c r="A3" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3"/>
@@ -22171,11 +22181,11 @@
       <c r="A4" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="11" t="s">
         <v>174</v>
       </c>
@@ -23205,11 +23215,11 @@
       <c r="A5" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="11" t="s">
         <v>202</v>
       </c>
@@ -24237,11 +24247,11 @@
       <c r="A6" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="11" t="s">
         <v>320</v>
       </c>
@@ -25269,11 +25279,11 @@
       <c r="A7" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="12"/>
       <c r="F7" s="10" t="s">
         <v>323</v>
@@ -26301,11 +26311,11 @@
       <c r="A8" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>326</v>
       </c>
@@ -27335,11 +27345,11 @@
       <c r="A9" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9"/>
@@ -28365,11 +28375,11 @@
       <c r="A10" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="10" t="s">
         <v>332</v>
       </c>
@@ -29399,11 +29409,11 @@
       <c r="A11" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="11" t="s">
         <v>407</v>
       </c>
@@ -30433,11 +30443,11 @@
       <c r="A12" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="10" t="s">
         <v>222</v>
       </c>
@@ -31467,11 +31477,11 @@
       <c r="A13" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="12"/>
       <c r="F13" s="10" t="s">
         <v>340</v>
@@ -32499,11 +32509,11 @@
       <c r="A14" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="16" t="s">
         <v>411</v>
       </c>
@@ -33531,11 +33541,11 @@
       <c r="A15" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="11" t="s">
         <v>412</v>
       </c>
@@ -33545,11 +33555,11 @@
       <c r="A16" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="11" t="s">
         <v>347</v>
       </c>
@@ -33559,11 +33569,11 @@
       <c r="A17" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="11" t="s">
         <v>413</v>
       </c>
@@ -33573,11 +33583,11 @@
       <c r="A18" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="10" t="s">
         <v>222</v>
       </c>
@@ -33587,16 +33597,6 @@
     <row r="20" spans="1:6" ht="48.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
@@ -33606,7 +33606,18 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PaediatricDosage.xlsx
+++ b/PaediatricDosage.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1818,13 +1818,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1835,35 +1844,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2162,7 +2162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -2189,123 +2189,123 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="28">
         <v>60</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="28">
         <v>80</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="28">
         <v>100</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="28">
         <v>120</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="28">
         <v>140</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="28">
         <v>150</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="25" t="s">
@@ -2381,21 +2381,21 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
@@ -2431,14 +2431,24 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="A26:C28"/>
     <mergeCell ref="A33:C33"/>
@@ -2447,16 +2457,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2468,7 +2468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2614,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:D25"/>
+    <sheetView windowProtection="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2628,68 +2628,76 @@
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+    <row r="5" spans="1:6" ht="44.25" customHeight="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="33"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="27"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="26"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="27"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="26"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="31"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="34"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2697,7 +2705,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -2705,7 +2713,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -2738,29 +2746,29 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="32"/>
+      <c r="A22" s="29"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="34"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="33"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="21" t="s">
         <v>62</v>
       </c>
@@ -2781,29 +2789,29 @@
       <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="F25" s="27"/>
+      <c r="F25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A1:F2"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:C5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2816,8 +2824,8 @@
   <dimension ref="A1:AMK15"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2832,38 +2840,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="35"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="19" t="s">
         <v>65</v>
       </c>
@@ -2878,31 +2886,31 @@
       <c r="B4" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>385</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="F4" s="38"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="37"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
@@ -2923,11 +2931,11 @@
       <c r="A7" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="11" t="s">
         <v>399</v>
       </c>
@@ -2957,11 +2965,11 @@
       <c r="A9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="11" t="s">
         <v>390</v>
       </c>
@@ -2989,11 +2997,11 @@
       <c r="A11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="12" t="s">
         <v>392</v>
       </c>
@@ -3028,35 +3036,45 @@
         <v>89</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="41"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="39.75" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="10"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B7:D7"/>
@@ -3065,16 +3083,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3087,8 +3095,8 @@
   <dimension ref="A1:AMK16"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3103,31 +3111,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="35"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
@@ -3151,10 +3159,10 @@
       <c r="B4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
         <v>97</v>
@@ -3164,10 +3172,10 @@
       <c r="A5" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="14" t="s">
         <v>100</v>
       </c>
@@ -3200,15 +3208,15 @@
       <c r="A7" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="41" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:6" ht="24">
       <c r="A8" s="11" t="s">
@@ -3228,11 +3236,11 @@
       <c r="A9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="11" t="s">
         <v>398</v>
       </c>
@@ -3244,11 +3252,11 @@
       <c r="A10" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="11" t="s">
         <v>399</v>
       </c>
@@ -3260,11 +3268,11 @@
       <c r="A11" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="11" t="s">
         <v>400</v>
       </c>
@@ -3276,11 +3284,11 @@
       <c r="A12" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="11" t="s">
         <v>400</v>
       </c>
@@ -3292,11 +3300,11 @@
       <c r="A13" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24" t="s">
         <v>126</v>
@@ -3306,23 +3314,23 @@
       <c r="A14" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" ht="24">
       <c r="A15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="14" t="s">
         <v>400</v>
       </c>
@@ -3334,11 +3342,11 @@
       <c r="A16" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="10" t="s">
         <v>133</v>
       </c>
@@ -3348,23 +3356,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3377,8 +3385,8 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19:D19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3393,31 +3401,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="35"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
@@ -3438,11 +3446,11 @@
       <c r="A4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="11" t="s">
         <v>402</v>
       </c>
@@ -3454,11 +3462,11 @@
       <c r="A5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="10" t="s">
         <v>140</v>
       </c>
@@ -3468,11 +3476,11 @@
       <c r="A6" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="11" t="s">
         <v>414</v>
       </c>
@@ -3484,11 +3492,11 @@
       <c r="A7" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="15" t="s">
         <v>146</v>
       </c>
@@ -3500,11 +3508,11 @@
       <c r="A8" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="11" t="s">
         <v>403</v>
       </c>
@@ -3516,11 +3524,11 @@
       <c r="A9" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="12"/>
       <c r="F9" s="11" t="s">
         <v>415</v>
@@ -3530,11 +3538,11 @@
       <c r="A10" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="12"/>
       <c r="F10" s="11" t="s">
         <v>416</v>
@@ -3544,11 +3552,11 @@
       <c r="A11" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="11" t="s">
         <v>400</v>
       </c>
@@ -3578,11 +3586,11 @@
       <c r="A13" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="10" t="s">
         <v>163</v>
       </c>
@@ -3594,11 +3602,11 @@
       <c r="A14" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="11" t="s">
         <v>399</v>
       </c>
@@ -3638,11 +3646,11 @@
       <c r="A17" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="10" t="s">
         <v>174</v>
       </c>
@@ -3652,11 +3660,11 @@
       <c r="A18" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="38" t="s">
         <v>420</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="11" t="s">
         <v>402</v>
       </c>
@@ -3666,11 +3674,11 @@
       <c r="A19" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="11" t="s">
         <v>402</v>
       </c>
@@ -3682,11 +3690,11 @@
       <c r="A20" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="11" t="s">
         <v>399</v>
       </c>
@@ -3694,6 +3702,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
@@ -3702,16 +3720,6 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3724,8 +3732,8 @@
   <dimension ref="A1:AMK25"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18:D18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3740,31 +3748,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="35"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
@@ -3788,10 +3796,10 @@
       <c r="B4" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="10" t="s">
         <v>185</v>
       </c>
@@ -3803,11 +3811,11 @@
       <c r="A5" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="11" t="s">
         <v>422</v>
       </c>
@@ -3819,11 +3827,11 @@
       <c r="A6" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="10" t="s">
         <v>191</v>
       </c>
@@ -3835,11 +3843,11 @@
       <c r="A7" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="43" t="s">
         <v>423</v>
       </c>
@@ -3849,11 +3857,11 @@
       <c r="A8" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="10" t="s">
         <v>133</v>
       </c>
@@ -3870,28 +3878,28 @@
       <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="35"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="19" t="s">
         <v>65</v>
       </c>
@@ -3903,11 +3911,11 @@
       <c r="A12" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="10" t="s">
         <v>202</v>
       </c>
@@ -3916,30 +3924,30 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="38" t="s">
         <v>204</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="38" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="F13" s="41"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" ht="52.5" customHeight="1">
       <c r="A15" s="10" t="s">
@@ -3948,10 +3956,10 @@
       <c r="B15" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="10" t="s">
         <v>174</v>
       </c>
@@ -3963,11 +3971,11 @@
       <c r="A16" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="11" t="s">
         <v>191</v>
       </c>
@@ -3979,11 +3987,11 @@
       <c r="A17" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="10" t="s">
         <v>191</v>
       </c>
@@ -3995,11 +4003,11 @@
       <c r="A18" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="11" t="s">
         <v>218</v>
       </c>
@@ -4032,24 +4040,24 @@
       <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="36"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="19" t="s">
         <v>65</v>
       </c>
@@ -4061,11 +4069,11 @@
       <c r="A24" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="10" t="s">
         <v>222</v>
       </c>
@@ -4077,11 +4085,11 @@
       <c r="A25" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="10" t="s">
         <v>202</v>
       </c>
@@ -4091,37 +4099,37 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A19:F21"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A19:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4134,8 +4142,8 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22:D22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4149,34 +4157,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="19" t="s">
         <v>65</v>
       </c>
@@ -4188,11 +4196,11 @@
       <c r="A4" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="11" t="s">
         <v>405</v>
       </c>
@@ -4204,11 +4212,11 @@
       <c r="A5" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="10" t="s">
         <v>202</v>
       </c>
@@ -4243,24 +4251,24 @@
       <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="19" t="s">
         <v>65</v>
       </c>
@@ -4272,11 +4280,11 @@
       <c r="A11" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="10" t="s">
         <v>237</v>
       </c>
@@ -4288,11 +4296,11 @@
       <c r="A12" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="12"/>
       <c r="F12" s="10" t="s">
         <v>241</v>
@@ -4302,11 +4310,11 @@
       <c r="A13" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
@@ -4314,11 +4322,11 @@
       <c r="A14" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="11" t="s">
         <v>406</v>
       </c>
@@ -4330,11 +4338,11 @@
       <c r="A15" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="11" t="s">
         <v>407</v>
       </c>
@@ -4344,11 +4352,11 @@
       <c r="A16" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="10" t="s">
         <v>174</v>
       </c>
@@ -4358,11 +4366,11 @@
       <c r="A17" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="12"/>
       <c r="F17" s="10" t="s">
         <v>252</v>
@@ -4372,11 +4380,11 @@
       <c r="A18" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="12"/>
       <c r="F18" s="11" t="s">
         <v>255</v>
@@ -4386,11 +4394,11 @@
       <c r="A19" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
@@ -4398,11 +4406,11 @@
       <c r="A20" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="10" t="s">
         <v>260</v>
       </c>
@@ -4414,11 +4422,11 @@
       <c r="A21" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="11" t="s">
         <v>408</v>
       </c>
@@ -4428,11 +4436,11 @@
       <c r="A22" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="10" t="s">
         <v>263</v>
       </c>
@@ -4442,6 +4450,21 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A6:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B16:D16"/>
@@ -4449,21 +4472,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A6:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6562,11 +6570,11 @@
       <c r="A3" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="11" t="s">
         <v>266</v>
       </c>
@@ -7596,11 +7604,11 @@
       <c r="A4" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="11" t="s">
         <v>400</v>
       </c>
@@ -8630,11 +8638,11 @@
       <c r="A5" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="11" t="s">
         <v>431</v>
       </c>
@@ -9664,11 +9672,11 @@
       <c r="A6" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="11" t="s">
         <v>409</v>
       </c>
@@ -10696,11 +10704,11 @@
       <c r="A7" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="12"/>
       <c r="F7" s="10" t="s">
         <v>66</v>
@@ -11728,11 +11736,11 @@
       <c r="A8" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="10" t="s">
         <v>279</v>
       </c>
@@ -12762,11 +12770,11 @@
       <c r="A9" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="11" t="s">
         <v>410</v>
       </c>
@@ -13794,11 +13802,11 @@
       <c r="A10" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>433</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="10" t="s">
         <v>283</v>
       </c>
@@ -14828,11 +14836,11 @@
       <c r="A11" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="12"/>
       <c r="F11" s="10" t="s">
         <v>287</v>
@@ -15860,11 +15868,11 @@
       <c r="A12" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="12"/>
       <c r="F12" s="10" t="s">
         <v>290</v>
@@ -16892,11 +16900,11 @@
       <c r="A13" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="10" t="s">
         <v>174</v>
       </c>
@@ -17926,11 +17934,11 @@
       <c r="A14" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="12"/>
       <c r="F14" s="10" t="s">
         <v>296</v>
@@ -18958,11 +18966,11 @@
       <c r="A15" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
@@ -18970,9 +18978,9 @@
       <c r="A16" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
@@ -18980,11 +18988,11 @@
       <c r="A17" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="10" t="s">
         <v>302</v>
       </c>
@@ -18996,11 +19004,11 @@
       <c r="A18" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
         <v>306</v>
@@ -19010,11 +19018,11 @@
       <c r="A19" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
@@ -19022,37 +19030,37 @@
       <c r="A20" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -21151,11 +21159,11 @@
       <c r="A3" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3"/>
@@ -22181,11 +22189,11 @@
       <c r="A4" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="11" t="s">
         <v>174</v>
       </c>
@@ -23215,11 +23223,11 @@
       <c r="A5" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="11" t="s">
         <v>202</v>
       </c>
@@ -24247,11 +24255,11 @@
       <c r="A6" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="11" t="s">
         <v>320</v>
       </c>
@@ -25279,11 +25287,11 @@
       <c r="A7" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="12"/>
       <c r="F7" s="10" t="s">
         <v>323</v>
@@ -26311,11 +26319,11 @@
       <c r="A8" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="10" t="s">
         <v>326</v>
       </c>
@@ -27345,11 +27353,11 @@
       <c r="A9" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9"/>
@@ -28375,11 +28383,11 @@
       <c r="A10" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="10" t="s">
         <v>332</v>
       </c>
@@ -29409,11 +29417,11 @@
       <c r="A11" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="11" t="s">
         <v>407</v>
       </c>
@@ -30443,11 +30451,11 @@
       <c r="A12" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="10" t="s">
         <v>222</v>
       </c>
@@ -31477,11 +31485,11 @@
       <c r="A13" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="12"/>
       <c r="F13" s="10" t="s">
         <v>340</v>
@@ -32509,11 +32517,11 @@
       <c r="A14" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="16" t="s">
         <v>411</v>
       </c>
@@ -33541,11 +33549,11 @@
       <c r="A15" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="11" t="s">
         <v>412</v>
       </c>
@@ -33555,11 +33563,11 @@
       <c r="A16" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="11" t="s">
         <v>347</v>
       </c>
@@ -33569,11 +33577,11 @@
       <c r="A17" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="11" t="s">
         <v>413</v>
       </c>
@@ -33583,11 +33591,11 @@
       <c r="A18" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="10" t="s">
         <v>222</v>
       </c>
@@ -33597,6 +33605,16 @@
     <row r="20" spans="1:6" ht="48.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
@@ -33606,16 +33624,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/PaediatricDosage.xlsx
+++ b/PaediatricDosage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Medical PC\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Medical PC\git\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -687,9 +687,6 @@
   </si>
   <si>
     <t>Ofloxacin</t>
-  </si>
-  <si>
-    <t>Pivmacillanum</t>
   </si>
   <si>
     <t>50 mg/kg/day, 6hourly, I/V, I/M or oral</t>
@@ -1647,6 +1644,9 @@
   <si>
     <t>5 mg/tsf,
 25 mg/amp</t>
+  </si>
+  <si>
+    <t>Pivmecillanam</t>
   </si>
 </sst>
 </file>
@@ -1818,13 +1818,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1835,35 +1844,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2189,123 +2189,123 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>60</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>80</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>100</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>120</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>140</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>150</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="25" t="s">
@@ -2358,7 +2358,7 @@
         <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2381,21 +2381,21 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
@@ -2431,24 +2431,14 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="A26:C28"/>
     <mergeCell ref="A33:C33"/>
@@ -2457,6 +2447,16 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2468,7 +2468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
+    <sheetView windowProtection="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2480,7 +2480,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" s="46"/>
     </row>
@@ -2490,42 +2490,42 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2533,39 +2533,39 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2573,31 +2573,31 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -2614,7 +2614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
@@ -2629,68 +2629,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="A3" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="44.25" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="26"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="26"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="34"/>
+      <c r="A12" s="30"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
@@ -2739,36 +2739,36 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="29"/>
+      <c r="A22" s="32"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="30"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="21" t="s">
         <v>62</v>
       </c>
@@ -2789,29 +2789,29 @@
       <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="F25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="F25" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:C5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A1:F2"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A3:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A1:F2"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2825,7 +2825,7 @@
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2840,38 +2840,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="41"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="19" t="s">
         <v>65</v>
       </c>
@@ -2884,33 +2884,33 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="39"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
@@ -2929,23 +2929,23 @@
     </row>
     <row r="7" spans="1:6" ht="54" customHeight="1">
       <c r="A7" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>387</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="36">
       <c r="A8" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>74</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>76</v>
@@ -2965,13 +2965,13 @@
       <c r="A9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -2987,26 +2987,26 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>392</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="182.25" customHeight="1">
@@ -3022,7 +3022,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24">
@@ -3036,45 +3036,35 @@
         <v>89</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6" ht="39.75" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="10"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B7:D7"/>
@@ -3083,6 +3073,16 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3111,31 +3111,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="41"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
@@ -3159,10 +3159,10 @@
       <c r="B4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
         <v>97</v>
@@ -3172,10 +3172,10 @@
       <c r="A5" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="14" t="s">
         <v>100</v>
       </c>
@@ -3192,13 +3192,13 @@
         <v>103</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>104</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>105</v>
@@ -3208,15 +3208,15 @@
       <c r="A7" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="38" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:6" ht="24">
       <c r="A8" s="11" t="s">
@@ -3236,13 +3236,13 @@
       <c r="A9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>114</v>
@@ -3252,13 +3252,13 @@
       <c r="A10" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>117</v>
@@ -3268,13 +3268,13 @@
       <c r="A11" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>120</v>
@@ -3284,13 +3284,13 @@
       <c r="A12" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>123</v>
@@ -3300,11 +3300,11 @@
       <c r="A13" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24" t="s">
         <v>126</v>
@@ -3314,25 +3314,25 @@
       <c r="A14" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="B14" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" ht="24">
       <c r="A15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>130</v>
@@ -3342,11 +3342,11 @@
       <c r="A16" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="10" t="s">
         <v>133</v>
       </c>
@@ -3356,23 +3356,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3384,9 +3384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3401,31 +3401,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="41"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
@@ -3446,13 +3446,13 @@
       <c r="A4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>137</v>
@@ -3462,11 +3462,11 @@
       <c r="A5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="10" t="s">
         <v>140</v>
       </c>
@@ -3476,13 +3476,13 @@
       <c r="A6" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>143</v>
@@ -3492,11 +3492,11 @@
       <c r="A7" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="15" t="s">
         <v>146</v>
       </c>
@@ -3508,13 +3508,13 @@
       <c r="A8" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>150</v>
@@ -3524,41 +3524,41 @@
       <c r="A9" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="12"/>
       <c r="F9" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24">
       <c r="A10" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="B10" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="12"/>
       <c r="F10" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>156</v>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>160</v>
@@ -3586,29 +3586,29 @@
       <c r="A13" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="10" t="s">
         <v>163</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>164</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="16" spans="1:6" ht="29.25" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>169</v>
@@ -3646,11 +3646,11 @@
       <c r="A17" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="10" t="s">
         <v>174</v>
       </c>
@@ -3660,58 +3660,48 @@
       <c r="A18" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="B18" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="24">
       <c r="A19" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24">
       <c r="A20" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
@@ -3720,6 +3710,16 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3748,31 +3748,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="A1" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="41"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
@@ -3791,77 +3791,77 @@
     </row>
     <row r="4" spans="1:6" ht="34.9" customHeight="1">
       <c r="A4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32.25" customHeight="1">
       <c r="A5" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1">
       <c r="A7" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>133</v>
       </c>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="9" spans="1:6" ht="47.25" customHeight="1">
       <c r="A9" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -3878,28 +3878,28 @@
       <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="41"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="19" t="s">
         <v>65</v>
       </c>
@@ -3909,113 +3909,113 @@
     </row>
     <row r="12" spans="1:6" ht="45.75" customHeight="1">
       <c r="A12" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="F13" s="38"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" ht="52.5" customHeight="1">
       <c r="A15" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="10" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1">
       <c r="A16" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="38.25" customHeight="1">
       <c r="A17" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45.75" customHeight="1">
       <c r="A18" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -4040,24 +4040,24 @@
       <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="40"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="41"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="19" t="s">
         <v>65</v>
       </c>
@@ -4067,69 +4067,69 @@
     </row>
     <row r="24" spans="1:6" ht="96">
       <c r="A24" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="33.75" customHeight="1">
       <c r="A25" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A19:F21"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A19:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4157,34 +4157,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="A1" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="41"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="19" t="s">
         <v>65</v>
       </c>
@@ -4194,39 +4194,39 @@
     </row>
     <row r="4" spans="1:6" ht="48.75" customHeight="1">
       <c r="A4" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1">
       <c r="A5" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -4251,24 +4251,24 @@
       <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="40"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="41"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="19" t="s">
         <v>65</v>
       </c>
@@ -4278,85 +4278,85 @@
     </row>
     <row r="11" spans="1:6" ht="37.5" customHeight="1">
       <c r="A11" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="49.5" customHeight="1">
       <c r="A12" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="12"/>
       <c r="F12" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1">
       <c r="A13" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="40.5" customHeight="1">
       <c r="A14" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24">
       <c r="A15" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="17.25" customHeight="1">
       <c r="A16" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="10" t="s">
         <v>174</v>
       </c>
@@ -4364,107 +4364,92 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="12"/>
       <c r="F17" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="37.5" customHeight="1">
       <c r="A18" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="12"/>
       <c r="F18" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="10" t="s">
-        <v>260</v>
-      </c>
       <c r="F20" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60.75" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+        <v>260</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="87.75" customHeight="1">
       <c r="A22" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A6:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B16:D16"/>
@@ -4472,6 +4457,21 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A6:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6568,18 +6568,18 @@
     </row>
     <row r="3" spans="1:1024" ht="37.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="B3" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>267</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -7602,18 +7602,18 @@
     </row>
     <row r="4" spans="1:1024" ht="27" customHeight="1">
       <c r="A4" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>269</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -8636,18 +8636,18 @@
     </row>
     <row r="5" spans="1:1024" ht="26.25" customHeight="1">
       <c r="A5" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>272</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -9670,15 +9670,15 @@
     </row>
     <row r="6" spans="1:1024" ht="64.5" customHeight="1">
       <c r="A6" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6"/>
@@ -10702,13 +10702,13 @@
     </row>
     <row r="7" spans="1:1024">
       <c r="A7" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="12"/>
       <c r="F7" s="10" t="s">
         <v>66</v>
@@ -11734,18 +11734,18 @@
     </row>
     <row r="8" spans="1:1024" ht="26.25" customHeight="1">
       <c r="A8" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="10" t="s">
-        <v>279</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -12768,15 +12768,15 @@
     </row>
     <row r="9" spans="1:1024" ht="24">
       <c r="A9" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9"/>
@@ -13800,18 +13800,18 @@
     </row>
     <row r="10" spans="1:1024" ht="49.5" customHeight="1">
       <c r="A10" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -14834,16 +14834,16 @@
     </row>
     <row r="11" spans="1:1024" ht="26.25" customHeight="1">
       <c r="A11" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="12"/>
       <c r="F11" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -15866,16 +15866,16 @@
     </row>
     <row r="12" spans="1:1024" ht="37.5" customHeight="1">
       <c r="A12" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="12"/>
       <c r="F12" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -16898,18 +16898,18 @@
     </row>
     <row r="13" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A13" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="10" t="s">
         <v>174</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -17932,16 +17932,16 @@
     </row>
     <row r="14" spans="1:1024">
       <c r="A14" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="12"/>
       <c r="F14" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -18964,103 +18964,103 @@
     </row>
     <row r="15" spans="1:1024" ht="26.25" customHeight="1">
       <c r="A15" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:1024">
       <c r="A16" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+        <v>298</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="38.25" customHeight="1">
       <c r="A19" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="39" customHeight="1">
       <c r="A20" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -21157,13 +21157,13 @@
     </row>
     <row r="3" spans="1:1024" ht="25.35" customHeight="1">
       <c r="A3" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3"/>
@@ -22187,18 +22187,18 @@
     </row>
     <row r="4" spans="1:1024" ht="17.25" customHeight="1">
       <c r="A4" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="11" t="s">
         <v>174</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -23221,15 +23221,15 @@
     </row>
     <row r="5" spans="1:1024" ht="17.25" customHeight="1">
       <c r="A5" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5"/>
@@ -24253,15 +24253,15 @@
     </row>
     <row r="6" spans="1:1024" ht="39" customHeight="1">
       <c r="A6" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="11" t="s">
         <v>319</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="11" t="s">
-        <v>320</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6"/>
@@ -25285,16 +25285,16 @@
     </row>
     <row r="7" spans="1:1024">
       <c r="A7" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="12"/>
       <c r="F7" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -26317,18 +26317,18 @@
     </row>
     <row r="8" spans="1:1024" ht="20.25" customHeight="1">
       <c r="A8" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -27351,13 +27351,13 @@
     </row>
     <row r="9" spans="1:1024" ht="30" customHeight="1">
       <c r="A9" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9"/>
@@ -28381,18 +28381,18 @@
     </row>
     <row r="10" spans="1:1024" ht="25.35" customHeight="1">
       <c r="A10" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>333</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -29415,18 +29415,18 @@
     </row>
     <row r="11" spans="1:1024" ht="24.6" customHeight="1">
       <c r="A11" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -30449,18 +30449,18 @@
     </row>
     <row r="12" spans="1:1024" ht="35.65" customHeight="1">
       <c r="A12" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -31483,16 +31483,16 @@
     </row>
     <row r="13" spans="1:1024" ht="18.95" customHeight="1">
       <c r="A13" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="12"/>
       <c r="F13" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -32515,15 +32515,15 @@
     </row>
     <row r="14" spans="1:1024" ht="24.75" customHeight="1">
       <c r="A14" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14"/>
@@ -33547,57 +33547,57 @@
     </row>
     <row r="15" spans="1:1024" ht="35.65" customHeight="1">
       <c r="A15" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:1024" ht="23.65" customHeight="1">
       <c r="A16" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="23.65" customHeight="1">
       <c r="A17" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -33605,16 +33605,6 @@
     <row r="20" spans="1:6" ht="48.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
@@ -33624,6 +33614,16 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
